--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C8A725-DDE7-481B-AFC7-79BBF6FFD236}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6684B80C-F1E9-4865-804A-BAF05A0AD27B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="7" r:id="rId2"/>
     <sheet name="reg" sheetId="2" r:id="rId3"/>
-    <sheet name="visit" sheetId="8" r:id="rId4"/>
-    <sheet name="vac" sheetId="9" r:id="rId5"/>
-    <sheet name="fal" sheetId="10" r:id="rId6"/>
-    <sheet name="queries" sheetId="6" r:id="rId7"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId8"/>
-    <sheet name="choices" sheetId="3" r:id="rId9"/>
-    <sheet name="model" sheetId="4" r:id="rId10"/>
+    <sheet name="parto" sheetId="11" r:id="rId4"/>
+    <sheet name="visit" sheetId="8" r:id="rId5"/>
+    <sheet name="vac" sheetId="9" r:id="rId6"/>
+    <sheet name="fal" sheetId="10" r:id="rId7"/>
+    <sheet name="queries" sheetId="6" r:id="rId8"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId9"/>
+    <sheet name="choices" sheetId="3" r:id="rId10"/>
+    <sheet name="model" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="814">
   <si>
     <t>setting_name</t>
   </si>
@@ -1371,9 +1372,6 @@
     <t>polio1ng</t>
   </si>
   <si>
-    <t>data('polio1ng') != null</t>
-  </si>
-  <si>
     <t>POLIO1CHECK</t>
   </si>
   <si>
@@ -1404,9 +1402,6 @@
     <t>pcv1ng</t>
   </si>
   <si>
-    <t>data('pcv1ng') != null</t>
-  </si>
-  <si>
     <t>PCV1CHECK</t>
   </si>
   <si>
@@ -1437,9 +1432,6 @@
     <t>rox1ng</t>
   </si>
   <si>
-    <t>data('rox1ng') != null</t>
-  </si>
-  <si>
     <t>ROX1CHECK</t>
   </si>
   <si>
@@ -1527,9 +1519,6 @@
     <t>polio2ng</t>
   </si>
   <si>
-    <t>data('polio2ng') != null</t>
-  </si>
-  <si>
     <t>POLIO2CHECK</t>
   </si>
   <si>
@@ -1560,9 +1549,6 @@
     <t>pcv2ng</t>
   </si>
   <si>
-    <t>data('pcv2ng') != null</t>
-  </si>
-  <si>
     <t>PCV2CHECK</t>
   </si>
   <si>
@@ -1593,9 +1579,6 @@
     <t>rox2ng</t>
   </si>
   <si>
-    <t>data('rox2ng') != null</t>
-  </si>
-  <si>
     <t>ROX2CHECK</t>
   </si>
   <si>
@@ -1683,9 +1666,6 @@
     <t>polio3ng</t>
   </si>
   <si>
-    <t>data('polio3ng') != null</t>
-  </si>
-  <si>
     <t>POLIO3CHECK</t>
   </si>
   <si>
@@ -1716,9 +1696,6 @@
     <t>pcv3ng</t>
   </si>
   <si>
-    <t>data('pcv3ng') != null</t>
-  </si>
-  <si>
     <t>PCV3CHECK</t>
   </si>
   <si>
@@ -1749,9 +1726,6 @@
     <t>vping</t>
   </si>
   <si>
-    <t>data('vping') != null</t>
-  </si>
-  <si>
     <t>VPICHECK</t>
   </si>
   <si>
@@ -2431,6 +2405,90 @@
   </si>
   <si>
     <t>[data('REGID')]</t>
+  </si>
+  <si>
+    <t>do section parto</t>
+  </si>
+  <si>
+    <t>data('polio1ng') == "1"</t>
+  </si>
+  <si>
+    <t>data('polio1ng') == "2"</t>
+  </si>
+  <si>
+    <t>data('PENTA1')</t>
+  </si>
+  <si>
+    <t>data('pcv1ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('pcv1ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('rox1ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('rox1ng') == '2'</t>
+  </si>
+  <si>
+    <t>notgivensamep1</t>
+  </si>
+  <si>
+    <t>notgivensamep2</t>
+  </si>
+  <si>
+    <t>notgivensamep3</t>
+  </si>
+  <si>
+    <t>Same as PENTA1</t>
+  </si>
+  <si>
+    <t>Same as PENTA2</t>
+  </si>
+  <si>
+    <t>Same as PENTA3</t>
+  </si>
+  <si>
+    <t>data('polio2ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('polio2ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('PENTA2')</t>
+  </si>
+  <si>
+    <t>data('pcv2ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('pcv2ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('rox2ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('rox2ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('PENTA3')</t>
+  </si>
+  <si>
+    <t>data('polio3ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('polio3ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('pcv3ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('pcv3ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('vping') == '1'</t>
+  </si>
+  <si>
+    <t>data('vping') == '2'</t>
   </si>
 </sst>
 </file>
@@ -3145,6 +3203,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
+  <dimension ref="A1:D90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75:D79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"88"</f>
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>723</v>
+      </c>
+      <c r="D41" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>725</v>
+      </c>
+      <c r="D42" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>727</v>
+      </c>
+      <c r="D43" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>729</v>
+      </c>
+      <c r="D44" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>731</v>
+      </c>
+      <c r="D45" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>733</v>
+      </c>
+      <c r="D46" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" t="s">
+        <v>735</v>
+      </c>
+      <c r="D47" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" t="s">
+        <v>737</v>
+      </c>
+      <c r="D48" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" t="s">
+        <v>739</v>
+      </c>
+      <c r="D49" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" t="s">
+        <v>740</v>
+      </c>
+      <c r="D50" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>742</v>
+      </c>
+      <c r="D51" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>744</v>
+      </c>
+      <c r="D52" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>747</v>
+      </c>
+      <c r="D54" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>749</v>
+      </c>
+      <c r="D55" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>751</v>
+      </c>
+      <c r="D56" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>753</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>325</v>
+      </c>
+      <c r="B59" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>754</v>
+      </c>
+      <c r="D59" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>325</v>
+      </c>
+      <c r="B60" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>756</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>344</v>
+      </c>
+      <c r="B62" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>641</v>
+      </c>
+      <c r="D62" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>647</v>
+      </c>
+      <c r="D63" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>655</v>
+      </c>
+      <c r="D64" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B65" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>660</v>
+      </c>
+      <c r="D65" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B66" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>666</v>
+      </c>
+      <c r="D66" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>757</v>
+      </c>
+      <c r="D67" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>758</v>
+      </c>
+      <c r="B69" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>758</v>
+      </c>
+      <c r="B70" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>400</v>
+      </c>
+      <c r="B71" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>759</v>
+      </c>
+      <c r="D71" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>400</v>
+      </c>
+      <c r="B72" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>761</v>
+      </c>
+      <c r="D72" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>400</v>
+      </c>
+      <c r="B73" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>396</v>
+      </c>
+      <c r="B74" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>794</v>
+      </c>
+      <c r="B75" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>794</v>
+      </c>
+      <c r="B76" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>795</v>
+      </c>
+      <c r="B77" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>795</v>
+      </c>
+      <c r="B78" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>796</v>
+      </c>
+      <c r="B79" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>796</v>
+      </c>
+      <c r="B80" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>764</v>
+      </c>
+      <c r="D82" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>765</v>
+      </c>
+      <c r="D83" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>766</v>
+      </c>
+      <c r="D84" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>592</v>
+      </c>
+      <c r="B87" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>592</v>
+      </c>
+      <c r="B88" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>767</v>
+      </c>
+      <c r="D88" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>592</v>
+      </c>
+      <c r="B89" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>592</v>
+      </c>
+      <c r="B90" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C218"/>
   <sheetViews>
@@ -4086,7 +5492,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
@@ -4097,7 +5503,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
@@ -4108,7 +5514,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -4119,7 +5525,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -4174,7 +5580,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B100" t="s">
         <v>120</v>
@@ -4185,7 +5591,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>108</v>
@@ -4196,7 +5602,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
@@ -4207,7 +5613,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>343</v>
@@ -4218,7 +5624,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B104" t="s">
         <v>120</v>
@@ -4240,7 +5646,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
@@ -4251,7 +5657,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>343</v>
@@ -4262,7 +5668,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B108" t="s">
         <v>120</v>
@@ -4273,7 +5679,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>108</v>
@@ -4284,7 +5690,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
@@ -4295,7 +5701,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>343</v>
@@ -4306,7 +5712,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B112" t="s">
         <v>120</v>
@@ -4317,7 +5723,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>108</v>
@@ -4328,7 +5734,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
@@ -4339,7 +5745,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>343</v>
@@ -4394,7 +5800,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
@@ -4405,7 +5811,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>108</v>
@@ -4416,7 +5822,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
@@ -4427,7 +5833,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>343</v>
@@ -4438,7 +5844,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B124" t="s">
         <v>120</v>
@@ -4449,7 +5855,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>108</v>
@@ -4460,7 +5866,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
@@ -4471,7 +5877,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>343</v>
@@ -4504,7 +5910,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
@@ -4526,7 +5932,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B132" t="s">
         <v>120</v>
@@ -4537,7 +5943,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>108</v>
@@ -4548,7 +5954,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
@@ -4559,7 +5965,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>343</v>
@@ -4570,7 +5976,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B136" t="s">
         <v>120</v>
@@ -4581,7 +5987,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>108</v>
@@ -4592,7 +5998,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
@@ -4603,7 +6009,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>343</v>
@@ -4658,7 +6064,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B144" t="s">
         <v>120</v>
@@ -4680,7 +6086,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
@@ -4691,7 +6097,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>343</v>
@@ -4702,7 +6108,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B148" t="s">
         <v>120</v>
@@ -4713,7 +6119,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>108</v>
@@ -4724,7 +6130,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B150" t="s">
         <v>22</v>
@@ -4735,7 +6141,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>343</v>
@@ -4746,7 +6152,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B152" t="s">
         <v>120</v>
@@ -4757,7 +6163,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>108</v>
@@ -4768,7 +6174,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B154" t="s">
         <v>22</v>
@@ -4779,7 +6185,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>343</v>
@@ -4790,7 +6196,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B156" t="s">
         <v>120</v>
@@ -4801,7 +6207,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>108</v>
@@ -4812,7 +6218,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="B158" t="s">
         <v>22</v>
@@ -4823,7 +6229,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>343</v>
@@ -4834,7 +6240,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B161" t="s">
         <v>22</v>
@@ -4845,7 +6251,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>72</v>
@@ -4856,7 +6262,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
@@ -4867,7 +6273,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B164" t="s">
         <v>25</v>
@@ -4878,7 +6284,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>72</v>
@@ -4889,7 +6295,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B166" t="s">
         <v>22</v>
@@ -4900,7 +6306,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
@@ -4911,7 +6317,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>72</v>
@@ -4922,7 +6328,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -4933,7 +6339,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
@@ -4944,7 +6350,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
@@ -4955,7 +6361,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
@@ -4966,7 +6372,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>72</v>
@@ -4977,7 +6383,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
@@ -4988,7 +6394,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B175" t="s">
         <v>22</v>
@@ -4999,7 +6405,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>72</v>
@@ -5010,7 +6416,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -5021,7 +6427,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B178" t="s">
         <v>72</v>
@@ -5032,7 +6438,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B179" t="s">
         <v>22</v>
@@ -5043,7 +6449,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>72</v>
@@ -5054,7 +6460,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
@@ -5065,7 +6471,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B182" t="s">
         <v>22</v>
@@ -5076,7 +6482,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>72</v>
@@ -5087,7 +6493,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>72</v>
@@ -5098,7 +6504,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B185" t="s">
         <v>25</v>
@@ -5109,7 +6515,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B186" t="s">
         <v>22</v>
@@ -5120,7 +6526,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B187" t="s">
         <v>22</v>
@@ -5131,7 +6537,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B188" t="s">
         <v>22</v>
@@ -5142,7 +6548,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -5153,7 +6559,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>72</v>
@@ -5164,7 +6570,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>72</v>
@@ -5175,7 +6581,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>72</v>
@@ -5186,7 +6592,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B193" t="s">
         <v>22</v>
@@ -5197,7 +6603,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B194" t="s">
         <v>22</v>
@@ -5208,7 +6614,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B195" t="s">
         <v>22</v>
@@ -5219,7 +6625,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>22</v>
@@ -5230,7 +6636,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B197" t="s">
         <v>72</v>
@@ -5241,7 +6647,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B198" t="s">
         <v>120</v>
@@ -5252,7 +6658,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>72</v>
@@ -5263,7 +6669,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B200" t="s">
         <v>120</v>
@@ -5274,7 +6680,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>72</v>
@@ -5285,7 +6691,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B202" t="s">
         <v>22</v>
@@ -5296,7 +6702,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>72</v>
@@ -5307,7 +6713,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B204" t="s">
         <v>25</v>
@@ -5318,7 +6724,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -5329,7 +6735,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
@@ -5340,7 +6746,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B207" t="s">
         <v>22</v>
@@ -5351,7 +6757,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B208" t="s">
         <v>25</v>
@@ -5362,7 +6768,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>72</v>
@@ -5373,7 +6779,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B210" t="s">
         <v>22</v>
@@ -5384,7 +6790,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>72</v>
@@ -5395,7 +6801,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B212" t="s">
         <v>22</v>
@@ -5406,7 +6812,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B213" t="s">
         <v>25</v>
@@ -5417,7 +6823,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B214" t="s">
         <v>22</v>
@@ -5428,7 +6834,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>72</v>
@@ -5439,7 +6845,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B217" t="s">
         <v>120</v>
@@ -5450,7 +6856,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B218" t="s">
         <v>72</v>
@@ -5527,7 +6933,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5557,11 +6963,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5922,500 +7328,18 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>139</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" t="s">
-        <v>147</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>149</v>
-      </c>
-      <c r="G59" t="s">
-        <v>150</v>
-      </c>
-      <c r="H59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" t="s">
-        <v>153</v>
-      </c>
-      <c r="H60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" t="s">
-        <v>158</v>
-      </c>
-      <c r="H66" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" t="s">
-        <v>160</v>
-      </c>
-      <c r="G67" t="s">
-        <v>153</v>
-      </c>
-      <c r="H67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>149</v>
-      </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H74" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" t="s">
-        <v>164</v>
-      </c>
-      <c r="G76" t="s">
-        <v>143</v>
-      </c>
-      <c r="H76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80" t="s">
-        <v>165</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" t="s">
-        <v>167</v>
-      </c>
-      <c r="F83" t="s">
-        <v>168</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
-        <v>170</v>
-      </c>
-      <c r="F86" t="s">
-        <v>171</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6426,6 +7350,561 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
   <dimension ref="A1:M169"/>
   <sheetViews>
@@ -6636,7 +8115,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7351,7 +8830,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="28"/>
       <c r="B89" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -8131,13 +9610,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8678,7 +10157,7 @@
         <v>343</v>
       </c>
       <c r="E58" t="s">
-        <v>396</v>
+        <v>794</v>
       </c>
       <c r="F58" t="s">
         <v>440</v>
@@ -8689,7 +10168,7 @@
         <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>441</v>
+        <v>787</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -8700,7 +10179,7 @@
         <v>437</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -8710,99 +10189,90 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" t="s">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>442</v>
-      </c>
-      <c r="G63" t="s">
-        <v>443</v>
-      </c>
-      <c r="H63" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="I63" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>400</v>
+      </c>
+      <c r="F66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G66" t="s">
+        <v>442</v>
+      </c>
+      <c r="H66" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>88</v>
       </c>
-      <c r="C64" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+      <c r="C67" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>120</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F68" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>126</v>
-      </c>
-      <c r="F67" t="s">
-        <v>437</v>
-      </c>
-      <c r="I67" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
+        <v>437</v>
+      </c>
+      <c r="I70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" t="s">
-        <v>448</v>
-      </c>
-      <c r="G71" t="s">
-        <v>449</v>
-      </c>
-      <c r="H71" t="s">
-        <v>450</v>
-      </c>
-    </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>343</v>
-      </c>
-      <c r="E72" t="s">
-        <v>396</v>
-      </c>
-      <c r="F72" t="s">
-        <v>451</v>
+      <c r="B72" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -8810,87 +10280,102 @@
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F74" t="s">
+        <v>447</v>
+      </c>
+      <c r="G74" t="s">
         <v>448</v>
       </c>
-      <c r="I74" t="s">
-        <v>399</v>
+      <c r="H74" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>103</v>
+      <c r="D75" t="s">
+        <v>343</v>
+      </c>
+      <c r="E75" t="s">
+        <v>794</v>
+      </c>
+      <c r="F75" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s">
-        <v>453</v>
-      </c>
-      <c r="G77" t="s">
-        <v>454</v>
-      </c>
-      <c r="H77" t="s">
-        <v>455</v>
+        <v>447</v>
+      </c>
+      <c r="I77" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C78" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>120</v>
-      </c>
-      <c r="F79" t="s">
-        <v>448</v>
+      <c r="C79" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>127</v>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" t="s">
+        <v>447</v>
+      </c>
+      <c r="I80" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" t="s">
-        <v>448</v>
-      </c>
-      <c r="I81" t="s">
-        <v>457</v>
+      <c r="B81" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>103</v>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>400</v>
+      </c>
+      <c r="F83" t="s">
+        <v>451</v>
+      </c>
+      <c r="G83" t="s">
+        <v>452</v>
+      </c>
+      <c r="H83" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -8898,7 +10383,7 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -8906,43 +10391,28 @@
         <v>120</v>
       </c>
       <c r="F85" t="s">
-        <v>459</v>
-      </c>
-      <c r="G85" t="s">
-        <v>460</v>
-      </c>
-      <c r="H85" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>343</v>
-      </c>
-      <c r="E86" t="s">
-        <v>396</v>
-      </c>
-      <c r="F86" t="s">
-        <v>462</v>
+      <c r="B86" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>463</v>
+      <c r="D87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" t="s">
+        <v>447</v>
+      </c>
+      <c r="I87" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" t="s">
-        <v>459</v>
-      </c>
-      <c r="I88" t="s">
-        <v>399</v>
+      <c r="B88" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -8952,274 +10422,280 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="F91" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G91" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H91" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="D92" t="s">
+        <v>343</v>
+      </c>
+      <c r="E92" t="s">
+        <v>794</v>
+      </c>
+      <c r="F92" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>88</v>
       </c>
-      <c r="C92" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>120</v>
-      </c>
-      <c r="F93" t="s">
-        <v>459</v>
+      <c r="C93" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>127</v>
+      <c r="D94" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" t="s">
+        <v>457</v>
+      </c>
+      <c r="I94" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>126</v>
-      </c>
-      <c r="F95" t="s">
-        <v>459</v>
-      </c>
-      <c r="I95" t="s">
-        <v>468</v>
+      <c r="B95" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" t="s">
+        <v>457</v>
+      </c>
+      <c r="I97" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D98" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E98" t="s">
-        <v>469</v>
-      </c>
-      <c r="F98" t="s">
-        <v>470</v>
-      </c>
-    </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D99" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E99" t="s">
-        <v>471</v>
-      </c>
-      <c r="F99" t="s">
-        <v>472</v>
+      <c r="B99" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D100" s="11" t="s">
-        <v>108</v>
+      <c r="D100" t="s">
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="F100" t="s">
-        <v>474</v>
+        <v>461</v>
+      </c>
+      <c r="G100" t="s">
+        <v>462</v>
+      </c>
+      <c r="H100" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D101" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" t="s">
-        <v>475</v>
-      </c>
-      <c r="F101" t="s">
-        <v>476</v>
+      <c r="B101" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>47</v>
+      <c r="D102" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" t="s">
-        <v>477</v>
+      <c r="D104" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" t="s">
+        <v>457</v>
+      </c>
+      <c r="I104" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>120</v>
-      </c>
-      <c r="F105" t="s">
-        <v>478</v>
-      </c>
-      <c r="G105" t="s">
-        <v>479</v>
-      </c>
-      <c r="H105" t="s">
-        <v>480</v>
+      <c r="B105" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>343</v>
-      </c>
-      <c r="E106" t="s">
-        <v>396</v>
-      </c>
-      <c r="F106" t="s">
-        <v>481</v>
+      <c r="B106" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>88</v>
-      </c>
-      <c r="C107" t="s">
-        <v>482</v>
+      <c r="D107" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" t="s">
+        <v>466</v>
+      </c>
+      <c r="F107" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>126</v>
+      <c r="D108" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" t="s">
+        <v>468</v>
       </c>
       <c r="F108" t="s">
-        <v>478</v>
-      </c>
-      <c r="I108" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>103</v>
+      <c r="D109" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>470</v>
+      </c>
+      <c r="F109" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>127</v>
+      <c r="D110" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>472</v>
+      </c>
+      <c r="F110" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" t="s">
-        <v>400</v>
-      </c>
-      <c r="F111" t="s">
-        <v>483</v>
-      </c>
-      <c r="G111" t="s">
-        <v>484</v>
-      </c>
-      <c r="H111" t="s">
-        <v>485</v>
+      <c r="B111" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>88</v>
       </c>
-      <c r="C112" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
+      <c r="C113" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
         <v>120</v>
       </c>
-      <c r="F113" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>127</v>
+      <c r="F114" t="s">
+        <v>475</v>
+      </c>
+      <c r="G114" t="s">
+        <v>476</v>
+      </c>
+      <c r="H114" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>126</v>
+        <v>343</v>
+      </c>
+      <c r="E115" t="s">
+        <v>396</v>
       </c>
       <c r="F115" t="s">
         <v>478</v>
       </c>
-      <c r="I115" t="s">
-        <v>487</v>
-      </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C116" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>103</v>
+      <c r="D117" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" t="s">
+        <v>475</v>
+      </c>
+      <c r="I117" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" t="s">
-        <v>488</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>120</v>
-      </c>
-      <c r="F119" t="s">
-        <v>489</v>
-      </c>
-      <c r="G119" t="s">
-        <v>490</v>
-      </c>
-      <c r="H119" t="s">
-        <v>491</v>
+      <c r="B119" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>343</v>
+        <v>22</v>
       </c>
       <c r="E120" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F120" t="s">
-        <v>492</v>
+        <v>480</v>
+      </c>
+      <c r="G120" t="s">
+        <v>481</v>
+      </c>
+      <c r="H120" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -9227,324 +10703,321 @@
         <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F122" t="s">
-        <v>489</v>
-      </c>
-      <c r="I122" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" t="s">
+        <v>475</v>
+      </c>
+      <c r="I124" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" t="s">
-        <v>400</v>
-      </c>
-      <c r="F125" t="s">
-        <v>494</v>
-      </c>
-      <c r="G125" t="s">
-        <v>495</v>
-      </c>
-      <c r="H125" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>88</v>
       </c>
-      <c r="C126" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
+      <c r="C127" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
         <v>120</v>
       </c>
-      <c r="F127" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>127</v>
+      <c r="F128" t="s">
+        <v>486</v>
+      </c>
+      <c r="G128" t="s">
+        <v>487</v>
+      </c>
+      <c r="H128" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>126</v>
+        <v>343</v>
+      </c>
+      <c r="E129" t="s">
+        <v>795</v>
       </c>
       <c r="F129" t="s">
         <v>489</v>
       </c>
-      <c r="I129" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C130" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>103</v>
+      <c r="D131" t="s">
+        <v>126</v>
+      </c>
+      <c r="F131" t="s">
+        <v>486</v>
+      </c>
+      <c r="I131" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>88</v>
       </c>
-      <c r="C132" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>120</v>
-      </c>
-      <c r="F133" t="s">
-        <v>500</v>
-      </c>
-      <c r="G133" t="s">
-        <v>501</v>
-      </c>
-      <c r="H133" t="s">
-        <v>502</v>
+      <c r="C133" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>343</v>
-      </c>
-      <c r="E134" t="s">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="F134" t="s">
-        <v>503</v>
+        <v>486</v>
+      </c>
+      <c r="I134" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" t="s">
-        <v>504</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>126</v>
-      </c>
-      <c r="F136" t="s">
-        <v>500</v>
-      </c>
-      <c r="I136" t="s">
-        <v>399</v>
+      <c r="B136" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>103</v>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>400</v>
+      </c>
+      <c r="F137" t="s">
+        <v>490</v>
+      </c>
+      <c r="G137" t="s">
+        <v>491</v>
+      </c>
+      <c r="H137" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="C138" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="F139" t="s">
-        <v>505</v>
-      </c>
-      <c r="G139" t="s">
-        <v>506</v>
-      </c>
-      <c r="H139" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>88</v>
-      </c>
-      <c r="C140" t="s">
-        <v>508</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F141" t="s">
-        <v>500</v>
+        <v>486</v>
+      </c>
+      <c r="I141" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
-        <v>126</v>
-      </c>
-      <c r="F143" t="s">
-        <v>500</v>
-      </c>
-      <c r="I143" t="s">
-        <v>509</v>
+      <c r="B143" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C144" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>103</v>
+      <c r="D145" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" t="s">
+        <v>496</v>
+      </c>
+      <c r="G145" t="s">
+        <v>497</v>
+      </c>
+      <c r="H145" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="D146" t="s">
+        <v>343</v>
+      </c>
+      <c r="E146" t="s">
+        <v>795</v>
+      </c>
+      <c r="F146" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>88</v>
       </c>
-      <c r="C146" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
-        <v>120</v>
-      </c>
-      <c r="F147" t="s">
-        <v>511</v>
-      </c>
-      <c r="G147" t="s">
-        <v>512</v>
-      </c>
-      <c r="H147" t="s">
-        <v>513</v>
+      <c r="C147" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>343</v>
-      </c>
-      <c r="E148" t="s">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="F148" t="s">
-        <v>514</v>
+        <v>496</v>
+      </c>
+      <c r="I148" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>88</v>
       </c>
-      <c r="C149" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
+      <c r="C150" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
         <v>126</v>
       </c>
-      <c r="F150" t="s">
-        <v>511</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="F151" t="s">
+        <v>496</v>
+      </c>
+      <c r="I151" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" t="s">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" t="s">
         <v>400</v>
       </c>
-      <c r="F153" t="s">
-        <v>516</v>
-      </c>
-      <c r="G153" t="s">
-        <v>517</v>
-      </c>
-      <c r="H153" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+      <c r="F154" t="s">
+        <v>500</v>
+      </c>
+      <c r="G154" t="s">
+        <v>501</v>
+      </c>
+      <c r="H154" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>88</v>
       </c>
-      <c r="C154" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
+      <c r="C155" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
         <v>120</v>
       </c>
-      <c r="F155" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+      <c r="F156" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
         <v>126</v>
       </c>
-      <c r="F157" t="s">
-        <v>511</v>
-      </c>
-      <c r="I157" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>103</v>
+      <c r="F158" t="s">
+        <v>496</v>
+      </c>
+      <c r="I158" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -9553,273 +11026,264 @@
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D160" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E160" t="s">
-        <v>521</v>
-      </c>
-      <c r="F160" t="s">
-        <v>522</v>
+      <c r="B160" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D161" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E161" t="s">
-        <v>523</v>
-      </c>
-      <c r="F161" t="s">
-        <v>524</v>
+      <c r="B161" t="s">
+        <v>88</v>
+      </c>
+      <c r="C161" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D162" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E162" t="s">
-        <v>525</v>
+      <c r="D162" t="s">
+        <v>120</v>
       </c>
       <c r="F162" t="s">
-        <v>526</v>
+        <v>506</v>
+      </c>
+      <c r="G162" t="s">
+        <v>507</v>
+      </c>
+      <c r="H162" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D163" s="11" t="s">
-        <v>108</v>
+      <c r="D163" t="s">
+        <v>343</v>
       </c>
       <c r="E163" t="s">
-        <v>527</v>
+        <v>795</v>
       </c>
       <c r="F163" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>47</v>
+        <v>88</v>
+      </c>
+      <c r="C164" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>46</v>
+      <c r="D165" t="s">
+        <v>126</v>
+      </c>
+      <c r="F165" t="s">
+        <v>506</v>
+      </c>
+      <c r="I165" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>88</v>
       </c>
-      <c r="C166" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
-        <v>120</v>
-      </c>
-      <c r="F167" t="s">
-        <v>530</v>
-      </c>
-      <c r="G167" t="s">
-        <v>531</v>
-      </c>
-      <c r="H167" t="s">
-        <v>532</v>
+      <c r="C167" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>343</v>
-      </c>
-      <c r="E168" t="s">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="F168" t="s">
-        <v>533</v>
+        <v>506</v>
+      </c>
+      <c r="I168" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>88</v>
-      </c>
-      <c r="C169" t="s">
-        <v>534</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
-        <v>126</v>
-      </c>
-      <c r="F170" t="s">
-        <v>530</v>
-      </c>
-      <c r="I170" t="s">
-        <v>399</v>
+      <c r="B170" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>103</v>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" t="s">
+        <v>400</v>
+      </c>
+      <c r="F171" t="s">
+        <v>510</v>
+      </c>
+      <c r="G171" t="s">
+        <v>511</v>
+      </c>
+      <c r="H171" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="C172" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>22</v>
-      </c>
-      <c r="E173" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="F173" t="s">
-        <v>535</v>
-      </c>
-      <c r="G173" t="s">
-        <v>536</v>
-      </c>
-      <c r="H173" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>88</v>
-      </c>
-      <c r="C174" t="s">
-        <v>538</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F175" t="s">
-        <v>530</v>
+        <v>506</v>
+      </c>
+      <c r="I175" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D177" t="s">
-        <v>126</v>
-      </c>
-      <c r="F177" t="s">
-        <v>530</v>
-      </c>
-      <c r="I177" t="s">
-        <v>539</v>
+      <c r="B177" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>103</v>
+      <c r="D178" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E178" t="s">
+        <v>515</v>
+      </c>
+      <c r="F178" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>103</v>
+      <c r="D179" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E179" t="s">
+        <v>517</v>
+      </c>
+      <c r="F179" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>88</v>
-      </c>
-      <c r="C180" t="s">
-        <v>540</v>
+      <c r="D180" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E180" t="s">
+        <v>519</v>
+      </c>
+      <c r="F180" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D181" t="s">
-        <v>120</v>
+      <c r="D181" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E181" t="s">
+        <v>521</v>
       </c>
       <c r="F181" t="s">
-        <v>541</v>
-      </c>
-      <c r="G181" t="s">
-        <v>542</v>
-      </c>
-      <c r="H181" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D182" t="s">
-        <v>343</v>
-      </c>
-      <c r="E182" t="s">
-        <v>396</v>
-      </c>
-      <c r="F182" t="s">
-        <v>544</v>
+      <c r="B182" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>88</v>
       </c>
-      <c r="C183" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D184" t="s">
+      <c r="C184" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>120</v>
+      </c>
+      <c r="F185" t="s">
+        <v>524</v>
+      </c>
+      <c r="G185" t="s">
+        <v>525</v>
+      </c>
+      <c r="H185" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>343</v>
+      </c>
+      <c r="E186" t="s">
+        <v>396</v>
+      </c>
+      <c r="F186" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>88</v>
+      </c>
+      <c r="C187" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
         <v>126</v>
       </c>
-      <c r="F184" t="s">
-        <v>541</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="F188" t="s">
+        <v>524</v>
+      </c>
+      <c r="I188" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D187" t="s">
-        <v>22</v>
-      </c>
-      <c r="E187" t="s">
-        <v>400</v>
-      </c>
-      <c r="F187" t="s">
-        <v>546</v>
-      </c>
-      <c r="G187" t="s">
-        <v>547</v>
-      </c>
-      <c r="H187" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>88</v>
-      </c>
-      <c r="C188" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D189" t="s">
-        <v>120</v>
-      </c>
-      <c r="F189" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
@@ -9829,123 +11293,126 @@
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>126</v>
+        <v>22</v>
+      </c>
+      <c r="E191" t="s">
+        <v>400</v>
       </c>
       <c r="F191" t="s">
-        <v>541</v>
-      </c>
-      <c r="I191" t="s">
-        <v>550</v>
+        <v>529</v>
+      </c>
+      <c r="G191" t="s">
+        <v>530</v>
+      </c>
+      <c r="H191" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C192" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>103</v>
+      <c r="D193" t="s">
+        <v>120</v>
+      </c>
+      <c r="F193" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>88</v>
-      </c>
-      <c r="C194" t="s">
-        <v>551</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F195" t="s">
-        <v>552</v>
-      </c>
-      <c r="G195" t="s">
-        <v>553</v>
-      </c>
-      <c r="H195" t="s">
-        <v>554</v>
+        <v>524</v>
+      </c>
+      <c r="I195" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D196" t="s">
-        <v>343</v>
-      </c>
-      <c r="E196" t="s">
-        <v>396</v>
-      </c>
-      <c r="F196" t="s">
-        <v>555</v>
+      <c r="B196" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>88</v>
       </c>
-      <c r="C197" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D198" t="s">
+      <c r="C198" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>120</v>
+      </c>
+      <c r="F199" t="s">
+        <v>535</v>
+      </c>
+      <c r="G199" t="s">
+        <v>536</v>
+      </c>
+      <c r="H199" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>343</v>
+      </c>
+      <c r="E200" t="s">
+        <v>796</v>
+      </c>
+      <c r="F200" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>88</v>
+      </c>
+      <c r="C201" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
         <v>126</v>
       </c>
-      <c r="F198" t="s">
-        <v>552</v>
-      </c>
-      <c r="I198" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
+      <c r="F202" t="s">
+        <v>535</v>
+      </c>
+      <c r="I202" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D201" t="s">
-        <v>22</v>
-      </c>
-      <c r="E201" t="s">
-        <v>400</v>
-      </c>
-      <c r="F201" t="s">
-        <v>557</v>
-      </c>
-      <c r="G201" t="s">
-        <v>558</v>
-      </c>
-      <c r="H201" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>88</v>
-      </c>
-      <c r="C202" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D203" t="s">
-        <v>120</v>
-      </c>
-      <c r="F203" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="C204" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
@@ -9953,10 +11420,10 @@
         <v>126</v>
       </c>
       <c r="F205" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="I205" t="s">
-        <v>561</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
@@ -9966,48 +11433,45 @@
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+      <c r="D208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" t="s">
+        <v>400</v>
+      </c>
+      <c r="F208" t="s">
+        <v>539</v>
+      </c>
+      <c r="G208" t="s">
+        <v>540</v>
+      </c>
+      <c r="H208" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>88</v>
       </c>
-      <c r="C208" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D209" t="s">
-        <v>120</v>
-      </c>
-      <c r="F209" t="s">
-        <v>563</v>
-      </c>
-      <c r="G209" t="s">
-        <v>564</v>
-      </c>
-      <c r="H209" t="s">
-        <v>565</v>
+      <c r="C209" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>343</v>
-      </c>
-      <c r="E210" t="s">
-        <v>396</v>
+        <v>120</v>
       </c>
       <c r="F210" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>88</v>
-      </c>
-      <c r="C211" t="s">
-        <v>567</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
@@ -10015,10 +11479,10 @@
         <v>126</v>
       </c>
       <c r="F212" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="I212" t="s">
-        <v>399</v>
+        <v>543</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
@@ -10028,45 +11492,48 @@
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D215" t="s">
-        <v>22</v>
-      </c>
-      <c r="E215" t="s">
-        <v>400</v>
-      </c>
-      <c r="F215" t="s">
-        <v>568</v>
-      </c>
-      <c r="G215" t="s">
-        <v>569</v>
-      </c>
-      <c r="H215" t="s">
-        <v>570</v>
+      <c r="B215" t="s">
+        <v>88</v>
+      </c>
+      <c r="C215" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>88</v>
-      </c>
-      <c r="C216" t="s">
-        <v>571</v>
+      <c r="D216" t="s">
+        <v>120</v>
+      </c>
+      <c r="F216" t="s">
+        <v>545</v>
+      </c>
+      <c r="G216" t="s">
+        <v>546</v>
+      </c>
+      <c r="H216" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>120</v>
+        <v>343</v>
+      </c>
+      <c r="E217" t="s">
+        <v>796</v>
       </c>
       <c r="F217" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="C218" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
@@ -10074,10 +11541,10 @@
         <v>126</v>
       </c>
       <c r="F219" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="I219" t="s">
-        <v>572</v>
+        <v>807</v>
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
@@ -10087,39 +11554,48 @@
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
+        <v>88</v>
+      </c>
+      <c r="C221" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>126</v>
+      </c>
+      <c r="F222" t="s">
+        <v>545</v>
+      </c>
+      <c r="I222" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D222" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E222" t="s">
-        <v>573</v>
-      </c>
-      <c r="F222" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D223" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E223" t="s">
-        <v>575</v>
-      </c>
-      <c r="F223" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
-        <v>46</v>
+      <c r="D225" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" t="s">
+        <v>400</v>
+      </c>
+      <c r="F225" t="s">
+        <v>549</v>
+      </c>
+      <c r="G225" t="s">
+        <v>550</v>
+      </c>
+      <c r="H225" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -10127,7 +11603,7 @@
         <v>88</v>
       </c>
       <c r="C226" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -10135,43 +11611,28 @@
         <v>120</v>
       </c>
       <c r="F227" t="s">
-        <v>578</v>
-      </c>
-      <c r="G227" t="s">
-        <v>579</v>
-      </c>
-      <c r="H227" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D228" t="s">
-        <v>343</v>
-      </c>
-      <c r="E228" t="s">
-        <v>396</v>
-      </c>
-      <c r="F228" t="s">
-        <v>581</v>
+      <c r="B228" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
-        <v>88</v>
-      </c>
-      <c r="C229" t="s">
-        <v>582</v>
+      <c r="D229" t="s">
+        <v>126</v>
+      </c>
+      <c r="F229" t="s">
+        <v>545</v>
+      </c>
+      <c r="I229" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D230" t="s">
-        <v>126</v>
-      </c>
-      <c r="F230" t="s">
-        <v>578</v>
-      </c>
-      <c r="I230" t="s">
-        <v>399</v>
+      <c r="B230" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -10181,99 +11642,105 @@
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="C232" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>22</v>
-      </c>
-      <c r="E233" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="F233" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="G233" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="H233" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
+      <c r="D234" t="s">
+        <v>343</v>
+      </c>
+      <c r="E234" t="s">
+        <v>796</v>
+      </c>
+      <c r="F234" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
         <v>88</v>
       </c>
-      <c r="C234" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D235" t="s">
-        <v>120</v>
-      </c>
-      <c r="F235" t="s">
-        <v>578</v>
+      <c r="C235" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
-        <v>127</v>
+      <c r="D236" t="s">
+        <v>126</v>
+      </c>
+      <c r="F236" t="s">
+        <v>555</v>
+      </c>
+      <c r="I236" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D237" t="s">
-        <v>126</v>
-      </c>
-      <c r="F237" t="s">
-        <v>578</v>
-      </c>
-      <c r="I237" t="s">
-        <v>587</v>
+      <c r="B237" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C238" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
-        <v>103</v>
+      <c r="D239" t="s">
+        <v>126</v>
+      </c>
+      <c r="F239" t="s">
+        <v>555</v>
+      </c>
+      <c r="I239" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>88</v>
-      </c>
-      <c r="C240" t="s">
-        <v>588</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D241" t="s">
-        <v>120</v>
-      </c>
-      <c r="F241" t="s">
-        <v>589</v>
-      </c>
-      <c r="G241" t="s">
-        <v>590</v>
-      </c>
-      <c r="H241" t="s">
-        <v>591</v>
+      <c r="B241" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>343</v>
+        <v>22</v>
       </c>
       <c r="E242" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F242" t="s">
-        <v>592</v>
+        <v>559</v>
+      </c>
+      <c r="G242" t="s">
+        <v>560</v>
+      </c>
+      <c r="H242" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.25">
@@ -10281,91 +11748,319 @@
         <v>88</v>
       </c>
       <c r="C243" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F244" t="s">
-        <v>589</v>
-      </c>
-      <c r="I244" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>126</v>
+      </c>
+      <c r="F246" t="s">
+        <v>555</v>
+      </c>
+      <c r="I246" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D247" t="s">
-        <v>22</v>
-      </c>
-      <c r="E247" t="s">
-        <v>400</v>
-      </c>
-      <c r="F247" t="s">
-        <v>594</v>
-      </c>
-      <c r="G247" t="s">
-        <v>595</v>
-      </c>
-      <c r="H247" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>88</v>
-      </c>
-      <c r="C248" t="s">
-        <v>597</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D249" t="s">
-        <v>120</v>
+      <c r="D249" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E249" t="s">
+        <v>564</v>
       </c>
       <c r="F249" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
-        <v>127</v>
+      <c r="D250" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E250" t="s">
+        <v>566</v>
+      </c>
+      <c r="F250" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D251" t="s">
-        <v>126</v>
-      </c>
-      <c r="F251" t="s">
-        <v>589</v>
-      </c>
-      <c r="I251" t="s">
-        <v>598</v>
+      <c r="B251" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
+        <v>88</v>
+      </c>
+      <c r="C253" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>120</v>
+      </c>
+      <c r="F254" t="s">
+        <v>569</v>
+      </c>
+      <c r="G254" t="s">
+        <v>570</v>
+      </c>
+      <c r="H254" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>343</v>
+      </c>
+      <c r="E255" t="s">
+        <v>396</v>
+      </c>
+      <c r="F255" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>88</v>
+      </c>
+      <c r="C256" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>126</v>
+      </c>
+      <c r="F257" t="s">
+        <v>569</v>
+      </c>
+      <c r="I257" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>22</v>
+      </c>
+      <c r="E260" t="s">
+        <v>400</v>
+      </c>
+      <c r="F260" t="s">
+        <v>574</v>
+      </c>
+      <c r="G260" t="s">
+        <v>575</v>
+      </c>
+      <c r="H260" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>88</v>
+      </c>
+      <c r="C261" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>120</v>
+      </c>
+      <c r="F262" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>126</v>
+      </c>
+      <c r="F264" t="s">
+        <v>569</v>
+      </c>
+      <c r="I264" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>88</v>
+      </c>
+      <c r="C267" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>120</v>
+      </c>
+      <c r="F268" t="s">
+        <v>580</v>
+      </c>
+      <c r="G268" t="s">
+        <v>581</v>
+      </c>
+      <c r="H268" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>343</v>
+      </c>
+      <c r="E269" t="s">
+        <v>396</v>
+      </c>
+      <c r="F269" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>88</v>
+      </c>
+      <c r="C270" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>126</v>
+      </c>
+      <c r="F271" t="s">
+        <v>580</v>
+      </c>
+      <c r="I271" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>22</v>
+      </c>
+      <c r="E274" t="s">
+        <v>400</v>
+      </c>
+      <c r="F274" t="s">
+        <v>585</v>
+      </c>
+      <c r="G274" t="s">
+        <v>586</v>
+      </c>
+      <c r="H274" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>88</v>
+      </c>
+      <c r="C275" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>120</v>
+      </c>
+      <c r="F276" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>126</v>
+      </c>
+      <c r="F278" t="s">
+        <v>580</v>
+      </c>
+      <c r="I278" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
         <v>47</v>
       </c>
     </row>
@@ -10374,7 +12069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927217AB-3221-4BCE-814E-DC154DD72CEF}">
   <dimension ref="A1:M147"/>
   <sheetViews>
@@ -10431,10 +12126,10 @@
         <v>31</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>31</v>
@@ -10452,16 +12147,16 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F3" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G3" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="H3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -10470,7 +12165,7 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -10479,10 +12174,10 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G5" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="H5" t="s">
         <v>275</v>
@@ -10506,7 +12201,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -10525,7 +12220,7 @@
         <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G10" t="s">
         <v>394</v>
@@ -10544,13 +12239,13 @@
         <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="G11" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="H11" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -10562,7 +12257,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="G12" t="s">
         <v>408</v>
@@ -10577,13 +12272,13 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G13" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="H13" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -10607,13 +12302,13 @@
         <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G16" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="H16" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -10622,13 +12317,13 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G17" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="H17" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -10640,13 +12335,13 @@
         <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G18" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="H18" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -10658,13 +12353,13 @@
         <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G19" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="H19" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10673,13 +12368,13 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G20" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="H20" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -10707,13 +12402,13 @@
         <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -10722,13 +12417,13 @@
         <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -10749,13 +12444,13 @@
         <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -10764,13 +12459,13 @@
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -10794,13 +12489,13 @@
         <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G32" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="H32" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -10824,13 +12519,13 @@
         <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G35" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="H35" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -10839,7 +12534,7 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -10851,13 +12546,13 @@
         <v>303</v>
       </c>
       <c r="F37" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G37" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H37" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -10887,13 +12582,13 @@
         <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G41" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="H41" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -10917,13 +12612,13 @@
         <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="G44" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H44" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -10932,7 +12627,7 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -10941,13 +12636,13 @@
         <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G46" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="H46" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -10977,13 +12672,13 @@
         <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G50" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="H50" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -10995,7 +12690,7 @@
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -11004,13 +12699,13 @@
         <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -11040,13 +12735,13 @@
         <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G57" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="H57" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -11055,7 +12750,7 @@
         <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -11064,13 +12759,13 @@
         <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="G59" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="H59" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -11100,13 +12795,13 @@
         <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="G63" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="H63" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -11115,7 +12810,7 @@
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -11124,13 +12819,13 @@
         <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="G65" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="H65" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -11139,13 +12834,13 @@
         <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="G66" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="H66" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -11175,13 +12870,13 @@
         <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="G70" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="H70" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -11190,7 +12885,7 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -11199,13 +12894,13 @@
         <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G72" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="H72" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -11235,13 +12930,13 @@
         <v>93</v>
       </c>
       <c r="F76" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G76" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="H76" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -11250,7 +12945,7 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -11259,13 +12954,13 @@
         <v>72</v>
       </c>
       <c r="F78" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G78" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="H78" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -11295,13 +12990,13 @@
         <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G82" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H82" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -11310,7 +13005,7 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -11319,13 +13014,13 @@
         <v>72</v>
       </c>
       <c r="F84" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="G84" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="H84" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -11355,13 +13050,13 @@
         <v>93</v>
       </c>
       <c r="F88" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="G88" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="H88" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -11370,7 +13065,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -11379,13 +13074,13 @@
         <v>72</v>
       </c>
       <c r="F90" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G90" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="H90" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -11415,13 +13110,13 @@
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G94" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="H94" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -11430,7 +13125,7 @@
         <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -11439,13 +13134,13 @@
         <v>72</v>
       </c>
       <c r="F96" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G96" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="H96" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -11466,7 +13161,7 @@
         <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -11484,13 +13179,13 @@
         <v>170</v>
       </c>
       <c r="F101" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="G101" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="H101" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -11499,7 +13194,7 @@
         <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -11508,13 +13203,13 @@
         <v>72</v>
       </c>
       <c r="F103" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="G103" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="H103" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -11547,13 +13242,13 @@
         <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="G108" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="H108" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -11562,13 +13257,13 @@
         <v>72</v>
       </c>
       <c r="F109" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="G109" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="H109" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -11592,13 +13287,13 @@
         <v>93</v>
       </c>
       <c r="F112" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G112" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="H112" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -11613,7 +13308,7 @@
         <v>88</v>
       </c>
       <c r="C114" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -11633,13 +13328,13 @@
         <v>93</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -11660,7 +13355,7 @@
         <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -11675,13 +13370,13 @@
         <v>25</v>
       </c>
       <c r="F121" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G121" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H121" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -11690,7 +13385,7 @@
         <v>88</v>
       </c>
       <c r="C122" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -11702,13 +13397,13 @@
         <v>93</v>
       </c>
       <c r="F123" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G123" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H123" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -11735,13 +13430,13 @@
         <v>72</v>
       </c>
       <c r="F127" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="G127" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H127" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -11753,13 +13448,13 @@
         <v>93</v>
       </c>
       <c r="F128" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="G128" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="H128" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -11783,13 +13478,13 @@
         <v>93</v>
       </c>
       <c r="F131" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="G131" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="H131" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -11801,13 +13496,13 @@
         <v>93</v>
       </c>
       <c r="F132" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="G132" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="H132" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -11837,13 +13532,13 @@
         <v>93</v>
       </c>
       <c r="F136" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="G136" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="H136" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -11852,7 +13547,7 @@
         <v>88</v>
       </c>
       <c r="C137" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -11861,13 +13556,13 @@
         <v>72</v>
       </c>
       <c r="F138" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G138" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="H138" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -11897,13 +13592,13 @@
         <v>93</v>
       </c>
       <c r="F142" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G142" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H142" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -11912,7 +13607,7 @@
         <v>88</v>
       </c>
       <c r="C143" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -11921,13 +13616,13 @@
         <v>72</v>
       </c>
       <c r="F144" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="G144" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H144" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -11936,13 +13631,13 @@
         <v>25</v>
       </c>
       <c r="F145" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="G145" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="H145" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -11962,11 +13657,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:I8"/>
     </sheetView>
@@ -12028,22 +13723,22 @@
         <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="D2" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E2" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F2" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G2" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="51"/>
@@ -12113,22 +13808,22 @@
         <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D8" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E8" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F8" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I8" t="s">
         <v>277</v>
@@ -12148,16 +13843,16 @@
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F9" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G9" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I9" t="s">
         <v>393</v>
@@ -12177,16 +13872,16 @@
         <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F10" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G10" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I10" t="s">
         <v>407</v>
@@ -12206,16 +13901,16 @@
         <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F11" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G11" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I11" t="s">
         <v>437</v>
@@ -12235,16 +13930,16 @@
         <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F12" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G12" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I12" t="s">
         <v>426</v>
@@ -12264,19 +13959,19 @@
         <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F13" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G13" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12293,24 +13988,24 @@
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F14" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G14" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
         <v>283</v>
@@ -12322,24 +14017,24 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F15" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G15" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
         <v>283</v>
@@ -12351,24 +14046,24 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F16" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G16" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
         <v>283</v>
@@ -12380,24 +14075,24 @@
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F17" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G17" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s">
         <v>283</v>
@@ -12409,24 +14104,24 @@
         <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F18" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G18" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I18" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B19" t="s">
         <v>283</v>
@@ -12438,24 +14133,24 @@
         <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F19" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G19" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I19" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B20" t="s">
         <v>283</v>
@@ -12467,24 +14162,24 @@
         <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F20" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G20" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I20" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B21" t="s">
         <v>283</v>
@@ -12496,24 +14191,24 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F21" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G21" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I21" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B22" t="s">
         <v>283</v>
@@ -12525,24 +14220,24 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F22" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G22" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H22" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I22" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B23" t="s">
         <v>283</v>
@@ -12554,24 +14249,24 @@
         <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F23" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G23" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I23" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B24" t="s">
         <v>283</v>
@@ -12583,19 +14278,19 @@
         <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F24" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G24" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="I24" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -12603,7 +14298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -12653,1268 +14348,10 @@
         <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="A75:D84"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" t="str">
-        <f>"88"</f>
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" t="str">
-        <f>"99"</f>
-        <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" t="s">
-        <v>247</v>
-      </c>
-      <c r="D36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B39" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>264</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>732</v>
-      </c>
-      <c r="D41" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>264</v>
-      </c>
-      <c r="B42" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>734</v>
-      </c>
-      <c r="D42" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>736</v>
-      </c>
-      <c r="D43" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>738</v>
-      </c>
-      <c r="D44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>264</v>
-      </c>
-      <c r="B45" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>740</v>
-      </c>
-      <c r="D45" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>742</v>
-      </c>
-      <c r="D46" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" t="s">
-        <v>744</v>
-      </c>
-      <c r="D47" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>278</v>
-      </c>
-      <c r="B48" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" t="s">
-        <v>746</v>
-      </c>
-      <c r="D48" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" t="s">
-        <v>748</v>
-      </c>
-      <c r="D49" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" t="s">
-        <v>749</v>
-      </c>
-      <c r="D50" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>303</v>
-      </c>
-      <c r="B51" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>751</v>
-      </c>
-      <c r="D51" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>303</v>
-      </c>
-      <c r="B52" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>753</v>
-      </c>
-      <c r="D52" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>303</v>
-      </c>
-      <c r="B53" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>298</v>
-      </c>
-      <c r="B54" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>756</v>
-      </c>
-      <c r="D54" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>298</v>
-      </c>
-      <c r="B55" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>758</v>
-      </c>
-      <c r="D55" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>298</v>
-      </c>
-      <c r="B56" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>760</v>
-      </c>
-      <c r="D56" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>298</v>
-      </c>
-      <c r="B57" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>325</v>
-      </c>
-      <c r="B58" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>762</v>
-      </c>
-      <c r="D58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>325</v>
-      </c>
-      <c r="B59" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>763</v>
-      </c>
-      <c r="D59" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>325</v>
-      </c>
-      <c r="B60" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>325</v>
-      </c>
-      <c r="B61" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>765</v>
-      </c>
-      <c r="D61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>344</v>
-      </c>
-      <c r="B62" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>650</v>
-      </c>
-      <c r="D62" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>656</v>
-      </c>
-      <c r="D63" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>344</v>
-      </c>
-      <c r="B64" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>664</v>
-      </c>
-      <c r="D64" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>344</v>
-      </c>
-      <c r="B65" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>669</v>
-      </c>
-      <c r="D65" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>344</v>
-      </c>
-      <c r="B66" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>675</v>
-      </c>
-      <c r="D66" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>766</v>
-      </c>
-      <c r="D67" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>767</v>
-      </c>
-      <c r="B69" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>767</v>
-      </c>
-      <c r="B70" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>400</v>
-      </c>
-      <c r="B71" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>768</v>
-      </c>
-      <c r="D71" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>400</v>
-      </c>
-      <c r="B72" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>770</v>
-      </c>
-      <c r="D72" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>400</v>
-      </c>
-      <c r="B73" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>396</v>
-      </c>
-      <c r="B74" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C76" t="s">
-        <v>773</v>
-      </c>
-      <c r="D76" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>774</v>
-      </c>
-      <c r="D77" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>775</v>
-      </c>
-      <c r="D78" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>601</v>
-      </c>
-      <c r="B81" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>601</v>
-      </c>
-      <c r="B82" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>776</v>
-      </c>
-      <c r="D82" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>601</v>
-      </c>
-      <c r="B83" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>601</v>
-      </c>
-      <c r="B84" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6684B80C-F1E9-4865-804A-BAF05A0AD27B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F13492-002F-4311-AFC3-03ED3421B9EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="822">
   <si>
     <t>setting_name</t>
   </si>
@@ -2489,6 +2489,30 @@
   </si>
   <si>
     <t>data('vping') == '2'</t>
+  </si>
+  <si>
+    <t>data('REGID') != null</t>
+  </si>
+  <si>
+    <t>data('MOMA') == '1'</t>
+  </si>
+  <si>
+    <t>data('mor')</t>
+  </si>
+  <si>
+    <t>data('casa')</t>
+  </si>
+  <si>
+    <t>data('fogao')</t>
+  </si>
+  <si>
+    <t>mor</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>fogau</t>
   </si>
 </sst>
 </file>
@@ -4552,11 +4576,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A207" sqref="A207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,6 +6887,39 @@
       </c>
       <c r="C218" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>819</v>
+      </c>
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>820</v>
+      </c>
+      <c r="B221" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>821</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6963,11 +7020,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7127,218 +7184,317 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
-        <v>54</v>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F30" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G30" t="s">
         <v>67</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F31" t="s">
         <v>68</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G31" t="s">
         <v>69</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F32" t="s">
         <v>70</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G32" t="s">
         <v>71</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>72</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F35" t="s">
         <v>89</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G35" t="s">
         <v>90</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
         <v>93</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F38" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>72</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F40" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" t="s">
         <v>88</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C43" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7909,8 +8065,8 @@
   <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="D50:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9614,7 +9770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
     </sheetView>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F13492-002F-4311-AFC3-03ED3421B9EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C83B7-2338-4023-8F00-7828A7E45385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="823">
   <si>
     <t>setting_name</t>
   </si>
@@ -2513,6 +2513,9 @@
   </si>
   <si>
     <t>fogau</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
   </si>
 </sst>
 </file>
@@ -4576,11 +4579,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,10 +4606,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>630</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -4614,10 +4617,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+        <v>633</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -4625,10 +4628,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>715</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -4636,10 +4639,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>720</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4647,10 +4650,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>718</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -4658,7 +4661,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -4669,10 +4672,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>621</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -4680,10 +4683,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -4691,43 +4694,54 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+      <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
+        <v>397</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>704</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -4735,9 +4749,9 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
+        <v>702</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C15" t="b">
@@ -4746,32 +4760,54 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>120</v>
+        <v>706</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
       <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>600</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>372</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -4779,10 +4815,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4790,10 +4826,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4801,10 +4837,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -4812,10 +4848,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>375</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -4823,10 +4859,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>346</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -4834,7 +4870,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>369</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -4845,10 +4881,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>359</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -4856,7 +4892,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>379</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -4867,32 +4903,32 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -4900,7 +4936,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -4911,10 +4947,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -4922,10 +4958,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -4933,7 +4969,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>364</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -4944,21 +4980,32 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>367</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -4966,10 +5013,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -4977,7 +5024,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -4988,10 +5035,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5010,10 +5057,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -5021,21 +5068,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>820</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -5043,10 +5090,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -5054,10 +5101,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -5065,10 +5112,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>700</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -5076,10 +5123,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -5087,10 +5134,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -5098,7 +5145,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -5109,7 +5156,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -5120,21 +5167,21 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>309</v>
+        <v>768</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s">
-        <v>22</v>
+        <v>277</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -5142,10 +5189,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>771</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -5153,10 +5200,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>665</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -5164,9 +5211,9 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" t="s">
+        <v>668</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C57" t="b">
@@ -5175,7 +5222,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>708</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -5186,10 +5233,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>322</v>
+        <v>635</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -5197,10 +5244,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>326</v>
-      </c>
-      <c r="B60" t="s">
-        <v>22</v>
+        <v>638</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -5208,10 +5255,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>329</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -5219,10 +5266,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>331</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -5230,10 +5277,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -5241,7 +5288,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>336</v>
+        <v>710</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -5252,10 +5299,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>385</v>
+        <v>713</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -5263,7 +5310,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>340</v>
+        <v>675</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -5274,10 +5321,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>345</v>
-      </c>
-      <c r="B67" t="s">
-        <v>343</v>
+        <v>686</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -5285,7 +5332,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>346</v>
+        <v>682</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -5296,10 +5343,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>349</v>
+        <v>646</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -5307,10 +5354,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>351</v>
-      </c>
-      <c r="B70" t="s">
-        <v>22</v>
+        <v>650</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -5318,10 +5365,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>353</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
+        <v>652</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -5329,10 +5376,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>356</v>
+        <v>697</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -5340,7 +5387,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>357</v>
+        <v>623</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -5351,7 +5398,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>359</v>
+        <v>626</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -5362,10 +5409,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -5373,10 +5420,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -5384,10 +5431,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>367</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -5395,7 +5442,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>609</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -5406,7 +5453,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>372</v>
+        <v>580</v>
       </c>
       <c r="B79" t="s">
         <v>120</v>
@@ -5417,18 +5464,18 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>373</v>
-      </c>
-      <c r="B80" t="s">
-        <v>22</v>
+        <v>567</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>375</v>
+        <v>585</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -5439,18 +5486,18 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>377</v>
-      </c>
-      <c r="B82" t="s">
-        <v>72</v>
+        <v>583</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>640</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
@@ -5461,10 +5508,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>379</v>
-      </c>
-      <c r="B84" t="s">
-        <v>22</v>
+        <v>644</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -5472,10 +5519,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>381</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -5483,10 +5530,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>382</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5494,21 +5541,32 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>384</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>821</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>277</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>108</v>
+        <v>139</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -5516,54 +5574,76 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>768</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>769</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>770</v>
-      </c>
-      <c r="B92" t="s">
-        <v>25</v>
+        <v>688</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>690</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>771</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
         <v>25</v>
       </c>
-      <c r="C94" t="b">
+      <c r="C95" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>393</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -5571,32 +5651,32 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>389</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>401</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
       </c>
       <c r="C98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>397</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>343</v>
+        <v>132</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -5604,10 +5684,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>580</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -5615,21 +5695,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>567</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>108</v>
+        <v>336</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>585</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -5637,21 +5717,21 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>583</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>343</v>
+        <v>168</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
       </c>
       <c r="C103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>447</v>
+        <v>628</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -5659,65 +5739,65 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>422</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
       </c>
       <c r="C105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>451</v>
+        <v>770</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>450</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>343</v>
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
       </c>
       <c r="C107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>496</v>
+        <v>819</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>471</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>108</v>
+        <v>694</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
       </c>
       <c r="C109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>500</v>
+        <v>73</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5725,21 +5805,21 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>499</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>343</v>
+        <v>691</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
       </c>
       <c r="C111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>545</v>
+      <c r="A112" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -5747,20 +5827,20 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>520</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
       </c>
       <c r="C113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>549</v>
-      </c>
-      <c r="B114" t="s">
+        <v>593</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C114" t="b">
@@ -5769,18 +5849,18 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>548</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>343</v>
+        <v>597</v>
+      </c>
+      <c r="B115" t="s">
+        <v>72</v>
       </c>
       <c r="C115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>426</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
@@ -5791,21 +5871,21 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>418</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>108</v>
+        <v>617</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
       </c>
       <c r="C117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>431</v>
-      </c>
-      <c r="B118" t="s">
-        <v>22</v>
+        <v>615</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -5813,21 +5893,21 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>429</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>343</v>
+        <v>620</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
       </c>
       <c r="C119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>475</v>
-      </c>
-      <c r="B120" t="s">
-        <v>120</v>
+        <v>619</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
@@ -5835,21 +5915,21 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>467</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>108</v>
+        <v>654</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
       </c>
       <c r="C121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>480</v>
-      </c>
-      <c r="B122" t="s">
-        <v>22</v>
+        <v>657</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
@@ -5857,43 +5937,43 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>478</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>343</v>
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
       </c>
       <c r="C123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>524</v>
+        <v>769</v>
       </c>
       <c r="B124" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>516</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>108</v>
+        <v>385</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
       </c>
       <c r="C125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>529</v>
+        <v>447</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -5901,10 +5981,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>527</v>
+        <v>422</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -5912,10 +5992,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -5923,10 +6003,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -5934,10 +6014,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -5945,10 +6025,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -5956,10 +6036,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B132" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -5967,10 +6047,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -5978,10 +6058,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C134" t="b">
         <v>0</v>
@@ -5989,10 +6069,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -6000,10 +6080,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="B136" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6011,10 +6091,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>
@@ -6022,10 +6102,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -6033,18 +6113,18 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>538</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>343</v>
+        <v>605</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
       </c>
       <c r="C139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B140" t="s">
         <v>120</v>
@@ -6055,7 +6135,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>108</v>
@@ -6066,7 +6146,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B142" t="s">
         <v>22</v>
@@ -6077,7 +6157,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>343</v>
@@ -6088,7 +6168,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="B144" t="s">
         <v>120</v>
@@ -6099,7 +6179,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>108</v>
@@ -6110,7 +6190,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
@@ -6121,7 +6201,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>343</v>
@@ -6132,7 +6212,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="B148" t="s">
         <v>120</v>
@@ -6143,7 +6223,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>108</v>
@@ -6154,7 +6234,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="B150" t="s">
         <v>22</v>
@@ -6165,7 +6245,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>343</v>
@@ -6176,10 +6256,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="B152" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -6187,87 +6267,98 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>565</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>108</v>
+        <v>437</v>
+      </c>
+      <c r="B153" t="s">
+        <v>120</v>
       </c>
       <c r="C153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>574</v>
-      </c>
-      <c r="B154" t="s">
-        <v>22</v>
+        <v>420</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>572</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>343</v>
+        <v>441</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
       </c>
       <c r="C155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>555</v>
-      </c>
-      <c r="B156" t="s">
-        <v>120</v>
+        <v>440</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>522</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>108</v>
+        <v>486</v>
+      </c>
+      <c r="B157" t="s">
+        <v>120</v>
       </c>
       <c r="C157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>559</v>
-      </c>
-      <c r="B158" t="s">
-        <v>22</v>
+        <v>469</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>558</v>
-      </c>
-      <c r="B159" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>489</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C159" t="b">
+      <c r="C160" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -6275,18 +6366,18 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>633</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>72</v>
+        <v>518</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>715</v>
+        <v>539</v>
       </c>
       <c r="B163" t="s">
         <v>22</v>
@@ -6297,21 +6388,21 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>720</v>
-      </c>
-      <c r="B164" t="s">
-        <v>25</v>
+        <v>538</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>718</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>72</v>
+        <v>407</v>
+      </c>
+      <c r="B165" t="s">
+        <v>120</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -6319,18 +6410,18 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>621</v>
-      </c>
-      <c r="B166" t="s">
-        <v>22</v>
+        <v>391</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>704</v>
+        <v>782</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
@@ -6341,10 +6432,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>702</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>72</v>
+        <v>412</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
       </c>
       <c r="C168" t="b">
         <v>0</v>
@@ -6352,21 +6443,21 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>706</v>
-      </c>
-      <c r="B169" t="s">
-        <v>22</v>
+        <v>410</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C170" t="b">
         <v>0</v>
@@ -6374,7 +6465,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>700</v>
+        <v>307</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
@@ -6385,7 +6476,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>665</v>
+        <v>309</v>
       </c>
       <c r="B172" t="s">
         <v>22</v>
@@ -6396,9 +6487,9 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>668</v>
-      </c>
-      <c r="B173" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" t="s">
         <v>72</v>
       </c>
       <c r="C173" t="b">
@@ -6407,7 +6498,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>708</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
         <v>22</v>
@@ -6418,10 +6509,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>635</v>
-      </c>
-      <c r="B175" t="s">
-        <v>22</v>
+        <v>679</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -6429,10 +6520,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>638</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>72</v>
+        <v>164</v>
+      </c>
+      <c r="B176" t="s">
+        <v>25</v>
       </c>
       <c r="C176" t="b">
         <v>0</v>
@@ -6440,10 +6531,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>710</v>
+        <v>163</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C177" t="b">
         <v>0</v>
@@ -6451,10 +6542,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>713</v>
+        <v>52</v>
       </c>
       <c r="B178" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -6462,10 +6553,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>675</v>
-      </c>
-      <c r="B179" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -6473,9 +6564,9 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>686</v>
-      </c>
-      <c r="B180" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B180" t="s">
         <v>72</v>
       </c>
       <c r="C180" t="b">
@@ -6484,10 +6575,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>682</v>
+        <v>89</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
@@ -6495,7 +6586,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B182" t="s">
         <v>22</v>
@@ -6506,7 +6597,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>72</v>
@@ -6517,10 +6608,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>652</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>72</v>
+        <v>457</v>
+      </c>
+      <c r="B184" t="s">
+        <v>120</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -6528,18 +6619,18 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>697</v>
-      </c>
-      <c r="B185" t="s">
-        <v>25</v>
+        <v>424</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>623</v>
+        <v>461</v>
       </c>
       <c r="B186" t="s">
         <v>22</v>
@@ -6550,21 +6641,21 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>626</v>
-      </c>
-      <c r="B187" t="s">
-        <v>22</v>
+        <v>460</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>609</v>
+        <v>506</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -6572,21 +6663,21 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>640</v>
-      </c>
-      <c r="B189" t="s">
-        <v>22</v>
+        <v>473</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>644</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>72</v>
+        <v>510</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
@@ -6594,21 +6685,21 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>688</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>72</v>
+        <v>509</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>690</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>72</v>
+        <v>611</v>
+      </c>
+      <c r="B192" t="s">
+        <v>22</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -6616,10 +6707,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C193" t="b">
         <v>0</v>
@@ -6627,18 +6718,18 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>694</v>
-      </c>
-      <c r="B194" t="s">
-        <v>22</v>
+        <v>565</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>691</v>
+        <v>574</v>
       </c>
       <c r="B195" t="s">
         <v>22</v>
@@ -6649,21 +6740,21 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>593</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>22</v>
+        <v>572</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="B197" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C197" t="b">
         <v>0</v>
@@ -6671,10 +6762,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>617</v>
+        <v>77</v>
       </c>
       <c r="B198" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
@@ -6682,10 +6773,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>615</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="B199" t="s">
+        <v>50</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -6693,10 +6784,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>620</v>
+        <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
@@ -6704,10 +6795,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>619</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>72</v>
+        <v>299</v>
+      </c>
+      <c r="B201" t="s">
+        <v>22</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -6715,7 +6806,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>654</v>
+        <v>304</v>
       </c>
       <c r="B202" t="s">
         <v>22</v>
@@ -6726,10 +6817,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>657</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>72</v>
+        <v>295</v>
+      </c>
+      <c r="B203" t="s">
+        <v>22</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -6737,10 +6828,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>607</v>
+        <v>670</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -6748,10 +6839,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>605</v>
-      </c>
-      <c r="B205" t="s">
-        <v>22</v>
+        <v>673</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
@@ -6759,10 +6850,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>602</v>
+        <v>147</v>
       </c>
       <c r="B206" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
@@ -6770,10 +6861,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="B207" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -6781,10 +6872,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>603</v>
+        <v>773</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C208" t="b">
         <v>0</v>
@@ -6792,10 +6883,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>679</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>72</v>
+        <v>555</v>
+      </c>
+      <c r="B209" t="s">
+        <v>120</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -6803,21 +6894,21 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>659</v>
-      </c>
-      <c r="B210" t="s">
-        <v>22</v>
+        <v>522</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>663</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>72</v>
+        <v>559</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -6825,106 +6916,29 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>611</v>
-      </c>
-      <c r="B212" t="s">
-        <v>22</v>
+        <v>558</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C212" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>613</v>
-      </c>
-      <c r="B213" t="s">
-        <v>25</v>
-      </c>
-      <c r="C213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>670</v>
+        <v>822</v>
       </c>
       <c r="B214" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>673</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C215" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>772</v>
-      </c>
-      <c r="B217" t="s">
-        <v>120</v>
-      </c>
-      <c r="C217" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>773</v>
-      </c>
-      <c r="B218" t="s">
-        <v>72</v>
-      </c>
-      <c r="C218" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>819</v>
-      </c>
-      <c r="B220" t="s">
-        <v>25</v>
-      </c>
-      <c r="C220" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>820</v>
-      </c>
-      <c r="B221" t="s">
-        <v>25</v>
-      </c>
-      <c r="C221" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>821</v>
-      </c>
-      <c r="B222" t="s">
-        <v>25</v>
-      </c>
-      <c r="C222" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:C36">
-    <sortCondition ref="A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C222">
+    <sortCondition ref="A90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7023,7 +7037,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -8065,7 +8079,7 @@
   <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H50" sqref="D50:H50"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C83B7-2338-4023-8F00-7828A7E45385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0316E5-D6F1-44D5-9FAF-2E59597B0A30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="824">
   <si>
     <t>setting_name</t>
   </si>
@@ -2516,6 +2516,9 @@
   </si>
   <si>
     <t>ESTADO</t>
+  </si>
+  <si>
+    <t>NOME</t>
   </si>
 </sst>
 </file>
@@ -4581,9 +4584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5794,7 +5797,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>823</v>
       </c>
       <c r="B110" t="s">
         <v>72</v>
@@ -7036,9 +7039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7151,7 +7154,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>823</v>
       </c>
       <c r="G8" t="s">
         <v>74</v>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833B0EE-C399-48DE-947B-D0623E3A5821}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2FCAC3-6234-4DBA-B4BC-E1E13B8EB526}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="872">
   <si>
     <t>setting_name</t>
   </si>
@@ -2508,9 +2508,6 @@
     <t>change</t>
   </si>
   <si>
-    <t>Want to change?</t>
-  </si>
-  <si>
     <t>do section stsc</t>
   </si>
   <si>
@@ -2662,6 +2659,12 @@
   </si>
   <si>
     <t>Last visit status: &lt;b&gt;Não visitada&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Want to change the infromation?</t>
+  </si>
+  <si>
+    <t>integer_dropdown</t>
   </si>
 </sst>
 </file>
@@ -4093,8 +4096,8 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41:C46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,9 +5443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q112" sqref="Q112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5468,7 +5471,7 @@
         <v>625</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -5490,7 +5493,7 @@
         <v>710</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5534,7 +5537,7 @@
         <v>616</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5545,7 +5548,7 @@
         <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -5578,7 +5581,7 @@
         <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -5600,7 +5603,7 @@
         <v>699</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -5622,7 +5625,7 @@
         <v>701</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -5644,7 +5647,7 @@
         <v>595</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -5699,7 +5702,7 @@
         <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -5710,7 +5713,7 @@
         <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -5721,7 +5724,7 @@
         <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -5732,7 +5735,7 @@
         <v>367</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -5743,7 +5746,7 @@
         <v>357</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -5754,7 +5757,7 @@
         <v>375</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -5787,7 +5790,7 @@
         <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -5798,7 +5801,7 @@
         <v>355</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -5809,7 +5812,7 @@
         <v>374</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5831,7 +5834,7 @@
         <v>362</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -5842,7 +5845,7 @@
         <v>378</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -5875,7 +5878,7 @@
         <v>350</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -5886,7 +5889,7 @@
         <v>370</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5897,7 +5900,7 @@
         <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5908,7 +5911,7 @@
         <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5974,7 +5977,7 @@
         <v>695</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -5996,7 +5999,7 @@
         <v>326</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -6018,7 +6021,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -6062,7 +6065,7 @@
         <v>660</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -6084,7 +6087,7 @@
         <v>703</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -6095,7 +6098,7 @@
         <v>630</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -6150,7 +6153,7 @@
         <v>705</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -6172,7 +6175,7 @@
         <v>670</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -6194,7 +6197,7 @@
         <v>677</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -6205,7 +6208,7 @@
         <v>641</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -6249,7 +6252,7 @@
         <v>618</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -6260,7 +6263,7 @@
         <v>621</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -6293,7 +6296,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -6304,7 +6307,7 @@
         <v>604</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -6337,7 +6340,7 @@
         <v>580</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -6359,7 +6362,7 @@
         <v>635</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -6425,7 +6428,7 @@
         <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -6447,7 +6450,7 @@
         <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -6480,7 +6483,7 @@
         <v>317</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -6524,7 +6527,7 @@
         <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -6535,7 +6538,7 @@
         <v>132</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -6546,7 +6549,7 @@
         <v>333</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -6557,7 +6560,7 @@
         <v>336</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -6579,7 +6582,7 @@
         <v>168</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -6590,7 +6593,7 @@
         <v>623</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -6601,7 +6604,7 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -6645,7 +6648,7 @@
         <v>689</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -6667,7 +6670,7 @@
         <v>686</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -6678,7 +6681,7 @@
         <v>256</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -6700,7 +6703,7 @@
         <v>588</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -6777,7 +6780,7 @@
         <v>649</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -6799,7 +6802,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -6821,7 +6824,7 @@
         <v>381</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
@@ -6854,7 +6857,7 @@
         <v>446</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -6898,7 +6901,7 @@
         <v>495</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -6942,7 +6945,7 @@
         <v>544</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6975,7 +6978,7 @@
         <v>600</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -7008,7 +7011,7 @@
         <v>426</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -7052,7 +7055,7 @@
         <v>475</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -7096,7 +7099,7 @@
         <v>524</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -7118,7 +7121,7 @@
         <v>597</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -7151,7 +7154,7 @@
         <v>436</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -7195,7 +7198,7 @@
         <v>485</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C159" t="b">
         <v>0</v>
@@ -7239,7 +7242,7 @@
         <v>534</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7283,7 +7286,7 @@
         <v>776</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7294,7 +7297,7 @@
         <v>407</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C168" t="b">
         <v>0</v>
@@ -7327,7 +7330,7 @@
         <v>307</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -7338,7 +7341,7 @@
         <v>309</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C172" t="b">
         <v>0</v>
@@ -7360,7 +7363,7 @@
         <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C174" t="b">
         <v>0</v>
@@ -7404,7 +7407,7 @@
         <v>52</v>
       </c>
       <c r="B178" t="s">
-        <v>50</v>
+        <v>871</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -7448,7 +7451,7 @@
         <v>654</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
@@ -7492,7 +7495,7 @@
         <v>456</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
@@ -7536,7 +7539,7 @@
         <v>505</v>
       </c>
       <c r="B190" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
@@ -7558,7 +7561,7 @@
         <v>606</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -7591,7 +7594,7 @@
         <v>569</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -7624,7 +7627,7 @@
         <v>77</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
@@ -7635,7 +7638,7 @@
         <v>55</v>
       </c>
       <c r="B199" t="s">
-        <v>50</v>
+        <v>871</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -7646,7 +7649,7 @@
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
@@ -7657,7 +7660,7 @@
         <v>299</v>
       </c>
       <c r="B201" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -7668,7 +7671,7 @@
         <v>304</v>
       </c>
       <c r="B202" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
@@ -7679,7 +7682,7 @@
         <v>295</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -7690,7 +7693,7 @@
         <v>665</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -7767,7 +7770,7 @@
         <v>554</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -7786,7 +7789,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B213" s="53" t="s">
         <v>72</v>
@@ -7811,7 +7814,7 @@
         <v>818</v>
       </c>
       <c r="B216" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
@@ -7819,10 +7822,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C217" t="b">
         <v>1</v>
@@ -7830,10 +7833,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B218" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -7907,7 +7910,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7922,7 +7925,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7939,8 +7942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8002,10 +8005,10 @@
         <v>149</v>
       </c>
       <c r="G3" t="s">
+        <v>824</v>
+      </c>
+      <c r="H3" t="s">
         <v>825</v>
-      </c>
-      <c r="H3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8013,10 +8016,10 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
+        <v>826</v>
+      </c>
+      <c r="H4" t="s">
         <v>827</v>
-      </c>
-      <c r="H4" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8024,7 +8027,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8032,10 +8035,10 @@
         <v>149</v>
       </c>
       <c r="G6" t="s">
+        <v>833</v>
+      </c>
+      <c r="H6" t="s">
         <v>834</v>
-      </c>
-      <c r="H6" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8048,7 +8051,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8056,10 +8059,10 @@
         <v>149</v>
       </c>
       <c r="G9" t="s">
+        <v>836</v>
+      </c>
+      <c r="H9" t="s">
         <v>837</v>
-      </c>
-      <c r="H9" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8072,7 +8075,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8080,10 +8083,10 @@
         <v>149</v>
       </c>
       <c r="G12" t="s">
+        <v>838</v>
+      </c>
+      <c r="H12" t="s">
         <v>839</v>
-      </c>
-      <c r="H12" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8096,10 +8099,10 @@
         <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8107,10 +8110,10 @@
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8118,10 +8121,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8129,10 +8132,10 @@
         <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8146,10 +8149,10 @@
         <v>818</v>
       </c>
       <c r="G18" t="s">
-        <v>819</v>
+        <v>870</v>
       </c>
       <c r="H18" t="s">
-        <v>819</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8163,7 +8166,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8224,10 +8227,10 @@
         <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H25" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8287,10 +8290,10 @@
         <v>149</v>
       </c>
       <c r="G31" t="s">
+        <v>824</v>
+      </c>
+      <c r="H31" t="s">
         <v>825</v>
-      </c>
-      <c r="H31" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -8298,10 +8301,10 @@
         <v>149</v>
       </c>
       <c r="G32" t="s">
+        <v>826</v>
+      </c>
+      <c r="H32" t="s">
         <v>827</v>
-      </c>
-      <c r="H32" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8309,10 +8312,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
+        <v>822</v>
+      </c>
+      <c r="H33" t="s">
         <v>823</v>
-      </c>
-      <c r="H33" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8320,10 +8323,10 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -8331,10 +8334,10 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H35" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -8342,10 +8345,10 @@
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H36" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8353,10 +8356,10 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -8889,8 +8892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9444,9 +9447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9519,7 +9522,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -9527,10 +9530,10 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
+        <v>858</v>
+      </c>
+      <c r="H4" t="s">
         <v>859</v>
-      </c>
-      <c r="H4" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -9544,7 +9547,7 @@
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -9552,10 +9555,10 @@
         <v>149</v>
       </c>
       <c r="G7" t="s">
+        <v>860</v>
+      </c>
+      <c r="H7" t="s">
         <v>861</v>
-      </c>
-      <c r="H7" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9569,7 +9572,7 @@
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9577,10 +9580,10 @@
         <v>149</v>
       </c>
       <c r="G10" t="s">
+        <v>862</v>
+      </c>
+      <c r="H10" t="s">
         <v>863</v>
-      </c>
-      <c r="H10" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9594,7 +9597,7 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9602,10 +9605,10 @@
         <v>149</v>
       </c>
       <c r="G13" t="s">
+        <v>864</v>
+      </c>
+      <c r="H13" t="s">
         <v>865</v>
-      </c>
-      <c r="H13" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9619,7 +9622,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9627,10 +9630,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
+        <v>866</v>
+      </c>
+      <c r="H16" t="s">
         <v>867</v>
-      </c>
-      <c r="H16" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -9644,7 +9647,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9652,10 +9655,10 @@
         <v>149</v>
       </c>
       <c r="G19" t="s">
+        <v>868</v>
+      </c>
+      <c r="H19" t="s">
         <v>869</v>
-      </c>
-      <c r="H19" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10518,13 +10521,13 @@
         <v>88</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
       <c r="B109" s="54" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C109" s="54"/>
       <c r="D109" s="54"/>
@@ -11034,8 +11037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F13B89C-DCBD-44C1-B99A-3C3827EBF681}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11281,7 +11284,7 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11506,7 +11509,7 @@
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -11593,7 +11596,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -14093,8 +14096,8 @@
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2FCAC3-6234-4DBA-B4BC-E1E13B8EB526}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833B0EE-C399-48DE-947B-D0623E3A5821}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="871">
   <si>
     <t>setting_name</t>
   </si>
@@ -2508,6 +2508,9 @@
     <t>change</t>
   </si>
   <si>
+    <t>Want to change?</t>
+  </si>
+  <si>
     <t>do section stsc</t>
   </si>
   <si>
@@ -2659,12 +2662,6 @@
   </si>
   <si>
     <t>Last visit status: &lt;b&gt;Não visitada&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Want to change the infromation?</t>
-  </si>
-  <si>
-    <t>integer_dropdown</t>
   </si>
 </sst>
 </file>
@@ -4096,8 +4093,8 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5443,9 +5440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G211" sqref="G211"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,7 +5468,7 @@
         <v>625</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -5493,7 +5490,7 @@
         <v>710</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5537,7 +5534,7 @@
         <v>616</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5548,7 +5545,7 @@
         <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -5581,7 +5578,7 @@
         <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -5603,7 +5600,7 @@
         <v>699</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -5625,7 +5622,7 @@
         <v>701</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -5647,7 +5644,7 @@
         <v>595</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -5702,7 +5699,7 @@
         <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -5713,7 +5710,7 @@
         <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -5724,7 +5721,7 @@
         <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -5735,7 +5732,7 @@
         <v>367</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -5746,7 +5743,7 @@
         <v>357</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -5757,7 +5754,7 @@
         <v>375</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -5790,7 +5787,7 @@
         <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -5801,7 +5798,7 @@
         <v>355</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -5812,7 +5809,7 @@
         <v>374</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5834,7 +5831,7 @@
         <v>362</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -5845,7 +5842,7 @@
         <v>378</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -5878,7 +5875,7 @@
         <v>350</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -5889,7 +5886,7 @@
         <v>370</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5900,7 +5897,7 @@
         <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5911,7 +5908,7 @@
         <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5977,7 +5974,7 @@
         <v>695</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -5999,7 +5996,7 @@
         <v>326</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -6021,7 +6018,7 @@
         <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -6065,7 +6062,7 @@
         <v>660</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -6087,7 +6084,7 @@
         <v>703</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -6098,7 +6095,7 @@
         <v>630</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -6153,7 +6150,7 @@
         <v>705</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -6175,7 +6172,7 @@
         <v>670</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -6197,7 +6194,7 @@
         <v>677</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -6208,7 +6205,7 @@
         <v>641</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -6252,7 +6249,7 @@
         <v>618</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -6263,7 +6260,7 @@
         <v>621</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -6296,7 +6293,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -6307,7 +6304,7 @@
         <v>604</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -6340,7 +6337,7 @@
         <v>580</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -6362,7 +6359,7 @@
         <v>635</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -6428,7 +6425,7 @@
         <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -6450,7 +6447,7 @@
         <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -6483,7 +6480,7 @@
         <v>317</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -6527,7 +6524,7 @@
         <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -6538,7 +6535,7 @@
         <v>132</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -6549,7 +6546,7 @@
         <v>333</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -6560,7 +6557,7 @@
         <v>336</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -6582,7 +6579,7 @@
         <v>168</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -6593,7 +6590,7 @@
         <v>623</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -6604,7 +6601,7 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -6648,7 +6645,7 @@
         <v>689</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -6670,7 +6667,7 @@
         <v>686</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -6681,7 +6678,7 @@
         <v>256</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -6703,7 +6700,7 @@
         <v>588</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -6780,7 +6777,7 @@
         <v>649</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -6802,7 +6799,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -6824,7 +6821,7 @@
         <v>381</v>
       </c>
       <c r="B125" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C125" t="b">
         <v>0</v>
@@ -6857,7 +6854,7 @@
         <v>446</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C128" t="b">
         <v>0</v>
@@ -6901,7 +6898,7 @@
         <v>495</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -6945,7 +6942,7 @@
         <v>544</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -6978,7 +6975,7 @@
         <v>600</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -7011,7 +7008,7 @@
         <v>426</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -7055,7 +7052,7 @@
         <v>475</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -7099,7 +7096,7 @@
         <v>524</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -7121,7 +7118,7 @@
         <v>597</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -7154,7 +7151,7 @@
         <v>436</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -7198,7 +7195,7 @@
         <v>485</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C159" t="b">
         <v>0</v>
@@ -7242,7 +7239,7 @@
         <v>534</v>
       </c>
       <c r="B163" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -7286,7 +7283,7 @@
         <v>776</v>
       </c>
       <c r="B167" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -7297,7 +7294,7 @@
         <v>407</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C168" t="b">
         <v>0</v>
@@ -7330,7 +7327,7 @@
         <v>307</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -7341,7 +7338,7 @@
         <v>309</v>
       </c>
       <c r="B172" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C172" t="b">
         <v>0</v>
@@ -7363,7 +7360,7 @@
         <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C174" t="b">
         <v>0</v>
@@ -7407,7 +7404,7 @@
         <v>52</v>
       </c>
       <c r="B178" t="s">
-        <v>871</v>
+        <v>50</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -7451,7 +7448,7 @@
         <v>654</v>
       </c>
       <c r="B182" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
@@ -7495,7 +7492,7 @@
         <v>456</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
@@ -7539,7 +7536,7 @@
         <v>505</v>
       </c>
       <c r="B190" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
@@ -7561,7 +7558,7 @@
         <v>606</v>
       </c>
       <c r="B192" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -7594,7 +7591,7 @@
         <v>569</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -7627,7 +7624,7 @@
         <v>77</v>
       </c>
       <c r="B198" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
@@ -7638,7 +7635,7 @@
         <v>55</v>
       </c>
       <c r="B199" t="s">
-        <v>871</v>
+        <v>50</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -7649,7 +7646,7 @@
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C200" t="b">
         <v>0</v>
@@ -7660,7 +7657,7 @@
         <v>299</v>
       </c>
       <c r="B201" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -7671,7 +7668,7 @@
         <v>304</v>
       </c>
       <c r="B202" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
@@ -7682,7 +7679,7 @@
         <v>295</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -7693,7 +7690,7 @@
         <v>665</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -7770,7 +7767,7 @@
         <v>554</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -7789,7 +7786,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B213" s="53" t="s">
         <v>72</v>
@@ -7814,7 +7811,7 @@
         <v>818</v>
       </c>
       <c r="B216" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
@@ -7822,10 +7819,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C217" t="b">
         <v>1</v>
@@ -7833,10 +7830,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B218" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -7910,7 +7907,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7925,7 +7922,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7942,8 +7939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8005,10 +8002,10 @@
         <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8016,10 +8013,10 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8027,7 +8024,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8035,10 +8032,10 @@
         <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8051,7 +8048,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8059,10 +8056,10 @@
         <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8075,7 +8072,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8083,10 +8080,10 @@
         <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H12" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8099,10 +8096,10 @@
         <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8110,10 +8107,10 @@
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8121,10 +8118,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8132,10 +8129,10 @@
         <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H17" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8149,10 +8146,10 @@
         <v>818</v>
       </c>
       <c r="G18" t="s">
-        <v>870</v>
+        <v>819</v>
       </c>
       <c r="H18" t="s">
-        <v>870</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8166,7 +8163,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8227,10 +8224,10 @@
         <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H25" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8290,10 +8287,10 @@
         <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H31" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -8301,10 +8298,10 @@
         <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8312,10 +8309,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8323,10 +8320,10 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H34" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -8334,10 +8331,10 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H35" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -8345,10 +8342,10 @@
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H36" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8356,10 +8353,10 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H37" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -8892,8 +8889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9447,9 +9444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9522,7 +9519,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -9530,10 +9527,10 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -9547,7 +9544,7 @@
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -9555,10 +9552,10 @@
         <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H7" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9572,7 +9569,7 @@
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9580,10 +9577,10 @@
         <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H10" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9597,7 +9594,7 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9605,10 +9602,10 @@
         <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H13" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9622,7 +9619,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9630,10 +9627,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H16" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -9647,7 +9644,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9655,10 +9652,10 @@
         <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H19" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10521,13 +10518,13 @@
         <v>88</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
       <c r="B109" s="54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C109" s="54"/>
       <c r="D109" s="54"/>
@@ -11037,8 +11034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F13B89C-DCBD-44C1-B99A-3C3827EBF681}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11284,7 +11281,7 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11509,7 +11506,7 @@
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -11596,7 +11593,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -14096,8 +14093,8 @@
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2FCAC3-6234-4DBA-B4BC-E1E13B8EB526}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7ABD0F-6198-4F7E-B849-8A11E7B36DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="875">
   <si>
     <t>setting_name</t>
   </si>
@@ -2665,6 +2665,15 @@
   </si>
   <si>
     <t>integer_dropdown</t>
+  </si>
+  <si>
+    <t>ASSISTENTE</t>
+  </si>
+  <si>
+    <t>Name: {{data.ASSISTENTE}}</t>
+  </si>
+  <si>
+    <t>Nome: {{data.ASSISTENTE}}</t>
   </si>
 </sst>
 </file>
@@ -5441,11 +5450,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G211" sqref="G211"/>
+      <selection pane="bottomLeft" activeCell="C221" sqref="A221:C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7840,6 +7849,17 @@
       </c>
       <c r="C218" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>872</v>
+      </c>
+      <c r="B220" t="s">
+        <v>72</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7940,10 +7960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8016,93 +8036,93 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
+        <v>873</v>
+      </c>
+      <c r="H4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
         <v>826</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>149</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>833</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>88</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>149</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>836</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>149</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>838</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" t="s">
-        <v>849</v>
-      </c>
-      <c r="H14" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8110,10 +8130,10 @@
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="H15" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8121,10 +8141,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="H16" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8132,119 +8152,116 @@
         <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>829</v>
+      </c>
+      <c r="H18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>752</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>818</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>870</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
         <v>88</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="s">
-        <v>817</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>817</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>72</v>
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>848</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>850</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>848</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>850</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8252,13 +8269,13 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -8266,34 +8283,37 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
         <v>70</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>71</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" t="s">
-        <v>824</v>
-      </c>
-      <c r="H31" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -8301,10 +8321,10 @@
         <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H32" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8312,10 +8332,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="H33" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8323,10 +8343,10 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="H34" t="s">
-        <v>851</v>
+        <v>823</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -8334,10 +8354,10 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="H35" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -8345,10 +8365,10 @@
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="H36" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8356,25 +8376,36 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
+        <v>828</v>
+      </c>
+      <c r="H37" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" t="s">
         <v>829</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>260</v>
       </c>
     </row>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB188F39-6828-47A2-A548-43C912E134BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486FDD33-FAA9-4B8C-9748-D6A52D442779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="821">
   <si>
     <t>setting_name</t>
   </si>
@@ -2368,12 +2368,6 @@
   </si>
   <si>
     <t>ASSISTENTE</t>
-  </si>
-  <si>
-    <t>Name: {{data.ASSISTENTE}}</t>
-  </si>
-  <si>
-    <t>Nome: {{data.ASSISTENTE}}</t>
   </si>
   <si>
     <t>data('BCG') == null</t>
@@ -3248,9 +3242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD24"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7135,10 +7129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,93 +7205,93 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>773</v>
+        <v>726</v>
       </c>
       <c r="H4" t="s">
-        <v>774</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>149</v>
       </c>
-      <c r="G5" t="s">
-        <v>726</v>
-      </c>
-      <c r="H5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>730</v>
+      <c r="G6" t="s">
+        <v>733</v>
+      </c>
+      <c r="H6" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" t="s">
-        <v>733</v>
-      </c>
-      <c r="H7" t="s">
-        <v>734</v>
+      <c r="B7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>736</v>
+      </c>
+      <c r="H9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" t="s">
-        <v>736</v>
-      </c>
-      <c r="H10" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
+        <v>738</v>
+      </c>
+      <c r="H12" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>149</v>
       </c>
-      <c r="G13" t="s">
-        <v>738</v>
-      </c>
-      <c r="H13" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>103</v>
+      <c r="G14" t="s">
+        <v>749</v>
+      </c>
+      <c r="H14" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7305,10 +7299,10 @@
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="H15" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7316,10 +7310,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="H16" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7327,116 +7321,119 @@
         <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H17" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>149</v>
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>655</v>
+      </c>
+      <c r="F18" t="s">
+        <v>718</v>
       </c>
       <c r="G18" t="s">
-        <v>729</v>
+        <v>770</v>
       </c>
       <c r="H18" t="s">
-        <v>729</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>655</v>
-      </c>
-      <c r="F19" t="s">
-        <v>718</v>
-      </c>
-      <c r="G19" t="s">
-        <v>770</v>
-      </c>
-      <c r="H19" t="s">
-        <v>770</v>
+      <c r="B19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>720</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>717</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>717</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>748</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>748</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>750</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -7444,13 +7441,13 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -7458,37 +7455,34 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" t="s">
-        <v>71</v>
+      <c r="B29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>46</v>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" t="s">
+        <v>724</v>
+      </c>
+      <c r="H31" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -7496,10 +7490,10 @@
         <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H32" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -7507,10 +7501,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H33" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7518,10 +7512,10 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="H34" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -7529,10 +7523,10 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="H35" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -7540,10 +7534,10 @@
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="H36" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -7551,36 +7545,25 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H37" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" t="s">
-        <v>729</v>
-      </c>
-      <c r="H38" t="s">
-        <v>729</v>
+      <c r="B38" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
       <c r="B40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
         <v>260</v>
       </c>
     </row>
@@ -11039,7 +11022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
@@ -11100,7 +11083,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -11168,10 +11151,10 @@
         <v>390</v>
       </c>
       <c r="G10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11205,7 +11188,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11273,10 +11256,10 @@
         <v>397</v>
       </c>
       <c r="G22" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H22" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -11320,7 +11303,7 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -11388,10 +11371,10 @@
         <v>404</v>
       </c>
       <c r="G36" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H36" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -11425,7 +11408,7 @@
         <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -11517,10 +11500,10 @@
         <v>410</v>
       </c>
       <c r="G51" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H51" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -11554,7 +11537,7 @@
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -11646,10 +11629,10 @@
         <v>416</v>
       </c>
       <c r="G66" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H66" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -11683,7 +11666,7 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -11775,10 +11758,10 @@
         <v>422</v>
       </c>
       <c r="G81" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H81" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -11822,7 +11805,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -11890,10 +11873,10 @@
         <v>429</v>
       </c>
       <c r="G95" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H95" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -11927,7 +11910,7 @@
         <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -12019,10 +12002,10 @@
         <v>435</v>
       </c>
       <c r="G110" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H110" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -12056,7 +12039,7 @@
         <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -12148,10 +12131,10 @@
         <v>441</v>
       </c>
       <c r="G125" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H125" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -12185,7 +12168,7 @@
         <v>88</v>
       </c>
       <c r="C130" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
@@ -12277,10 +12260,10 @@
         <v>447</v>
       </c>
       <c r="G140" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H140" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
@@ -12324,7 +12307,7 @@
         <v>88</v>
       </c>
       <c r="C147" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
@@ -12392,10 +12375,10 @@
         <v>454</v>
       </c>
       <c r="G154" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H154" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -12429,7 +12412,7 @@
         <v>88</v>
       </c>
       <c r="C159" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -12521,10 +12504,10 @@
         <v>460</v>
       </c>
       <c r="G169" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H169" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
@@ -12558,7 +12541,7 @@
         <v>88</v>
       </c>
       <c r="C174" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
@@ -12650,10 +12633,10 @@
         <v>466</v>
       </c>
       <c r="G184" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H184" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
@@ -12687,7 +12670,7 @@
         <v>88</v>
       </c>
       <c r="C189" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
@@ -12779,10 +12762,10 @@
         <v>472</v>
       </c>
       <c r="G199" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H199" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
@@ -12826,7 +12809,7 @@
         <v>88</v>
       </c>
       <c r="C206" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
@@ -12894,10 +12877,10 @@
         <v>479</v>
       </c>
       <c r="G213" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H213" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
@@ -12931,7 +12914,7 @@
         <v>88</v>
       </c>
       <c r="C218" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
@@ -12999,10 +12982,10 @@
         <v>486</v>
       </c>
       <c r="G225" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H225" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486FDD33-FAA9-4B8C-9748-D6A52D442779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE8D4F-6697-4FE1-95FC-E94CCC37E3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="827">
   <si>
     <t>setting_name</t>
   </si>
@@ -1020,9 +1020,6 @@
     <t>What are the childs MUAC Mesurements in MM</t>
   </si>
   <si>
-    <t>Must be 342, 50 or between</t>
-  </si>
-  <si>
     <t>Scar</t>
   </si>
   <si>
@@ -2292,9 +2289,6 @@
     <t>data('CONS2') =='1'</t>
   </si>
   <si>
-    <t>cont</t>
-  </si>
-  <si>
     <t>Mothers name</t>
   </si>
   <si>
@@ -2512,6 +2506,30 @@
   </si>
   <si>
     <t>FEBAMAREL vacina {{data.FEBAMAREL}}</t>
+  </si>
+  <si>
+    <t>lastvisitdate</t>
+  </si>
+  <si>
+    <t>Last visit date: {{data.lastvisitdate}}</t>
+  </si>
+  <si>
+    <t>The child must be below the age of 5:</t>
+  </si>
+  <si>
+    <t>Must be between 50 and 342 and a even number:</t>
+  </si>
+  <si>
+    <t>(data('BRACOCRI')&gt;49 &amp;&amp; data('BRACOCRI')&lt;343 &amp;&amp; data('BRACOCRI')%2 == 0) ||data('PRES') != '1'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('EXITDATA'), data('lastvisitdate'))&gt;0 || data('PRES') != '1'</t>
+  </si>
+  <si>
+    <t>Exitdate cannot be before the last visit</t>
+  </si>
+  <si>
+    <t>adate.ageInYears(data('OUTDATE'))&lt;5 || data('lastvisitdate') != null</t>
   </si>
 </sst>
 </file>
@@ -3304,22 +3322,22 @@
         <v>282</v>
       </c>
       <c r="C2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" t="s">
         <v>673</v>
       </c>
-      <c r="D2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>674</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>675</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="51" t="s">
         <v>676</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>677</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="50"/>
@@ -3437,7 +3455,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -4050,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
+        <v>619</v>
+      </c>
+      <c r="D41" t="s">
         <v>620</v>
-      </c>
-      <c r="D41" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
+        <v>621</v>
+      </c>
+      <c r="D42" t="s">
         <v>622</v>
-      </c>
-      <c r="D42" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4080,10 +4098,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>623</v>
+      </c>
+      <c r="D43" t="s">
         <v>624</v>
-      </c>
-      <c r="D43" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,10 +4113,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
+        <v>625</v>
+      </c>
+      <c r="D44" t="s">
         <v>626</v>
-      </c>
-      <c r="D44" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4110,10 +4128,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
+        <v>627</v>
+      </c>
+      <c r="D45" t="s">
         <v>628</v>
-      </c>
-      <c r="D45" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4125,10 +4143,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
+        <v>629</v>
+      </c>
+      <c r="D46" t="s">
         <v>630</v>
-      </c>
-      <c r="D46" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,10 +4157,10 @@
         <v>231</v>
       </c>
       <c r="C47" t="s">
+        <v>631</v>
+      </c>
+      <c r="D47" t="s">
         <v>632</v>
-      </c>
-      <c r="D47" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4153,10 +4171,10 @@
         <v>234</v>
       </c>
       <c r="C48" t="s">
+        <v>633</v>
+      </c>
+      <c r="D48" t="s">
         <v>634</v>
-      </c>
-      <c r="D48" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,10 +4185,10 @@
         <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4181,10 +4199,10 @@
         <v>243</v>
       </c>
       <c r="C50" t="s">
+        <v>636</v>
+      </c>
+      <c r="D50" t="s">
         <v>637</v>
-      </c>
-      <c r="D50" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,10 +4214,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>638</v>
+      </c>
+      <c r="D51" t="s">
         <v>639</v>
-      </c>
-      <c r="D51" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,10 +4229,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
+        <v>640</v>
+      </c>
+      <c r="D52" t="s">
         <v>641</v>
-      </c>
-      <c r="D52" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D53" t="s">
         <v>83</v>
@@ -4241,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
+        <v>643</v>
+      </c>
+      <c r="D54" t="s">
         <v>644</v>
-      </c>
-      <c r="D54" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,10 +4274,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
+        <v>645</v>
+      </c>
+      <c r="D55" t="s">
         <v>646</v>
-      </c>
-      <c r="D55" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4271,10 +4289,10 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
+        <v>647</v>
+      </c>
+      <c r="D56" t="s">
         <v>648</v>
-      </c>
-      <c r="D56" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,14 +4312,14 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B58" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D58" t="s">
         <v>97</v>
@@ -4309,22 +4327,22 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B59" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C59" t="s">
+        <v>650</v>
+      </c>
+      <c r="D59" t="s">
         <v>651</v>
-      </c>
-      <c r="D59" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" t="str">
         <f>"3"</f>
@@ -4339,14 +4357,14 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D61" t="s">
         <v>83</v>
@@ -4354,77 +4372,77 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B62" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B63" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B64" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B65" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D65" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D67" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,7 +4477,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
@@ -4474,7 +4492,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B70" t="str">
         <f>"2"</f>
@@ -4489,37 +4507,37 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B71" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
+        <v>655</v>
+      </c>
+      <c r="D71" t="s">
         <v>656</v>
-      </c>
-      <c r="D71" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C72" t="s">
+        <v>657</v>
+      </c>
+      <c r="D72" t="s">
         <v>658</v>
-      </c>
-      <c r="D72" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B73" t="str">
         <f>"3"</f>
@@ -4534,107 +4552,107 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B74" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B75" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B76" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B77" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B78" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B79" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B80" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4661,10 +4679,10 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,10 +4709,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D84" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,7 +4747,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B87" t="str">
         <f>"1"</f>
@@ -4744,22 +4762,22 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B88" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D88" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B89" t="str">
         <f>"3"</f>
@@ -4774,7 +4792,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" t="str">
         <f>"4"</f>
@@ -4798,8 +4816,8 @@
   <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,7 +4840,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -4833,7 +4851,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>72</v>
@@ -4844,7 +4862,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -4855,7 +4873,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -4866,7 +4884,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>72</v>
@@ -4888,7 +4906,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -4910,7 +4928,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B10" t="s">
         <v>120</v>
@@ -4921,7 +4939,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -4932,10 +4950,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4943,7 +4961,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -4954,7 +4972,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>72</v>
@@ -4965,7 +4983,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -4987,7 +5005,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -4998,7 +5016,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
         <v>120</v>
@@ -5009,7 +5027,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>120</v>
@@ -5020,7 +5038,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -5031,7 +5049,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -5042,7 +5060,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -5053,7 +5071,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -5064,7 +5082,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -5075,7 +5093,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -5086,7 +5104,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -5097,7 +5115,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -5108,7 +5126,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -5119,7 +5137,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -5130,7 +5148,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -5141,7 +5159,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -5152,7 +5170,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -5163,10 +5181,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5174,7 +5192,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -5185,7 +5203,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -5196,7 +5214,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -5207,7 +5225,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -5218,7 +5236,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -5229,7 +5247,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -5273,7 +5291,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -5317,7 +5335,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -5328,7 +5346,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -5339,7 +5357,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -5350,7 +5368,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -5372,7 +5390,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
@@ -5394,7 +5412,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -5405,7 +5423,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -5416,7 +5434,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>72</v>
@@ -5427,7 +5445,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -5438,7 +5456,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
@@ -5449,7 +5467,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>72</v>
@@ -5493,7 +5511,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -5504,7 +5522,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
@@ -5515,7 +5533,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
@@ -5526,7 +5544,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>72</v>
@@ -5537,7 +5555,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -5548,7 +5566,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -5559,7 +5577,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>72</v>
@@ -5570,7 +5588,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>72</v>
@@ -5581,7 +5599,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
@@ -5592,7 +5610,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -5603,7 +5621,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
@@ -5647,7 +5665,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -5658,7 +5676,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B78" t="s">
         <v>120</v>
@@ -5669,7 +5687,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -5680,10 +5698,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -5691,7 +5709,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
@@ -5702,7 +5720,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>72</v>
@@ -5746,7 +5764,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -5790,7 +5808,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>72</v>
@@ -5801,7 +5819,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>72</v>
@@ -5878,7 +5896,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
@@ -5889,7 +5907,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -5922,7 +5940,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B102" t="s">
         <v>25</v>
@@ -5944,7 +5962,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B104" t="s">
         <v>25</v>
@@ -5966,7 +5984,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B106" t="s">
         <v>25</v>
@@ -5977,7 +5995,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B107" t="s">
         <v>25</v>
@@ -5988,7 +6006,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B108" t="s">
         <v>72</v>
@@ -5999,7 +6017,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
@@ -6032,7 +6050,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>25</v>
@@ -6043,7 +6061,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B113" t="s">
         <v>72</v>
@@ -6065,7 +6083,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B115" t="s">
         <v>120</v>
@@ -6076,7 +6094,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>72</v>
@@ -6087,7 +6105,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B117" t="s">
         <v>120</v>
@@ -6098,7 +6116,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>72</v>
@@ -6109,7 +6127,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B119" t="s">
         <v>25</v>
@@ -6120,7 +6138,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>72</v>
@@ -6142,7 +6160,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -6153,7 +6171,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -6164,7 +6182,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B124" t="s">
         <v>120</v>
@@ -6175,7 +6193,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B125" t="s">
         <v>25</v>
@@ -6186,10 +6204,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
@@ -6197,7 +6215,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B127" t="s">
         <v>120</v>
@@ -6208,7 +6226,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B128" t="s">
         <v>25</v>
@@ -6219,10 +6237,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -6230,7 +6248,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B130" t="s">
         <v>120</v>
@@ -6241,7 +6259,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B131" t="s">
         <v>25</v>
@@ -6252,10 +6270,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -6263,7 +6281,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
@@ -6274,7 +6292,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
@@ -6285,7 +6303,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s">
         <v>120</v>
@@ -6296,7 +6314,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s">
         <v>25</v>
@@ -6307,10 +6325,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>
@@ -6318,7 +6336,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B138" t="s">
         <v>120</v>
@@ -6329,7 +6347,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
@@ -6340,10 +6358,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C140" t="b">
         <v>1</v>
@@ -6351,7 +6369,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B141" t="s">
         <v>120</v>
@@ -6362,7 +6380,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B142" t="s">
         <v>25</v>
@@ -6373,10 +6391,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C143" t="b">
         <v>1</v>
@@ -6384,7 +6402,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B144" t="s">
         <v>25</v>
@@ -6395,7 +6413,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B145" t="s">
         <v>120</v>
@@ -6406,7 +6424,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B146" t="s">
         <v>25</v>
@@ -6417,10 +6435,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C147" t="b">
         <v>1</v>
@@ -6428,7 +6446,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B148" t="s">
         <v>120</v>
@@ -6439,7 +6457,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B149" t="s">
         <v>25</v>
@@ -6450,10 +6468,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C150" t="b">
         <v>1</v>
@@ -6461,7 +6479,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B151" t="s">
         <v>120</v>
@@ -6472,7 +6490,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B152" t="s">
         <v>25</v>
@@ -6483,10 +6501,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C153" t="b">
         <v>1</v>
@@ -6494,7 +6512,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B154" t="s">
         <v>120</v>
@@ -6505,7 +6523,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
@@ -6516,7 +6534,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B156" t="s">
         <v>25</v>
@@ -6527,10 +6545,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C157" t="b">
         <v>1</v>
@@ -6538,7 +6556,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B158" t="s">
         <v>25</v>
@@ -6593,7 +6611,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>72</v>
@@ -6629,7 +6647,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C166" t="b">
         <v>0</v>
@@ -6670,7 +6688,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B170" t="s">
         <v>25</v>
@@ -6681,7 +6699,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>72</v>
@@ -6692,7 +6710,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B172" t="s">
         <v>120</v>
@@ -6703,7 +6721,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B173" t="s">
         <v>25</v>
@@ -6714,10 +6732,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -6725,7 +6743,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B175" t="s">
         <v>120</v>
@@ -6736,7 +6754,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B176" t="s">
         <v>25</v>
@@ -6747,10 +6765,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C177" t="b">
         <v>1</v>
@@ -6758,7 +6776,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B178" t="s">
         <v>25</v>
@@ -6769,7 +6787,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B179" t="s">
         <v>120</v>
@@ -6780,7 +6798,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B180" t="s">
         <v>25</v>
@@ -6791,10 +6809,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C181" t="b">
         <v>1</v>
@@ -6802,7 +6820,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
@@ -6827,7 +6845,7 @@
         <v>55</v>
       </c>
       <c r="B184" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -6879,7 +6897,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B189" t="s">
         <v>25</v>
@@ -6890,7 +6908,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>72</v>
@@ -6912,7 +6930,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B192" t="s">
         <v>120</v>
@@ -6923,7 +6941,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B193" t="s">
         <v>72</v>
@@ -6934,7 +6952,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B194" t="s">
         <v>120</v>
@@ -6945,7 +6963,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B195" t="s">
         <v>25</v>
@@ -6956,10 +6974,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C196" t="b">
         <v>1</v>
@@ -6967,7 +6985,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B197" s="52" t="s">
         <v>72</v>
@@ -6978,7 +6996,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
@@ -6989,7 +7007,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
@@ -7000,7 +7018,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -7011,10 +7029,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>747</v>
+        <v>819</v>
       </c>
       <c r="B202" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -7022,7 +7040,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B204" t="s">
         <v>72</v>
@@ -7099,7 +7117,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7114,7 +7132,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7131,8 +7149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,10 +7212,10 @@
         <v>149</v>
       </c>
       <c r="G3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H3" t="s">
         <v>724</v>
-      </c>
-      <c r="H3" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7205,10 +7223,10 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
+        <v>725</v>
+      </c>
+      <c r="H4" t="s">
         <v>726</v>
-      </c>
-      <c r="H4" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7216,7 +7234,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7224,10 +7242,10 @@
         <v>149</v>
       </c>
       <c r="G6" t="s">
+        <v>732</v>
+      </c>
+      <c r="H6" t="s">
         <v>733</v>
-      </c>
-      <c r="H6" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7240,7 +7258,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7248,10 +7266,10 @@
         <v>149</v>
       </c>
       <c r="G9" t="s">
+        <v>735</v>
+      </c>
+      <c r="H9" t="s">
         <v>736</v>
-      </c>
-      <c r="H9" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7264,7 +7282,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7272,10 +7290,10 @@
         <v>149</v>
       </c>
       <c r="G12" t="s">
+        <v>737</v>
+      </c>
+      <c r="H12" t="s">
         <v>738</v>
-      </c>
-      <c r="H12" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7288,10 +7306,10 @@
         <v>149</v>
       </c>
       <c r="G14" t="s">
+        <v>747</v>
+      </c>
+      <c r="H14" t="s">
         <v>749</v>
-      </c>
-      <c r="H14" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7299,10 +7317,10 @@
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7310,10 +7328,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7321,10 +7339,10 @@
         <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7332,16 +7350,16 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G18" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H18" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7355,7 +7373,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7368,7 +7386,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G22" t="s">
         <v>74</v>
@@ -7416,10 +7434,10 @@
         <v>118</v>
       </c>
       <c r="G25" t="s">
+        <v>746</v>
+      </c>
+      <c r="H25" t="s">
         <v>748</v>
-      </c>
-      <c r="H25" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -7479,10 +7497,10 @@
         <v>149</v>
       </c>
       <c r="G31" t="s">
+        <v>723</v>
+      </c>
+      <c r="H31" t="s">
         <v>724</v>
-      </c>
-      <c r="H31" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -7490,10 +7508,10 @@
         <v>149</v>
       </c>
       <c r="G32" t="s">
+        <v>725</v>
+      </c>
+      <c r="H32" t="s">
         <v>726</v>
-      </c>
-      <c r="H32" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -7501,10 +7519,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
+        <v>721</v>
+      </c>
+      <c r="H33" t="s">
         <v>722</v>
-      </c>
-      <c r="H33" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7512,10 +7530,10 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
+        <v>747</v>
+      </c>
+      <c r="H34" t="s">
         <v>749</v>
-      </c>
-      <c r="H34" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -7523,10 +7541,10 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -7534,10 +7552,10 @@
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H36" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -7545,10 +7563,10 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -7574,11 +7592,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7594,9 +7612,12 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -7630,8 +7651,17 @@
       <c r="K1" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>88</v>
@@ -7641,14 +7671,14 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="D4" s="16" t="s">
         <v>22</v>
@@ -7667,31 +7697,31 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
         <v>47</v>
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
         <v>103</v>
       </c>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G8" t="s">
         <v>74</v>
@@ -7700,7 +7730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>22</v>
       </c>
@@ -7717,7 +7747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>120</v>
       </c>
@@ -7730,13 +7760,22 @@
       <c r="H10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>826</v>
+      </c>
+      <c r="M10" t="s">
+        <v>821</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>88</v>
       </c>
@@ -7744,12 +7783,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>50</v>
       </c>
@@ -7766,7 +7805,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>50</v>
       </c>
@@ -7786,7 +7825,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>25</v>
       </c>
@@ -7816,7 +7855,7 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -7846,7 +7885,7 @@
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -7863,7 +7902,7 @@
         <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -7880,7 +7919,7 @@
         <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -7897,7 +7936,7 @@
         <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -8056,7 +8095,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -8081,7 +8120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -8634,11 +8673,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8711,7 +8750,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8719,10 +8758,10 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8736,7 +8775,7 @@
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8744,10 +8783,10 @@
         <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -8761,7 +8800,7 @@
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -8769,10 +8808,10 @@
         <v>149</v>
       </c>
       <c r="G10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -8786,7 +8825,7 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -8794,10 +8833,10 @@
         <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -8811,7 +8850,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -8819,183 +8858,196 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H16" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H19" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>820</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>264</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>265</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>266</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="D23" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="D24" t="s">
         <v>120</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>269</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>270</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" t="s">
+      <c r="K24" t="s">
+        <v>824</v>
+      </c>
+      <c r="L24" t="s">
+        <v>825</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="D25" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>273</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>274</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="D30" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="D31" t="s">
         <v>22</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>277</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>278</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>279</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" t="s">
-        <v>671</v>
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -9003,199 +9055,189 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" t="s">
-        <v>285</v>
-      </c>
-      <c r="H38" t="s">
-        <v>285</v>
+      <c r="B38" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>286</v>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" t="s">
-        <v>287</v>
-      </c>
-      <c r="H40" t="s">
-        <v>287</v>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
-      <c r="B42" t="s">
-        <v>103</v>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>288</v>
+      </c>
+      <c r="H42" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G47" t="s">
-        <v>290</v>
-      </c>
-      <c r="H47" t="s">
-        <v>290</v>
+      <c r="B47" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="B48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" t="s">
-        <v>291</v>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" t="s">
+        <v>290</v>
+      </c>
+      <c r="H48" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
-      <c r="D49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" t="s">
-        <v>292</v>
-      </c>
-      <c r="H49" t="s">
-        <v>292</v>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
-      <c r="B51" t="s">
-        <v>103</v>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" t="s">
+        <v>293</v>
+      </c>
+      <c r="H51" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
-      <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" t="s">
-        <v>294</v>
-      </c>
-      <c r="G55" t="s">
-        <v>295</v>
-      </c>
-      <c r="H55" t="s">
-        <v>296</v>
+      <c r="B55" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -9204,79 +9246,79 @@
         <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G56" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H56" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
-      <c r="B57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" t="s">
-        <v>301</v>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>297</v>
+      </c>
+      <c r="F57" t="s">
+        <v>298</v>
+      </c>
+      <c r="G57" t="s">
+        <v>299</v>
+      </c>
+      <c r="H57" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
-        <v>302</v>
-      </c>
-      <c r="F58" t="s">
-        <v>303</v>
-      </c>
-      <c r="G58" t="s">
-        <v>304</v>
-      </c>
-      <c r="H58" t="s">
-        <v>305</v>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
-      <c r="B59" t="s">
-        <v>103</v>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" t="s">
+        <v>304</v>
+      </c>
+      <c r="H59" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
-      <c r="D62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" t="s">
-        <v>306</v>
-      </c>
-      <c r="G62" t="s">
-        <v>307</v>
-      </c>
-      <c r="H62" t="s">
-        <v>307</v>
+      <c r="B62" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -9288,122 +9330,135 @@
         <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" t="s">
+        <v>309</v>
+      </c>
+      <c r="H64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s">
-        <v>93</v>
-      </c>
-      <c r="F67" t="s">
-        <v>113</v>
-      </c>
-      <c r="G67" t="s">
-        <v>311</v>
-      </c>
-      <c r="H67" t="s">
-        <v>311</v>
+      <c r="B67" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>312</v>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" t="s">
+        <v>311</v>
+      </c>
+      <c r="H68" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
-      <c r="D69" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" t="s">
-        <v>313</v>
-      </c>
-      <c r="H69" t="s">
-        <v>313</v>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
-      <c r="B72" t="s">
-        <v>103</v>
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72" t="s">
+        <v>315</v>
+      </c>
+      <c r="H72" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -9412,181 +9467,174 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
-      <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" t="s">
-        <v>316</v>
-      </c>
-      <c r="G77" t="s">
-        <v>317</v>
-      </c>
-      <c r="H77" t="s">
-        <v>317</v>
+      <c r="B77" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" t="s">
+        <v>316</v>
+      </c>
+      <c r="G78" t="s">
+        <v>317</v>
+      </c>
+      <c r="H78" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
-      <c r="D81" t="s">
-        <v>149</v>
-      </c>
-      <c r="G81" t="s">
-        <v>195</v>
-      </c>
-      <c r="H81" t="s">
-        <v>195</v>
+      <c r="B81" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="D82" t="s">
-        <v>282</v>
-      </c>
-      <c r="E82" t="s">
-        <v>319</v>
+        <v>149</v>
+      </c>
+      <c r="G82" t="s">
+        <v>195</v>
+      </c>
+      <c r="H82" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
-      <c r="D87" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" t="s">
-        <v>321</v>
-      </c>
-      <c r="G87" t="s">
-        <v>322</v>
-      </c>
-      <c r="H87" t="s">
-        <v>322</v>
-      </c>
-      <c r="L87" t="s">
-        <v>323</v>
-      </c>
-      <c r="M87" t="s">
-        <v>323</v>
+      <c r="B87" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>321</v>
+      </c>
+      <c r="G88" t="s">
+        <v>322</v>
+      </c>
+      <c r="H88" t="s">
+        <v>322</v>
+      </c>
+      <c r="K88" t="s">
+        <v>823</v>
+      </c>
+      <c r="L88" t="s">
+        <v>822</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="B89" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
-      <c r="D90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" t="s">
-        <v>324</v>
-      </c>
-      <c r="F90" t="s">
-        <v>325</v>
-      </c>
-      <c r="G90" t="s">
-        <v>326</v>
-      </c>
-      <c r="H90" t="s">
-        <v>326</v>
+      <c r="B90" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>323</v>
+      </c>
+      <c r="F91" t="s">
+        <v>324</v>
+      </c>
+      <c r="G91" t="s">
+        <v>325</v>
+      </c>
+      <c r="H91" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="30"/>
+      <c r="B92" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C92" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" t="s">
-        <v>46</v>
+      <c r="C93" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="31"/>
-      <c r="D94" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" t="s">
-        <v>328</v>
-      </c>
-      <c r="G94" t="s">
-        <v>329</v>
-      </c>
-      <c r="H94" t="s">
-        <v>329</v>
+      <c r="B94" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -9595,140 +9643,143 @@
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G95" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H95" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="31"/>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>329</v>
+      </c>
+      <c r="G96" t="s">
+        <v>330</v>
+      </c>
+      <c r="H96" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="31"/>
+      <c r="B97" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
-      <c r="D99" t="s">
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="D100" t="s">
         <v>22</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>93</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
+        <v>331</v>
+      </c>
+      <c r="G100" t="s">
         <v>332</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" t="s">
         <v>333</v>
       </c>
-      <c r="H99" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19" t="s">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102" t="s">
+        <v>334</v>
+      </c>
+      <c r="G102" t="s">
+        <v>335</v>
+      </c>
+      <c r="H102" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="19"/>
+      <c r="B103" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>88</v>
       </c>
-      <c r="C100" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
-        <v>93</v>
-      </c>
-      <c r="F101" t="s">
-        <v>335</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="C106" t="s">
         <v>336</v>
       </c>
-      <c r="H101" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19" t="s">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="27"/>
+      <c r="B107" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="28"/>
-      <c r="B104" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="54"/>
+      <c r="B109" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C105" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
-      <c r="B106" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
-      <c r="B108" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C108" s="54" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
-        <v>743</v>
-      </c>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
+      <c r="C109" s="54" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="53"/>
       <c r="B110" s="53" t="s">
-        <v>103</v>
+        <v>742</v>
       </c>
       <c r="C110" s="53"/>
       <c r="D110" s="53"/>
@@ -9738,64 +9789,66 @@
       <c r="H110" s="53"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="A111" s="53"/>
+      <c r="B111" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>88</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="30"/>
-      <c r="B112" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
-      <c r="D113" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113" t="s">
-        <v>93</v>
-      </c>
-      <c r="F113" t="s">
-        <v>380</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>381</v>
+      <c r="B113" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s">
+        <v>93</v>
+      </c>
+      <c r="F114" t="s">
+        <v>379</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="30"/>
+      <c r="B115" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
-      <c r="B115" s="53" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="53"/>
+      <c r="B116" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
-      <c r="H115" s="53"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="53"/>
-      <c r="E123" s="53"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="53"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="53"/>
@@ -10217,6 +10270,16 @@
       <c r="G165" s="53"/>
       <c r="H165" s="53"/>
     </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="53"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="53"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="53"/>
+      <c r="H166" s="53"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10226,8 +10289,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F13B89C-DCBD-44C1-B99A-3C3827EBF681}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10302,13 +10367,13 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" t="s">
         <v>338</v>
       </c>
-      <c r="G3" t="s">
-        <v>339</v>
-      </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -10323,7 +10388,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -10335,19 +10400,19 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="D7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" t="s">
         <v>341</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>342</v>
       </c>
-      <c r="F7" t="s">
-        <v>343</v>
-      </c>
       <c r="G7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10371,13 +10436,13 @@
         <v>93</v>
       </c>
       <c r="F10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" t="s">
         <v>344</v>
       </c>
-      <c r="G10" t="s">
-        <v>345</v>
-      </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10386,7 +10451,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -10395,13 +10460,13 @@
         <v>120</v>
       </c>
       <c r="F12" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" t="s">
         <v>347</v>
       </c>
-      <c r="G12" t="s">
-        <v>348</v>
-      </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10413,13 +10478,13 @@
         <v>93</v>
       </c>
       <c r="F13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" t="s">
         <v>349</v>
       </c>
-      <c r="G13" t="s">
-        <v>350</v>
-      </c>
       <c r="H13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -10440,7 +10505,7 @@
         <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -10458,13 +10523,13 @@
         <v>167</v>
       </c>
       <c r="F18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G18" t="s">
         <v>351</v>
       </c>
-      <c r="G18" t="s">
-        <v>352</v>
-      </c>
       <c r="H18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -10473,7 +10538,7 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10482,13 +10547,13 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -10518,13 +10583,13 @@
         <v>93</v>
       </c>
       <c r="F24" t="s">
+        <v>353</v>
+      </c>
+      <c r="G24" t="s">
         <v>354</v>
       </c>
-      <c r="G24" t="s">
-        <v>355</v>
-      </c>
       <c r="H24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -10548,13 +10613,13 @@
         <v>93</v>
       </c>
       <c r="F27" t="s">
+        <v>355</v>
+      </c>
+      <c r="G27" t="s">
         <v>356</v>
       </c>
-      <c r="G27" t="s">
-        <v>357</v>
-      </c>
       <c r="H27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -10563,7 +10628,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -10572,13 +10637,13 @@
         <v>72</v>
       </c>
       <c r="F29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" t="s">
         <v>359</v>
       </c>
-      <c r="G29" t="s">
-        <v>360</v>
-      </c>
       <c r="H29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -10599,7 +10664,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -10617,13 +10682,13 @@
         <v>93</v>
       </c>
       <c r="F34" t="s">
+        <v>360</v>
+      </c>
+      <c r="G34" t="s">
         <v>361</v>
       </c>
-      <c r="G34" t="s">
-        <v>362</v>
-      </c>
       <c r="H34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -10632,7 +10697,7 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -10641,13 +10706,13 @@
         <v>72</v>
       </c>
       <c r="F36" t="s">
+        <v>363</v>
+      </c>
+      <c r="G36" t="s">
         <v>364</v>
       </c>
-      <c r="G36" t="s">
-        <v>365</v>
-      </c>
       <c r="H36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -10683,13 +10748,13 @@
         <v>93</v>
       </c>
       <c r="F41" t="s">
+        <v>365</v>
+      </c>
+      <c r="G41" t="s">
         <v>366</v>
       </c>
-      <c r="G41" t="s">
-        <v>367</v>
-      </c>
       <c r="H41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -10698,7 +10763,7 @@
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -10707,13 +10772,13 @@
         <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -10725,13 +10790,13 @@
         <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -10752,7 +10817,7 @@
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -10770,13 +10835,13 @@
         <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -10785,7 +10850,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -10794,13 +10859,13 @@
         <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -10830,13 +10895,13 @@
         <v>93</v>
       </c>
       <c r="F55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -10860,13 +10925,13 @@
         <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -10875,7 +10940,7 @@
         <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -10884,13 +10949,13 @@
         <v>72</v>
       </c>
       <c r="F60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -10911,7 +10976,7 @@
         <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -10929,13 +10994,13 @@
         <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -10944,7 +11009,7 @@
         <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -10953,13 +11018,13 @@
         <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -11022,7 +11087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
@@ -11083,7 +11148,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -11091,24 +11156,24 @@
         <v>120</v>
       </c>
       <c r="F4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" t="s">
         <v>382</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>383</v>
-      </c>
-      <c r="H4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" t="s">
         <v>385</v>
-      </c>
-      <c r="F5" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -11116,7 +11181,7 @@
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -11124,10 +11189,10 @@
         <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11145,16 +11210,16 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" t="s">
         <v>389</v>
       </c>
-      <c r="F10" t="s">
-        <v>390</v>
-      </c>
       <c r="G10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11162,7 +11227,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11170,7 +11235,7 @@
         <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11188,7 +11253,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11196,24 +11261,24 @@
         <v>120</v>
       </c>
       <c r="F16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" t="s">
         <v>392</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>393</v>
-      </c>
-      <c r="H16" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -11221,7 +11286,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -11229,10 +11294,10 @@
         <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -11250,16 +11315,16 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G22" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H22" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -11267,7 +11332,7 @@
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -11275,7 +11340,7 @@
         <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -11303,7 +11368,7 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -11311,24 +11376,24 @@
         <v>120</v>
       </c>
       <c r="F30" t="s">
+        <v>398</v>
+      </c>
+      <c r="G30" t="s">
         <v>399</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>400</v>
-      </c>
-      <c r="H30" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -11336,7 +11401,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -11344,10 +11409,10 @@
         <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -11365,16 +11430,16 @@
         <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G36" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H36" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -11382,7 +11447,7 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -11390,7 +11455,7 @@
         <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -11408,7 +11473,7 @@
         <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -11416,24 +11481,24 @@
         <v>120</v>
       </c>
       <c r="F42" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" t="s">
         <v>406</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>407</v>
-      </c>
-      <c r="H42" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E43" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -11441,7 +11506,7 @@
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -11449,10 +11514,10 @@
         <v>126</v>
       </c>
       <c r="F45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -11465,7 +11530,7 @@
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -11473,10 +11538,10 @@
         <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -11494,16 +11559,16 @@
         <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G51" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H51" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -11511,7 +11576,7 @@
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -11519,7 +11584,7 @@
         <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -11537,7 +11602,7 @@
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -11545,24 +11610,24 @@
         <v>120</v>
       </c>
       <c r="F57" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" t="s">
         <v>412</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>413</v>
-      </c>
-      <c r="H57" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -11570,7 +11635,7 @@
         <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -11578,10 +11643,10 @@
         <v>126</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I60" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -11594,7 +11659,7 @@
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -11602,10 +11667,10 @@
         <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -11623,16 +11688,16 @@
         <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G66" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H66" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -11640,7 +11705,7 @@
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -11648,7 +11713,7 @@
         <v>120</v>
       </c>
       <c r="F68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -11666,7 +11731,7 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -11674,24 +11739,24 @@
         <v>120</v>
       </c>
       <c r="F72" t="s">
+        <v>417</v>
+      </c>
+      <c r="G72" t="s">
         <v>418</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>419</v>
-      </c>
-      <c r="H72" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E73" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -11699,7 +11764,7 @@
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -11707,10 +11772,10 @@
         <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I75" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -11723,7 +11788,7 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -11731,10 +11796,10 @@
         <v>126</v>
       </c>
       <c r="F78" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -11752,16 +11817,16 @@
         <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F81" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G81" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H81" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -11769,7 +11834,7 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -11777,7 +11842,7 @@
         <v>120</v>
       </c>
       <c r="F83" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -11805,7 +11870,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -11813,24 +11878,24 @@
         <v>120</v>
       </c>
       <c r="F89" t="s">
+        <v>423</v>
+      </c>
+      <c r="G89" t="s">
         <v>424</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>425</v>
-      </c>
-      <c r="H89" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E90" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -11838,7 +11903,7 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -11846,10 +11911,10 @@
         <v>126</v>
       </c>
       <c r="F92" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -11867,16 +11932,16 @@
         <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G95" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H95" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -11884,7 +11949,7 @@
         <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -11892,7 +11957,7 @@
         <v>120</v>
       </c>
       <c r="F97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -11910,7 +11975,7 @@
         <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -11918,24 +11983,24 @@
         <v>120</v>
       </c>
       <c r="F101" t="s">
+        <v>430</v>
+      </c>
+      <c r="G101" t="s">
         <v>431</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>432</v>
-      </c>
-      <c r="H101" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E102" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F102" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -11943,7 +12008,7 @@
         <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -11951,10 +12016,10 @@
         <v>126</v>
       </c>
       <c r="F104" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I104" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -11967,7 +12032,7 @@
         <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -11975,10 +12040,10 @@
         <v>126</v>
       </c>
       <c r="F107" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -11996,16 +12061,16 @@
         <v>22</v>
       </c>
       <c r="E110" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F110" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G110" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H110" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -12013,7 +12078,7 @@
         <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -12021,7 +12086,7 @@
         <v>120</v>
       </c>
       <c r="F112" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -12039,7 +12104,7 @@
         <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -12047,24 +12112,24 @@
         <v>120</v>
       </c>
       <c r="F116" t="s">
+        <v>436</v>
+      </c>
+      <c r="G116" t="s">
         <v>437</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>438</v>
-      </c>
-      <c r="H116" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E117" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -12072,7 +12137,7 @@
         <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -12080,10 +12145,10 @@
         <v>126</v>
       </c>
       <c r="F119" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I119" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -12096,7 +12161,7 @@
         <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -12104,10 +12169,10 @@
         <v>126</v>
       </c>
       <c r="F122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -12125,16 +12190,16 @@
         <v>22</v>
       </c>
       <c r="E125" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G125" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H125" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -12142,7 +12207,7 @@
         <v>88</v>
       </c>
       <c r="C126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -12150,7 +12215,7 @@
         <v>120</v>
       </c>
       <c r="F127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
@@ -12168,7 +12233,7 @@
         <v>88</v>
       </c>
       <c r="C130" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
@@ -12176,24 +12241,24 @@
         <v>120</v>
       </c>
       <c r="F131" t="s">
+        <v>442</v>
+      </c>
+      <c r="G131" t="s">
         <v>443</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>444</v>
-      </c>
-      <c r="H131" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E132" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F132" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
@@ -12201,7 +12266,7 @@
         <v>88</v>
       </c>
       <c r="C133" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
@@ -12209,10 +12274,10 @@
         <v>126</v>
       </c>
       <c r="F134" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I134" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
@@ -12225,7 +12290,7 @@
         <v>88</v>
       </c>
       <c r="C136" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
@@ -12233,10 +12298,10 @@
         <v>126</v>
       </c>
       <c r="F137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I137" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
@@ -12254,16 +12319,16 @@
         <v>22</v>
       </c>
       <c r="E140" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F140" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G140" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H140" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
@@ -12271,7 +12336,7 @@
         <v>88</v>
       </c>
       <c r="C141" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
@@ -12279,7 +12344,7 @@
         <v>120</v>
       </c>
       <c r="F142" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
@@ -12307,7 +12372,7 @@
         <v>88</v>
       </c>
       <c r="C147" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
@@ -12315,24 +12380,24 @@
         <v>120</v>
       </c>
       <c r="F148" t="s">
+        <v>448</v>
+      </c>
+      <c r="G148" t="s">
         <v>449</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>450</v>
-      </c>
-      <c r="H148" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E149" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F149" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
@@ -12340,7 +12405,7 @@
         <v>88</v>
       </c>
       <c r="C150" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
@@ -12348,10 +12413,10 @@
         <v>126</v>
       </c>
       <c r="F151" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
@@ -12369,16 +12434,16 @@
         <v>22</v>
       </c>
       <c r="E154" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F154" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G154" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H154" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -12386,7 +12451,7 @@
         <v>88</v>
       </c>
       <c r="C155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
@@ -12394,7 +12459,7 @@
         <v>120</v>
       </c>
       <c r="F156" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -12412,7 +12477,7 @@
         <v>88</v>
       </c>
       <c r="C159" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -12420,24 +12485,24 @@
         <v>120</v>
       </c>
       <c r="F160" t="s">
+        <v>455</v>
+      </c>
+      <c r="G160" t="s">
         <v>456</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>457</v>
-      </c>
-      <c r="H160" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E161" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F161" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
@@ -12445,7 +12510,7 @@
         <v>88</v>
       </c>
       <c r="C162" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
@@ -12453,10 +12518,10 @@
         <v>126</v>
       </c>
       <c r="F163" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I163" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
@@ -12469,7 +12534,7 @@
         <v>88</v>
       </c>
       <c r="C165" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
@@ -12477,10 +12542,10 @@
         <v>126</v>
       </c>
       <c r="F166" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
@@ -12498,16 +12563,16 @@
         <v>22</v>
       </c>
       <c r="E169" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F169" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G169" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H169" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
@@ -12515,7 +12580,7 @@
         <v>88</v>
       </c>
       <c r="C170" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
@@ -12523,7 +12588,7 @@
         <v>120</v>
       </c>
       <c r="F171" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
@@ -12541,7 +12606,7 @@
         <v>88</v>
       </c>
       <c r="C174" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
@@ -12549,24 +12614,24 @@
         <v>120</v>
       </c>
       <c r="F175" t="s">
+        <v>461</v>
+      </c>
+      <c r="G175" t="s">
         <v>462</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>463</v>
-      </c>
-      <c r="H175" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E176" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F176" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
@@ -12574,7 +12639,7 @@
         <v>88</v>
       </c>
       <c r="C177" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
@@ -12582,10 +12647,10 @@
         <v>126</v>
       </c>
       <c r="F178" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I178" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
@@ -12598,7 +12663,7 @@
         <v>88</v>
       </c>
       <c r="C180" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
@@ -12606,10 +12671,10 @@
         <v>126</v>
       </c>
       <c r="F181" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I181" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
@@ -12627,16 +12692,16 @@
         <v>22</v>
       </c>
       <c r="E184" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F184" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G184" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H184" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
@@ -12644,7 +12709,7 @@
         <v>88</v>
       </c>
       <c r="C185" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
@@ -12652,7 +12717,7 @@
         <v>120</v>
       </c>
       <c r="F186" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
@@ -12670,7 +12735,7 @@
         <v>88</v>
       </c>
       <c r="C189" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
@@ -12678,24 +12743,24 @@
         <v>120</v>
       </c>
       <c r="F190" t="s">
+        <v>467</v>
+      </c>
+      <c r="G190" t="s">
         <v>468</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>469</v>
-      </c>
-      <c r="H190" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E191" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F191" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
@@ -12703,7 +12768,7 @@
         <v>88</v>
       </c>
       <c r="C192" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
@@ -12711,10 +12776,10 @@
         <v>126</v>
       </c>
       <c r="F193" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I193" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
@@ -12727,7 +12792,7 @@
         <v>88</v>
       </c>
       <c r="C195" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
@@ -12735,10 +12800,10 @@
         <v>126</v>
       </c>
       <c r="F196" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I196" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
@@ -12756,16 +12821,16 @@
         <v>22</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G199" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H199" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
@@ -12773,7 +12838,7 @@
         <v>88</v>
       </c>
       <c r="C200" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
@@ -12781,7 +12846,7 @@
         <v>120</v>
       </c>
       <c r="F201" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
@@ -12809,7 +12874,7 @@
         <v>88</v>
       </c>
       <c r="C206" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
@@ -12817,24 +12882,24 @@
         <v>120</v>
       </c>
       <c r="F207" t="s">
+        <v>473</v>
+      </c>
+      <c r="G207" t="s">
         <v>474</v>
       </c>
-      <c r="G207" t="s">
+      <c r="H207" t="s">
         <v>475</v>
-      </c>
-      <c r="H207" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
@@ -12842,7 +12907,7 @@
         <v>88</v>
       </c>
       <c r="C209" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
@@ -12850,10 +12915,10 @@
         <v>126</v>
       </c>
       <c r="F210" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I210" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
@@ -12871,16 +12936,16 @@
         <v>22</v>
       </c>
       <c r="E213" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F213" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G213" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H213" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
@@ -12888,7 +12953,7 @@
         <v>88</v>
       </c>
       <c r="C214" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
@@ -12896,7 +12961,7 @@
         <v>120</v>
       </c>
       <c r="F215" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
@@ -12914,7 +12979,7 @@
         <v>88</v>
       </c>
       <c r="C218" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
@@ -12922,24 +12987,24 @@
         <v>120</v>
       </c>
       <c r="F219" t="s">
+        <v>480</v>
+      </c>
+      <c r="G219" t="s">
         <v>481</v>
       </c>
-      <c r="G219" t="s">
+      <c r="H219" t="s">
         <v>482</v>
-      </c>
-      <c r="H219" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E220" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F220" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
@@ -12947,7 +13012,7 @@
         <v>88</v>
       </c>
       <c r="C221" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
@@ -12955,10 +13020,10 @@
         <v>126</v>
       </c>
       <c r="F222" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I222" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -12976,16 +13041,16 @@
         <v>22</v>
       </c>
       <c r="E225" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F225" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G225" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H225" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
@@ -12993,7 +13058,7 @@
         <v>88</v>
       </c>
       <c r="C226" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
@@ -13001,7 +13066,7 @@
         <v>120</v>
       </c>
       <c r="F227" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
@@ -13081,10 +13146,10 @@
         <v>31</v>
       </c>
       <c r="K1" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>488</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>489</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>31</v>
@@ -13102,16 +13167,16 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" t="s">
         <v>490</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>491</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>492</v>
-      </c>
-      <c r="H3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -13120,7 +13185,7 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -13129,10 +13194,10 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G5" t="s">
         <v>495</v>
-      </c>
-      <c r="G5" t="s">
-        <v>496</v>
       </c>
       <c r="H5" t="s">
         <v>275</v>
@@ -13156,7 +13221,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -13175,13 +13240,13 @@
         <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -13194,13 +13259,13 @@
         <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -13212,13 +13277,13 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -13227,13 +13292,13 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" t="s">
         <v>501</v>
       </c>
-      <c r="G13" t="s">
-        <v>502</v>
-      </c>
       <c r="H13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -13257,13 +13322,13 @@
         <v>93</v>
       </c>
       <c r="F16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G16" t="s">
         <v>503</v>
       </c>
-      <c r="G16" t="s">
-        <v>504</v>
-      </c>
       <c r="H16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -13272,13 +13337,13 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
+        <v>504</v>
+      </c>
+      <c r="G17" t="s">
         <v>505</v>
       </c>
-      <c r="G17" t="s">
-        <v>506</v>
-      </c>
       <c r="H17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -13290,13 +13355,13 @@
         <v>93</v>
       </c>
       <c r="F18" t="s">
+        <v>506</v>
+      </c>
+      <c r="G18" t="s">
         <v>507</v>
       </c>
-      <c r="G18" t="s">
-        <v>508</v>
-      </c>
       <c r="H18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -13308,13 +13373,13 @@
         <v>93</v>
       </c>
       <c r="F19" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19" t="s">
         <v>509</v>
       </c>
-      <c r="G19" t="s">
-        <v>510</v>
-      </c>
       <c r="H19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -13323,13 +13388,13 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
+        <v>510</v>
+      </c>
+      <c r="G20" t="s">
         <v>511</v>
       </c>
-      <c r="G20" t="s">
-        <v>512</v>
-      </c>
       <c r="H20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -13357,13 +13422,13 @@
         <v>72</v>
       </c>
       <c r="F24" t="s">
+        <v>512</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>514</v>
-      </c>
       <c r="H24" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -13372,13 +13437,13 @@
         <v>120</v>
       </c>
       <c r="F25" t="s">
+        <v>514</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -13399,13 +13464,13 @@
         <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -13414,13 +13479,13 @@
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -13444,13 +13509,13 @@
         <v>93</v>
       </c>
       <c r="F32" t="s">
+        <v>518</v>
+      </c>
+      <c r="G32" t="s">
         <v>519</v>
       </c>
-      <c r="G32" t="s">
-        <v>520</v>
-      </c>
       <c r="H32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -13474,13 +13539,13 @@
         <v>93</v>
       </c>
       <c r="F35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G35" t="s">
         <v>521</v>
       </c>
-      <c r="G35" t="s">
-        <v>522</v>
-      </c>
       <c r="H35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -13489,7 +13554,7 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -13501,13 +13566,13 @@
         <v>302</v>
       </c>
       <c r="F37" t="s">
+        <v>523</v>
+      </c>
+      <c r="G37" t="s">
         <v>524</v>
       </c>
-      <c r="G37" t="s">
-        <v>525</v>
-      </c>
       <c r="H37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -13537,13 +13602,13 @@
         <v>93</v>
       </c>
       <c r="F41" t="s">
+        <v>525</v>
+      </c>
+      <c r="G41" t="s">
         <v>526</v>
       </c>
-      <c r="G41" t="s">
-        <v>527</v>
-      </c>
       <c r="H41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -13567,13 +13632,13 @@
         <v>93</v>
       </c>
       <c r="F44" t="s">
+        <v>527</v>
+      </c>
+      <c r="G44" t="s">
         <v>528</v>
       </c>
-      <c r="G44" t="s">
-        <v>529</v>
-      </c>
       <c r="H44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -13582,7 +13647,7 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -13591,13 +13656,13 @@
         <v>72</v>
       </c>
       <c r="F46" t="s">
+        <v>530</v>
+      </c>
+      <c r="G46" t="s">
         <v>531</v>
       </c>
-      <c r="G46" t="s">
-        <v>532</v>
-      </c>
       <c r="H46" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -13627,13 +13692,13 @@
         <v>93</v>
       </c>
       <c r="F50" t="s">
+        <v>532</v>
+      </c>
+      <c r="G50" t="s">
         <v>533</v>
       </c>
-      <c r="G50" t="s">
-        <v>534</v>
-      </c>
       <c r="H50" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -13645,7 +13710,7 @@
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -13654,13 +13719,13 @@
         <v>72</v>
       </c>
       <c r="F53" t="s">
+        <v>535</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>537</v>
-      </c>
       <c r="H53" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -13690,13 +13755,13 @@
         <v>93</v>
       </c>
       <c r="F57" t="s">
+        <v>537</v>
+      </c>
+      <c r="G57" t="s">
         <v>538</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>539</v>
-      </c>
-      <c r="H57" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -13705,7 +13770,7 @@
         <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -13714,13 +13779,13 @@
         <v>72</v>
       </c>
       <c r="F59" t="s">
+        <v>541</v>
+      </c>
+      <c r="G59" t="s">
         <v>542</v>
       </c>
-      <c r="G59" t="s">
-        <v>543</v>
-      </c>
       <c r="H59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -13750,13 +13815,13 @@
         <v>93</v>
       </c>
       <c r="F63" t="s">
+        <v>543</v>
+      </c>
+      <c r="G63" t="s">
         <v>544</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>545</v>
-      </c>
-      <c r="H63" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -13765,7 +13830,7 @@
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -13774,13 +13839,13 @@
         <v>72</v>
       </c>
       <c r="F65" t="s">
+        <v>547</v>
+      </c>
+      <c r="G65" t="s">
         <v>548</v>
       </c>
-      <c r="G65" t="s">
-        <v>549</v>
-      </c>
       <c r="H65" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -13789,13 +13854,13 @@
         <v>72</v>
       </c>
       <c r="F66" t="s">
+        <v>549</v>
+      </c>
+      <c r="G66" t="s">
         <v>550</v>
       </c>
-      <c r="G66" t="s">
-        <v>551</v>
-      </c>
       <c r="H66" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -13825,13 +13890,13 @@
         <v>93</v>
       </c>
       <c r="F70" t="s">
+        <v>551</v>
+      </c>
+      <c r="G70" t="s">
         <v>552</v>
       </c>
-      <c r="G70" t="s">
-        <v>553</v>
-      </c>
       <c r="H70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -13840,7 +13905,7 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -13849,13 +13914,13 @@
         <v>72</v>
       </c>
       <c r="F72" t="s">
+        <v>554</v>
+      </c>
+      <c r="G72" t="s">
         <v>555</v>
       </c>
-      <c r="G72" t="s">
-        <v>556</v>
-      </c>
       <c r="H72" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -13885,13 +13950,13 @@
         <v>93</v>
       </c>
       <c r="F76" t="s">
+        <v>556</v>
+      </c>
+      <c r="G76" t="s">
         <v>557</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>558</v>
-      </c>
-      <c r="H76" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -13900,7 +13965,7 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -13909,13 +13974,13 @@
         <v>72</v>
       </c>
       <c r="F78" t="s">
+        <v>560</v>
+      </c>
+      <c r="G78" t="s">
         <v>561</v>
       </c>
-      <c r="G78" t="s">
-        <v>562</v>
-      </c>
       <c r="H78" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -13945,13 +14010,13 @@
         <v>93</v>
       </c>
       <c r="F82" t="s">
+        <v>562</v>
+      </c>
+      <c r="G82" t="s">
         <v>563</v>
       </c>
-      <c r="G82" t="s">
-        <v>564</v>
-      </c>
       <c r="H82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -13960,7 +14025,7 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -13969,13 +14034,13 @@
         <v>72</v>
       </c>
       <c r="F84" t="s">
+        <v>565</v>
+      </c>
+      <c r="G84" t="s">
         <v>566</v>
       </c>
-      <c r="G84" t="s">
-        <v>567</v>
-      </c>
       <c r="H84" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -14005,13 +14070,13 @@
         <v>93</v>
       </c>
       <c r="F88" t="s">
+        <v>567</v>
+      </c>
+      <c r="G88" t="s">
         <v>568</v>
       </c>
-      <c r="G88" t="s">
-        <v>569</v>
-      </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -14020,7 +14085,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -14029,13 +14094,13 @@
         <v>72</v>
       </c>
       <c r="F90" t="s">
+        <v>570</v>
+      </c>
+      <c r="G90" t="s">
         <v>571</v>
       </c>
-      <c r="G90" t="s">
-        <v>572</v>
-      </c>
       <c r="H90" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -14065,13 +14130,13 @@
         <v>93</v>
       </c>
       <c r="F94" t="s">
+        <v>572</v>
+      </c>
+      <c r="G94" t="s">
         <v>573</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>574</v>
-      </c>
-      <c r="H94" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -14080,7 +14145,7 @@
         <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -14089,13 +14154,13 @@
         <v>72</v>
       </c>
       <c r="F96" t="s">
+        <v>576</v>
+      </c>
+      <c r="G96" t="s">
         <v>577</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>578</v>
-      </c>
-      <c r="H96" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -14116,7 +14181,7 @@
         <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -14134,13 +14199,13 @@
         <v>170</v>
       </c>
       <c r="F101" t="s">
+        <v>579</v>
+      </c>
+      <c r="G101" t="s">
         <v>580</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>581</v>
-      </c>
-      <c r="H101" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -14149,7 +14214,7 @@
         <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -14158,13 +14223,13 @@
         <v>72</v>
       </c>
       <c r="F103" t="s">
+        <v>583</v>
+      </c>
+      <c r="G103" t="s">
         <v>584</v>
       </c>
-      <c r="G103" t="s">
-        <v>585</v>
-      </c>
       <c r="H103" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -14197,13 +14262,13 @@
         <v>72</v>
       </c>
       <c r="F108" t="s">
+        <v>585</v>
+      </c>
+      <c r="G108" t="s">
         <v>586</v>
       </c>
-      <c r="G108" t="s">
-        <v>587</v>
-      </c>
       <c r="H108" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -14212,13 +14277,13 @@
         <v>72</v>
       </c>
       <c r="F109" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G109" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H109" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -14242,13 +14307,13 @@
         <v>93</v>
       </c>
       <c r="F112" t="s">
+        <v>588</v>
+      </c>
+      <c r="G112" t="s">
         <v>589</v>
       </c>
-      <c r="G112" t="s">
-        <v>590</v>
-      </c>
       <c r="H112" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -14263,7 +14328,7 @@
         <v>88</v>
       </c>
       <c r="C114" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -14283,13 +14348,13 @@
         <v>93</v>
       </c>
       <c r="F116" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="G116" s="6" t="s">
-        <v>593</v>
-      </c>
       <c r="H116" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -14310,7 +14375,7 @@
         <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -14325,13 +14390,13 @@
         <v>25</v>
       </c>
       <c r="F121" t="s">
+        <v>594</v>
+      </c>
+      <c r="G121" t="s">
         <v>595</v>
       </c>
-      <c r="G121" t="s">
-        <v>596</v>
-      </c>
       <c r="H121" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -14340,7 +14405,7 @@
         <v>88</v>
       </c>
       <c r="C122" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -14352,13 +14417,13 @@
         <v>93</v>
       </c>
       <c r="F123" t="s">
+        <v>597</v>
+      </c>
+      <c r="G123" t="s">
         <v>598</v>
       </c>
-      <c r="G123" t="s">
-        <v>599</v>
-      </c>
       <c r="H123" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -14385,13 +14450,13 @@
         <v>72</v>
       </c>
       <c r="F127" t="s">
+        <v>599</v>
+      </c>
+      <c r="G127" t="s">
         <v>600</v>
       </c>
-      <c r="G127" t="s">
-        <v>601</v>
-      </c>
       <c r="H127" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -14403,13 +14468,13 @@
         <v>93</v>
       </c>
       <c r="F128" t="s">
+        <v>601</v>
+      </c>
+      <c r="G128" t="s">
         <v>602</v>
       </c>
-      <c r="G128" t="s">
-        <v>603</v>
-      </c>
       <c r="H128" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -14433,13 +14498,13 @@
         <v>93</v>
       </c>
       <c r="F131" t="s">
+        <v>603</v>
+      </c>
+      <c r="G131" t="s">
         <v>604</v>
       </c>
-      <c r="G131" t="s">
-        <v>605</v>
-      </c>
       <c r="H131" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -14451,13 +14516,13 @@
         <v>93</v>
       </c>
       <c r="F132" t="s">
+        <v>605</v>
+      </c>
+      <c r="G132" t="s">
         <v>606</v>
       </c>
-      <c r="G132" t="s">
-        <v>607</v>
-      </c>
       <c r="H132" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -14487,13 +14552,13 @@
         <v>93</v>
       </c>
       <c r="F136" t="s">
+        <v>607</v>
+      </c>
+      <c r="G136" t="s">
         <v>608</v>
       </c>
-      <c r="G136" t="s">
-        <v>609</v>
-      </c>
       <c r="H136" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -14502,7 +14567,7 @@
         <v>88</v>
       </c>
       <c r="C137" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -14511,13 +14576,13 @@
         <v>72</v>
       </c>
       <c r="F138" t="s">
+        <v>610</v>
+      </c>
+      <c r="G138" t="s">
         <v>611</v>
       </c>
-      <c r="G138" t="s">
-        <v>612</v>
-      </c>
       <c r="H138" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -14547,13 +14612,13 @@
         <v>93</v>
       </c>
       <c r="F142" t="s">
+        <v>612</v>
+      </c>
+      <c r="G142" t="s">
         <v>613</v>
       </c>
-      <c r="G142" t="s">
-        <v>614</v>
-      </c>
       <c r="H142" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -14562,7 +14627,7 @@
         <v>88</v>
       </c>
       <c r="C143" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -14571,13 +14636,13 @@
         <v>72</v>
       </c>
       <c r="F144" t="s">
+        <v>615</v>
+      </c>
+      <c r="G144" t="s">
         <v>616</v>
       </c>
-      <c r="G144" t="s">
-        <v>617</v>
-      </c>
       <c r="H144" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -14586,13 +14651,13 @@
         <v>25</v>
       </c>
       <c r="F145" t="s">
+        <v>617</v>
+      </c>
+      <c r="G145" t="s">
         <v>618</v>
       </c>
-      <c r="G145" t="s">
-        <v>619</v>
-      </c>
       <c r="H145" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E7ED8-23D6-4A8E-A9CB-9F31FFF64285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51690BB-04CF-418D-95CC-16FA69A140EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1132">
   <si>
     <t>setting_name</t>
   </si>
@@ -2149,9 +2149,6 @@
     <t>data('vping') == '2'</t>
   </si>
   <si>
-    <t>data('REGID') != null</t>
-  </si>
-  <si>
     <t>data('MOMA') == '1'</t>
   </si>
   <si>
@@ -2188,9 +2185,6 @@
     <t>data('change') == '1'</t>
   </si>
   <si>
-    <t>data('NOME') == null</t>
-  </si>
-  <si>
     <t>Sex: {{data.SEX}}</t>
   </si>
   <si>
@@ -2845,9 +2839,6 @@
     <t>Sexo: Feminino</t>
   </si>
   <si>
-    <t>Quer mudar?</t>
-  </si>
-  <si>
     <t>Fogão</t>
   </si>
   <si>
@@ -3449,6 +3440,12 @@
   </si>
   <si>
     <t>freebase.echo('&lt;b&gt;Date of the BCG vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>data('lastvisitdate') == null</t>
+  </si>
+  <si>
+    <t>Mudar as informações?</t>
   </si>
 </sst>
 </file>
@@ -4228,7 +4225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6BCC52-34B1-45EC-BAB5-A647CE434BBE}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -4240,7 +4237,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B1" s="53" t="s">
         <v>23</v>
@@ -4248,450 +4245,450 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B12" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B15" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>856</v>
+      </c>
+      <c r="B16" t="s">
         <v>858</v>
-      </c>
-      <c r="B16" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>857</v>
+      </c>
+      <c r="B17" t="s">
         <v>859</v>
-      </c>
-      <c r="B17" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B19" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B20" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B21" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B22" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B23" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B24" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B25" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B26" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B27" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B28" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B29" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B30" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B31" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B32" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B33" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B34" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B35" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B36" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B37" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B38" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B39" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B40" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B41" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B42" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B43" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B44" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B45" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B46" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B47" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B48" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B49" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B50" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B51" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B52" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B53" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B54" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B55" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B56" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B57" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -5508,7 +5505,7 @@
         <v>254</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E38" s="57"/>
     </row>
@@ -5524,7 +5521,7 @@
         <v>252</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E39" s="57"/>
     </row>
@@ -5540,7 +5537,7 @@
         <v>253</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E40" s="57"/>
     </row>
@@ -5681,7 +5678,7 @@
         <v>628</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E49" s="57"/>
     </row>
@@ -5840,7 +5837,7 @@
         <v>643</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E59" s="60"/>
     </row>
@@ -5888,7 +5885,7 @@
         <v>534</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E62" s="57"/>
     </row>
@@ -5920,7 +5917,7 @@
         <v>548</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E64" s="57"/>
     </row>
@@ -5936,7 +5933,7 @@
         <v>553</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E65" s="57"/>
     </row>
@@ -5952,7 +5949,7 @@
         <v>558</v>
       </c>
       <c r="D66" s="57" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E66" s="57"/>
     </row>
@@ -5968,7 +5965,7 @@
         <v>645</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E67" s="57"/>
     </row>
@@ -6080,7 +6077,7 @@
         <v>651</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E74" s="57"/>
     </row>
@@ -6096,7 +6093,7 @@
         <v>682</v>
       </c>
       <c r="D75" s="57" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E75" s="57"/>
     </row>
@@ -6112,7 +6109,7 @@
         <v>651</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E76" s="57"/>
     </row>
@@ -6128,7 +6125,7 @@
         <v>683</v>
       </c>
       <c r="D77" s="57" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E77" s="57"/>
     </row>
@@ -6144,7 +6141,7 @@
         <v>651</v>
       </c>
       <c r="D78" s="57" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E78" s="57"/>
     </row>
@@ -6160,7 +6157,7 @@
         <v>684</v>
       </c>
       <c r="D79" s="57" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E79" s="57"/>
     </row>
@@ -6176,7 +6173,7 @@
         <v>651</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E80" s="57"/>
     </row>
@@ -6826,7 +6823,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -7299,7 +7296,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -7519,7 +7516,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B106" t="s">
         <v>25</v>
@@ -7541,7 +7538,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B108" t="s">
         <v>72</v>
@@ -8182,7 +8179,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C166" t="b">
         <v>0</v>
@@ -8380,7 +8377,7 @@
         <v>55</v>
       </c>
       <c r="B184" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -8616,7 +8613,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B197" s="49" t="s">
         <v>72</v>
@@ -8645,7 +8642,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
@@ -8664,7 +8661,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
@@ -8683,7 +8680,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -8702,7 +8699,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B202" t="s">
         <v>120</v>
@@ -8721,7 +8718,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B204" t="s">
         <v>72</v>
@@ -8745,7 +8742,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8799,7 +8796,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>712</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8814,7 +8811,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8831,8 +8828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8895,10 +8892,10 @@
         <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I3" s="55"/>
     </row>
@@ -8907,10 +8904,10 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I4" s="55"/>
     </row>
@@ -8919,7 +8916,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I5" s="55"/>
     </row>
@@ -8928,10 +8925,10 @@
         <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I6" s="55"/>
     </row>
@@ -8946,7 +8943,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I8" s="55"/>
     </row>
@@ -8955,10 +8952,10 @@
         <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I9" s="55"/>
     </row>
@@ -8973,7 +8970,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I11" s="55"/>
     </row>
@@ -8982,10 +8979,10 @@
         <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H12" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I12" s="55"/>
     </row>
@@ -9000,10 +8997,10 @@
         <v>149</v>
       </c>
       <c r="G14" t="s">
+        <v>734</v>
+      </c>
+      <c r="H14" t="s">
         <v>736</v>
-      </c>
-      <c r="H14" t="s">
-        <v>738</v>
       </c>
       <c r="I14" s="55"/>
     </row>
@@ -9012,10 +9009,10 @@
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H15" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I15" s="55"/>
     </row>
@@ -9024,10 +9021,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I16" s="55"/>
     </row>
@@ -9036,10 +9033,10 @@
         <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H17" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I17" s="55"/>
     </row>
@@ -9051,13 +9048,13 @@
         <v>646</v>
       </c>
       <c r="F18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G18" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>931</v>
+        <v>1131</v>
       </c>
       <c r="I18" s="55"/>
     </row>
@@ -9069,10 +9066,10 @@
         <v>275</v>
       </c>
       <c r="G19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I19" s="55"/>
     </row>
@@ -9088,7 +9085,7 @@
         <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I21" s="55"/>
     </row>
@@ -9103,7 +9100,7 @@
         <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G23" t="s">
         <v>74</v>
@@ -9154,10 +9151,10 @@
         <v>118</v>
       </c>
       <c r="G26" t="s">
+        <v>733</v>
+      </c>
+      <c r="H26" t="s">
         <v>735</v>
-      </c>
-      <c r="H26" t="s">
-        <v>737</v>
       </c>
       <c r="I26" s="55"/>
     </row>
@@ -9223,10 +9220,10 @@
         <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I32" s="55"/>
     </row>
@@ -9235,10 +9232,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H33" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I33" s="55"/>
     </row>
@@ -9247,10 +9244,10 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H34" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I34" s="55"/>
     </row>
@@ -9259,10 +9256,10 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H35" t="s">
         <v>736</v>
-      </c>
-      <c r="H35" t="s">
-        <v>738</v>
       </c>
       <c r="I35" s="55"/>
     </row>
@@ -9271,10 +9268,10 @@
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H36" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I36" s="55"/>
     </row>
@@ -9283,10 +9280,10 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H37" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I37" s="55"/>
     </row>
@@ -9295,10 +9292,10 @@
         <v>149</v>
       </c>
       <c r="G38" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H38" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I38" s="55"/>
     </row>
@@ -9328,9 +9325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9456,7 +9453,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G8" t="s">
         <v>74</v>
@@ -9502,13 +9499,13 @@
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="L10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -9616,7 +9613,7 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>699</v>
+        <v>249</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
@@ -9644,7 +9641,7 @@
         <v>307</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
@@ -9654,7 +9651,7 @@
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
@@ -9674,7 +9671,7 @@
         <v>67</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J23" s="55"/>
     </row>
@@ -9692,7 +9689,7 @@
         <v>69</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J24" s="55"/>
     </row>
@@ -9707,10 +9704,10 @@
         <v>71</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J25" s="55"/>
     </row>
@@ -9789,7 +9786,7 @@
         <v>71</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
@@ -9856,7 +9853,7 @@
         <v>95</v>
       </c>
       <c r="H38" s="55" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
@@ -9883,7 +9880,7 @@
         <v>104</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
@@ -9920,7 +9917,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>259</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -9932,10 +9929,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10121,7 +10119,7 @@
         <v>174</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
@@ -10154,7 +10152,7 @@
         <v>140</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
@@ -10427,10 +10425,10 @@
         <v>149</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
@@ -10512,7 +10510,7 @@
         <v>165</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
@@ -10545,7 +10543,7 @@
         <v>168</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="I53" s="55"/>
       <c r="J53" s="55"/>
@@ -10578,7 +10576,7 @@
         <v>171</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I56" s="55"/>
       <c r="J56" s="55"/>
@@ -10586,6 +10584,11 @@
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -10673,7 +10676,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -10681,10 +10684,10 @@
         <v>149</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -10698,7 +10701,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -10706,10 +10709,10 @@
         <v>149</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10723,7 +10726,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -10731,10 +10734,10 @@
         <v>149</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10748,7 +10751,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10756,10 +10759,10 @@
         <v>149</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -10773,7 +10776,7 @@
         <v>88</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -10781,10 +10784,10 @@
         <v>149</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -10798,7 +10801,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -10806,10 +10809,10 @@
         <v>149</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -10823,10 +10826,10 @@
         <v>149</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -10834,10 +10837,10 @@
         <v>149</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -10882,13 +10885,13 @@
         <v>270</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="M25" s="55" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -11024,7 +11027,7 @@
         <v>284</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -11048,16 +11051,16 @@
         <v>286</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="K42" s="55" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="M42" s="55" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -11072,7 +11075,7 @@
         <v>287</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -11121,7 +11124,7 @@
         <v>289</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -11145,16 +11148,16 @@
         <v>291</v>
       </c>
       <c r="H51" s="55" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="K51" s="55" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="M51" s="55" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -11169,7 +11172,7 @@
         <v>292</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -11210,7 +11213,7 @@
         <v>294</v>
       </c>
       <c r="H57" s="55" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -11228,7 +11231,7 @@
         <v>297</v>
       </c>
       <c r="H58" s="55" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -11255,7 +11258,7 @@
         <v>301</v>
       </c>
       <c r="H60" s="55" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -11291,7 +11294,7 @@
         <v>303</v>
       </c>
       <c r="H64" s="55" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -11309,7 +11312,7 @@
         <v>305</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -11347,7 +11350,7 @@
         <v>307</v>
       </c>
       <c r="H69" s="55" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -11371,16 +11374,16 @@
         <v>309</v>
       </c>
       <c r="H71" s="55" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="K71" s="55" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="L71" s="55" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="M71" s="55" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -11395,7 +11398,7 @@
         <v>310</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -11410,7 +11413,7 @@
         <v>311</v>
       </c>
       <c r="H73" s="55" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -11456,7 +11459,7 @@
         <v>313</v>
       </c>
       <c r="H79" s="55" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -11538,16 +11541,16 @@
         <v>318</v>
       </c>
       <c r="H89" s="55" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="K89" s="55" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L89" s="55" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="M89" s="62" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -11577,7 +11580,7 @@
         <v>321</v>
       </c>
       <c r="H92" s="55" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -11613,7 +11616,7 @@
         <v>324</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -11628,7 +11631,7 @@
         <v>326</v>
       </c>
       <c r="H97" s="55" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -11664,7 +11667,7 @@
         <v>328</v>
       </c>
       <c r="H101" s="55" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -11691,7 +11694,7 @@
         <v>331</v>
       </c>
       <c r="H103" s="55" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -11737,13 +11740,13 @@
         <v>88</v>
       </c>
       <c r="C110" s="75" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="57"/>
       <c r="B111" s="57" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
@@ -11793,7 +11796,7 @@
         <v>376</v>
       </c>
       <c r="H115" s="55" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -12343,7 +12346,7 @@
         <v>334</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -12385,7 +12388,7 @@
         <v>337</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -12417,7 +12420,7 @@
         <v>340</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -12442,7 +12445,7 @@
         <v>343</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -12460,7 +12463,7 @@
         <v>345</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -12509,7 +12512,7 @@
         <v>347</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12518,7 +12521,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H20" s="55"/>
     </row>
@@ -12534,7 +12537,7 @@
         <v>347</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12573,7 +12576,7 @@
         <v>350</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -12605,7 +12608,7 @@
         <v>352</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12630,7 +12633,7 @@
         <v>355</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12679,7 +12682,7 @@
         <v>357</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -12704,7 +12707,7 @@
         <v>360</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -12750,7 +12753,7 @@
         <v>362</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -12759,7 +12762,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H43" s="55"/>
     </row>
@@ -12775,7 +12778,7 @@
         <v>343</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -12793,7 +12796,7 @@
         <v>345</v>
       </c>
       <c r="H45" s="55" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -12842,7 +12845,7 @@
         <v>347</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -12851,7 +12854,7 @@
         <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H51" s="55"/>
     </row>
@@ -12867,7 +12870,7 @@
         <v>347</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -12906,7 +12909,7 @@
         <v>350</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -12938,7 +12941,7 @@
         <v>352</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -12963,7 +12966,7 @@
         <v>355</v>
       </c>
       <c r="H61" s="55" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -13012,7 +13015,7 @@
         <v>357</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -13037,7 +13040,7 @@
         <v>360</v>
       </c>
       <c r="H68" s="55" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -13096,7 +13099,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H77" s="55" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -13180,7 +13183,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -13248,10 +13251,10 @@
         <v>385</v>
       </c>
       <c r="G10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -13285,7 +13288,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -13353,10 +13356,10 @@
         <v>392</v>
       </c>
       <c r="G22" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H22" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -13401,7 +13404,7 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -13410,10 +13413,10 @@
         <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H30" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -13428,7 +13431,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -13437,10 +13440,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H33" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -13451,10 +13454,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C35" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -13522,10 +13525,10 @@
         <v>399</v>
       </c>
       <c r="G42" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H42" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -13559,7 +13562,7 @@
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13651,10 +13654,10 @@
         <v>405</v>
       </c>
       <c r="G57" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H57" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -13688,7 +13691,7 @@
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -13780,10 +13783,10 @@
         <v>411</v>
       </c>
       <c r="G72" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H72" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -13817,7 +13820,7 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -13909,10 +13912,10 @@
         <v>417</v>
       </c>
       <c r="G87" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H87" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -13957,7 +13960,7 @@
         <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -13966,10 +13969,10 @@
         <v>149</v>
       </c>
       <c r="G95" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H95" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -13984,7 +13987,7 @@
         <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -13993,10 +13996,10 @@
         <v>149</v>
       </c>
       <c r="G98" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H98" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -14011,7 +14014,7 @@
         <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -14020,10 +14023,10 @@
         <v>149</v>
       </c>
       <c r="G101" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H101" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -14038,7 +14041,7 @@
         <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -14047,10 +14050,10 @@
         <v>149</v>
       </c>
       <c r="G104" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H104" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -14064,7 +14067,7 @@
         <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -14132,10 +14135,10 @@
         <v>424</v>
       </c>
       <c r="G113" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H113" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -14169,7 +14172,7 @@
         <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -14261,10 +14264,10 @@
         <v>430</v>
       </c>
       <c r="G128" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H128" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
@@ -14298,7 +14301,7 @@
         <v>88</v>
       </c>
       <c r="C133" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
@@ -14390,10 +14393,10 @@
         <v>436</v>
       </c>
       <c r="G143" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H143" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
@@ -14427,7 +14430,7 @@
         <v>88</v>
       </c>
       <c r="C148" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -14519,10 +14522,10 @@
         <v>442</v>
       </c>
       <c r="G158" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H158" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -14567,7 +14570,7 @@
         <v>88</v>
       </c>
       <c r="C165" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -14576,10 +14579,10 @@
         <v>149</v>
       </c>
       <c r="G166" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H166" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -14594,7 +14597,7 @@
         <v>88</v>
       </c>
       <c r="C168" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -14603,10 +14606,10 @@
         <v>149</v>
       </c>
       <c r="G169" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H169" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -14621,7 +14624,7 @@
         <v>88</v>
       </c>
       <c r="C171" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -14630,10 +14633,10 @@
         <v>149</v>
       </c>
       <c r="G172" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H172" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -14648,7 +14651,7 @@
         <v>88</v>
       </c>
       <c r="C174" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -14657,10 +14660,10 @@
         <v>149</v>
       </c>
       <c r="G175" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H175" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -14675,7 +14678,7 @@
         <v>88</v>
       </c>
       <c r="C177" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -14684,10 +14687,10 @@
         <v>149</v>
       </c>
       <c r="G178" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H178" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -14702,7 +14705,7 @@
         <v>88</v>
       </c>
       <c r="C180" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -14711,10 +14714,10 @@
         <v>149</v>
       </c>
       <c r="G181" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H181" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -14729,7 +14732,7 @@
         <v>88</v>
       </c>
       <c r="C183" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -14738,10 +14741,10 @@
         <v>149</v>
       </c>
       <c r="G184" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H184" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -14756,7 +14759,7 @@
         <v>88</v>
       </c>
       <c r="C186" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -14765,10 +14768,10 @@
         <v>149</v>
       </c>
       <c r="G187" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H187" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -14782,7 +14785,7 @@
         <v>88</v>
       </c>
       <c r="C189" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -14850,10 +14853,10 @@
         <v>449</v>
       </c>
       <c r="G196" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H196" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
@@ -14887,7 +14890,7 @@
         <v>88</v>
       </c>
       <c r="C201" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
@@ -14979,10 +14982,10 @@
         <v>455</v>
       </c>
       <c r="G211" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H211" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
@@ -15016,7 +15019,7 @@
         <v>88</v>
       </c>
       <c r="C216" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
@@ -15108,10 +15111,10 @@
         <v>461</v>
       </c>
       <c r="G226" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H226" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -15145,7 +15148,7 @@
         <v>88</v>
       </c>
       <c r="C231" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -15237,10 +15240,10 @@
         <v>467</v>
       </c>
       <c r="G241" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H241" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -15285,7 +15288,7 @@
         <v>88</v>
       </c>
       <c r="C248" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -15294,10 +15297,10 @@
         <v>149</v>
       </c>
       <c r="G249" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H249" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -15312,7 +15315,7 @@
         <v>88</v>
       </c>
       <c r="C251" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -15321,10 +15324,10 @@
         <v>149</v>
       </c>
       <c r="G252" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H252" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -15339,7 +15342,7 @@
         <v>88</v>
       </c>
       <c r="C254" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -15348,10 +15351,10 @@
         <v>149</v>
       </c>
       <c r="G255" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="H255" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -15366,7 +15369,7 @@
         <v>88</v>
       </c>
       <c r="C257" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -15375,10 +15378,10 @@
         <v>149</v>
       </c>
       <c r="G258" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H258" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -15393,7 +15396,7 @@
         <v>88</v>
       </c>
       <c r="C260" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -15402,10 +15405,10 @@
         <v>149</v>
       </c>
       <c r="G261" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H261" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -15420,7 +15423,7 @@
         <v>88</v>
       </c>
       <c r="C263" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -15429,10 +15432,10 @@
         <v>149</v>
       </c>
       <c r="G264" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H264" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -15447,7 +15450,7 @@
         <v>88</v>
       </c>
       <c r="C266" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -15456,10 +15459,10 @@
         <v>149</v>
       </c>
       <c r="G267" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H267" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -15474,7 +15477,7 @@
         <v>88</v>
       </c>
       <c r="C269" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -15483,10 +15486,10 @@
         <v>149</v>
       </c>
       <c r="G270" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H270" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -15501,7 +15504,7 @@
         <v>88</v>
       </c>
       <c r="C272" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -15510,10 +15513,10 @@
         <v>149</v>
       </c>
       <c r="G273" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H273" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -15528,7 +15531,7 @@
         <v>88</v>
       </c>
       <c r="C275" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -15537,10 +15540,10 @@
         <v>149</v>
       </c>
       <c r="G276" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H276" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -15554,7 +15557,7 @@
         <v>88</v>
       </c>
       <c r="C278" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -15622,10 +15625,10 @@
         <v>474</v>
       </c>
       <c r="G285" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H285" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -15659,7 +15662,7 @@
         <v>88</v>
       </c>
       <c r="C290" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -15727,10 +15730,10 @@
         <v>481</v>
       </c>
       <c r="G297" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H297" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -15775,7 +15778,7 @@
         <v>88</v>
       </c>
       <c r="C304" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -15784,10 +15787,10 @@
         <v>149</v>
       </c>
       <c r="G305" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H305" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -15802,7 +15805,7 @@
         <v>88</v>
       </c>
       <c r="C307" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -15811,10 +15814,10 @@
         <v>149</v>
       </c>
       <c r="G308" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H308" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -15829,7 +15832,7 @@
         <v>88</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D310" s="50"/>
       <c r="E310" s="50"/>
@@ -15843,10 +15846,10 @@
         <v>149</v>
       </c>
       <c r="G311" s="50" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="H311" s="50" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -15861,13 +15864,13 @@
         <v>88</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G313" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H313" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -16054,7 +16057,7 @@
         <v>378</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -16091,7 +16094,7 @@
         <v>388</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -16106,7 +16109,7 @@
         <v>497</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -16138,7 +16141,7 @@
         <v>499</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -16153,7 +16156,7 @@
         <v>501</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -16171,7 +16174,7 @@
         <v>503</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -16189,7 +16192,7 @@
         <v>505</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -16204,7 +16207,7 @@
         <v>507</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -16241,7 +16244,7 @@
         <v>509</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -16256,7 +16259,7 @@
         <v>511</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -16285,7 +16288,7 @@
         <v>509</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -16300,7 +16303,7 @@
         <v>511</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -16332,7 +16335,7 @@
         <v>515</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -16364,7 +16367,7 @@
         <v>517</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -16392,7 +16395,7 @@
         <v>520</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -16431,7 +16434,7 @@
         <v>522</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -16463,7 +16466,7 @@
         <v>524</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -16488,7 +16491,7 @@
         <v>527</v>
       </c>
       <c r="H46" s="55" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -16527,7 +16530,7 @@
         <v>529</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16556,7 +16559,7 @@
         <v>532</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -16620,7 +16623,7 @@
         <v>538</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -16684,7 +16687,7 @@
         <v>544</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -16699,7 +16702,7 @@
         <v>546</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -16738,7 +16741,7 @@
         <v>548</v>
       </c>
       <c r="H70" s="55" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -16763,7 +16766,7 @@
         <v>551</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -16802,7 +16805,7 @@
         <v>553</v>
       </c>
       <c r="H76" s="55" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -16827,7 +16830,7 @@
         <v>556</v>
       </c>
       <c r="H78" s="55" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -16866,7 +16869,7 @@
         <v>558</v>
       </c>
       <c r="H82" s="55" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -16891,7 +16894,7 @@
         <v>561</v>
       </c>
       <c r="H84" s="55" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -16930,7 +16933,7 @@
         <v>563</v>
       </c>
       <c r="H88" s="55" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -16955,7 +16958,7 @@
         <v>566</v>
       </c>
       <c r="H90" s="55" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -17019,7 +17022,7 @@
         <v>572</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -17068,7 +17071,7 @@
         <v>574</v>
       </c>
       <c r="H101" s="55" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -17093,7 +17096,7 @@
         <v>577</v>
       </c>
       <c r="H103" s="55" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -17136,7 +17139,7 @@
         <v>579</v>
       </c>
       <c r="H108" s="55" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -17151,7 +17154,7 @@
         <v>579</v>
       </c>
       <c r="H109" s="55" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -17183,7 +17186,7 @@
         <v>582</v>
       </c>
       <c r="H112" s="55" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -17227,7 +17230,7 @@
         <v>585</v>
       </c>
       <c r="H116" s="55" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -17273,7 +17276,7 @@
         <v>588</v>
       </c>
       <c r="H121" s="55" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -17301,7 +17304,7 @@
         <v>591</v>
       </c>
       <c r="H123" s="55" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -17337,7 +17340,7 @@
         <v>593</v>
       </c>
       <c r="H127" s="55" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -17355,7 +17358,7 @@
         <v>595</v>
       </c>
       <c r="H128" s="55" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -17387,7 +17390,7 @@
         <v>597</v>
       </c>
       <c r="H131" s="55" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -17405,7 +17408,7 @@
         <v>599</v>
       </c>
       <c r="H132" s="55" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -17444,7 +17447,7 @@
         <v>601</v>
       </c>
       <c r="H136" s="55" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -17469,7 +17472,7 @@
         <v>604</v>
       </c>
       <c r="H138" s="55" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -17508,7 +17511,7 @@
         <v>606</v>
       </c>
       <c r="H142" s="55" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -17533,7 +17536,7 @@
         <v>609</v>
       </c>
       <c r="H144" s="55" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -17548,7 +17551,7 @@
         <v>611</v>
       </c>
       <c r="H145" s="55" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51690BB-04CF-418D-95CC-16FA69A140EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C7FE0-5377-4CA7-B50D-4733F6B55236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1131">
   <si>
     <t>setting_name</t>
   </si>
@@ -2635,84 +2635,6 @@
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('POLIONAS'))&lt;0 &amp;&amp; data('POLIONAS') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('BCG'))&lt;0 &amp;&amp; data('BCG') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PENTA1'))&lt;0  &amp;&amp; data('PENTA1') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('POLIO1'))&lt;0  &amp;&amp; data('POLIO1') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PCV1'))&lt;0 &amp;&amp; data('PCV1') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('ROX1'))&lt;0  &amp;&amp; data('ROX1') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PENTA2'))&lt;0 &amp;&amp; data('PENTA2') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('POLIO2'))&lt;0 &amp;&amp; data('POLIO2') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PCV2'))&lt;0 &amp;&amp; data('PCV2') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('ROX2'))&lt;0 &amp;&amp; data('ROX2') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PENTA1'), data('PENTA2'))&lt;0 &amp;&amp; data('PENTA2') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('POLIO1'), data('POLIO2'))&lt;0  &amp;&amp; data('POLIO2') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PCV1'), data('PCV2'))&lt;0  &amp;&amp; data('PCV2') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('ROX1'), data('ROX2'))&lt;0  &amp;&amp; data('ROX2') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('POLIO3'))&lt;0 &amp;&amp; data('POLIO3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PCV3'))&lt;0 &amp;&amp; data('PCV3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('VPI'))&lt;0 &amp;&amp; data('VPI') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PENTA2'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('POLIO2'), data('POLIO3'))&lt;0  &amp;&amp; data('POLIO3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PCV2'), data('PCV3'))&lt;0  &amp;&amp; data('PCV3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PENTA1'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('POLIO1'), data('POLIO3'))&lt;0  &amp;&amp; data('POLIO3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PCV1'), data('PCV3'))&lt;0  &amp;&amp; data('PCV3') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('FEBAMAREL'))&lt;0 &amp;&amp; data('FEBAMAREL') != null</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('SARAMPO1'))&lt;0 &amp;&amp; data('SARAMPO') != null</t>
-  </si>
-  <si>
     <t>1penta2pu</t>
   </si>
   <si>
@@ -2809,15 +2731,9 @@
     <t>Today's date: {{data.CONT}}</t>
   </si>
   <si>
-    <t>Today</t>
-  </si>
-  <si>
     <t>Exitdate cannot be before before last vist and cannot be in the future</t>
   </si>
   <si>
-    <t>((adate.diffInYears(data('CONT'), data('EXITDATA'))&lt;1) &amp;&amp; (adate.diffInYears(data('EXITDATA'), data('lastvisitdate'))&lt;0) &amp;&amp; (data('PRES') == '2' || data('PRES') == '3'))</t>
-  </si>
-  <si>
     <t>adate.diffInYears(data('CONT'), data('DAPAMA'))&lt;1</t>
   </si>
   <si>
@@ -2923,9 +2839,6 @@
     <t>A criança foi internada no Hostpital desde a última visita?</t>
   </si>
   <si>
-    <t>Quais são as medidas de MUAC na crianca em MM</t>
-  </si>
-  <si>
     <t>A criança tem uma cicatriz de BSG?</t>
   </si>
   <si>
@@ -3446,6 +3359,90 @@
   </si>
   <si>
     <t>Mudar as informações?</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('EXITDATA'))&lt;1 &amp;&amp; adate.diffInYears(data('EXITDATA'), data('lastvisitdate'))&lt;0 || (data('PRES') != '2' &amp;&amp; data('PRES') != '3')</t>
+  </si>
+  <si>
+    <t>Quais são as medidas de braco na crianca em MM</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('BCG'))&lt;0 &amp;&amp; data('BCG') != null &amp;&amp; data('BCG') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('POLIONAS'))&lt;0 &amp;&amp; data('POLIONAS') != null &amp;&amp; data('POLIONAS') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PENTA1'))&lt;0  &amp;&amp; data('PENTA1') != null &amp;&amp; data('PENTA1') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('POLIO1'))&lt;0  &amp;&amp; data('POLIO1') != null &amp;&amp; data('POLIO1') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PCV1'))&lt;0 &amp;&amp; data('PCV1') != null &amp;&amp; data('PCV1') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('ROX1'))&lt;0  &amp;&amp; data('ROX1') != null &amp;&amp; data('ROX1') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PENTA2'))&lt;0 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PENTA1'), data('PENTA2'))&lt;0 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('POLIO2'))&lt;0 &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('POLIO1'), data('POLIO2'))&lt;0  &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PCV2'))&lt;0 &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PCV1'), data('PCV2'))&lt;0  &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('ROX2'))&lt;0 &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('ROX1'), data('ROX2'))&lt;0  &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PENTA2'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PENTA1'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('POLIO3'))&lt;0 &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('POLIO2'), data('POLIO3'))&lt;0  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('POLIO1'), data('POLIO3'))&lt;0  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PCV3'))&lt;0 &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PCV2'), data('PCV3'))&lt;0  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PCV1'), data('PCV3'))&lt;0  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('VPI'))&lt;0 &amp;&amp; data('VPI') != null &amp;&amp; data('VPI') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('SARAMPO1'))&lt;0 &amp;&amp; data('SARAMPO') != null &amp;&amp; data('SARAMPO') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('FEBAMAREL'))&lt;0 &amp;&amp; data('FEBAMAREL') != null &amp;&amp; data('FEBAMAREL') != 'D:2,M:2,Y:1922'</t>
   </si>
 </sst>
 </file>
@@ -4373,322 +4370,322 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="B18" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="B19" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="B20" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
       <c r="B21" t="s">
-        <v>911</v>
+        <v>885</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="B22" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="B23" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="B24" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="B25" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="B26" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="B27" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1038</v>
+        <v>1009</v>
       </c>
       <c r="B28" t="s">
-        <v>1042</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="B29" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="B30" t="s">
-        <v>1129</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="B31" t="s">
-        <v>1128</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
       <c r="B32" t="s">
-        <v>1127</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
       <c r="B33" t="s">
-        <v>1126</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="B34" t="s">
-        <v>1125</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
       <c r="B35" t="s">
-        <v>1124</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
       <c r="B36" t="s">
-        <v>1123</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
       <c r="B37" t="s">
-        <v>1122</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
       <c r="B38" t="s">
-        <v>1121</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1055</v>
+        <v>1026</v>
       </c>
       <c r="B39" t="s">
-        <v>1120</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1056</v>
+        <v>1027</v>
       </c>
       <c r="B40" t="s">
-        <v>1119</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1057</v>
+        <v>1028</v>
       </c>
       <c r="B41" t="s">
-        <v>1118</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
       <c r="B42" t="s">
-        <v>1117</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="B43" t="s">
-        <v>1116</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1060</v>
+        <v>1031</v>
       </c>
       <c r="B44" t="s">
-        <v>1115</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1061</v>
+        <v>1032</v>
       </c>
       <c r="B45" t="s">
-        <v>1114</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1062</v>
+        <v>1033</v>
       </c>
       <c r="B46" t="s">
-        <v>1113</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="B47" t="s">
-        <v>1112</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1064</v>
+        <v>1035</v>
       </c>
       <c r="B48" t="s">
-        <v>1111</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1065</v>
+        <v>1036</v>
       </c>
       <c r="B49" t="s">
-        <v>1110</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1066</v>
+        <v>1037</v>
       </c>
       <c r="B50" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1067</v>
+        <v>1038</v>
       </c>
       <c r="B51" t="s">
-        <v>1108</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1068</v>
+        <v>1039</v>
       </c>
       <c r="B52" t="s">
-        <v>1107</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1069</v>
+        <v>1040</v>
       </c>
       <c r="B53" t="s">
-        <v>1106</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="B54" t="s">
-        <v>1105</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1071</v>
+        <v>1042</v>
       </c>
       <c r="B55" t="s">
-        <v>1104</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1072</v>
+        <v>1043</v>
       </c>
       <c r="B56" t="s">
-        <v>1103</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B57" t="s">
         <v>1073</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -5505,7 +5502,7 @@
         <v>254</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="E38" s="57"/>
     </row>
@@ -5521,7 +5518,7 @@
         <v>252</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="E39" s="57"/>
     </row>
@@ -5537,7 +5534,7 @@
         <v>253</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
       <c r="E40" s="57"/>
     </row>
@@ -5678,7 +5675,7 @@
         <v>628</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>1028</v>
+        <v>999</v>
       </c>
       <c r="E49" s="57"/>
     </row>
@@ -5837,7 +5834,7 @@
         <v>643</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="60"/>
     </row>
@@ -5885,7 +5882,7 @@
         <v>534</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>1030</v>
+        <v>1001</v>
       </c>
       <c r="E62" s="57"/>
     </row>
@@ -5917,7 +5914,7 @@
         <v>548</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="E64" s="57"/>
     </row>
@@ -5933,7 +5930,7 @@
         <v>553</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>1031</v>
+        <v>1002</v>
       </c>
       <c r="E65" s="57"/>
     </row>
@@ -5949,7 +5946,7 @@
         <v>558</v>
       </c>
       <c r="D66" s="57" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="E66" s="57"/>
     </row>
@@ -5965,7 +5962,7 @@
         <v>645</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="E67" s="57"/>
     </row>
@@ -6077,7 +6074,7 @@
         <v>651</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="E74" s="57"/>
     </row>
@@ -6093,7 +6090,7 @@
         <v>682</v>
       </c>
       <c r="D75" s="57" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="E75" s="57"/>
     </row>
@@ -6109,7 +6106,7 @@
         <v>651</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="E76" s="57"/>
     </row>
@@ -6125,7 +6122,7 @@
         <v>683</v>
       </c>
       <c r="D77" s="57" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
       <c r="E77" s="57"/>
     </row>
@@ -6141,7 +6138,7 @@
         <v>651</v>
       </c>
       <c r="D78" s="57" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="E78" s="57"/>
     </row>
@@ -6157,7 +6154,7 @@
         <v>684</v>
       </c>
       <c r="D79" s="57" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="E79" s="57"/>
     </row>
@@ -6173,7 +6170,7 @@
         <v>651</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="E80" s="57"/>
     </row>
@@ -8796,7 +8793,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>1130</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8826,10 +8823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8907,7 +8904,7 @@
         <v>715</v>
       </c>
       <c r="H4" t="s">
-        <v>931</v>
+        <v>903</v>
       </c>
       <c r="I4" s="55"/>
     </row>
@@ -8928,7 +8925,7 @@
         <v>721</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>927</v>
+        <v>899</v>
       </c>
       <c r="I6" s="55"/>
     </row>
@@ -8955,7 +8952,7 @@
         <v>723</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="I9" s="55"/>
     </row>
@@ -9036,7 +9033,7 @@
         <v>717</v>
       </c>
       <c r="H17" t="s">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="I17" s="55"/>
     </row>
@@ -9054,107 +9051,107 @@
         <v>755</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>1131</v>
+        <v>1102</v>
       </c>
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G19" t="s">
-        <v>919</v>
-      </c>
-      <c r="H19" t="s">
-        <v>919</v>
+      <c r="B19" t="s">
+        <v>47</v>
       </c>
       <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>710</v>
       </c>
       <c r="I20" s="55"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>710</v>
+        <v>46</v>
       </c>
       <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>707</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
       </c>
       <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>707</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I23" s="55"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="55"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>733</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>735</v>
       </c>
       <c r="I25" s="55"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>733</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>735</v>
+        <v>67</v>
       </c>
       <c r="I26" s="55"/>
     </row>
@@ -9163,13 +9160,13 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I27" s="55"/>
     </row>
@@ -9178,40 +9175,37 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" t="s">
-        <v>71</v>
+      <c r="B29" t="s">
+        <v>47</v>
       </c>
       <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>46</v>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" t="s">
+        <v>713</v>
+      </c>
+      <c r="H31" t="s">
+        <v>714</v>
       </c>
       <c r="I31" s="55"/>
     </row>
@@ -9220,10 +9214,10 @@
         <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H32" t="s">
-        <v>714</v>
+        <v>903</v>
       </c>
       <c r="I32" s="55"/>
     </row>
@@ -9232,10 +9226,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H33" t="s">
-        <v>931</v>
+        <v>712</v>
       </c>
       <c r="I33" s="55"/>
     </row>
@@ -9244,10 +9238,10 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="H34" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="I34" s="55"/>
     </row>
@@ -9256,10 +9250,10 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="H35" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="I35" s="55"/>
     </row>
@@ -9268,10 +9262,10 @@
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H36" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="I36" s="55"/>
     </row>
@@ -9280,39 +9274,27 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H37" t="s">
-        <v>716</v>
+        <v>902</v>
       </c>
       <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" t="s">
-        <v>717</v>
-      </c>
-      <c r="H38" t="s">
-        <v>930</v>
+      <c r="B38" t="s">
+        <v>47</v>
       </c>
       <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" s="55"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
       <c r="B40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
         <v>259</v>
       </c>
     </row>
@@ -9326,8 +9308,8 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9641,7 +9623,7 @@
         <v>307</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>932</v>
+        <v>904</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
@@ -9704,7 +9686,7 @@
         <v>71</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>929</v>
+        <v>901</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>702</v>
@@ -9786,7 +9768,7 @@
         <v>71</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>929</v>
+        <v>901</v>
       </c>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
@@ -9853,7 +9835,7 @@
         <v>95</v>
       </c>
       <c r="H38" s="55" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
@@ -9880,7 +9862,7 @@
         <v>104</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>934</v>
+        <v>906</v>
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
@@ -9931,7 +9913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
@@ -10119,7 +10101,7 @@
         <v>174</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
@@ -10152,7 +10134,7 @@
         <v>140</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>936</v>
+        <v>908</v>
       </c>
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
@@ -10425,10 +10407,10 @@
         <v>149</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
@@ -10510,7 +10492,7 @@
         <v>165</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
@@ -10543,7 +10525,7 @@
         <v>168</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>939</v>
+        <v>911</v>
       </c>
       <c r="I53" s="55"/>
       <c r="J53" s="55"/>
@@ -10576,7 +10558,7 @@
         <v>171</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>940</v>
+        <v>912</v>
       </c>
       <c r="I56" s="55"/>
       <c r="J56" s="55"/>
@@ -10600,9 +10582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10837,10 +10819,10 @@
         <v>149</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -10885,13 +10867,13 @@
         <v>270</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>921</v>
+        <v>1103</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="M25" s="55" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -11027,7 +11009,7 @@
         <v>284</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>941</v>
+        <v>913</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -11051,16 +11033,16 @@
         <v>286</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>942</v>
+        <v>914</v>
       </c>
       <c r="K42" s="55" t="s">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>924</v>
+        <v>896</v>
       </c>
       <c r="M42" s="55" t="s">
-        <v>924</v>
+        <v>896</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -11075,7 +11057,7 @@
         <v>287</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>943</v>
+        <v>915</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -11124,7 +11106,7 @@
         <v>289</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>944</v>
+        <v>916</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -11148,16 +11130,16 @@
         <v>291</v>
       </c>
       <c r="H51" s="55" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="K51" s="55" t="s">
-        <v>922</v>
+        <v>894</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>925</v>
+        <v>897</v>
       </c>
       <c r="M51" s="55" t="s">
-        <v>925</v>
+        <v>897</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -11172,7 +11154,7 @@
         <v>292</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>946</v>
+        <v>918</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -11213,7 +11195,7 @@
         <v>294</v>
       </c>
       <c r="H57" s="55" t="s">
-        <v>947</v>
+        <v>919</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -11231,7 +11213,7 @@
         <v>297</v>
       </c>
       <c r="H58" s="55" t="s">
-        <v>948</v>
+        <v>920</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -11258,7 +11240,7 @@
         <v>301</v>
       </c>
       <c r="H60" s="55" t="s">
-        <v>949</v>
+        <v>921</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -11294,7 +11276,7 @@
         <v>303</v>
       </c>
       <c r="H64" s="55" t="s">
-        <v>950</v>
+        <v>922</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -11312,7 +11294,7 @@
         <v>305</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>951</v>
+        <v>923</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -11350,7 +11332,7 @@
         <v>307</v>
       </c>
       <c r="H69" s="55" t="s">
-        <v>952</v>
+        <v>924</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -11374,16 +11356,16 @@
         <v>309</v>
       </c>
       <c r="H71" s="55" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
       <c r="K71" s="55" t="s">
-        <v>923</v>
+        <v>895</v>
       </c>
       <c r="L71" s="55" t="s">
-        <v>926</v>
+        <v>898</v>
       </c>
       <c r="M71" s="55" t="s">
-        <v>926</v>
+        <v>898</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -11398,7 +11380,7 @@
         <v>310</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>954</v>
+        <v>926</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -11413,7 +11395,7 @@
         <v>311</v>
       </c>
       <c r="H73" s="55" t="s">
-        <v>955</v>
+        <v>927</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -11459,7 +11441,7 @@
         <v>313</v>
       </c>
       <c r="H79" s="55" t="s">
-        <v>956</v>
+        <v>928</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -11541,7 +11523,7 @@
         <v>318</v>
       </c>
       <c r="H89" s="55" t="s">
-        <v>957</v>
+        <v>1104</v>
       </c>
       <c r="K89" s="55" t="s">
         <v>810</v>
@@ -11580,7 +11562,7 @@
         <v>321</v>
       </c>
       <c r="H92" s="55" t="s">
-        <v>958</v>
+        <v>929</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -11616,7 +11598,7 @@
         <v>324</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>959</v>
+        <v>930</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -11631,7 +11613,7 @@
         <v>326</v>
       </c>
       <c r="H97" s="55" t="s">
-        <v>960</v>
+        <v>931</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -11667,7 +11649,7 @@
         <v>328</v>
       </c>
       <c r="H101" s="55" t="s">
-        <v>961</v>
+        <v>932</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -11694,7 +11676,7 @@
         <v>331</v>
       </c>
       <c r="H103" s="55" t="s">
-        <v>962</v>
+        <v>933</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -11796,7 +11778,7 @@
         <v>376</v>
       </c>
       <c r="H115" s="55" t="s">
-        <v>978</v>
+        <v>949</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -12257,9 +12239,9 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12346,7 +12328,7 @@
         <v>334</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>963</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -12388,7 +12370,7 @@
         <v>337</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>964</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -12420,7 +12402,7 @@
         <v>340</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>965</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -12445,7 +12427,7 @@
         <v>343</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>966</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -12463,7 +12445,7 @@
         <v>345</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -12512,7 +12494,7 @@
         <v>347</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12537,7 +12519,7 @@
         <v>347</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12576,7 +12558,7 @@
         <v>350</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>969</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -12608,7 +12590,7 @@
         <v>352</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>970</v>
+        <v>941</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12633,7 +12615,7 @@
         <v>355</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>971</v>
+        <v>942</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12682,7 +12664,7 @@
         <v>357</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>972</v>
+        <v>943</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -12707,7 +12689,7 @@
         <v>360</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>973</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -12753,7 +12735,7 @@
         <v>362</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>974</v>
+        <v>945</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -12778,7 +12760,7 @@
         <v>343</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>975</v>
+        <v>946</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -12796,7 +12778,7 @@
         <v>345</v>
       </c>
       <c r="H45" s="55" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -12845,7 +12827,7 @@
         <v>347</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -12870,7 +12852,7 @@
         <v>347</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -12909,7 +12891,7 @@
         <v>350</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>969</v>
+        <v>940</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -12941,7 +12923,7 @@
         <v>352</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>976</v>
+        <v>947</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -12966,7 +12948,7 @@
         <v>355</v>
       </c>
       <c r="H61" s="55" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -13015,7 +12997,7 @@
         <v>357</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>972</v>
+        <v>943</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -13040,7 +13022,7 @@
         <v>360</v>
       </c>
       <c r="H68" s="55" t="s">
-        <v>973</v>
+        <v>944</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -13099,7 +13081,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H77" s="55" t="s">
-        <v>978</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -13111,9 +13093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H317" sqref="H317"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13404,7 +13386,7 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>862</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -13416,7 +13398,7 @@
         <v>815</v>
       </c>
       <c r="H30" t="s">
-        <v>1074</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -13431,7 +13413,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>861</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -13443,7 +13425,7 @@
         <v>816</v>
       </c>
       <c r="H33" t="s">
-        <v>1075</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -13960,7 +13942,7 @@
         <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>863</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -13972,7 +13954,7 @@
         <v>819</v>
       </c>
       <c r="H95" t="s">
-        <v>1076</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -13987,7 +13969,7 @@
         <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>864</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -13999,7 +13981,7 @@
         <v>820</v>
       </c>
       <c r="H98" t="s">
-        <v>1077</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -14014,7 +13996,7 @@
         <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>865</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -14026,7 +14008,7 @@
         <v>826</v>
       </c>
       <c r="H101" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -14041,7 +14023,7 @@
         <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>866</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -14053,7 +14035,7 @@
         <v>821</v>
       </c>
       <c r="H104" t="s">
-        <v>1079</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -14570,7 +14552,7 @@
         <v>88</v>
       </c>
       <c r="C165" t="s">
-        <v>867</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -14582,7 +14564,7 @@
         <v>831</v>
       </c>
       <c r="H166" t="s">
-        <v>1080</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -14597,7 +14579,7 @@
         <v>88</v>
       </c>
       <c r="C168" t="s">
-        <v>868</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -14609,7 +14591,7 @@
         <v>832</v>
       </c>
       <c r="H169" t="s">
-        <v>1081</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -14624,7 +14606,7 @@
         <v>88</v>
       </c>
       <c r="C171" t="s">
-        <v>869</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -14636,7 +14618,7 @@
         <v>833</v>
       </c>
       <c r="H172" t="s">
-        <v>1082</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -14651,7 +14633,7 @@
         <v>88</v>
       </c>
       <c r="C174" t="s">
-        <v>870</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -14663,7 +14645,7 @@
         <v>834</v>
       </c>
       <c r="H175" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -14678,7 +14660,7 @@
         <v>88</v>
       </c>
       <c r="C177" t="s">
-        <v>871</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -14687,10 +14669,10 @@
         <v>149</v>
       </c>
       <c r="G178" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="H178" t="s">
-        <v>1084</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -14705,7 +14687,7 @@
         <v>88</v>
       </c>
       <c r="C180" t="s">
-        <v>872</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -14714,10 +14696,10 @@
         <v>149</v>
       </c>
       <c r="G181" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="H181" t="s">
-        <v>1085</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -14732,7 +14714,7 @@
         <v>88</v>
       </c>
       <c r="C183" t="s">
-        <v>873</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -14741,10 +14723,10 @@
         <v>149</v>
       </c>
       <c r="G184" t="s">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="H184" t="s">
-        <v>1086</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -14759,7 +14741,7 @@
         <v>88</v>
       </c>
       <c r="C186" t="s">
-        <v>874</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -14768,10 +14750,10 @@
         <v>149</v>
       </c>
       <c r="G187" t="s">
-        <v>891</v>
+        <v>865</v>
       </c>
       <c r="H187" t="s">
-        <v>1087</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -15288,7 +15270,7 @@
         <v>88</v>
       </c>
       <c r="C248" t="s">
-        <v>875</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -15300,7 +15282,7 @@
         <v>843</v>
       </c>
       <c r="H249" t="s">
-        <v>1088</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -15315,7 +15297,7 @@
         <v>88</v>
       </c>
       <c r="C251" t="s">
-        <v>876</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -15327,7 +15309,7 @@
         <v>844</v>
       </c>
       <c r="H252" t="s">
-        <v>1089</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -15342,7 +15324,7 @@
         <v>88</v>
       </c>
       <c r="C254" t="s">
-        <v>877</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -15354,7 +15336,7 @@
         <v>845</v>
       </c>
       <c r="H255" t="s">
-        <v>1090</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -15369,7 +15351,7 @@
         <v>88</v>
       </c>
       <c r="C257" t="s">
-        <v>878</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -15378,10 +15360,10 @@
         <v>149</v>
       </c>
       <c r="G258" t="s">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="H258" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -15396,7 +15378,7 @@
         <v>88</v>
       </c>
       <c r="C260" t="s">
-        <v>879</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -15405,10 +15387,10 @@
         <v>149</v>
       </c>
       <c r="G261" t="s">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="H261" t="s">
-        <v>1092</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -15423,7 +15405,7 @@
         <v>88</v>
       </c>
       <c r="C263" t="s">
-        <v>880</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -15432,10 +15414,10 @@
         <v>149</v>
       </c>
       <c r="G264" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
       <c r="H264" t="s">
-        <v>1093</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -15450,7 +15432,7 @@
         <v>88</v>
       </c>
       <c r="C266" t="s">
-        <v>881</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -15459,10 +15441,10 @@
         <v>149</v>
       </c>
       <c r="G267" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="H267" t="s">
-        <v>1094</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -15477,7 +15459,7 @@
         <v>88</v>
       </c>
       <c r="C269" t="s">
-        <v>882</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -15486,10 +15468,10 @@
         <v>149</v>
       </c>
       <c r="G270" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="H270" t="s">
-        <v>1095</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -15504,7 +15486,7 @@
         <v>88</v>
       </c>
       <c r="C272" t="s">
-        <v>883</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -15513,10 +15495,10 @@
         <v>149</v>
       </c>
       <c r="G273" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="H273" t="s">
-        <v>1096</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -15531,7 +15513,7 @@
         <v>88</v>
       </c>
       <c r="C275" t="s">
-        <v>884</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -15540,10 +15522,10 @@
         <v>149</v>
       </c>
       <c r="G276" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="H276" t="s">
-        <v>1097</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -15778,7 +15760,7 @@
         <v>88</v>
       </c>
       <c r="C304" t="s">
-        <v>886</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -15790,7 +15772,7 @@
         <v>855</v>
       </c>
       <c r="H305" t="s">
-        <v>1098</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -15805,7 +15787,7 @@
         <v>88</v>
       </c>
       <c r="C307" t="s">
-        <v>885</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -15817,7 +15799,7 @@
         <v>854</v>
       </c>
       <c r="H308" t="s">
-        <v>1099</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -15832,7 +15814,7 @@
         <v>88</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="D310" s="50"/>
       <c r="E310" s="50"/>
@@ -15846,10 +15828,10 @@
         <v>149</v>
       </c>
       <c r="G311" s="50" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="H311" s="50" t="s">
-        <v>1100</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -15864,13 +15846,13 @@
         <v>88</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="G313" t="s">
-        <v>1041</v>
+        <v>1012</v>
       </c>
       <c r="H313" t="s">
-        <v>1101</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -15900,8 +15882,8 @@
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16057,7 +16039,7 @@
         <v>378</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>979</v>
+        <v>950</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -16094,7 +16076,7 @@
         <v>388</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>980</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -16109,7 +16091,7 @@
         <v>497</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -16141,7 +16123,7 @@
         <v>499</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>982</v>
+        <v>953</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -16156,7 +16138,7 @@
         <v>501</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>983</v>
+        <v>954</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -16174,7 +16156,7 @@
         <v>503</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>984</v>
+        <v>955</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -16192,7 +16174,7 @@
         <v>505</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>985</v>
+        <v>956</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -16207,7 +16189,7 @@
         <v>507</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -16244,7 +16226,7 @@
         <v>509</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -16259,7 +16241,7 @@
         <v>511</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -16288,7 +16270,7 @@
         <v>509</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -16303,7 +16285,7 @@
         <v>511</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -16335,7 +16317,7 @@
         <v>515</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -16367,7 +16349,7 @@
         <v>517</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -16395,7 +16377,7 @@
         <v>520</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -16434,7 +16416,7 @@
         <v>522</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -16466,7 +16448,7 @@
         <v>524</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -16491,7 +16473,7 @@
         <v>527</v>
       </c>
       <c r="H46" s="55" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -16530,7 +16512,7 @@
         <v>529</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16559,7 +16541,7 @@
         <v>532</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -16623,7 +16605,7 @@
         <v>538</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -16687,7 +16669,7 @@
         <v>544</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -16702,7 +16684,7 @@
         <v>546</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -16741,7 +16723,7 @@
         <v>548</v>
       </c>
       <c r="H70" s="55" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -16766,7 +16748,7 @@
         <v>551</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>1001</v>
+        <v>972</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -16805,7 +16787,7 @@
         <v>553</v>
       </c>
       <c r="H76" s="55" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -16830,7 +16812,7 @@
         <v>556</v>
       </c>
       <c r="H78" s="55" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -16869,7 +16851,7 @@
         <v>558</v>
       </c>
       <c r="H82" s="55" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -16894,7 +16876,7 @@
         <v>561</v>
       </c>
       <c r="H84" s="55" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -16933,7 +16915,7 @@
         <v>563</v>
       </c>
       <c r="H88" s="55" t="s">
-        <v>1006</v>
+        <v>977</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -16958,7 +16940,7 @@
         <v>566</v>
       </c>
       <c r="H90" s="55" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -17022,7 +17004,7 @@
         <v>572</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -17071,7 +17053,7 @@
         <v>574</v>
       </c>
       <c r="H101" s="55" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -17096,7 +17078,7 @@
         <v>577</v>
       </c>
       <c r="H103" s="55" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -17139,7 +17121,7 @@
         <v>579</v>
       </c>
       <c r="H108" s="55" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -17154,7 +17136,7 @@
         <v>579</v>
       </c>
       <c r="H109" s="55" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -17186,7 +17168,7 @@
         <v>582</v>
       </c>
       <c r="H112" s="55" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -17230,7 +17212,7 @@
         <v>585</v>
       </c>
       <c r="H116" s="55" t="s">
-        <v>1013</v>
+        <v>984</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -17276,7 +17258,7 @@
         <v>588</v>
       </c>
       <c r="H121" s="55" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -17304,7 +17286,7 @@
         <v>591</v>
       </c>
       <c r="H123" s="55" t="s">
-        <v>1015</v>
+        <v>986</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -17340,7 +17322,7 @@
         <v>593</v>
       </c>
       <c r="H127" s="55" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -17358,7 +17340,7 @@
         <v>595</v>
       </c>
       <c r="H128" s="55" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -17390,7 +17372,7 @@
         <v>597</v>
       </c>
       <c r="H131" s="55" t="s">
-        <v>1018</v>
+        <v>989</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -17408,7 +17390,7 @@
         <v>599</v>
       </c>
       <c r="H132" s="55" t="s">
-        <v>1019</v>
+        <v>990</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -17447,7 +17429,7 @@
         <v>601</v>
       </c>
       <c r="H136" s="55" t="s">
-        <v>1020</v>
+        <v>991</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -17472,7 +17454,7 @@
         <v>604</v>
       </c>
       <c r="H138" s="55" t="s">
-        <v>1021</v>
+        <v>992</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -17511,7 +17493,7 @@
         <v>606</v>
       </c>
       <c r="H142" s="55" t="s">
-        <v>1022</v>
+        <v>993</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -17536,7 +17518,7 @@
         <v>609</v>
       </c>
       <c r="H144" s="55" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -17551,7 +17533,7 @@
         <v>611</v>
       </c>
       <c r="H145" s="55" t="s">
-        <v>1024</v>
+        <v>995</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C7FE0-5377-4CA7-B50D-4733F6B55236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE278141-B582-4D26-AB9A-EE3E6EDB5D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2053,1396 +2053,1396 @@
     <t>[data('REGIDC')]</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>POLIONAS_FAL</t>
+  </si>
+  <si>
+    <t>do section parto</t>
+  </si>
+  <si>
+    <t>data('polio1ng') == "1"</t>
+  </si>
+  <si>
+    <t>data('polio1ng') == "2"</t>
+  </si>
+  <si>
+    <t>data('PENTA1')</t>
+  </si>
+  <si>
+    <t>data('pcv1ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('pcv1ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('rox1ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('rox1ng') == '2'</t>
+  </si>
+  <si>
+    <t>notgivensamep1</t>
+  </si>
+  <si>
+    <t>notgivensamep2</t>
+  </si>
+  <si>
+    <t>notgivensamep3</t>
+  </si>
+  <si>
+    <t>Same as PENTA1</t>
+  </si>
+  <si>
+    <t>Same as PENTA2</t>
+  </si>
+  <si>
+    <t>Same as PENTA3</t>
+  </si>
+  <si>
+    <t>data('polio2ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('polio2ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('PENTA2')</t>
+  </si>
+  <si>
+    <t>data('pcv2ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('pcv2ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('rox2ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('rox2ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('PENTA3')</t>
+  </si>
+  <si>
+    <t>data('polio3ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('polio3ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('pcv3ng') == '1'</t>
+  </si>
+  <si>
+    <t>data('pcv3ng') == '2'</t>
+  </si>
+  <si>
+    <t>data('vping') == '1'</t>
+  </si>
+  <si>
+    <t>data('vping') == '2'</t>
+  </si>
+  <si>
+    <t>data('MOMA') == '1'</t>
+  </si>
+  <si>
+    <t>data('mor')</t>
+  </si>
+  <si>
+    <t>data('casa')</t>
+  </si>
+  <si>
+    <t>data('fogao')</t>
+  </si>
+  <si>
+    <t>mor</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>fogau</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>do section stsc</t>
+  </si>
+  <si>
+    <t>data('change') == '1'</t>
+  </si>
+  <si>
+    <t>Sex: {{data.SEX}}</t>
+  </si>
+  <si>
+    <t>Sexo: {{data.SEX}}</t>
+  </si>
+  <si>
+    <t>Name: {{data.NOME}}</t>
+  </si>
+  <si>
+    <t>Nome: {{data.NOME}}</t>
+  </si>
+  <si>
+    <t>Birthdate: {{data.OUTDATE}}</t>
+  </si>
+  <si>
+    <t>Casa: {{data.CASA}}</t>
+  </si>
+  <si>
+    <t>Fogao: {{data.FOGAO}}</t>
+  </si>
+  <si>
+    <t>data('SEX') =='1'</t>
+  </si>
+  <si>
+    <t>data('SEX') =='2'</t>
+  </si>
+  <si>
+    <t>data('SEX') =='3'</t>
+  </si>
+  <si>
+    <t>Sex: Male</t>
+  </si>
+  <si>
+    <t>Morança: {{data.MOR}}</t>
+  </si>
+  <si>
+    <t>Sex: Female</t>
+  </si>
+  <si>
+    <t>Sex: Don't Know</t>
+  </si>
+  <si>
+    <t>Sexo: Não sabe</t>
+  </si>
+  <si>
+    <t>VISITTYPE</t>
+  </si>
+  <si>
+    <t>pres</t>
+  </si>
+  <si>
+    <t>data('VISITTYPE') == 'control'</t>
+  </si>
+  <si>
+    <t>do section control</t>
+  </si>
+  <si>
+    <t>data('C_CONDECOD2') =='OU'</t>
+  </si>
+  <si>
+    <t>data('C_CONDECOD') =='OU'</t>
+  </si>
+  <si>
+    <t>data('CONS2') =='1'</t>
+  </si>
+  <si>
+    <t>Mothers name</t>
+  </si>
+  <si>
+    <t>Name of mother: {{data.NOMEMAE}}</t>
+  </si>
+  <si>
+    <t>Nome da mulher</t>
+  </si>
+  <si>
+    <t>Nome de mulher: {{data.NOMEMAE}}</t>
+  </si>
+  <si>
+    <t>data('pres') == '1'</t>
+  </si>
+  <si>
+    <t>data('pres') == '2'</t>
+  </si>
+  <si>
+    <t>data('pres') == '3'</t>
+  </si>
+  <si>
+    <t>data('pres') == '4'</t>
+  </si>
+  <si>
+    <t>data('pres') == '5'</t>
+  </si>
+  <si>
+    <t>data('pres') == '6'</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Present&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Presente&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Moved out&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Mudou&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Dead&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Faleceu&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Absent&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Ausente&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Travelling&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Viagem&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Not visited&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Last visit status: &lt;b&gt;Não visitada&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Want to change the infromation?</t>
+  </si>
+  <si>
+    <t>integer_dropdown</t>
+  </si>
+  <si>
+    <t>ASSISTENTE</t>
+  </si>
+  <si>
+    <t>data('BCG') == null</t>
+  </si>
+  <si>
+    <t>BCG vaccine {{data.BCG}}</t>
+  </si>
+  <si>
+    <t>BCG vacina {{data.BCG}}</t>
+  </si>
+  <si>
+    <t>data('POLIONAS') == null</t>
+  </si>
+  <si>
+    <t>Polio vaccine {{data.POLIONAS}}</t>
+  </si>
+  <si>
+    <t>Polio vacina {{data.POLIONAS}}</t>
+  </si>
+  <si>
+    <t>data('PENTA1') == null</t>
+  </si>
+  <si>
+    <t>PENTA1 vaccine {{data.PENTA1}}</t>
+  </si>
+  <si>
+    <t>PENTA1 vacina {{data.PENTA1}}</t>
+  </si>
+  <si>
+    <t>data('POLIO1') == null</t>
+  </si>
+  <si>
+    <t>POLIO1 vaccine {{data.POLIO1}}</t>
+  </si>
+  <si>
+    <t>POLIO1 vacina {{data.POLIO1}}</t>
+  </si>
+  <si>
+    <t>data('PCV1') == null</t>
+  </si>
+  <si>
+    <t>PCV1 vaccine {{data.PCV1}}</t>
+  </si>
+  <si>
+    <t>PCV1 vacina {{data.PCV1}}</t>
+  </si>
+  <si>
+    <t>data('ROX1') == null</t>
+  </si>
+  <si>
+    <t>ROX1 vaccine {{data.ROX1}}</t>
+  </si>
+  <si>
+    <t>ROX1 vacina {{data.ROX1}}</t>
+  </si>
+  <si>
+    <t>data('PENTA2') == null</t>
+  </si>
+  <si>
+    <t>PENTA2 vaccine {{data.PENTA2}}</t>
+  </si>
+  <si>
+    <t>PENTA2 vacina {{data.PENTA2}}</t>
+  </si>
+  <si>
+    <t>data('POLIO2') == null</t>
+  </si>
+  <si>
+    <t>POLIO2 vaccine {{data.POLIO2}}</t>
+  </si>
+  <si>
+    <t>POLIO2 vacina {{data.POLIO2}}</t>
+  </si>
+  <si>
+    <t>data('PCV2') == null</t>
+  </si>
+  <si>
+    <t>PCV2 vacina {{data.PCV2}}</t>
+  </si>
+  <si>
+    <t>PCV2 vaccine {{data.PCV2}}</t>
+  </si>
+  <si>
+    <t>data('ROX2') == null</t>
+  </si>
+  <si>
+    <t>ROX2 vaccine {{data.ROX2}}</t>
+  </si>
+  <si>
+    <t>ROX2 vacina {{data.ROX2}}</t>
+  </si>
+  <si>
+    <t>data('PENTA3') == null</t>
+  </si>
+  <si>
+    <t>PENTA3 vaccine {{data.PENTA3}}</t>
+  </si>
+  <si>
+    <t>PENTA3 vacina {{data.PENTA3}}</t>
+  </si>
+  <si>
+    <t>data('POLIO3') == null</t>
+  </si>
+  <si>
+    <t>POLIO3 vaccine {{data.POLIO3}}</t>
+  </si>
+  <si>
+    <t>POLIO3 vacina {{data.POLIO3}}</t>
+  </si>
+  <si>
+    <t>data('PCV3') == null</t>
+  </si>
+  <si>
+    <t>PCV3 vaccine {{data.PCV3}}</t>
+  </si>
+  <si>
+    <t>PCV3 vacina {{data.PCV3}}</t>
+  </si>
+  <si>
+    <t>data('VPI') == null</t>
+  </si>
+  <si>
+    <t>VPI vaccine {{data.VPI}}</t>
+  </si>
+  <si>
+    <t>VPI vacina {{data.VPI}}</t>
+  </si>
+  <si>
+    <t>data('SARAMPO1') == null</t>
+  </si>
+  <si>
+    <t>SARAMPO1 vaccine {{data.SARAMPO1}}</t>
+  </si>
+  <si>
+    <t>SARAMPO1 vacina {{data.SARAMPO1}}</t>
+  </si>
+  <si>
+    <t>data('FEBAMAREL') == null</t>
+  </si>
+  <si>
+    <t>FEBAMAREL vaccine {{data.FEBAMAREL}}</t>
+  </si>
+  <si>
+    <t>FEBAMAREL vacina {{data.FEBAMAREL}}</t>
+  </si>
+  <si>
+    <t>lastvisitdate</t>
+  </si>
+  <si>
+    <t>Last visit date: {{data.lastvisitdate}}</t>
+  </si>
+  <si>
+    <t>The child must be below the age of 5:</t>
+  </si>
+  <si>
+    <t>Must be between 50 and 342 and a even number:</t>
+  </si>
+  <si>
+    <t>(data('BRACOCRI')&gt;49 &amp;&amp; data('BRACOCRI')&lt;343 &amp;&amp; data('BRACOCRI')%2 == 0) ||data('PRES') != '1'</t>
+  </si>
+  <si>
+    <t>adate.ageInYears(data('OUTDATE'))&lt;5 || data('lastvisitdate') != null</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the BCG vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>bcgpu</t>
+  </si>
+  <si>
+    <t>{{calculates.bcgpu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.polionaspu}}</t>
+  </si>
+  <si>
+    <t>polionaspu</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the polio vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>{{calculates.penta1pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.polio1pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.rox1pu}}</t>
+  </si>
+  <si>
+    <t>penta1pu</t>
+  </si>
+  <si>
+    <t>polio1pu</t>
+  </si>
+  <si>
+    <t>pcv1pu</t>
+  </si>
+  <si>
+    <t>rox1pu</t>
+  </si>
+  <si>
+    <t>{{calculates.pcv1pu}}</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the PCV1 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the Polio1 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the Penta1 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the ROX1 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>{{calculates.penta2pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.polio2pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.pcv2pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.rox2pu}}</t>
+  </si>
+  <si>
+    <t>penta2pu</t>
+  </si>
+  <si>
+    <t>polio2pu</t>
+  </si>
+  <si>
+    <t>pcv2pu</t>
+  </si>
+  <si>
+    <t>rox2pu</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the ROX2 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the PCV2 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the Polio2 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the Penta2 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>{{calculates.penta3pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.polio3pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.pcv3pu}}</t>
+  </si>
+  <si>
+    <t>penta3pu</t>
+  </si>
+  <si>
+    <t>polio3pu</t>
+  </si>
+  <si>
+    <t>pcv3pu</t>
+  </si>
+  <si>
+    <t>pvipu</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the Penta3 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the Polio3 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the PCV3 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the PVI vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>{{calculates.febamarelpu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.sarampo1pu}}</t>
+  </si>
+  <si>
+    <t>sarampo1pu</t>
+  </si>
+  <si>
+    <t>febamarelpu</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the Sarampo1 vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Date of the Febamarel vaccination is before the date of birth')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>1penta2pu</t>
+  </si>
+  <si>
+    <t>{{calculates.1penta2pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1polio2pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1pcv2pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1rox2pu}}</t>
+  </si>
+  <si>
+    <t>1polio2pu</t>
+  </si>
+  <si>
+    <t>1pcv2pu</t>
+  </si>
+  <si>
+    <t>1rox2pu</t>
+  </si>
+  <si>
+    <t>{{calculates.vpipu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.2penta3pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.2polio3pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.2pcv3pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1penta3pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1polio3pu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1pcv3pu}}</t>
+  </si>
+  <si>
+    <t>2penta3pu</t>
+  </si>
+  <si>
+    <t>2polio3pu</t>
+  </si>
+  <si>
+    <t>2pcv3pu</t>
+  </si>
+  <si>
+    <t>1penta3pu</t>
+  </si>
+  <si>
+    <t>1polio3pu</t>
+  </si>
+  <si>
+    <t>1pcv3pu</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got PENTA2 before PENTA1')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got PCV2 before PCV1')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got POLIO2 before POLIO1')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got ROX2 before ROX1')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got PENTA3 before PENTA2')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got POLIO3 before POLIO2')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got PCV3 before PCV2')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got PENTA3 before PENTA1')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got POLIO3 before POLIO1')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got PCV3 before PCV1')</t>
+  </si>
+  <si>
+    <t>Today's date: {{data.CONT}}</t>
+  </si>
+  <si>
+    <t>Exitdate cannot be before before last vist and cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('DAPAMA'))&lt;1</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('DASEP'))&lt;1</t>
+  </si>
+  <si>
+    <t>The date of starting supplementary feeding cannot be before today's date</t>
+  </si>
+  <si>
+    <t>The date of stopping breastfeeding cannot be before today's date</t>
+  </si>
+  <si>
+    <t>The date of the separation from the mother cannot be before today's date</t>
+  </si>
+  <si>
+    <t>Sexo: Masculino</t>
+  </si>
+  <si>
+    <t>Sexo: Feminino</t>
+  </si>
+  <si>
+    <t>Fogão</t>
+  </si>
+  <si>
+    <t>Fogão: {{data.FOGAO}}</t>
+  </si>
+  <si>
+    <t>Data de nascimento: {{data.OUTDATE}}</t>
+  </si>
+  <si>
+    <t>A criança vive juntamente com a sua mãe?</t>
+  </si>
+  <si>
+    <t>Qualquer malformação?</t>
+  </si>
+  <si>
+    <t>Tipo?</t>
+  </si>
+  <si>
+    <t>Número de nascimento da criança</t>
+  </si>
+  <si>
+    <t>A mulher procurou consultas de contrlo durante a gravidez?</t>
+  </si>
+  <si>
+    <t>A grávida recebeu FANSIDAR (TPI, SP) quantas vezes?</t>
+  </si>
+  <si>
+    <t>A mulher deu a luz na tabanca?</t>
+  </si>
+  <si>
+    <t>Onde a mulher deu a luz?</t>
+  </si>
+  <si>
+    <t>Quém assistiu o parto?</t>
+  </si>
+  <si>
+    <t>A criança recebeu alimentos complementares?</t>
+  </si>
+  <si>
+    <t>Data de início da alimentação suplementar</t>
+  </si>
+  <si>
+    <t>Idade de início da alimentação suplementar em meses</t>
+  </si>
+  <si>
+    <t>A criança parou de tomar peito (amamentação)?</t>
+  </si>
+  <si>
+    <t>Data de interrupção da amamentação</t>
+  </si>
+  <si>
+    <t>Idade de interrupção da amamentação em meses</t>
+  </si>
+  <si>
+    <t>A criança dormiu debaixo da tenda ontem?</t>
+  </si>
+  <si>
+    <t>Tempo do uso da tenda</t>
+  </si>
+  <si>
+    <t>Tipo da tenda?</t>
+  </si>
+  <si>
+    <t>Porcos vivem na casa?</t>
+  </si>
+  <si>
+    <t>Há porcos morando no complexo?</t>
+  </si>
+  <si>
+    <t>A criança vivia com a sua mãe?</t>
+  </si>
+  <si>
+    <t>Data de separação da mãe</t>
+  </si>
+  <si>
+    <t>Idade da separação da mãe</t>
+  </si>
+  <si>
+    <t>Causa de separação da mãe</t>
+  </si>
+  <si>
+    <t>A criança foi internada no Hostpital desde a última visita?</t>
+  </si>
+  <si>
+    <t>A criança tem uma cicatriz de BSG?</t>
+  </si>
+  <si>
+    <t>Medição vertical da cicatriz em MM</t>
+  </si>
+  <si>
+    <t>Medição horizontal da cicatriz em MM</t>
+  </si>
+  <si>
+    <t>Limfadenopatia</t>
+  </si>
+  <si>
+    <t>Limfadenopatia supurativa</t>
+  </si>
+  <si>
+    <t>Ill desde a última visita em [data da última visita]</t>
+  </si>
+  <si>
+    <t>Sintomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta procurada </t>
+  </si>
+  <si>
+    <t>Data da consulta</t>
+  </si>
+  <si>
+    <t>Visto a documentação da data de consulta?</t>
+  </si>
+  <si>
+    <t>Onde foi procurada a consulta</t>
+  </si>
+  <si>
+    <t>Trouxe cartão de vacinação</t>
+  </si>
+  <si>
+    <t>Diagnóstico recebido</t>
+  </si>
+  <si>
+    <t>Diagnóstico</t>
+  </si>
+  <si>
+    <t>Foi realizado qualquer teste</t>
+  </si>
+  <si>
+    <t>Resultado do teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurou uma segunda consulta </t>
+  </si>
+  <si>
+    <t>Data de consulta</t>
+  </si>
+  <si>
+    <t>Diagnostico recebido</t>
+  </si>
+  <si>
+    <t>Diagnostico</t>
+  </si>
+  <si>
+    <t>A criança teve sarampo</t>
+  </si>
+  <si>
+    <t>Vacina BCG</t>
+  </si>
+  <si>
+    <t>Vacina de Polio</t>
+  </si>
+  <si>
+    <t>Numero da vacina de Polio</t>
+  </si>
+  <si>
+    <t>Vacina Pentavalente</t>
+  </si>
+  <si>
+    <t>Numero de vacina Pentavalente</t>
+  </si>
+  <si>
+    <t>Vacina de Febre Amarela</t>
+  </si>
+  <si>
+    <t>Vacina de Sarampo</t>
+  </si>
+  <si>
+    <t>Numero de vacina de Sarampo</t>
+  </si>
+  <si>
+    <t>Tipo de intervenção</t>
+  </si>
+  <si>
+    <t>Data de intervenção</t>
+  </si>
+  <si>
+    <t>Medicamento da malária</t>
+  </si>
+  <si>
+    <t>Usando a rede de mosquito</t>
+  </si>
+  <si>
+    <t>Tipo da rede de mosquito</t>
+  </si>
+  <si>
+    <t>Amamentação</t>
+  </si>
+  <si>
+    <t>Acidente</t>
+  </si>
+  <si>
+    <t>Tipo de acidente</t>
+  </si>
+  <si>
+    <t>Crescendo de acordo com a idade</t>
+  </si>
+  <si>
+    <t>Duração de não crescer de acordo com a idade</t>
+  </si>
+  <si>
+    <t>Duração da febre</t>
+  </si>
+  <si>
+    <t>Duração da diarreia</t>
+  </si>
+  <si>
+    <t>Tipo da diarreia</t>
+  </si>
+  <si>
+    <t>Palidez</t>
+  </si>
+  <si>
+    <t>Duração da palidez</t>
+  </si>
+  <si>
+    <t>Problemas respiratorios?</t>
+  </si>
+  <si>
+    <t>Duração dos problemas respiratórios</t>
+  </si>
+  <si>
+    <t>Convulsões</t>
+  </si>
+  <si>
+    <t>Duração das convulsões</t>
+  </si>
+  <si>
+    <t>Infeção do Sarampo</t>
+  </si>
+  <si>
+    <t>Duração da infeção do sarampo</t>
+  </si>
+  <si>
+    <t>Qual diagnostico</t>
+  </si>
+  <si>
+    <t>Quem diagnosticou</t>
+  </si>
+  <si>
+    <t>Outro diagnostico dado</t>
+  </si>
+  <si>
+    <t>Historia da morte</t>
+  </si>
+  <si>
+    <t>Nascidos vivos</t>
+  </si>
+  <si>
+    <t>Morreu antes do trabalho de parto</t>
+  </si>
+  <si>
+    <t>Dias entre o nascimento e a morte</t>
+  </si>
+  <si>
+    <t>A criança chorou</t>
+  </si>
+  <si>
+    <t>Local de corte do cordão umbilical</t>
+  </si>
+  <si>
+    <t>Cordão umbilical foi cortado com equipamento estéril?</t>
+  </si>
+  <si>
+    <t>Boca rígida</t>
+  </si>
+  <si>
+    <t>Corpo rígido</t>
+  </si>
+  <si>
+    <t>Malformação congênita</t>
+  </si>
+  <si>
+    <t>Qual malformação congênita?</t>
+  </si>
+  <si>
+    <t>Pele e esclera amarela</t>
+  </si>
+  <si>
+    <t>Tempo relativo ao nascimento</t>
+  </si>
+  <si>
+    <t>Duração da pele amarela (dias)</t>
+  </si>
+  <si>
+    <t>Vivo</t>
+  </si>
+  <si>
+    <t>Morreu antes de nascer</t>
+  </si>
+  <si>
+    <t>Morreu depois de nascer</t>
+  </si>
+  <si>
+    <t>Tem cartão, mas eu não tinha visto (NVC)</t>
+  </si>
+  <si>
+    <t>Sim, mas está mudando</t>
+  </si>
+  <si>
+    <t>Febre</t>
+  </si>
+  <si>
+    <t>Problemas respiratórios</t>
+  </si>
+  <si>
+    <t>facilidade1, facilidade1</t>
+  </si>
+  <si>
+    <t>Não administrado</t>
+  </si>
+  <si>
+    <t>Igual ao PENTA1</t>
+  </si>
+  <si>
+    <t>Igual ao PENTA2</t>
+  </si>
+  <si>
+    <t>Igual ao PENTA3</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('DACOMSUP'))&lt;2</t>
+  </si>
+  <si>
+    <t>sarampo6mpu</t>
+  </si>
+  <si>
+    <t>febamarel6mpu</t>
+  </si>
+  <si>
+    <t>{{calculates.sarampo6mpu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.febamarel6mpu}}</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got sarampo vaccine before 6 months')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Got febamarel before 6 months')</t>
+  </si>
+  <si>
+    <t>data('FEBAMAREL')&lt;6</t>
+  </si>
+  <si>
+    <t>data('SARAMPO1')&lt;6</t>
+  </si>
+  <si>
+    <t>bcgpup</t>
+  </si>
+  <si>
+    <t>polionaspup</t>
+  </si>
+  <si>
+    <t>penta1pup</t>
+  </si>
+  <si>
+    <t>polio1pup</t>
+  </si>
+  <si>
+    <t>pcv1pup</t>
+  </si>
+  <si>
+    <t>rox1pup</t>
+  </si>
+  <si>
+    <t>penta2pup</t>
+  </si>
+  <si>
+    <t>polio2pup</t>
+  </si>
+  <si>
+    <t>pcv2pup</t>
+  </si>
+  <si>
+    <t>rox2pup</t>
+  </si>
+  <si>
+    <t>penta3pup</t>
+  </si>
+  <si>
+    <t>polio3pup</t>
+  </si>
+  <si>
+    <t>pcv3pup</t>
+  </si>
+  <si>
+    <t>pvipup</t>
+  </si>
+  <si>
+    <t>sarampo1pup</t>
+  </si>
+  <si>
+    <t>febamarelpup</t>
+  </si>
+  <si>
+    <t>1penta2pup</t>
+  </si>
+  <si>
+    <t>1polio2pup</t>
+  </si>
+  <si>
+    <t>1pcv2pup</t>
+  </si>
+  <si>
+    <t>1rox2pup</t>
+  </si>
+  <si>
+    <t>2penta3pup</t>
+  </si>
+  <si>
+    <t>2polio3pup</t>
+  </si>
+  <si>
+    <t>2pcv3pup</t>
+  </si>
+  <si>
+    <t>1penta3pup</t>
+  </si>
+  <si>
+    <t>1polio3pup</t>
+  </si>
+  <si>
+    <t>1pcv3pup</t>
+  </si>
+  <si>
+    <t>sarampo6mpup</t>
+  </si>
+  <si>
+    <t>febamarel6mpup</t>
+  </si>
+  <si>
+    <t>{{calculates.bcgpup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.polionaspup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.penta1pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.polio1pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.pcv1pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.rox1pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.penta2pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.polio2pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.pcv2pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.rox2pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1penta2pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1polio2pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1pcv2pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1rox2pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.penta3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.polio3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.pcv3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.vpipup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.2penta3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.2polio3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.2pcv3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1penta3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1polio3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.1pcv3pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.sarampo1pup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.febamarelpup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.sarampo6mpup}}</t>
+  </si>
+  <si>
+    <t>{{calculates.febamarel6mpup}}</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got febamarel before 6 months&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got sarampo vaccine before 6 months&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got PCV3 before PCV1&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got POLIO3 before POLIO1&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got PENTA3 before PENTA1&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got PCV3 before PCV2&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got POLIO3 before POLIO2&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got PENTA3 before PENTA2&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got ROX2 before ROX1&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got PCV2 before PCV1&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got POLIO2 before POLIO1&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Got PENTA2 before PENTA1&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the Febamarel vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the Sarampo1 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the PVI vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the PCV3 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the Polio3 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the Penta3 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the ROX2 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the PCV2 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the Polio2 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the Penta2 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the ROX1 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the PCV1 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the Polio1 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the Penta1 vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the polio vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>freebase.echo('&lt;b&gt;Date of the BCG vaccination is before the date of birth&lt;b&gt;')</t>
+  </si>
+  <si>
+    <t>data('lastvisitdate') == null</t>
+  </si>
+  <si>
+    <t>Mudar as informações?</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('EXITDATA'))&lt;1 &amp;&amp; adate.diffInYears(data('EXITDATA'), data('lastvisitdate'))&lt;0 || (data('PRES') != '2' &amp;&amp; data('PRES') != '3')</t>
+  </si>
+  <si>
+    <t>Quais são as medidas de braco na crianca em MM</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('BCG'))&lt;0 &amp;&amp; data('BCG') != null &amp;&amp; data('BCG') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('POLIONAS'))&lt;0 &amp;&amp; data('POLIONAS') != null &amp;&amp; data('POLIONAS') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PENTA1'))&lt;0  &amp;&amp; data('PENTA1') != null &amp;&amp; data('PENTA1') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('POLIO1'))&lt;0  &amp;&amp; data('POLIO1') != null &amp;&amp; data('POLIO1') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PCV1'))&lt;0 &amp;&amp; data('PCV1') != null &amp;&amp; data('PCV1') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('ROX1'))&lt;0  &amp;&amp; data('ROX1') != null &amp;&amp; data('ROX1') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PENTA2'))&lt;0 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PENTA1'), data('PENTA2'))&lt;0 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('POLIO2'))&lt;0 &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('POLIO1'), data('POLIO2'))&lt;0  &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PCV2'))&lt;0 &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PCV1'), data('PCV2'))&lt;0  &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('ROX2'))&lt;0 &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('ROX1'), data('ROX2'))&lt;0  &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PENTA2'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PENTA1'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('POLIO3'))&lt;0 &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('POLIO2'), data('POLIO3'))&lt;0  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('POLIO1'), data('POLIO3'))&lt;0  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('PCV3'))&lt;0 &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PCV2'), data('PCV3'))&lt;0  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('PCV1'), data('PCV3'))&lt;0  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('VPI'))&lt;0 &amp;&amp; data('VPI') != null &amp;&amp; data('VPI') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('SARAMPO1'))&lt;0 &amp;&amp; data('SARAMPO') != null &amp;&amp; data('SARAMPO') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('OUTDATE'), data('FEBAMAREL'))&lt;0 &amp;&amp; data('FEBAMAREL') != null &amp;&amp; data('FEBAMAREL') != 'D:2,M:2,Y:1922'</t>
+  </si>
+  <si>
     <t>{REGIDC: data('REGIDC'), VISITDATE: data('CONT'), VISITIDC: opendatakit.getCurrentInstanceId()}</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>POLIONAS_FAL</t>
-  </si>
-  <si>
-    <t>do section parto</t>
-  </si>
-  <si>
-    <t>data('polio1ng') == "1"</t>
-  </si>
-  <si>
-    <t>data('polio1ng') == "2"</t>
-  </si>
-  <si>
-    <t>data('PENTA1')</t>
-  </si>
-  <si>
-    <t>data('pcv1ng') == '1'</t>
-  </si>
-  <si>
-    <t>data('pcv1ng') == '2'</t>
-  </si>
-  <si>
-    <t>data('rox1ng') == '1'</t>
-  </si>
-  <si>
-    <t>data('rox1ng') == '2'</t>
-  </si>
-  <si>
-    <t>notgivensamep1</t>
-  </si>
-  <si>
-    <t>notgivensamep2</t>
-  </si>
-  <si>
-    <t>notgivensamep3</t>
-  </si>
-  <si>
-    <t>Same as PENTA1</t>
-  </si>
-  <si>
-    <t>Same as PENTA2</t>
-  </si>
-  <si>
-    <t>Same as PENTA3</t>
-  </si>
-  <si>
-    <t>data('polio2ng') == '1'</t>
-  </si>
-  <si>
-    <t>data('polio2ng') == '2'</t>
-  </si>
-  <si>
-    <t>data('PENTA2')</t>
-  </si>
-  <si>
-    <t>data('pcv2ng') == '1'</t>
-  </si>
-  <si>
-    <t>data('pcv2ng') == '2'</t>
-  </si>
-  <si>
-    <t>data('rox2ng') == '1'</t>
-  </si>
-  <si>
-    <t>data('rox2ng') == '2'</t>
-  </si>
-  <si>
-    <t>data('PENTA3')</t>
-  </si>
-  <si>
-    <t>data('polio3ng') == '1'</t>
-  </si>
-  <si>
-    <t>data('polio3ng') == '2'</t>
-  </si>
-  <si>
-    <t>data('pcv3ng') == '1'</t>
-  </si>
-  <si>
-    <t>data('pcv3ng') == '2'</t>
-  </si>
-  <si>
-    <t>data('vping') == '1'</t>
-  </si>
-  <si>
-    <t>data('vping') == '2'</t>
-  </si>
-  <si>
-    <t>data('MOMA') == '1'</t>
-  </si>
-  <si>
-    <t>data('mor')</t>
-  </si>
-  <si>
-    <t>data('casa')</t>
-  </si>
-  <si>
-    <t>data('fogao')</t>
-  </si>
-  <si>
-    <t>mor</t>
-  </si>
-  <si>
-    <t>casa</t>
-  </si>
-  <si>
-    <t>fogau</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>do section stsc</t>
-  </si>
-  <si>
-    <t>data('change') == '1'</t>
-  </si>
-  <si>
-    <t>Sex: {{data.SEX}}</t>
-  </si>
-  <si>
-    <t>Sexo: {{data.SEX}}</t>
-  </si>
-  <si>
-    <t>Name: {{data.NOME}}</t>
-  </si>
-  <si>
-    <t>Nome: {{data.NOME}}</t>
-  </si>
-  <si>
-    <t>Birthdate: {{data.OUTDATE}}</t>
-  </si>
-  <si>
-    <t>Casa: {{data.CASA}}</t>
-  </si>
-  <si>
-    <t>Fogao: {{data.FOGAO}}</t>
-  </si>
-  <si>
-    <t>data('SEX') =='1'</t>
-  </si>
-  <si>
-    <t>data('SEX') =='2'</t>
-  </si>
-  <si>
-    <t>data('SEX') =='3'</t>
-  </si>
-  <si>
-    <t>Sex: Male</t>
-  </si>
-  <si>
-    <t>Morança: {{data.MOR}}</t>
-  </si>
-  <si>
-    <t>Sex: Female</t>
-  </si>
-  <si>
-    <t>Sex: Don't Know</t>
-  </si>
-  <si>
-    <t>Sexo: Não sabe</t>
-  </si>
-  <si>
-    <t>VISITTYPE</t>
-  </si>
-  <si>
-    <t>pres</t>
-  </si>
-  <si>
-    <t>data('VISITTYPE') == 'control'</t>
-  </si>
-  <si>
-    <t>do section control</t>
-  </si>
-  <si>
-    <t>data('C_CONDECOD2') =='OU'</t>
-  </si>
-  <si>
-    <t>data('C_CONDECOD') =='OU'</t>
-  </si>
-  <si>
-    <t>data('CONS2') =='1'</t>
-  </si>
-  <si>
-    <t>Mothers name</t>
-  </si>
-  <si>
-    <t>Name of mother: {{data.NOMEMAE}}</t>
-  </si>
-  <si>
-    <t>Nome da mulher</t>
-  </si>
-  <si>
-    <t>Nome de mulher: {{data.NOMEMAE}}</t>
-  </si>
-  <si>
-    <t>data('pres') == '1'</t>
-  </si>
-  <si>
-    <t>data('pres') == '2'</t>
-  </si>
-  <si>
-    <t>data('pres') == '3'</t>
-  </si>
-  <si>
-    <t>data('pres') == '4'</t>
-  </si>
-  <si>
-    <t>data('pres') == '5'</t>
-  </si>
-  <si>
-    <t>data('pres') == '6'</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Present&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Presente&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Moved out&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Mudou&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Dead&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Faleceu&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Absent&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Ausente&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Travelling&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Viagem&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Not visited&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Last visit status: &lt;b&gt;Não visitada&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Want to change the infromation?</t>
-  </si>
-  <si>
-    <t>integer_dropdown</t>
-  </si>
-  <si>
-    <t>ASSISTENTE</t>
-  </si>
-  <si>
-    <t>data('BCG') == null</t>
-  </si>
-  <si>
-    <t>BCG vaccine {{data.BCG}}</t>
-  </si>
-  <si>
-    <t>BCG vacina {{data.BCG}}</t>
-  </si>
-  <si>
-    <t>data('POLIONAS') == null</t>
-  </si>
-  <si>
-    <t>Polio vaccine {{data.POLIONAS}}</t>
-  </si>
-  <si>
-    <t>Polio vacina {{data.POLIONAS}}</t>
-  </si>
-  <si>
-    <t>data('PENTA1') == null</t>
-  </si>
-  <si>
-    <t>PENTA1 vaccine {{data.PENTA1}}</t>
-  </si>
-  <si>
-    <t>PENTA1 vacina {{data.PENTA1}}</t>
-  </si>
-  <si>
-    <t>data('POLIO1') == null</t>
-  </si>
-  <si>
-    <t>POLIO1 vaccine {{data.POLIO1}}</t>
-  </si>
-  <si>
-    <t>POLIO1 vacina {{data.POLIO1}}</t>
-  </si>
-  <si>
-    <t>data('PCV1') == null</t>
-  </si>
-  <si>
-    <t>PCV1 vaccine {{data.PCV1}}</t>
-  </si>
-  <si>
-    <t>PCV1 vacina {{data.PCV1}}</t>
-  </si>
-  <si>
-    <t>data('ROX1') == null</t>
-  </si>
-  <si>
-    <t>ROX1 vaccine {{data.ROX1}}</t>
-  </si>
-  <si>
-    <t>ROX1 vacina {{data.ROX1}}</t>
-  </si>
-  <si>
-    <t>data('PENTA2') == null</t>
-  </si>
-  <si>
-    <t>PENTA2 vaccine {{data.PENTA2}}</t>
-  </si>
-  <si>
-    <t>PENTA2 vacina {{data.PENTA2}}</t>
-  </si>
-  <si>
-    <t>data('POLIO2') == null</t>
-  </si>
-  <si>
-    <t>POLIO2 vaccine {{data.POLIO2}}</t>
-  </si>
-  <si>
-    <t>POLIO2 vacina {{data.POLIO2}}</t>
-  </si>
-  <si>
-    <t>data('PCV2') == null</t>
-  </si>
-  <si>
-    <t>PCV2 vacina {{data.PCV2}}</t>
-  </si>
-  <si>
-    <t>PCV2 vaccine {{data.PCV2}}</t>
-  </si>
-  <si>
-    <t>data('ROX2') == null</t>
-  </si>
-  <si>
-    <t>ROX2 vaccine {{data.ROX2}}</t>
-  </si>
-  <si>
-    <t>ROX2 vacina {{data.ROX2}}</t>
-  </si>
-  <si>
-    <t>data('PENTA3') == null</t>
-  </si>
-  <si>
-    <t>PENTA3 vaccine {{data.PENTA3}}</t>
-  </si>
-  <si>
-    <t>PENTA3 vacina {{data.PENTA3}}</t>
-  </si>
-  <si>
-    <t>data('POLIO3') == null</t>
-  </si>
-  <si>
-    <t>POLIO3 vaccine {{data.POLIO3}}</t>
-  </si>
-  <si>
-    <t>POLIO3 vacina {{data.POLIO3}}</t>
-  </si>
-  <si>
-    <t>data('PCV3') == null</t>
-  </si>
-  <si>
-    <t>PCV3 vaccine {{data.PCV3}}</t>
-  </si>
-  <si>
-    <t>PCV3 vacina {{data.PCV3}}</t>
-  </si>
-  <si>
-    <t>data('VPI') == null</t>
-  </si>
-  <si>
-    <t>VPI vaccine {{data.VPI}}</t>
-  </si>
-  <si>
-    <t>VPI vacina {{data.VPI}}</t>
-  </si>
-  <si>
-    <t>data('SARAMPO1') == null</t>
-  </si>
-  <si>
-    <t>SARAMPO1 vaccine {{data.SARAMPO1}}</t>
-  </si>
-  <si>
-    <t>SARAMPO1 vacina {{data.SARAMPO1}}</t>
-  </si>
-  <si>
-    <t>data('FEBAMAREL') == null</t>
-  </si>
-  <si>
-    <t>FEBAMAREL vaccine {{data.FEBAMAREL}}</t>
-  </si>
-  <si>
-    <t>FEBAMAREL vacina {{data.FEBAMAREL}}</t>
-  </si>
-  <si>
-    <t>lastvisitdate</t>
-  </si>
-  <si>
-    <t>Last visit date: {{data.lastvisitdate}}</t>
-  </si>
-  <si>
-    <t>The child must be below the age of 5:</t>
-  </si>
-  <si>
-    <t>Must be between 50 and 342 and a even number:</t>
-  </si>
-  <si>
-    <t>(data('BRACOCRI')&gt;49 &amp;&amp; data('BRACOCRI')&lt;343 &amp;&amp; data('BRACOCRI')%2 == 0) ||data('PRES') != '1'</t>
-  </si>
-  <si>
-    <t>adate.ageInYears(data('OUTDATE'))&lt;5 || data('lastvisitdate') != null</t>
-  </si>
-  <si>
-    <t>calculation_name</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the BCG vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>bcgpu</t>
-  </si>
-  <si>
-    <t>{{calculates.bcgpu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.polionaspu}}</t>
-  </si>
-  <si>
-    <t>polionaspu</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the polio vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>{{calculates.penta1pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.polio1pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.rox1pu}}</t>
-  </si>
-  <si>
-    <t>penta1pu</t>
-  </si>
-  <si>
-    <t>polio1pu</t>
-  </si>
-  <si>
-    <t>pcv1pu</t>
-  </si>
-  <si>
-    <t>rox1pu</t>
-  </si>
-  <si>
-    <t>{{calculates.pcv1pu}}</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the PCV1 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the Polio1 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the Penta1 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the ROX1 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>{{calculates.penta2pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.polio2pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.pcv2pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.rox2pu}}</t>
-  </si>
-  <si>
-    <t>penta2pu</t>
-  </si>
-  <si>
-    <t>polio2pu</t>
-  </si>
-  <si>
-    <t>pcv2pu</t>
-  </si>
-  <si>
-    <t>rox2pu</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the ROX2 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the PCV2 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the Polio2 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the Penta2 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>{{calculates.penta3pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.polio3pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.pcv3pu}}</t>
-  </si>
-  <si>
-    <t>penta3pu</t>
-  </si>
-  <si>
-    <t>polio3pu</t>
-  </si>
-  <si>
-    <t>pcv3pu</t>
-  </si>
-  <si>
-    <t>pvipu</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the Penta3 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the Polio3 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the PCV3 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the PVI vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>{{calculates.febamarelpu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.sarampo1pu}}</t>
-  </si>
-  <si>
-    <t>sarampo1pu</t>
-  </si>
-  <si>
-    <t>febamarelpu</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the Sarampo1 vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Date of the Febamarel vaccination is before the date of birth')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>1penta2pu</t>
-  </si>
-  <si>
-    <t>{{calculates.1penta2pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1polio2pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1pcv2pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1rox2pu}}</t>
-  </si>
-  <si>
-    <t>1polio2pu</t>
-  </si>
-  <si>
-    <t>1pcv2pu</t>
-  </si>
-  <si>
-    <t>1rox2pu</t>
-  </si>
-  <si>
-    <t>{{calculates.vpipu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.2penta3pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.2polio3pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.2pcv3pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1penta3pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1polio3pu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1pcv3pu}}</t>
-  </si>
-  <si>
-    <t>2penta3pu</t>
-  </si>
-  <si>
-    <t>2polio3pu</t>
-  </si>
-  <si>
-    <t>2pcv3pu</t>
-  </si>
-  <si>
-    <t>1penta3pu</t>
-  </si>
-  <si>
-    <t>1polio3pu</t>
-  </si>
-  <si>
-    <t>1pcv3pu</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got PENTA2 before PENTA1')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got PCV2 before PCV1')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got POLIO2 before POLIO1')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got ROX2 before ROX1')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got PENTA3 before PENTA2')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got POLIO3 before POLIO2')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got PCV3 before PCV2')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got PENTA3 before PENTA1')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got POLIO3 before POLIO1')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got PCV3 before PCV1')</t>
-  </si>
-  <si>
-    <t>Today's date: {{data.CONT}}</t>
-  </si>
-  <si>
-    <t>Exitdate cannot be before before last vist and cannot be in the future</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('DAPAMA'))&lt;1</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('DASEP'))&lt;1</t>
-  </si>
-  <si>
-    <t>The date of starting supplementary feeding cannot be before today's date</t>
-  </si>
-  <si>
-    <t>The date of stopping breastfeeding cannot be before today's date</t>
-  </si>
-  <si>
-    <t>The date of the separation from the mother cannot be before today's date</t>
-  </si>
-  <si>
-    <t>Sexo: Masculino</t>
-  </si>
-  <si>
-    <t>Sexo: Feminino</t>
-  </si>
-  <si>
-    <t>Fogão</t>
-  </si>
-  <si>
-    <t>Fogão: {{data.FOGAO}}</t>
-  </si>
-  <si>
-    <t>Data de nascimento: {{data.OUTDATE}}</t>
-  </si>
-  <si>
-    <t>A criança vive juntamente com a sua mãe?</t>
-  </si>
-  <si>
-    <t>Qualquer malformação?</t>
-  </si>
-  <si>
-    <t>Tipo?</t>
-  </si>
-  <si>
-    <t>Número de nascimento da criança</t>
-  </si>
-  <si>
-    <t>A mulher procurou consultas de contrlo durante a gravidez?</t>
-  </si>
-  <si>
-    <t>A grávida recebeu FANSIDAR (TPI, SP) quantas vezes?</t>
-  </si>
-  <si>
-    <t>A mulher deu a luz na tabanca?</t>
-  </si>
-  <si>
-    <t>Onde a mulher deu a luz?</t>
-  </si>
-  <si>
-    <t>Quém assistiu o parto?</t>
-  </si>
-  <si>
-    <t>A criança recebeu alimentos complementares?</t>
-  </si>
-  <si>
-    <t>Data de início da alimentação suplementar</t>
-  </si>
-  <si>
-    <t>Idade de início da alimentação suplementar em meses</t>
-  </si>
-  <si>
-    <t>A criança parou de tomar peito (amamentação)?</t>
-  </si>
-  <si>
-    <t>Data de interrupção da amamentação</t>
-  </si>
-  <si>
-    <t>Idade de interrupção da amamentação em meses</t>
-  </si>
-  <si>
-    <t>A criança dormiu debaixo da tenda ontem?</t>
-  </si>
-  <si>
-    <t>Tempo do uso da tenda</t>
-  </si>
-  <si>
-    <t>Tipo da tenda?</t>
-  </si>
-  <si>
-    <t>Porcos vivem na casa?</t>
-  </si>
-  <si>
-    <t>Há porcos morando no complexo?</t>
-  </si>
-  <si>
-    <t>A criança vivia com a sua mãe?</t>
-  </si>
-  <si>
-    <t>Data de separação da mãe</t>
-  </si>
-  <si>
-    <t>Idade da separação da mãe</t>
-  </si>
-  <si>
-    <t>Causa de separação da mãe</t>
-  </si>
-  <si>
-    <t>A criança foi internada no Hostpital desde a última visita?</t>
-  </si>
-  <si>
-    <t>A criança tem uma cicatriz de BSG?</t>
-  </si>
-  <si>
-    <t>Medição vertical da cicatriz em MM</t>
-  </si>
-  <si>
-    <t>Medição horizontal da cicatriz em MM</t>
-  </si>
-  <si>
-    <t>Limfadenopatia</t>
-  </si>
-  <si>
-    <t>Limfadenopatia supurativa</t>
-  </si>
-  <si>
-    <t>Ill desde a última visita em [data da última visita]</t>
-  </si>
-  <si>
-    <t>Sintomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulta procurada </t>
-  </si>
-  <si>
-    <t>Data da consulta</t>
-  </si>
-  <si>
-    <t>Visto a documentação da data de consulta?</t>
-  </si>
-  <si>
-    <t>Onde foi procurada a consulta</t>
-  </si>
-  <si>
-    <t>Trouxe cartão de vacinação</t>
-  </si>
-  <si>
-    <t>Diagnóstico recebido</t>
-  </si>
-  <si>
-    <t>Diagnóstico</t>
-  </si>
-  <si>
-    <t>Foi realizado qualquer teste</t>
-  </si>
-  <si>
-    <t>Resultado do teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procurou uma segunda consulta </t>
-  </si>
-  <si>
-    <t>Data de consulta</t>
-  </si>
-  <si>
-    <t>Diagnostico recebido</t>
-  </si>
-  <si>
-    <t>Diagnostico</t>
-  </si>
-  <si>
-    <t>A criança teve sarampo</t>
-  </si>
-  <si>
-    <t>Vacina BCG</t>
-  </si>
-  <si>
-    <t>Vacina de Polio</t>
-  </si>
-  <si>
-    <t>Numero da vacina de Polio</t>
-  </si>
-  <si>
-    <t>Vacina Pentavalente</t>
-  </si>
-  <si>
-    <t>Numero de vacina Pentavalente</t>
-  </si>
-  <si>
-    <t>Vacina de Febre Amarela</t>
-  </si>
-  <si>
-    <t>Vacina de Sarampo</t>
-  </si>
-  <si>
-    <t>Numero de vacina de Sarampo</t>
-  </si>
-  <si>
-    <t>Tipo de intervenção</t>
-  </si>
-  <si>
-    <t>Data de intervenção</t>
-  </si>
-  <si>
-    <t>Medicamento da malária</t>
-  </si>
-  <si>
-    <t>Usando a rede de mosquito</t>
-  </si>
-  <si>
-    <t>Tipo da rede de mosquito</t>
-  </si>
-  <si>
-    <t>Amamentação</t>
-  </si>
-  <si>
-    <t>Acidente</t>
-  </si>
-  <si>
-    <t>Tipo de acidente</t>
-  </si>
-  <si>
-    <t>Crescendo de acordo com a idade</t>
-  </si>
-  <si>
-    <t>Duração de não crescer de acordo com a idade</t>
-  </si>
-  <si>
-    <t>Duração da febre</t>
-  </si>
-  <si>
-    <t>Duração da diarreia</t>
-  </si>
-  <si>
-    <t>Tipo da diarreia</t>
-  </si>
-  <si>
-    <t>Palidez</t>
-  </si>
-  <si>
-    <t>Duração da palidez</t>
-  </si>
-  <si>
-    <t>Problemas respiratorios?</t>
-  </si>
-  <si>
-    <t>Duração dos problemas respiratórios</t>
-  </si>
-  <si>
-    <t>Convulsões</t>
-  </si>
-  <si>
-    <t>Duração das convulsões</t>
-  </si>
-  <si>
-    <t>Infeção do Sarampo</t>
-  </si>
-  <si>
-    <t>Duração da infeção do sarampo</t>
-  </si>
-  <si>
-    <t>Qual diagnostico</t>
-  </si>
-  <si>
-    <t>Quem diagnosticou</t>
-  </si>
-  <si>
-    <t>Outro diagnostico dado</t>
-  </si>
-  <si>
-    <t>Historia da morte</t>
-  </si>
-  <si>
-    <t>Nascidos vivos</t>
-  </si>
-  <si>
-    <t>Morreu antes do trabalho de parto</t>
-  </si>
-  <si>
-    <t>Dias entre o nascimento e a morte</t>
-  </si>
-  <si>
-    <t>A criança chorou</t>
-  </si>
-  <si>
-    <t>Local de corte do cordão umbilical</t>
-  </si>
-  <si>
-    <t>Cordão umbilical foi cortado com equipamento estéril?</t>
-  </si>
-  <si>
-    <t>Boca rígida</t>
-  </si>
-  <si>
-    <t>Corpo rígido</t>
-  </si>
-  <si>
-    <t>Malformação congênita</t>
-  </si>
-  <si>
-    <t>Qual malformação congênita?</t>
-  </si>
-  <si>
-    <t>Pele e esclera amarela</t>
-  </si>
-  <si>
-    <t>Tempo relativo ao nascimento</t>
-  </si>
-  <si>
-    <t>Duração da pele amarela (dias)</t>
-  </si>
-  <si>
-    <t>Vivo</t>
-  </si>
-  <si>
-    <t>Morreu antes de nascer</t>
-  </si>
-  <si>
-    <t>Morreu depois de nascer</t>
-  </si>
-  <si>
-    <t>Tem cartão, mas eu não tinha visto (NVC)</t>
-  </si>
-  <si>
-    <t>Sim, mas está mudando</t>
-  </si>
-  <si>
-    <t>Febre</t>
-  </si>
-  <si>
-    <t>Problemas respiratórios</t>
-  </si>
-  <si>
-    <t>facilidade1, facilidade1</t>
-  </si>
-  <si>
-    <t>Não administrado</t>
-  </si>
-  <si>
-    <t>Igual ao PENTA1</t>
-  </si>
-  <si>
-    <t>Igual ao PENTA2</t>
-  </si>
-  <si>
-    <t>Igual ao PENTA3</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('DACOMSUP'))&lt;2</t>
-  </si>
-  <si>
-    <t>sarampo6mpu</t>
-  </si>
-  <si>
-    <t>febamarel6mpu</t>
-  </si>
-  <si>
-    <t>{{calculates.sarampo6mpu}}</t>
-  </si>
-  <si>
-    <t>{{calculates.febamarel6mpu}}</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got sarampo vaccine before 6 months')</t>
-  </si>
-  <si>
-    <t>freebase.echo('Got febamarel before 6 months')</t>
-  </si>
-  <si>
-    <t>data('FEBAMAREL')&lt;6</t>
-  </si>
-  <si>
-    <t>data('SARAMPO1')&lt;6</t>
-  </si>
-  <si>
-    <t>bcgpup</t>
-  </si>
-  <si>
-    <t>polionaspup</t>
-  </si>
-  <si>
-    <t>penta1pup</t>
-  </si>
-  <si>
-    <t>polio1pup</t>
-  </si>
-  <si>
-    <t>pcv1pup</t>
-  </si>
-  <si>
-    <t>rox1pup</t>
-  </si>
-  <si>
-    <t>penta2pup</t>
-  </si>
-  <si>
-    <t>polio2pup</t>
-  </si>
-  <si>
-    <t>pcv2pup</t>
-  </si>
-  <si>
-    <t>rox2pup</t>
-  </si>
-  <si>
-    <t>penta3pup</t>
-  </si>
-  <si>
-    <t>polio3pup</t>
-  </si>
-  <si>
-    <t>pcv3pup</t>
-  </si>
-  <si>
-    <t>pvipup</t>
-  </si>
-  <si>
-    <t>sarampo1pup</t>
-  </si>
-  <si>
-    <t>febamarelpup</t>
-  </si>
-  <si>
-    <t>1penta2pup</t>
-  </si>
-  <si>
-    <t>1polio2pup</t>
-  </si>
-  <si>
-    <t>1pcv2pup</t>
-  </si>
-  <si>
-    <t>1rox2pup</t>
-  </si>
-  <si>
-    <t>2penta3pup</t>
-  </si>
-  <si>
-    <t>2polio3pup</t>
-  </si>
-  <si>
-    <t>2pcv3pup</t>
-  </si>
-  <si>
-    <t>1penta3pup</t>
-  </si>
-  <si>
-    <t>1polio3pup</t>
-  </si>
-  <si>
-    <t>1pcv3pup</t>
-  </si>
-  <si>
-    <t>sarampo6mpup</t>
-  </si>
-  <si>
-    <t>febamarel6mpup</t>
-  </si>
-  <si>
-    <t>{{calculates.bcgpup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.polionaspup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.penta1pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.polio1pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.pcv1pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.rox1pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.penta2pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.polio2pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.pcv2pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.rox2pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1penta2pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1polio2pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1pcv2pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1rox2pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.penta3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.polio3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.pcv3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.vpipup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.2penta3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.2polio3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.2pcv3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1penta3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1polio3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.1pcv3pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.sarampo1pup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.febamarelpup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.sarampo6mpup}}</t>
-  </si>
-  <si>
-    <t>{{calculates.febamarel6mpup}}</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got febamarel before 6 months&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got sarampo vaccine before 6 months&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got PCV3 before PCV1&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got POLIO3 before POLIO1&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got PENTA3 before PENTA1&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got PCV3 before PCV2&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got POLIO3 before POLIO2&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got PENTA3 before PENTA2&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got ROX2 before ROX1&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got PCV2 before PCV1&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got POLIO2 before POLIO1&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Got PENTA2 before PENTA1&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the Febamarel vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the Sarampo1 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the PVI vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the PCV3 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the Polio3 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the Penta3 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the ROX2 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the PCV2 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the Polio2 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the Penta2 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the ROX1 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the PCV1 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the Polio1 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the Penta1 vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the polio vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>freebase.echo('&lt;b&gt;Date of the BCG vaccination is before the date of birth&lt;b&gt;')</t>
-  </si>
-  <si>
-    <t>data('lastvisitdate') == null</t>
-  </si>
-  <si>
-    <t>Mudar as informações?</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('CONT'), data('EXITDATA'))&lt;1 &amp;&amp; adate.diffInYears(data('EXITDATA'), data('lastvisitdate'))&lt;0 || (data('PRES') != '2' &amp;&amp; data('PRES') != '3')</t>
-  </si>
-  <si>
-    <t>Quais são as medidas de braco na crianca em MM</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('BCG'))&lt;0 &amp;&amp; data('BCG') != null &amp;&amp; data('BCG') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('POLIONAS'))&lt;0 &amp;&amp; data('POLIONAS') != null &amp;&amp; data('POLIONAS') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PENTA1'))&lt;0  &amp;&amp; data('PENTA1') != null &amp;&amp; data('PENTA1') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('POLIO1'))&lt;0  &amp;&amp; data('POLIO1') != null &amp;&amp; data('POLIO1') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PCV1'))&lt;0 &amp;&amp; data('PCV1') != null &amp;&amp; data('PCV1') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('ROX1'))&lt;0  &amp;&amp; data('ROX1') != null &amp;&amp; data('ROX1') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PENTA2'))&lt;0 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PENTA1'), data('PENTA2'))&lt;0 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('POLIO2'))&lt;0 &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('POLIO1'), data('POLIO2'))&lt;0  &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PCV2'))&lt;0 &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PCV1'), data('PCV2'))&lt;0  &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('ROX2'))&lt;0 &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('ROX1'), data('ROX2'))&lt;0  &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PENTA2'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PENTA1'), data('PENTA3'))&lt;0  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('POLIO3'))&lt;0 &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('POLIO2'), data('POLIO3'))&lt;0  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('POLIO1'), data('POLIO3'))&lt;0  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('PCV3'))&lt;0 &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PCV2'), data('PCV3'))&lt;0  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('PCV1'), data('PCV3'))&lt;0  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('VPI'))&lt;0 &amp;&amp; data('VPI') != null &amp;&amp; data('VPI') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('SARAMPO1'))&lt;0 &amp;&amp; data('SARAMPO') != null &amp;&amp; data('SARAMPO') != 'D:2,M:2,Y:1922'</t>
-  </si>
-  <si>
-    <t>adate.diffInYears(data('OUTDATE'), data('FEBAMAREL'))&lt;0 &amp;&amp; data('FEBAMAREL') != null &amp;&amp; data('FEBAMAREL') != 'D:2,M:2,Y:1922'</t>
   </si>
 </sst>
 </file>
@@ -4234,7 +4234,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B1" s="53" t="s">
         <v>23</v>
@@ -4242,450 +4242,450 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B3" t="s">
         <v>817</v>
-      </c>
-      <c r="B3" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B11" t="s">
         <v>838</v>
-      </c>
-      <c r="B11" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B16" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B21" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B26" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B28" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B30" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B31" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B32" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B33" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B34" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B35" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B37" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B38" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B39" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B40" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B41" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B42" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B43" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B44" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B45" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B48" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B49" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B50" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B51" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B52" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B53" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B54" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B55" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B56" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B57" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
   </sheetData>
@@ -4697,9 +4697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4771,10 +4771,10 @@
         <v>666</v>
       </c>
       <c r="G2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>667</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>668</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="47"/>
@@ -4892,7 +4892,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -5502,7 +5502,7 @@
         <v>254</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E38" s="57"/>
     </row>
@@ -5518,7 +5518,7 @@
         <v>252</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E39" s="57"/>
     </row>
@@ -5534,7 +5534,7 @@
         <v>253</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E40" s="57"/>
     </row>
@@ -5675,7 +5675,7 @@
         <v>628</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E49" s="57"/>
     </row>
@@ -5834,7 +5834,7 @@
         <v>643</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E59" s="60"/>
     </row>
@@ -5882,7 +5882,7 @@
         <v>534</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="57"/>
     </row>
@@ -5914,7 +5914,7 @@
         <v>548</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E64" s="57"/>
     </row>
@@ -5930,7 +5930,7 @@
         <v>553</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E65" s="57"/>
     </row>
@@ -5946,7 +5946,7 @@
         <v>558</v>
       </c>
       <c r="D66" s="57" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E66" s="57"/>
     </row>
@@ -5962,7 +5962,7 @@
         <v>645</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E67" s="57"/>
     </row>
@@ -6074,29 +6074,29 @@
         <v>651</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B75" s="50" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C75" s="50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D75" s="57" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B76" s="50" t="str">
         <f>"2"</f>
@@ -6106,29 +6106,29 @@
         <v>651</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B77" s="50" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D77" s="57" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E77" s="57"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B78" s="50" t="str">
         <f>"2"</f>
@@ -6138,29 +6138,29 @@
         <v>651</v>
       </c>
       <c r="D78" s="57" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E78" s="57"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B79" s="50" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C79" s="50" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D79" s="57" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E79" s="57"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B80" s="50" t="str">
         <f>"2"</f>
@@ -6170,7 +6170,7 @@
         <v>651</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E80" s="57"/>
     </row>
@@ -6820,7 +6820,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B106" t="s">
         <v>25</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B108" t="s">
         <v>72</v>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
@@ -8176,7 +8176,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C166" t="b">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>55</v>
       </c>
       <c r="B184" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B197" s="49" t="s">
         <v>72</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B202" t="s">
         <v>120</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B204" t="s">
         <v>72</v>
@@ -8793,7 +8793,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8808,7 +8808,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8889,10 +8889,10 @@
         <v>149</v>
       </c>
       <c r="G3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H3" t="s">
         <v>713</v>
-      </c>
-      <c r="H3" t="s">
-        <v>714</v>
       </c>
       <c r="I3" s="55"/>
     </row>
@@ -8901,10 +8901,10 @@
         <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I4" s="55"/>
     </row>
@@ -8913,7 +8913,7 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I5" s="55"/>
     </row>
@@ -8922,10 +8922,10 @@
         <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I6" s="55"/>
     </row>
@@ -8940,7 +8940,7 @@
         <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I8" s="55"/>
     </row>
@@ -8949,10 +8949,10 @@
         <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I9" s="55"/>
     </row>
@@ -8967,7 +8967,7 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I11" s="55"/>
     </row>
@@ -8976,10 +8976,10 @@
         <v>149</v>
       </c>
       <c r="G12" t="s">
+        <v>723</v>
+      </c>
+      <c r="H12" t="s">
         <v>724</v>
-      </c>
-      <c r="H12" t="s">
-        <v>725</v>
       </c>
       <c r="I12" s="55"/>
     </row>
@@ -8994,10 +8994,10 @@
         <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I14" s="55"/>
     </row>
@@ -9006,10 +9006,10 @@
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I15" s="55"/>
     </row>
@@ -9018,10 +9018,10 @@
         <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I16" s="55"/>
     </row>
@@ -9030,10 +9030,10 @@
         <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I17" s="55"/>
     </row>
@@ -9045,13 +9045,13 @@
         <v>646</v>
       </c>
       <c r="F18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I18" s="55"/>
     </row>
@@ -9067,7 +9067,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I20" s="55"/>
     </row>
@@ -9082,7 +9082,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G22" t="s">
         <v>74</v>
@@ -9133,10 +9133,10 @@
         <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I25" s="55"/>
     </row>
@@ -9202,10 +9202,10 @@
         <v>149</v>
       </c>
       <c r="G31" t="s">
+        <v>712</v>
+      </c>
+      <c r="H31" t="s">
         <v>713</v>
-      </c>
-      <c r="H31" t="s">
-        <v>714</v>
       </c>
       <c r="I31" s="55"/>
     </row>
@@ -9214,10 +9214,10 @@
         <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H32" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I32" s="55"/>
     </row>
@@ -9226,10 +9226,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
+        <v>710</v>
+      </c>
+      <c r="H33" t="s">
         <v>711</v>
-      </c>
-      <c r="H33" t="s">
-        <v>712</v>
       </c>
       <c r="I33" s="55"/>
     </row>
@@ -9238,10 +9238,10 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H34" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I34" s="55"/>
     </row>
@@ -9250,10 +9250,10 @@
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I35" s="55"/>
     </row>
@@ -9262,10 +9262,10 @@
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I36" s="55"/>
     </row>
@@ -9274,10 +9274,10 @@
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H37" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I37" s="55"/>
     </row>
@@ -9307,9 +9307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9435,7 +9435,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G8" t="s">
         <v>74</v>
@@ -9481,13 +9481,13 @@
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="L10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -9623,7 +9623,7 @@
         <v>307</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
@@ -9633,7 +9633,7 @@
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
@@ -9653,7 +9653,7 @@
         <v>67</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J23" s="55"/>
     </row>
@@ -9671,7 +9671,7 @@
         <v>69</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J24" s="55"/>
     </row>
@@ -9686,10 +9686,10 @@
         <v>71</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J25" s="55"/>
     </row>
@@ -9768,7 +9768,7 @@
         <v>71</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
@@ -9835,7 +9835,7 @@
         <v>95</v>
       </c>
       <c r="H38" s="55" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
@@ -9862,7 +9862,7 @@
         <v>104</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
@@ -9888,7 +9888,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -9899,7 +9899,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -10101,7 +10101,7 @@
         <v>174</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
@@ -10134,7 +10134,7 @@
         <v>140</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
@@ -10407,10 +10407,10 @@
         <v>149</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
@@ -10492,7 +10492,7 @@
         <v>165</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
@@ -10525,7 +10525,7 @@
         <v>168</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I53" s="55"/>
       <c r="J53" s="55"/>
@@ -10558,7 +10558,7 @@
         <v>171</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I56" s="55"/>
       <c r="J56" s="55"/>
@@ -10570,7 +10570,7 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -10583,14 +10583,14 @@
   <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
@@ -10658,7 +10658,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -10666,10 +10666,10 @@
         <v>149</v>
       </c>
       <c r="G4" s="55" t="s">
+        <v>742</v>
+      </c>
+      <c r="H4" s="55" t="s">
         <v>743</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -10683,7 +10683,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -10691,10 +10691,10 @@
         <v>149</v>
       </c>
       <c r="G7" s="55" t="s">
+        <v>744</v>
+      </c>
+      <c r="H7" s="55" t="s">
         <v>745</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10708,7 +10708,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -10716,10 +10716,10 @@
         <v>149</v>
       </c>
       <c r="G10" s="55" t="s">
+        <v>746</v>
+      </c>
+      <c r="H10" s="55" t="s">
         <v>747</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10733,7 +10733,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10741,10 +10741,10 @@
         <v>149</v>
       </c>
       <c r="G13" s="55" t="s">
+        <v>748</v>
+      </c>
+      <c r="H13" s="55" t="s">
         <v>749</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -10758,7 +10758,7 @@
         <v>88</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -10766,10 +10766,10 @@
         <v>149</v>
       </c>
       <c r="G16" s="55" t="s">
+        <v>750</v>
+      </c>
+      <c r="H16" s="55" t="s">
         <v>751</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -10783,7 +10783,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -10791,10 +10791,10 @@
         <v>149</v>
       </c>
       <c r="G19" s="55" t="s">
+        <v>752</v>
+      </c>
+      <c r="H19" s="55" t="s">
         <v>753</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -10808,10 +10808,10 @@
         <v>149</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -10819,10 +10819,10 @@
         <v>149</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -10867,13 +10867,13 @@
         <v>270</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M25" s="55" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -11009,7 +11009,7 @@
         <v>284</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -11033,16 +11033,16 @@
         <v>286</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K42" s="55" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M42" s="55" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -11057,7 +11057,7 @@
         <v>287</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -11106,7 +11106,7 @@
         <v>289</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -11130,16 +11130,16 @@
         <v>291</v>
       </c>
       <c r="H51" s="55" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K51" s="55" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M51" s="55" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -11154,7 +11154,7 @@
         <v>292</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -11195,7 +11195,7 @@
         <v>294</v>
       </c>
       <c r="H57" s="55" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -11213,7 +11213,7 @@
         <v>297</v>
       </c>
       <c r="H58" s="55" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -11240,7 +11240,7 @@
         <v>301</v>
       </c>
       <c r="H60" s="55" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -11276,7 +11276,7 @@
         <v>303</v>
       </c>
       <c r="H64" s="55" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -11294,7 +11294,7 @@
         <v>305</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -11332,7 +11332,7 @@
         <v>307</v>
       </c>
       <c r="H69" s="55" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -11356,16 +11356,16 @@
         <v>309</v>
       </c>
       <c r="H71" s="55" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K71" s="55" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L71" s="55" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M71" s="55" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -11380,7 +11380,7 @@
         <v>310</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -11395,7 +11395,7 @@
         <v>311</v>
       </c>
       <c r="H73" s="55" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -11441,7 +11441,7 @@
         <v>313</v>
       </c>
       <c r="H79" s="55" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -11523,16 +11523,16 @@
         <v>318</v>
       </c>
       <c r="H89" s="55" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K89" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L89" s="55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M89" s="62" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -11562,7 +11562,7 @@
         <v>321</v>
       </c>
       <c r="H92" s="55" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -11598,7 +11598,7 @@
         <v>324</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -11613,7 +11613,7 @@
         <v>326</v>
       </c>
       <c r="H97" s="55" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -11649,7 +11649,7 @@
         <v>328</v>
       </c>
       <c r="H101" s="55" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -11676,7 +11676,7 @@
         <v>331</v>
       </c>
       <c r="H103" s="55" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -11722,13 +11722,13 @@
         <v>88</v>
       </c>
       <c r="C110" s="75" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="57"/>
       <c r="B111" s="57" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
@@ -11778,7 +11778,7 @@
         <v>376</v>
       </c>
       <c r="H115" s="55" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -12239,7 +12239,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="F35" sqref="F35:G35"/>
     </sheetView>
@@ -12328,7 +12328,7 @@
         <v>334</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -12370,7 +12370,7 @@
         <v>337</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -12402,7 +12402,7 @@
         <v>340</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -12427,7 +12427,7 @@
         <v>343</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -12445,7 +12445,7 @@
         <v>345</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -12494,7 +12494,7 @@
         <v>347</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12503,7 +12503,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H20" s="55"/>
     </row>
@@ -12519,7 +12519,7 @@
         <v>347</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12558,7 +12558,7 @@
         <v>350</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -12590,7 +12590,7 @@
         <v>352</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12615,7 +12615,7 @@
         <v>355</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12664,7 +12664,7 @@
         <v>357</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -12689,7 +12689,7 @@
         <v>360</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -12735,7 +12735,7 @@
         <v>362</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -12744,7 +12744,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H43" s="55"/>
     </row>
@@ -12760,7 +12760,7 @@
         <v>343</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -12778,7 +12778,7 @@
         <v>345</v>
       </c>
       <c r="H45" s="55" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -12827,7 +12827,7 @@
         <v>347</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -12836,7 +12836,7 @@
         <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H51" s="55"/>
     </row>
@@ -12852,7 +12852,7 @@
         <v>347</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -12891,7 +12891,7 @@
         <v>350</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -12923,7 +12923,7 @@
         <v>352</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -12948,7 +12948,7 @@
         <v>355</v>
       </c>
       <c r="H61" s="55" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -12997,7 +12997,7 @@
         <v>357</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -13022,7 +13022,7 @@
         <v>360</v>
       </c>
       <c r="H68" s="55" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -13081,7 +13081,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H77" s="55" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -13093,7 +13093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D306" sqref="D306"/>
     </sheetView>
@@ -13165,7 +13165,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -13233,10 +13233,10 @@
         <v>385</v>
       </c>
       <c r="G10" t="s">
+        <v>758</v>
+      </c>
+      <c r="H10" t="s">
         <v>759</v>
-      </c>
-      <c r="H10" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -13270,7 +13270,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -13338,10 +13338,10 @@
         <v>392</v>
       </c>
       <c r="G22" t="s">
+        <v>761</v>
+      </c>
+      <c r="H22" t="s">
         <v>762</v>
-      </c>
-      <c r="H22" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -13386,7 +13386,7 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -13395,10 +13395,10 @@
         <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H30" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -13413,7 +13413,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -13422,10 +13422,10 @@
         <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -13436,10 +13436,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -13507,10 +13507,10 @@
         <v>399</v>
       </c>
       <c r="G42" t="s">
+        <v>764</v>
+      </c>
+      <c r="H42" t="s">
         <v>765</v>
-      </c>
-      <c r="H42" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -13544,7 +13544,7 @@
         <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13566,7 +13566,7 @@
         <v>336</v>
       </c>
       <c r="E49" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F49" t="s">
         <v>404</v>
@@ -13577,7 +13577,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -13588,7 +13588,7 @@
         <v>401</v>
       </c>
       <c r="I51" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -13601,7 +13601,7 @@
         <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -13636,10 +13636,10 @@
         <v>405</v>
       </c>
       <c r="G57" t="s">
+        <v>767</v>
+      </c>
+      <c r="H57" t="s">
         <v>768</v>
-      </c>
-      <c r="H57" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -13673,7 +13673,7 @@
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -13695,7 +13695,7 @@
         <v>336</v>
       </c>
       <c r="E64" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F64" t="s">
         <v>410</v>
@@ -13706,7 +13706,7 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -13717,7 +13717,7 @@
         <v>407</v>
       </c>
       <c r="I66" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -13730,7 +13730,7 @@
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -13765,10 +13765,10 @@
         <v>411</v>
       </c>
       <c r="G72" t="s">
+        <v>770</v>
+      </c>
+      <c r="H72" t="s">
         <v>771</v>
-      </c>
-      <c r="H72" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -13802,7 +13802,7 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -13824,7 +13824,7 @@
         <v>336</v>
       </c>
       <c r="E79" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F79" t="s">
         <v>416</v>
@@ -13835,7 +13835,7 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -13846,7 +13846,7 @@
         <v>413</v>
       </c>
       <c r="I81" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -13859,7 +13859,7 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -13894,10 +13894,10 @@
         <v>417</v>
       </c>
       <c r="G87" t="s">
+        <v>773</v>
+      </c>
+      <c r="H87" t="s">
         <v>774</v>
-      </c>
-      <c r="H87" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -13942,7 +13942,7 @@
         <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -13951,10 +13951,10 @@
         <v>149</v>
       </c>
       <c r="G95" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H95" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -13969,7 +13969,7 @@
         <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -13978,10 +13978,10 @@
         <v>149</v>
       </c>
       <c r="G98" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H98" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -13996,7 +13996,7 @@
         <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -14005,10 +14005,10 @@
         <v>149</v>
       </c>
       <c r="G101" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H101" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -14023,7 +14023,7 @@
         <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -14032,10 +14032,10 @@
         <v>149</v>
       </c>
       <c r="G104" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H104" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -14049,7 +14049,7 @@
         <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -14117,10 +14117,10 @@
         <v>424</v>
       </c>
       <c r="G113" t="s">
+        <v>776</v>
+      </c>
+      <c r="H113" t="s">
         <v>777</v>
-      </c>
-      <c r="H113" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -14154,7 +14154,7 @@
         <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -14176,7 +14176,7 @@
         <v>336</v>
       </c>
       <c r="E120" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F120" t="s">
         <v>429</v>
@@ -14187,7 +14187,7 @@
         <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -14198,7 +14198,7 @@
         <v>426</v>
       </c>
       <c r="I122" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -14211,7 +14211,7 @@
         <v>88</v>
       </c>
       <c r="C124" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -14246,10 +14246,10 @@
         <v>430</v>
       </c>
       <c r="G128" t="s">
+        <v>779</v>
+      </c>
+      <c r="H128" t="s">
         <v>780</v>
-      </c>
-      <c r="H128" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
@@ -14283,7 +14283,7 @@
         <v>88</v>
       </c>
       <c r="C133" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
@@ -14305,7 +14305,7 @@
         <v>336</v>
       </c>
       <c r="E135" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F135" t="s">
         <v>435</v>
@@ -14316,7 +14316,7 @@
         <v>88</v>
       </c>
       <c r="C136" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
@@ -14327,7 +14327,7 @@
         <v>432</v>
       </c>
       <c r="I137" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
@@ -14340,7 +14340,7 @@
         <v>88</v>
       </c>
       <c r="C139" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
@@ -14375,10 +14375,10 @@
         <v>436</v>
       </c>
       <c r="G143" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H143" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
@@ -14412,7 +14412,7 @@
         <v>88</v>
       </c>
       <c r="C148" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -14434,7 +14434,7 @@
         <v>336</v>
       </c>
       <c r="E150" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F150" t="s">
         <v>441</v>
@@ -14445,7 +14445,7 @@
         <v>88</v>
       </c>
       <c r="C151" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
@@ -14456,7 +14456,7 @@
         <v>438</v>
       </c>
       <c r="I152" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
@@ -14469,7 +14469,7 @@
         <v>88</v>
       </c>
       <c r="C154" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -14504,10 +14504,10 @@
         <v>442</v>
       </c>
       <c r="G158" t="s">
+        <v>785</v>
+      </c>
+      <c r="H158" t="s">
         <v>786</v>
-      </c>
-      <c r="H158" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -14552,7 +14552,7 @@
         <v>88</v>
       </c>
       <c r="C165" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -14561,10 +14561,10 @@
         <v>149</v>
       </c>
       <c r="G166" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H166" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -14579,7 +14579,7 @@
         <v>88</v>
       </c>
       <c r="C168" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -14588,10 +14588,10 @@
         <v>149</v>
       </c>
       <c r="G169" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H169" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -14606,7 +14606,7 @@
         <v>88</v>
       </c>
       <c r="C171" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -14615,10 +14615,10 @@
         <v>149</v>
       </c>
       <c r="G172" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H172" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -14633,7 +14633,7 @@
         <v>88</v>
       </c>
       <c r="C174" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -14642,10 +14642,10 @@
         <v>149</v>
       </c>
       <c r="G175" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H175" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -14660,7 +14660,7 @@
         <v>88</v>
       </c>
       <c r="C177" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -14669,10 +14669,10 @@
         <v>149</v>
       </c>
       <c r="G178" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H178" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -14687,7 +14687,7 @@
         <v>88</v>
       </c>
       <c r="C180" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -14696,10 +14696,10 @@
         <v>149</v>
       </c>
       <c r="G181" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H181" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -14714,7 +14714,7 @@
         <v>88</v>
       </c>
       <c r="C183" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -14723,10 +14723,10 @@
         <v>149</v>
       </c>
       <c r="G184" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H184" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -14741,7 +14741,7 @@
         <v>88</v>
       </c>
       <c r="C186" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -14750,10 +14750,10 @@
         <v>149</v>
       </c>
       <c r="G187" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H187" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -14767,7 +14767,7 @@
         <v>88</v>
       </c>
       <c r="C189" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -14835,10 +14835,10 @@
         <v>449</v>
       </c>
       <c r="G196" t="s">
+        <v>788</v>
+      </c>
+      <c r="H196" t="s">
         <v>789</v>
-      </c>
-      <c r="H196" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
@@ -14872,7 +14872,7 @@
         <v>88</v>
       </c>
       <c r="C201" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
@@ -14894,7 +14894,7 @@
         <v>336</v>
       </c>
       <c r="E203" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F203" t="s">
         <v>454</v>
@@ -14905,7 +14905,7 @@
         <v>88</v>
       </c>
       <c r="C204" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
@@ -14916,7 +14916,7 @@
         <v>451</v>
       </c>
       <c r="I205" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
@@ -14929,7 +14929,7 @@
         <v>88</v>
       </c>
       <c r="C207" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
@@ -14964,10 +14964,10 @@
         <v>455</v>
       </c>
       <c r="G211" t="s">
+        <v>791</v>
+      </c>
+      <c r="H211" t="s">
         <v>792</v>
-      </c>
-      <c r="H211" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
@@ -15001,7 +15001,7 @@
         <v>88</v>
       </c>
       <c r="C216" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
@@ -15023,7 +15023,7 @@
         <v>336</v>
       </c>
       <c r="E218" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F218" t="s">
         <v>460</v>
@@ -15034,7 +15034,7 @@
         <v>88</v>
       </c>
       <c r="C219" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
@@ -15045,7 +15045,7 @@
         <v>457</v>
       </c>
       <c r="I220" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
@@ -15058,7 +15058,7 @@
         <v>88</v>
       </c>
       <c r="C222" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -15093,10 +15093,10 @@
         <v>461</v>
       </c>
       <c r="G226" t="s">
+        <v>794</v>
+      </c>
+      <c r="H226" t="s">
         <v>795</v>
-      </c>
-      <c r="H226" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -15130,7 +15130,7 @@
         <v>88</v>
       </c>
       <c r="C231" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -15152,7 +15152,7 @@
         <v>336</v>
       </c>
       <c r="E233" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F233" t="s">
         <v>466</v>
@@ -15163,7 +15163,7 @@
         <v>88</v>
       </c>
       <c r="C234" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -15174,7 +15174,7 @@
         <v>463</v>
       </c>
       <c r="I235" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -15187,7 +15187,7 @@
         <v>88</v>
       </c>
       <c r="C237" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -15222,10 +15222,10 @@
         <v>467</v>
       </c>
       <c r="G241" t="s">
+        <v>797</v>
+      </c>
+      <c r="H241" t="s">
         <v>798</v>
-      </c>
-      <c r="H241" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -15270,7 +15270,7 @@
         <v>88</v>
       </c>
       <c r="C248" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -15279,10 +15279,10 @@
         <v>149</v>
       </c>
       <c r="G249" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H249" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -15297,7 +15297,7 @@
         <v>88</v>
       </c>
       <c r="C251" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -15306,10 +15306,10 @@
         <v>149</v>
       </c>
       <c r="G252" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H252" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -15324,7 +15324,7 @@
         <v>88</v>
       </c>
       <c r="C254" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -15333,10 +15333,10 @@
         <v>149</v>
       </c>
       <c r="G255" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H255" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -15351,7 +15351,7 @@
         <v>88</v>
       </c>
       <c r="C257" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -15360,10 +15360,10 @@
         <v>149</v>
       </c>
       <c r="G258" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H258" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -15378,7 +15378,7 @@
         <v>88</v>
       </c>
       <c r="C260" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -15387,10 +15387,10 @@
         <v>149</v>
       </c>
       <c r="G261" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H261" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -15405,7 +15405,7 @@
         <v>88</v>
       </c>
       <c r="C263" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -15414,10 +15414,10 @@
         <v>149</v>
       </c>
       <c r="G264" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H264" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -15432,7 +15432,7 @@
         <v>88</v>
       </c>
       <c r="C266" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -15441,10 +15441,10 @@
         <v>149</v>
       </c>
       <c r="G267" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H267" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -15459,7 +15459,7 @@
         <v>88</v>
       </c>
       <c r="C269" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -15468,10 +15468,10 @@
         <v>149</v>
       </c>
       <c r="G270" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H270" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -15486,7 +15486,7 @@
         <v>88</v>
       </c>
       <c r="C272" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -15495,10 +15495,10 @@
         <v>149</v>
       </c>
       <c r="G273" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H273" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -15513,7 +15513,7 @@
         <v>88</v>
       </c>
       <c r="C275" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -15522,10 +15522,10 @@
         <v>149</v>
       </c>
       <c r="G276" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H276" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -15539,7 +15539,7 @@
         <v>88</v>
       </c>
       <c r="C278" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -15607,10 +15607,10 @@
         <v>474</v>
       </c>
       <c r="G285" t="s">
+        <v>800</v>
+      </c>
+      <c r="H285" t="s">
         <v>801</v>
-      </c>
-      <c r="H285" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -15644,7 +15644,7 @@
         <v>88</v>
       </c>
       <c r="C290" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -15712,10 +15712,10 @@
         <v>481</v>
       </c>
       <c r="G297" t="s">
+        <v>803</v>
+      </c>
+      <c r="H297" t="s">
         <v>804</v>
-      </c>
-      <c r="H297" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -15760,7 +15760,7 @@
         <v>88</v>
       </c>
       <c r="C304" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -15769,10 +15769,10 @@
         <v>149</v>
       </c>
       <c r="G305" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H305" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -15787,7 +15787,7 @@
         <v>88</v>
       </c>
       <c r="C307" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -15796,10 +15796,10 @@
         <v>149</v>
       </c>
       <c r="G308" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H308" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -15814,7 +15814,7 @@
         <v>88</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D310" s="50"/>
       <c r="E310" s="50"/>
@@ -15828,10 +15828,10 @@
         <v>149</v>
       </c>
       <c r="G311" s="50" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H311" s="50" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -15846,13 +15846,13 @@
         <v>88</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G313" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H313" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -16039,7 +16039,7 @@
         <v>378</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -16052,7 +16052,7 @@
         <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G11" t="s">
         <v>494</v>
@@ -16076,7 +16076,7 @@
         <v>388</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -16091,7 +16091,7 @@
         <v>497</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -16123,7 +16123,7 @@
         <v>499</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -16138,7 +16138,7 @@
         <v>501</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -16156,7 +16156,7 @@
         <v>503</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -16174,7 +16174,7 @@
         <v>505</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -16189,7 +16189,7 @@
         <v>507</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -16226,7 +16226,7 @@
         <v>509</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -16241,7 +16241,7 @@
         <v>511</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -16270,7 +16270,7 @@
         <v>509</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -16285,7 +16285,7 @@
         <v>511</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -16317,7 +16317,7 @@
         <v>515</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -16349,7 +16349,7 @@
         <v>517</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -16377,7 +16377,7 @@
         <v>520</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -16416,7 +16416,7 @@
         <v>522</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -16448,7 +16448,7 @@
         <v>524</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -16473,7 +16473,7 @@
         <v>527</v>
       </c>
       <c r="H46" s="55" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -16512,7 +16512,7 @@
         <v>529</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16541,7 +16541,7 @@
         <v>532</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -16605,7 +16605,7 @@
         <v>538</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -16669,7 +16669,7 @@
         <v>544</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -16684,7 +16684,7 @@
         <v>546</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -16723,7 +16723,7 @@
         <v>548</v>
       </c>
       <c r="H70" s="55" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -16748,7 +16748,7 @@
         <v>551</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -16787,7 +16787,7 @@
         <v>553</v>
       </c>
       <c r="H76" s="55" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -16812,7 +16812,7 @@
         <v>556</v>
       </c>
       <c r="H78" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -16851,7 +16851,7 @@
         <v>558</v>
       </c>
       <c r="H82" s="55" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -16876,7 +16876,7 @@
         <v>561</v>
       </c>
       <c r="H84" s="55" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -16915,7 +16915,7 @@
         <v>563</v>
       </c>
       <c r="H88" s="55" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -16940,7 +16940,7 @@
         <v>566</v>
       </c>
       <c r="H90" s="55" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -17004,7 +17004,7 @@
         <v>572</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -17053,7 +17053,7 @@
         <v>574</v>
       </c>
       <c r="H101" s="55" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -17078,7 +17078,7 @@
         <v>577</v>
       </c>
       <c r="H103" s="55" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -17121,7 +17121,7 @@
         <v>579</v>
       </c>
       <c r="H108" s="55" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -17136,7 +17136,7 @@
         <v>579</v>
       </c>
       <c r="H109" s="55" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -17168,7 +17168,7 @@
         <v>582</v>
       </c>
       <c r="H112" s="55" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -17212,7 +17212,7 @@
         <v>585</v>
       </c>
       <c r="H116" s="55" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -17258,7 +17258,7 @@
         <v>588</v>
       </c>
       <c r="H121" s="55" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -17286,7 +17286,7 @@
         <v>591</v>
       </c>
       <c r="H123" s="55" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -17322,7 +17322,7 @@
         <v>593</v>
       </c>
       <c r="H127" s="55" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -17340,7 +17340,7 @@
         <v>595</v>
       </c>
       <c r="H128" s="55" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -17372,7 +17372,7 @@
         <v>597</v>
       </c>
       <c r="H131" s="55" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -17390,7 +17390,7 @@
         <v>599</v>
       </c>
       <c r="H132" s="55" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -17429,7 +17429,7 @@
         <v>601</v>
       </c>
       <c r="H136" s="55" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -17454,7 +17454,7 @@
         <v>604</v>
       </c>
       <c r="H138" s="55" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -17493,7 +17493,7 @@
         <v>606</v>
       </c>
       <c r="H142" s="55" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -17518,7 +17518,7 @@
         <v>609</v>
       </c>
       <c r="H144" s="55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -17533,7 +17533,7 @@
         <v>611</v>
       </c>
       <c r="H145" s="55" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE278141-B582-4D26-AB9A-EE3E6EDB5D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263F9217-0F90-425B-B93B-22ED7EE95B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1139">
   <si>
     <t>setting_name</t>
   </si>
@@ -3443,6 +3443,30 @@
   </si>
   <si>
     <t>{REGIDC: data('REGIDC'), VISITDATE: data('CONT'), VISITIDC: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>dontknow</t>
+  </si>
+  <si>
+    <t>cdg_mns</t>
+  </si>
+  <si>
+    <t>data('cdg_mns') != null</t>
+  </si>
+  <si>
+    <t>fedep_mns</t>
+  </si>
+  <si>
+    <t>data('fedep_mns') != null</t>
+  </si>
+  <si>
+    <t>qvfansi_mns</t>
+  </si>
+  <si>
+    <t>data('qvfansi_mns') != null</t>
+  </si>
+  <si>
+    <t>abmesns</t>
   </si>
 </sst>
 </file>
@@ -4222,7 +4246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6BCC52-34B1-45EC-BAB5-A647CE434BBE}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -4697,9 +4721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,11 +4926,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6334,6 +6358,21 @@
       </c>
       <c r="E90" s="57"/>
     </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B91" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6342,11 +6381,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A206" sqref="A206:XFD206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8724,8 +8763,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B205" t="s">
+        <v>336</v>
+      </c>
+      <c r="C205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B206" t="s">
+        <v>336</v>
+      </c>
+      <c r="C206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B207" t="s">
+        <v>336</v>
+      </c>
+      <c r="C207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B208" t="s">
+        <v>336</v>
+      </c>
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C206">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C205">
     <sortCondition ref="A88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9307,9 +9390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9911,11 +9994,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10280,296 +10363,401 @@
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="D31" t="s">
+        <v>336</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>88</v>
       </c>
-      <c r="C31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
+      <c r="C32" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33">
+        <v>99</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
       </c>
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>149</v>
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>156</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" t="s">
-        <v>154</v>
+      <c r="B37" t="s">
+        <v>103</v>
       </c>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" t="s">
-        <v>157</v>
+      <c r="B39" t="s">
+        <v>46</v>
       </c>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>103</v>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" t="s">
+        <v>159</v>
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>47</v>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" t="s">
+        <v>154</v>
       </c>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
+      <c r="D42" t="s">
+        <v>336</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>908</v>
-      </c>
-      <c r="H43" s="55" t="s">
-        <v>908</v>
-      </c>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" t="s">
-        <v>153</v>
-      </c>
-      <c r="H44" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
+        <v>160</v>
+      </c>
+      <c r="I44">
+        <v>99</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>155</v>
-      </c>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" t="s">
-        <v>157</v>
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>103</v>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" t="s">
+        <v>157</v>
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="55"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="I48" s="55"/>
       <c r="J48" s="55"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>164</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H50" s="55" t="s">
-        <v>909</v>
+      <c r="B50" t="s">
+        <v>46</v>
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>47</v>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>908</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>908</v>
       </c>
       <c r="I51" s="55"/>
       <c r="J51" s="55"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>46</v>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" t="s">
+        <v>154</v>
       </c>
       <c r="I52" s="55"/>
       <c r="J52" s="55"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>1131</v>
       </c>
       <c r="F53" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H53" s="55" t="s">
-        <v>910</v>
-      </c>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
+        <v>1136</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" t="s">
+        <v>162</v>
+      </c>
+      <c r="I55">
+        <v>99</v>
+      </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
-        <v>169</v>
-      </c>
-      <c r="F56" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H56" s="55" t="s">
-        <v>911</v>
-      </c>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>909</v>
+      </c>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>910</v>
+      </c>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H68" s="55" t="s">
+        <v>911</v>
+      </c>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>708</v>
       </c>
     </row>
@@ -10583,7 +10771,7 @@
   <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263F9217-0F90-425B-B93B-22ED7EE95B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7508124F-0197-4F90-995F-89F3DF2A8063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="674" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="1152">
   <si>
     <t>setting_name</t>
   </si>
@@ -3467,6 +3467,45 @@
   </si>
   <si>
     <t>abmesns</t>
+  </si>
+  <si>
+    <t>data('NASESTADO') != '1'</t>
+  </si>
+  <si>
+    <t>data('PRES')</t>
+  </si>
+  <si>
+    <t>data('PRES') != '2' &amp;&amp; data('PRES') !='3'</t>
+  </si>
+  <si>
+    <t>dacomsupns</t>
+  </si>
+  <si>
+    <t>data('dacomsupns') != null</t>
+  </si>
+  <si>
+    <t>data('dacomsupns')</t>
+  </si>
+  <si>
+    <t>dontknowdate</t>
+  </si>
+  <si>
+    <t>data('dapamans')</t>
+  </si>
+  <si>
+    <t>dapamans</t>
+  </si>
+  <si>
+    <t>data('dapamans') != null</t>
+  </si>
+  <si>
+    <t>dasepns</t>
+  </si>
+  <si>
+    <t>data('dasepns') != null</t>
+  </si>
+  <si>
+    <t>data('dasepns')</t>
   </si>
 </sst>
 </file>
@@ -3752,7 +3791,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3837,6 +3876,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -4926,17 +4966,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" style="50" bestFit="1" customWidth="1"/>
@@ -6373,6 +6413,21 @@
         <v>83</v>
       </c>
     </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="50" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B92" s="50" t="str">
+        <f>"D:NS,M:NS,Y:NS"</f>
+        <v>D:NS,M:NS,Y:NS</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6381,11 +6436,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:L208"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A206" sqref="A206:XFD206"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8804,6 +8859,39 @@
         <v>336</v>
       </c>
       <c r="C208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="55" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B209" t="s">
+        <v>336</v>
+      </c>
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="55" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B210" t="s">
+        <v>336</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="57" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B211" t="s">
+        <v>336</v>
+      </c>
+      <c r="C211" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9388,11 +9476,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9494,170 +9582,149 @@
     <row r="5" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1139</v>
       </c>
       <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="I6" s="16">
+        <v>3</v>
+      </c>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="D8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="I8" s="16">
+        <v>11</v>
+      </c>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>706</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="55"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="55"/>
+    <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="J10" s="55"/>
-      <c r="L10" t="s">
-        <v>810</v>
-      </c>
-      <c r="M10" t="s">
-        <v>807</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+    </row>
+    <row r="11" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>46</v>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>705</v>
       </c>
       <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="I13" s="55">
+        <v>11</v>
+      </c>
       <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>706</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
-      <c r="K15" s="12" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>810</v>
+      </c>
+      <c r="M16" t="s">
+        <v>807</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>47</v>
       </c>
@@ -9665,198 +9732,210 @@
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
       <c r="J18" s="55"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
       <c r="J19" s="55"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="55"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>256</v>
+      </c>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>307</v>
+        <v>56</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>903</v>
+        <v>56</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>698</v>
-      </c>
-      <c r="H22" s="55"/>
+      <c r="K21" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>699</v>
-      </c>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="55"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>700</v>
-      </c>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>900</v>
-      </c>
-      <c r="I25" s="55" t="s">
-        <v>701</v>
-      </c>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="H26" s="55"/>
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="55"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>903</v>
+      </c>
       <c r="I27" s="55"/>
       <c r="J27" s="55"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>698</v>
       </c>
       <c r="H28" s="55"/>
       <c r="I28" s="55"/>
       <c r="J28" s="55"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>699</v>
+      </c>
       <c r="J29" s="55"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="55"/>
+        <v>69</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>700</v>
+      </c>
       <c r="J30" s="55"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="55"/>
+        <v>900</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>701</v>
+      </c>
       <c r="J31" s="55"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>900</v>
-      </c>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="55"/>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>47</v>
       </c>
@@ -9864,124 +9943,196 @@
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="H34" s="55"/>
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="55" t="s">
-        <v>91</v>
-      </c>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="55"/>
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="55"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>67</v>
+      </c>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="55"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>95</v>
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
       </c>
       <c r="H38" s="55" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="H39" s="55"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>905</v>
-      </c>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="55"/>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>904</v>
+      </c>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>905</v>
+      </c>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>708</v>
       </c>
     </row>
@@ -10768,11 +10919,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" activeCellId="2" sqref="F85 F60 F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10785,7 +10936,7 @@
     <col min="6" max="6" width="17.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" style="55" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.85546875" style="55" customWidth="1"/>
     <col min="12" max="12" width="38.28515625" style="55" customWidth="1"/>
@@ -10841,7 +10992,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="55" t="s">
         <v>88</v>
       </c>
@@ -10850,6 +11001,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
       <c r="D4" s="55" t="s">
         <v>149</v>
       </c>
@@ -10861,12 +11013,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
       <c r="B5" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="55" t="s">
         <v>88</v>
       </c>
@@ -10875,6 +11028,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
       <c r="D7" s="55" t="s">
         <v>149</v>
       </c>
@@ -10886,12 +11040,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
       <c r="B8" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="55" t="s">
         <v>88</v>
       </c>
@@ -10900,6 +11055,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
       <c r="D10" s="55" t="s">
         <v>149</v>
       </c>
@@ -10911,12 +11067,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
       <c r="B11" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="55" t="s">
         <v>88</v>
       </c>
@@ -10925,6 +11082,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
       <c r="D13" s="55" t="s">
         <v>149</v>
       </c>
@@ -10936,12 +11094,13 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
       <c r="B14" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="55" t="s">
         <v>88</v>
       </c>
@@ -10950,6 +11109,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
       <c r="D16" s="55" t="s">
         <v>149</v>
       </c>
@@ -10961,12 +11121,13 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
       <c r="B17" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="55" t="s">
         <v>88</v>
       </c>
@@ -10975,6 +11136,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
       <c r="D19" s="55" t="s">
         <v>149</v>
       </c>
@@ -10986,12 +11148,13 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
       <c r="B20" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="57"/>
       <c r="D21" s="55" t="s">
         <v>149</v>
       </c>
@@ -11003,6 +11166,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
       <c r="D22" s="55" t="s">
         <v>149</v>
       </c>
@@ -11014,7 +11178,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="57"/>
       <c r="D23" s="55" t="s">
         <v>22</v>
       </c>
@@ -11032,7 +11196,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="55" t="s">
         <v>88</v>
       </c>
@@ -11041,7 +11205,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="57"/>
       <c r="D25" s="55" t="s">
         <v>120</v>
       </c>
@@ -11065,311 +11229,297 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="57"/>
+      <c r="D26" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>705</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C27" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="D27" s="55" t="s">
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="D28" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F28" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G28" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H28" s="55" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="55" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>705</v>
+      </c>
+      <c r="I32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="55" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="D32" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="55" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
-      <c r="B36" s="55" t="s">
-        <v>103</v>
+      <c r="D36" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="63"/>
       <c r="B37" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>282</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="63"/>
       <c r="B38" s="55" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="55" t="s">
-        <v>46</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="D40" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>912</v>
+      <c r="A40" s="63"/>
+      <c r="B40" s="55" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
       <c r="B41" s="55" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="D42" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="H42" s="55" t="s">
-        <v>913</v>
-      </c>
-      <c r="K42" s="55" t="s">
-        <v>1007</v>
-      </c>
-      <c r="L42" s="55" t="s">
-        <v>895</v>
-      </c>
-      <c r="M42" s="55" t="s">
-        <v>895</v>
+      <c r="B42" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="64"/>
-      <c r="D43" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="H43" s="55" t="s">
-        <v>914</v>
+      <c r="B43" s="55" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="64"/>
-      <c r="B44" s="55" t="s">
-        <v>103</v>
+      <c r="D44" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="64"/>
       <c r="B45" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="64"/>
+      <c r="D46" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>913</v>
+      </c>
+      <c r="K46" s="55" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>895</v>
+      </c>
+      <c r="M46" s="55" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="64"/>
+      <c r="D47" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="64"/>
+      <c r="B48" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="64"/>
+      <c r="D49" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="64"/>
+      <c r="D50" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="76" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="64"/>
+      <c r="B51" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="64"/>
+      <c r="B52" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="64"/>
+      <c r="B53" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="55" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="55" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="D49" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H49" s="55" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="D51" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="H51" s="55" t="s">
-        <v>916</v>
-      </c>
-      <c r="K51" s="55" t="s">
-        <v>893</v>
-      </c>
-      <c r="L51" s="55" t="s">
-        <v>896</v>
-      </c>
-      <c r="M51" s="55" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="D52" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="H52" s="55" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="55" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="55" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
       <c r="D57" s="55" t="s">
         <v>22</v>
       </c>
@@ -11377,136 +11527,127 @@
         <v>93</v>
       </c>
       <c r="F57" s="55" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="G57" s="55" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H57" s="55" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="D58" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="F58" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="G58" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="H58" s="55" t="s">
-        <v>919</v>
+      <c r="A58" s="65"/>
+      <c r="B58" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="55" t="s">
+      <c r="A59" s="65"/>
+      <c r="D59" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="H59" s="55" t="s">
+        <v>916</v>
+      </c>
+      <c r="K59" s="55" t="s">
+        <v>893</v>
+      </c>
+      <c r="L59" s="55" t="s">
+        <v>896</v>
+      </c>
+      <c r="M59" s="55" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="65"/>
+      <c r="D60" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F60" s="55" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="65"/>
+      <c r="B61" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="55" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="D60" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="F60" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="G60" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="H60" s="55" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
-      <c r="B61" s="55" t="s">
+      <c r="C61" s="55" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="65"/>
+      <c r="D62" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="65"/>
+      <c r="D63" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" s="55" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="65"/>
+      <c r="B64" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
-      <c r="B62" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="D64" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="G64" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="H64" s="55" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="D65" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="G65" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="H65" s="55" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="65"/>
+      <c r="B65" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="65"/>
       <c r="B66" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="55" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="66"/>
       <c r="B68" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="66"/>
       <c r="D69" s="55" t="s">
         <v>22</v>
       </c>
@@ -11514,512 +11655,586 @@
         <v>93</v>
       </c>
       <c r="F69" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="H69" s="55" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="66"/>
+      <c r="D70" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="G70" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="H70" s="55" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
+      <c r="B71" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="66"/>
+      <c r="D72" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G72" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="H72" s="55" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
+      <c r="B73" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="66"/>
+      <c r="B74" s="55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="67"/>
+      <c r="B75" s="55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="67"/>
+      <c r="D76" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="G76" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="H76" s="55" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="67"/>
+      <c r="D77" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="G77" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="H77" s="55" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="67"/>
+      <c r="B78" s="55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="68"/>
+      <c r="B80" s="55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="68"/>
+      <c r="D81" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G81" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="H69" s="55" t="s">
+      <c r="H81" s="55" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="68"/>
-      <c r="B70" s="55" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="68"/>
+      <c r="B82" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C82" s="55" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="68"/>
-      <c r="D71" s="55" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="68"/>
+      <c r="D83" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G83" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="H83" s="55" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="68"/>
+      <c r="D84" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F71" s="55" t="s">
+      <c r="F84" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G71" s="55" t="s">
+      <c r="G84" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="H71" s="55" t="s">
+      <c r="H84" s="55" t="s">
         <v>924</v>
       </c>
-      <c r="K71" s="55" t="s">
+      <c r="K84" s="55" t="s">
         <v>894</v>
       </c>
-      <c r="L71" s="55" t="s">
+      <c r="L84" s="55" t="s">
         <v>897</v>
       </c>
-      <c r="M71" s="55" t="s">
+      <c r="M84" s="55" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
-      <c r="D72" s="55" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="68"/>
+      <c r="D85" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="E85" s="55" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F85" s="57" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="68"/>
+      <c r="B86" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="55" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="68"/>
+      <c r="D87" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="55" t="s">
+      <c r="F87" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G87" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="H72" s="55" t="s">
+      <c r="H87" s="55" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="D73" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="H73" s="55" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="55" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="68"/>
+      <c r="D88" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I88" s="55" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="68"/>
+      <c r="B89" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
-      <c r="B75" s="55" t="s">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="68"/>
+      <c r="B90" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="68"/>
+      <c r="B91" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="55" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="55" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="69"/>
-      <c r="B78" s="55" t="s">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="69"/>
+      <c r="B94" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="69"/>
-      <c r="D79" s="55" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="69"/>
+      <c r="D95" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="55" t="s">
+      <c r="E95" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="55" t="s">
+      <c r="F95" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G95" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="H79" s="55" t="s">
+      <c r="H95" s="55" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
-      <c r="B80" s="55" t="s">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="69"/>
+      <c r="B96" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="55" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="55" t="s">
+      <c r="C97" s="55" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
-      <c r="B82" s="55" t="s">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="70"/>
+      <c r="B98" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
-      <c r="D83" s="55" t="s">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="70"/>
+      <c r="D99" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G83" s="55" t="s">
+      <c r="G99" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="H83" s="55" t="s">
+      <c r="H99" s="55" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
-      <c r="D84" s="55" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="70"/>
+      <c r="D100" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="E84" s="55" t="s">
+      <c r="E100" s="55" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="55" t="s">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="70"/>
+      <c r="B101" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="55" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="71" t="s">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="71"/>
+      <c r="B103" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C103" s="55" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="72"/>
-      <c r="B88" s="55" t="s">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="72"/>
+      <c r="B104" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="72"/>
-      <c r="D89" s="55" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="72"/>
+      <c r="D105" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F105" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="G89" s="55" t="s">
+      <c r="G105" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="H89" s="55" t="s">
+      <c r="H105" s="55" t="s">
         <v>1103</v>
       </c>
-      <c r="K89" s="55" t="s">
+      <c r="K105" s="55" t="s">
         <v>809</v>
       </c>
-      <c r="L89" s="55" t="s">
+      <c r="L105" s="55" t="s">
         <v>808</v>
       </c>
-      <c r="M89" s="62" t="s">
+      <c r="M105" s="62" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="72"/>
-      <c r="B90" s="55" t="s">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="72"/>
+      <c r="B106" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
-      <c r="B91" s="55" t="s">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="73"/>
+      <c r="B107" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="73"/>
-      <c r="D92" s="55" t="s">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="73"/>
+      <c r="D108" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="55" t="s">
+      <c r="E108" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="F92" s="55" t="s">
+      <c r="F108" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="G92" s="55" t="s">
+      <c r="G108" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="H92" s="55" t="s">
+      <c r="H108" s="55" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="73"/>
-      <c r="B93" s="55" t="s">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="73"/>
+      <c r="B109" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="63" t="s">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="63"/>
+      <c r="B110" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="55" t="s">
+      <c r="C110" s="55" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="74"/>
-      <c r="B95" s="55" t="s">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="74"/>
+      <c r="B111" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="74"/>
-      <c r="D96" s="55" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="74"/>
+      <c r="D112" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F96" s="55" t="s">
+      <c r="F112" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G112" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="H96" s="55" t="s">
+      <c r="H112" s="55" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="74"/>
-      <c r="D97" s="55" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="74"/>
+      <c r="D113" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F97" s="55" t="s">
+      <c r="F113" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="G97" s="55" t="s">
+      <c r="G113" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="H97" s="55" t="s">
+      <c r="H113" s="55" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="55" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="74"/>
+      <c r="B114" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="63" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="63"/>
+      <c r="B115" s="63" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="66"/>
-      <c r="B100" s="55" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="66"/>
+      <c r="B116" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="66"/>
-      <c r="D101" s="55" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="66"/>
+      <c r="D117" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="55" t="s">
+      <c r="E117" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F101" s="55" t="s">
+      <c r="F117" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="G101" s="55" t="s">
+      <c r="G117" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="H101" s="55" t="s">
+      <c r="H117" s="55" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="61" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="61"/>
+      <c r="B118" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="55" t="s">
+      <c r="C118" s="55" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="66"/>
-      <c r="D103" s="55" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="66"/>
+      <c r="D119" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="55" t="s">
+      <c r="E119" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F103" s="55" t="s">
+      <c r="F119" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="G103" s="55" t="s">
+      <c r="G119" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="H103" s="55" t="s">
+      <c r="H119" s="55" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
-      <c r="B104" s="61" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="61"/>
+      <c r="B120" s="61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
-      <c r="B105" s="55" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="66"/>
+      <c r="B121" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="71"/>
-      <c r="B106" s="71" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="71"/>
+      <c r="B122" s="71" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C123" s="55" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="70"/>
-      <c r="B108" s="55" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="70"/>
+      <c r="B124" s="55" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="55" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="75"/>
-      <c r="B110" s="75" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="75"/>
+      <c r="B126" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="75" t="s">
+      <c r="C126" s="75" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
-      <c r="B111" s="57" t="s">
-        <v>728</v>
-      </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" s="55" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="73"/>
-      <c r="B114" s="55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
-      <c r="D115" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F115" s="55" t="s">
-        <v>375</v>
-      </c>
-      <c r="G115" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="H115" s="55" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="73"/>
-      <c r="B116" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="57"/>
-      <c r="B117" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="57"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="57"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="57"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="57"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="57"/>
-      <c r="B127" s="57"/>
+      <c r="B127" s="57" t="s">
+        <v>728</v>
+      </c>
       <c r="C127" s="57"/>
       <c r="D127" s="57"/>
       <c r="E127" s="57"/>
@@ -12029,7 +12244,9 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="57"/>
-      <c r="B128" s="57"/>
+      <c r="B128" s="57" t="s">
+        <v>103</v>
+      </c>
       <c r="C128" s="57"/>
       <c r="D128" s="57"/>
       <c r="E128" s="57"/>
@@ -12038,114 +12255,54 @@
       <c r="H128" s="57"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="57"/>
-      <c r="F129" s="57"/>
-      <c r="G129" s="57"/>
-      <c r="H129" s="57"/>
+      <c r="B129" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" s="55" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="57"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="57"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="57"/>
-      <c r="H130" s="57"/>
+      <c r="A130" s="73"/>
+      <c r="B130" s="55" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="57"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="57"/>
+      <c r="A131" s="73"/>
+      <c r="D131" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="G131" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="H131" s="55" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="57"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="57"/>
+      <c r="A132" s="73"/>
+      <c r="B132" s="55" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="57"/>
-      <c r="B133" s="57"/>
+      <c r="B133" s="57" t="s">
+        <v>103</v>
+      </c>
       <c r="C133" s="57"/>
       <c r="D133" s="57"/>
       <c r="E133" s="57"/>
       <c r="F133" s="57"/>
       <c r="G133" s="57"/>
       <c r="H133" s="57"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="57"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="57"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="57"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="57"/>
-      <c r="H135" s="57"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="57"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="57"/>
-      <c r="G136" s="57"/>
-      <c r="H136" s="57"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="57"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="57"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="57"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="57"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="57"/>
-      <c r="B139" s="57"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="57"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="57"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="57"/>
@@ -12416,6 +12573,166 @@
       <c r="F166" s="57"/>
       <c r="G166" s="57"/>
       <c r="H166" s="57"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="57"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="57"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="57"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="57"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="57"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="57"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="57"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="57"/>
+      <c r="H170" s="57"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="57"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="57"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="57"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="57"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="57"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="57"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="57"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="57"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="57"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="57"/>
+      <c r="F174" s="57"/>
+      <c r="G174" s="57"/>
+      <c r="H174" s="57"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="57"/>
+      <c r="B175" s="57"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="57"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="57"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="57"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="57"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="57"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="57"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="57"/>
+      <c r="H177" s="57"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="57"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="57"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="57"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="57"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="57"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="57"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="57"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="57"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="57"/>
+      <c r="B182" s="57"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F4ADBB-E401-4917-BCFC-BA7086E0CB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38530E6E-A783-4F97-9E08-63709EB79EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10395" windowHeight="7875" tabRatio="728" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="1222">
   <si>
     <t>setting_name</t>
   </si>
@@ -3001,9 +3001,6 @@
     <t>Igual ao PENTA3</t>
   </si>
   <si>
-    <t>adate.diffInYears(data('CONT'), data('DACOMSUP'))&lt;2</t>
-  </si>
-  <si>
     <t>sarampo6mpu</t>
   </si>
   <si>
@@ -3607,6 +3604,129 @@
   </si>
   <si>
     <t>Falta visita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adate.diffInYears(data('CONT'), data('DACOMSUP'))&lt;2 &amp;&amp; </t>
+  </si>
+  <si>
+    <t>(adate.diffInYears(data('OUTDATE'), data('C_CDATA'))&gt;0 &amp;&amp; adate.diffInYears(data('CONT'), data('C_CDATA'))&gt;0)|| data('C_CONS') != '1'</t>
+  </si>
+  <si>
+    <t>Cannot be before date of birth and in the future</t>
+  </si>
+  <si>
+    <t>(adate.diffInYears(data('OUTDATE'), data('C_CDATA2'))&gt;0 &amp;&amp; adate.diffInYears(data('CONT'), data('C_CDATA2'))&lt;0) || data('C_CONS2') != '1'</t>
+  </si>
+  <si>
+    <t>Cannot be before date of birth</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('BCG'))&lt;0 || data('BCG') == null</t>
+  </si>
+  <si>
+    <t>The BCG vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>The BCG vaccine cannot be in the future 1</t>
+  </si>
+  <si>
+    <t>The BCG vaccine cannot be in the future 2</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('POLIONAS'))&lt;0 || data('POLIONAS') == null</t>
+  </si>
+  <si>
+    <t>The polio vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('PENTA1'))&lt;0 || data('PENTA1') == null</t>
+  </si>
+  <si>
+    <t>The PENTA1 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('POLIO1'))&lt;0 || data('POLIO1') == null</t>
+  </si>
+  <si>
+    <t>The POLIO1 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('PCV1'))&lt;0 || data('PCV1') == null</t>
+  </si>
+  <si>
+    <t>The PCV1 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('ROX1'))&lt;0 || data('ROX1') == null</t>
+  </si>
+  <si>
+    <t>The ROX1 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('PENTA2'))&lt;0 || data('PENTA2') == null</t>
+  </si>
+  <si>
+    <t>PENTA2 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('POLIO2'))&lt;0 || data('POLIO2') == null</t>
+  </si>
+  <si>
+    <t>POLIO2 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('PCV2'))&lt;0 || data('PCV2') == null</t>
+  </si>
+  <si>
+    <t>PCV2 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('ROX2'))&lt;0 || data('ROX2') == null</t>
+  </si>
+  <si>
+    <t>ROX2 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('PENTA3'))&lt;0 || data('PENTA3') == null</t>
+  </si>
+  <si>
+    <t>PENTA3 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('POLIO3'))&lt;0 || data('POLIO3') == null</t>
+  </si>
+  <si>
+    <t>POLIO3 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('PCV3'))&lt;0 || data('PCV3') == null</t>
+  </si>
+  <si>
+    <t>PCV3 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('VPI'))&lt;0 || data('VPI') == null</t>
+  </si>
+  <si>
+    <t>VPI vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('SARAMPO1'))&lt;0 || data('SARAMPO1') == null</t>
+  </si>
+  <si>
+    <t>SARAMPO1 vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>adate.diffInYears(data('CONT'), data('FEBAMAREL'))&lt;0 || data('FEBAMAREL') == null</t>
+  </si>
+  <si>
+    <t>FEBAMAREL vaccine cannot be in the future</t>
+  </si>
+  <si>
+    <t>(adate.diffInYears(data('OUTDATE'), data('OUTRO1DATA'))&gt;1 &amp;&amp; adate.diffInYears(data('CONT'), data('OUTRO1DATA'))&lt;0) || data('OUTRO1DATA') == null</t>
+  </si>
+  <si>
+    <t>(adate.diffInYears(data('OUTDATE'), data('OUTRO2DATA'))&gt;1 &amp;&amp; adate.diffInYears(data('CONT'), data('OUTRO2DATA'))&lt;0) || data('OUTRO2DATA') == null</t>
   </si>
 </sst>
 </file>
@@ -4264,7 +4384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="C1:F1"/>
     </sheetView>
@@ -4610,242 +4730,242 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B28" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B30" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B31" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B32" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B33" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B36" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B37" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B40" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B41" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B42" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B43" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B44" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B45" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B47" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B48" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B49" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B50" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B51" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B52" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B53" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B54" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B55" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B56" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B57" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +5051,7 @@
         <v>647</v>
       </c>
       <c r="G2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H2" s="48" t="s">
         <v>648</v>
@@ -4987,30 +5107,30 @@
     </row>
     <row r="6" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="J6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>1147</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
   </sheetData>
@@ -5596,7 +5716,7 @@
         <v>614</v>
       </c>
       <c r="D32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G32"/>
     </row>
@@ -5608,10 +5728,10 @@
         <v>226</v>
       </c>
       <c r="C33" s="50" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>1168</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>1169</v>
       </c>
       <c r="E33" s="57"/>
     </row>
@@ -5623,10 +5743,10 @@
         <v>229</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E34" s="57"/>
     </row>
@@ -5638,10 +5758,10 @@
         <v>232</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E35" s="57"/>
     </row>
@@ -6110,7 +6230,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B65" s="50" t="s">
         <v>203</v>
@@ -6125,7 +6245,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B66" s="50" t="s">
         <v>206</v>
@@ -6140,7 +6260,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="50" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B67" s="50" t="s">
         <v>209</v>
@@ -6155,7 +6275,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="50" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B68" s="50" t="s">
         <v>200</v>
@@ -6170,10 +6290,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C69" s="50" t="s">
         <v>81</v>
@@ -6293,7 +6413,7 @@
         <v>169</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C77" s="50" t="s">
         <v>224</v>
@@ -6308,7 +6428,7 @@
         <v>169</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C78" s="50" t="s">
         <v>81</v>
@@ -6398,7 +6518,7 @@
         <v>166</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C84" s="50" t="s">
         <v>81</v>
@@ -6410,7 +6530,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B85" t="str">
         <f>"99"</f>
@@ -6425,7 +6545,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="50" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B86" s="50" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
@@ -6440,22 +6560,22 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B87" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C87" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D87" t="s">
         <v>1173</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B88" t="str">
         <f>"9999"</f>
@@ -8888,7 +9008,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B205" t="s">
         <v>330</v>
@@ -8899,7 +9019,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B206" t="s">
         <v>330</v>
@@ -8910,7 +9030,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B207" t="s">
         <v>330</v>
@@ -8921,7 +9041,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B208" t="s">
         <v>330</v>
@@ -8932,7 +9052,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="55" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B209" t="s">
         <v>330</v>
@@ -8943,7 +9063,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="55" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B210" t="s">
         <v>330</v>
@@ -8954,7 +9074,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="57" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B211" t="s">
         <v>330</v>
@@ -8965,7 +9085,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B213" t="s">
         <v>50</v>
@@ -8976,7 +9096,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B214" t="s">
         <v>72</v>
@@ -8987,7 +9107,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B215" t="s">
         <v>72</v>
@@ -8998,7 +9118,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B216" t="s">
         <v>22</v>
@@ -9009,7 +9129,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B217" t="s">
         <v>50</v>
@@ -9020,7 +9140,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B218" t="s">
         <v>330</v>
@@ -9031,7 +9151,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B220" t="s">
         <v>22</v>
@@ -9109,7 +9229,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9141,7 +9261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
@@ -9367,7 +9487,7 @@
         <v>735</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I18" s="55"/>
     </row>
@@ -9623,8 +9743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -9730,7 +9850,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J5" s="55"/>
     </row>
@@ -10262,7 +10382,7 @@
         <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10290,11 +10410,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10312,7 +10432,7 @@
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -10346,13 +10466,22 @@
       <c r="K1" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>22</v>
       </c>
@@ -10371,7 +10500,7 @@
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>88</v>
       </c>
@@ -10381,7 +10510,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>22</v>
       </c>
@@ -10400,14 +10529,14 @@
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>135</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>88</v>
       </c>
@@ -10417,7 +10546,7 @@
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>126</v>
       </c>
@@ -10429,14 +10558,14 @@
       </c>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>127</v>
       </c>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>126</v>
       </c>
@@ -10448,28 +10577,28 @@
       </c>
       <c r="J10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>103</v>
       </c>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -10477,22 +10606,22 @@
         <v>173</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H14" s="55" t="s">
         <v>1176</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>1177</v>
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -10663,10 +10792,10 @@
         <v>330</v>
       </c>
       <c r="E31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F31" t="s">
         <v>1103</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -10674,7 +10803,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -10774,10 +10903,10 @@
         <v>330</v>
       </c>
       <c r="E42" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F42" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -10785,7 +10914,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -10885,10 +11014,10 @@
         <v>330</v>
       </c>
       <c r="E53" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F53" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -10896,7 +11025,7 @@
         <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -11023,13 +11152,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I67" s="55"/>
       <c r="J67" s="55"/>
@@ -11046,10 +11175,10 @@
         <v>149</v>
       </c>
       <c r="G69" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H69" t="s">
         <v>1154</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -11058,16 +11187,16 @@
         <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F70" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G70" t="s">
         <v>1150</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>1151</v>
-      </c>
-      <c r="H70" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -11076,19 +11205,19 @@
         <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F71" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G71" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H71" t="s">
         <v>1166</v>
       </c>
-      <c r="H71" t="s">
-        <v>1167</v>
-      </c>
       <c r="K71" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -11097,10 +11226,10 @@
         <v>330</v>
       </c>
       <c r="E72" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F72" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="K72" s="12"/>
     </row>
@@ -11110,7 +11239,7 @@
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G73" s="50"/>
       <c r="K73" s="12"/>
@@ -11121,11 +11250,11 @@
         <v>126</v>
       </c>
       <c r="F74" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G74" s="50"/>
       <c r="I74" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K74" s="12"/>
     </row>
@@ -11149,7 +11278,7 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -11164,13 +11293,13 @@
         <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G79" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H79" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J79" s="12"/>
     </row>
@@ -11203,13 +11332,13 @@
         <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G83" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H83" t="s">
         <v>1143</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -11218,7 +11347,7 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -11227,13 +11356,13 @@
         <v>72</v>
       </c>
       <c r="F85" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H85" t="s">
         <v>1145</v>
-      </c>
-      <c r="H85" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -11299,9 +11428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
   <dimension ref="A1:M186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11540,7 +11669,7 @@
         <v>787</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -11597,7 +11726,7 @@
         <v>266</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="L25" s="55" t="s">
         <v>873</v>
@@ -11615,7 +11744,7 @@
         <v>686</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -11662,7 +11791,7 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="32" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -11701,13 +11830,13 @@
         <v>259</v>
       </c>
       <c r="F36" s="55" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G36" s="55" t="s">
         <v>1178</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="H36" s="55" t="s">
         <v>1179</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -11831,7 +11960,7 @@
         <v>893</v>
       </c>
       <c r="K49" s="55" t="s">
-        <v>983</v>
+        <v>1181</v>
       </c>
       <c r="L49" s="55" t="s">
         <v>876</v>
@@ -11846,10 +11975,10 @@
         <v>330</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -11858,7 +11987,7 @@
         <v>88</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -11885,7 +12014,7 @@
         <v>111</v>
       </c>
       <c r="I53" s="75" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -11982,10 +12111,10 @@
         <v>330</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F63" s="55" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -11994,7 +12123,7 @@
         <v>88</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -12021,7 +12150,7 @@
         <v>125</v>
       </c>
       <c r="I66" s="55" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -12164,10 +12293,10 @@
         <v>298</v>
       </c>
       <c r="G80" s="55" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H80" s="55" t="s">
         <v>1130</v>
-      </c>
-      <c r="H80" s="55" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -12262,10 +12391,10 @@
         <v>330</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F88" s="57" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -12274,7 +12403,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -12301,7 +12430,7 @@
         <v>114</v>
       </c>
       <c r="I91" s="55" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -12346,7 +12475,7 @@
         <v>787</v>
       </c>
       <c r="H98" s="57" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -12445,7 +12574,7 @@
         <v>313</v>
       </c>
       <c r="H109" s="55" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="K109" s="55" t="s">
         <v>790</v>
@@ -13161,10 +13290,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F13B89C-DCBD-44C1-B99A-3C3827EBF681}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13240,7 +13369,7 @@
         <v>787</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -13255,10 +13384,10 @@
         <v>328</v>
       </c>
       <c r="G4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H4" s="55" t="s">
         <v>1125</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -13359,6 +13488,15 @@
       <c r="H13" s="55" t="s">
         <v>914</v>
       </c>
+      <c r="K13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
@@ -13421,10 +13559,10 @@
         <v>340</v>
       </c>
       <c r="G19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -13446,10 +13584,10 @@
         <v>342</v>
       </c>
       <c r="G21" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H21" s="55" t="s">
         <v>1128</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -13562,7 +13700,7 @@
       </c>
       <c r="H32" s="55"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" t="s">
         <v>88</v>
@@ -13572,14 +13710,14 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" t="s">
         <v>46</v>
       </c>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="D35" t="s">
         <v>22</v>
@@ -13597,7 +13735,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" t="s">
         <v>88</v>
@@ -13607,7 +13745,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="D37" t="s">
         <v>72</v>
@@ -13622,35 +13760,35 @@
         <v>921</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" t="s">
         <v>103</v>
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" t="s">
         <v>47</v>
       </c>
       <c r="H39" s="55"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" t="s">
         <v>103</v>
       </c>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="55"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="D42" t="s">
         <v>22</v>
@@ -13668,7 +13806,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" t="s">
         <v>88</v>
@@ -13678,7 +13816,7 @@
       </c>
       <c r="H43" s="55"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="D44" t="s">
         <v>120</v>
@@ -13692,8 +13830,17 @@
       <c r="H44" s="55" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="D45" t="s">
         <v>22</v>
@@ -13711,21 +13858,21 @@
         <v>915</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>103</v>
       </c>
       <c r="H46" s="55"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" t="s">
         <v>47</v>
       </c>
       <c r="H47" s="55"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="36" t="s">
         <v>88</v>
@@ -14023,9 +14170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:M380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A360" sqref="A360:XFD363"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14111,6 +14258,15 @@
       <c r="H4" t="s">
         <v>373</v>
       </c>
+      <c r="K4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -14184,6 +14340,15 @@
       <c r="F12" t="s">
         <v>371</v>
       </c>
+      <c r="K12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1189</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -14220,17 +14385,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -14238,7 +14403,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>120</v>
       </c>
@@ -14251,8 +14416,17 @@
       <c r="H20" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>330</v>
       </c>
@@ -14263,7 +14437,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>88</v>
       </c>
@@ -14271,7 +14445,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>126</v>
       </c>
@@ -14282,17 +14456,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>22</v>
       </c>
@@ -14309,7 +14483,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>88</v>
       </c>
@@ -14317,15 +14491,24 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>120</v>
       </c>
       <c r="F28" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>330</v>
       </c>
@@ -14336,7 +14519,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -14344,7 +14527,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>126</v>
       </c>
@@ -14355,41 +14538,41 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="D38" t="s">
         <v>149</v>
@@ -14398,25 +14581,25 @@
         <v>795</v>
       </c>
       <c r="H38" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" t="s">
         <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
       <c r="D41" t="s">
         <v>149</v>
@@ -14425,16 +14608,16 @@
         <v>796</v>
       </c>
       <c r="H41" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
       <c r="B42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>840</v>
       </c>
@@ -14442,7 +14625,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>120</v>
       </c>
@@ -14455,8 +14638,17 @@
       <c r="H44" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>330</v>
       </c>
@@ -14467,7 +14659,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>88</v>
       </c>
@@ -14475,7 +14667,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>126</v>
       </c>
@@ -14486,17 +14678,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>22</v>
       </c>
@@ -14513,7 +14705,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -14521,15 +14713,24 @@
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>120</v>
       </c>
       <c r="F52" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>330</v>
       </c>
@@ -14540,7 +14741,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>88</v>
       </c>
@@ -14548,7 +14749,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>126</v>
       </c>
@@ -14559,22 +14760,22 @@
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>88</v>
       </c>
@@ -14582,7 +14783,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>120</v>
       </c>
@@ -14595,8 +14796,17 @@
       <c r="H60" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>330</v>
       </c>
@@ -14607,7 +14817,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>88</v>
       </c>
@@ -14615,7 +14825,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>126</v>
       </c>
@@ -14626,12 +14836,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>88</v>
       </c>
@@ -14639,7 +14849,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>126</v>
       </c>
@@ -14650,17 +14860,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>22</v>
       </c>
@@ -14677,7 +14887,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>88</v>
       </c>
@@ -14685,15 +14895,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>120</v>
       </c>
       <c r="F71" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M71" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>330</v>
       </c>
@@ -14704,7 +14923,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>88</v>
       </c>
@@ -14712,7 +14931,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>126</v>
       </c>
@@ -14723,22 +14942,22 @@
         <v>654</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>88</v>
       </c>
@@ -14746,7 +14965,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>120</v>
       </c>
@@ -14759,8 +14978,17 @@
       <c r="H79" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>330</v>
       </c>
@@ -14771,7 +14999,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>88</v>
       </c>
@@ -14779,7 +15007,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>126</v>
       </c>
@@ -14790,12 +15018,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>88</v>
       </c>
@@ -14803,7 +15031,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>126</v>
       </c>
@@ -14814,17 +15042,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>22</v>
       </c>
@@ -14841,7 +15069,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>88</v>
       </c>
@@ -14849,15 +15077,24 @@
         <v>406</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>120</v>
       </c>
       <c r="F90" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M90" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>330</v>
       </c>
@@ -14868,7 +15105,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>88</v>
       </c>
@@ -14876,7 +15113,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>126</v>
       </c>
@@ -14887,22 +15124,22 @@
         <v>654</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>88</v>
       </c>
@@ -14910,7 +15147,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>120</v>
       </c>
@@ -14923,8 +15160,17 @@
       <c r="H98" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>330</v>
       </c>
@@ -14935,7 +15181,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>88</v>
       </c>
@@ -14943,7 +15189,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>126</v>
       </c>
@@ -14954,12 +15200,12 @@
         <v>654</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>88</v>
       </c>
@@ -14967,7 +15213,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>126</v>
       </c>
@@ -14978,17 +15224,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>22</v>
       </c>
@@ -15005,7 +15251,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>88</v>
       </c>
@@ -15013,15 +15259,24 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>120</v>
       </c>
       <c r="F109" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L109" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M109" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>330</v>
       </c>
@@ -15032,7 +15287,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>88</v>
       </c>
@@ -15040,7 +15295,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>126</v>
       </c>
@@ -15082,7 +15337,7 @@
         <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -15094,7 +15349,7 @@
         <v>799</v>
       </c>
       <c r="H119" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -15109,7 +15364,7 @@
         <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -15121,7 +15376,7 @@
         <v>800</v>
       </c>
       <c r="H122" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -15136,7 +15391,7 @@
         <v>88</v>
       </c>
       <c r="C124" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -15148,7 +15403,7 @@
         <v>806</v>
       </c>
       <c r="H125" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -15163,7 +15418,7 @@
         <v>88</v>
       </c>
       <c r="C127" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -15175,16 +15430,16 @@
         <v>801</v>
       </c>
       <c r="H128" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="31"/>
       <c r="B129" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>88</v>
       </c>
@@ -15192,7 +15447,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>120</v>
       </c>
@@ -15205,8 +15460,17 @@
       <c r="H131" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K131" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>330</v>
       </c>
@@ -15217,7 +15481,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>88</v>
       </c>
@@ -15225,7 +15489,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>126</v>
       </c>
@@ -15236,17 +15500,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>22</v>
       </c>
@@ -15263,7 +15527,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>88</v>
       </c>
@@ -15271,15 +15535,24 @@
         <v>419</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>120</v>
       </c>
       <c r="F139" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K139" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M139" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>330</v>
       </c>
@@ -15290,7 +15563,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>88</v>
       </c>
@@ -15298,7 +15571,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>126</v>
       </c>
@@ -15309,22 +15582,22 @@
         <v>377</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>88</v>
       </c>
@@ -15332,7 +15605,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
         <v>120</v>
       </c>
@@ -15345,8 +15618,17 @@
       <c r="H147" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K147" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M147" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>330</v>
       </c>
@@ -15357,7 +15639,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>88</v>
       </c>
@@ -15365,7 +15647,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>126</v>
       </c>
@@ -15376,12 +15658,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>88</v>
       </c>
@@ -15389,7 +15671,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>126</v>
       </c>
@@ -15400,17 +15682,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>22</v>
       </c>
@@ -15427,7 +15709,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>88</v>
       </c>
@@ -15435,15 +15717,24 @@
         <v>425</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>120</v>
       </c>
       <c r="F158" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M158" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>330</v>
       </c>
@@ -15454,7 +15745,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>88</v>
       </c>
@@ -15462,7 +15753,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>126</v>
       </c>
@@ -15473,22 +15764,22 @@
         <v>667</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>88</v>
       </c>
@@ -15496,7 +15787,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>120</v>
       </c>
@@ -15509,8 +15800,17 @@
       <c r="H166" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K166" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L166" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M166" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>330</v>
       </c>
@@ -15521,7 +15821,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>88</v>
       </c>
@@ -15529,7 +15829,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>126</v>
       </c>
@@ -15540,12 +15840,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>88</v>
       </c>
@@ -15553,7 +15853,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>126</v>
       </c>
@@ -15564,17 +15864,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
         <v>22</v>
       </c>
@@ -15591,7 +15891,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>88</v>
       </c>
@@ -15599,15 +15899,24 @@
         <v>431</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
         <v>120</v>
       </c>
       <c r="F177" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K177" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L177" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M177" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>330</v>
       </c>
@@ -15618,7 +15927,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>88</v>
       </c>
@@ -15626,7 +15935,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
         <v>126</v>
       </c>
@@ -15637,22 +15946,22 @@
         <v>667</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>88</v>
       </c>
@@ -15660,7 +15969,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
         <v>120</v>
       </c>
@@ -15673,8 +15982,17 @@
       <c r="H185" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K185" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L185" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M185" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
         <v>330</v>
       </c>
@@ -15685,7 +16003,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>88</v>
       </c>
@@ -15693,7 +16011,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
         <v>126</v>
       </c>
@@ -15704,12 +16022,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>88</v>
       </c>
@@ -15717,7 +16035,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
         <v>126</v>
       </c>
@@ -15728,17 +16046,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>22</v>
       </c>
@@ -15755,7 +16073,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>88</v>
       </c>
@@ -15763,15 +16081,24 @@
         <v>437</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>120</v>
       </c>
       <c r="F196" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K196" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M196" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
         <v>330</v>
       </c>
@@ -15782,7 +16109,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>88</v>
       </c>
@@ -15790,7 +16117,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
         <v>126</v>
       </c>
@@ -15801,41 +16128,41 @@
         <v>667</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" t="s">
         <v>88</v>
       </c>
       <c r="C205" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="D206" t="s">
         <v>149</v>
@@ -15844,22 +16171,22 @@
         <v>811</v>
       </c>
       <c r="H206" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="51"/>
       <c r="B208" t="s">
         <v>88</v>
       </c>
       <c r="C208" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -15871,7 +16198,7 @@
         <v>812</v>
       </c>
       <c r="H209" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -15886,7 +16213,7 @@
         <v>88</v>
       </c>
       <c r="C211" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -15898,7 +16225,7 @@
         <v>813</v>
       </c>
       <c r="H212" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -15913,7 +16240,7 @@
         <v>88</v>
       </c>
       <c r="C214" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -15925,7 +16252,7 @@
         <v>814</v>
       </c>
       <c r="H215" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -15940,7 +16267,7 @@
         <v>88</v>
       </c>
       <c r="C217" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -15952,7 +16279,7 @@
         <v>842</v>
       </c>
       <c r="H218" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -15967,7 +16294,7 @@
         <v>88</v>
       </c>
       <c r="C220" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -15979,7 +16306,7 @@
         <v>843</v>
       </c>
       <c r="H221" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -15994,7 +16321,7 @@
         <v>88</v>
       </c>
       <c r="C223" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -16006,25 +16333,25 @@
         <v>844</v>
       </c>
       <c r="H224" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="52"/>
       <c r="B225" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="31"/>
       <c r="B226" t="s">
         <v>88</v>
       </c>
       <c r="C226" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="31"/>
       <c r="D227" t="s">
         <v>149</v>
@@ -16033,16 +16360,16 @@
         <v>845</v>
       </c>
       <c r="H227" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="31"/>
       <c r="B228" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>88</v>
       </c>
@@ -16050,7 +16377,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
         <v>120</v>
       </c>
@@ -16063,8 +16390,17 @@
       <c r="H230" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K230" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L230" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M230" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
         <v>330</v>
       </c>
@@ -16075,7 +16411,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>88</v>
       </c>
@@ -16083,7 +16419,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
         <v>126</v>
       </c>
@@ -16094,17 +16430,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
         <v>22</v>
       </c>
@@ -16121,7 +16457,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>88</v>
       </c>
@@ -16129,15 +16465,24 @@
         <v>444</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
         <v>120</v>
       </c>
       <c r="F238" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K238" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L238" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M238" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
         <v>330</v>
       </c>
@@ -16148,7 +16493,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>88</v>
       </c>
@@ -16156,7 +16501,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>126</v>
       </c>
@@ -16167,22 +16512,22 @@
         <v>377</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>88</v>
       </c>
@@ -16190,7 +16535,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>120</v>
       </c>
@@ -16203,8 +16548,17 @@
       <c r="H246" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K246" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L246" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M246" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>330</v>
       </c>
@@ -16215,7 +16569,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>88</v>
       </c>
@@ -16223,7 +16577,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>126</v>
       </c>
@@ -16234,12 +16588,12 @@
         <v>672</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>88</v>
       </c>
@@ -16247,7 +16601,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>126</v>
       </c>
@@ -16258,17 +16612,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
         <v>22</v>
       </c>
@@ -16285,7 +16639,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>88</v>
       </c>
@@ -16293,15 +16647,24 @@
         <v>450</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>120</v>
       </c>
       <c r="F257" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K257" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L257" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M257" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>330</v>
       </c>
@@ -16312,7 +16675,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>88</v>
       </c>
@@ -16320,7 +16683,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>126</v>
       </c>
@@ -16331,22 +16694,22 @@
         <v>672</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>88</v>
       </c>
@@ -16354,7 +16717,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>120</v>
       </c>
@@ -16367,8 +16730,17 @@
       <c r="H265" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K265" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L265" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M265" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>330</v>
       </c>
@@ -16379,7 +16751,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>88</v>
       </c>
@@ -16387,7 +16759,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>126</v>
       </c>
@@ -16398,12 +16770,12 @@
         <v>672</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>88</v>
       </c>
@@ -16411,7 +16783,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>126</v>
       </c>
@@ -16422,17 +16794,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>22</v>
       </c>
@@ -16449,7 +16821,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>88</v>
       </c>
@@ -16457,15 +16829,24 @@
         <v>456</v>
       </c>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>120</v>
       </c>
       <c r="F276" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K276" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L276" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M276" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>330</v>
       </c>
@@ -16476,7 +16857,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>88</v>
       </c>
@@ -16484,7 +16865,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>126</v>
       </c>
@@ -16495,22 +16876,22 @@
         <v>672</v>
       </c>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>88</v>
       </c>
@@ -16518,7 +16899,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>120</v>
       </c>
@@ -16531,8 +16912,17 @@
       <c r="H284" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K284" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L284" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M284" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>330</v>
       </c>
@@ -16543,7 +16933,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>88</v>
       </c>
@@ -16551,7 +16941,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>126</v>
       </c>
@@ -16562,12 +16952,12 @@
         <v>672</v>
       </c>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>88</v>
       </c>
@@ -16575,7 +16965,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
         <v>126</v>
       </c>
@@ -16586,17 +16976,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
         <v>22</v>
       </c>
@@ -16613,7 +17003,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>88</v>
       </c>
@@ -16621,15 +17011,24 @@
         <v>462</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
         <v>120</v>
       </c>
       <c r="F295" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K295" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L295" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M295" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
         <v>330</v>
       </c>
@@ -16640,7 +17039,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>88</v>
       </c>
@@ -16648,7 +17047,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
         <v>126</v>
       </c>
@@ -16659,38 +17058,38 @@
         <v>672</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="27"/>
       <c r="B304" t="s">
         <v>88</v>
       </c>
       <c r="C304" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -16702,7 +17101,7 @@
         <v>823</v>
       </c>
       <c r="H305" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -16717,7 +17116,7 @@
         <v>88</v>
       </c>
       <c r="C307" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -16729,7 +17128,7 @@
         <v>824</v>
       </c>
       <c r="H308" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -16744,7 +17143,7 @@
         <v>88</v>
       </c>
       <c r="C310" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -16756,7 +17155,7 @@
         <v>825</v>
       </c>
       <c r="H311" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -16771,7 +17170,7 @@
         <v>88</v>
       </c>
       <c r="C313" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -16783,7 +17182,7 @@
         <v>849</v>
       </c>
       <c r="H314" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -16798,7 +17197,7 @@
         <v>88</v>
       </c>
       <c r="C316" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -16810,7 +17209,7 @@
         <v>850</v>
       </c>
       <c r="H317" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -16825,7 +17224,7 @@
         <v>88</v>
       </c>
       <c r="C319" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -16837,25 +17236,25 @@
         <v>851</v>
       </c>
       <c r="H320" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="52"/>
       <c r="B321" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="52"/>
       <c r="B322" t="s">
         <v>88</v>
       </c>
       <c r="C322" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="52"/>
       <c r="D323" t="s">
         <v>149</v>
@@ -16864,25 +17263,25 @@
         <v>852</v>
       </c>
       <c r="H323" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="52"/>
       <c r="B324" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="20"/>
       <c r="B325" t="s">
         <v>88</v>
       </c>
       <c r="C325" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="20"/>
       <c r="D326" t="s">
         <v>149</v>
@@ -16891,25 +17290,25 @@
         <v>853</v>
       </c>
       <c r="H326" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
       <c r="B327" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
       <c r="B328" t="s">
         <v>88</v>
       </c>
       <c r="C328" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="20"/>
       <c r="D329" t="s">
         <v>149</v>
@@ -16918,25 +17317,25 @@
         <v>854</v>
       </c>
       <c r="H329" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="20"/>
       <c r="B330" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="B331" t="s">
         <v>88</v>
       </c>
       <c r="C331" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="20"/>
       <c r="D332" t="s">
         <v>149</v>
@@ -16945,16 +17344,16 @@
         <v>855</v>
       </c>
       <c r="H332" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="20"/>
       <c r="B333" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>88</v>
       </c>
@@ -16962,7 +17361,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
         <v>120</v>
       </c>
@@ -16975,8 +17374,17 @@
       <c r="H335" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K335" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L335" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M335" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
         <v>330</v>
       </c>
@@ -16987,7 +17395,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>88</v>
       </c>
@@ -16995,7 +17403,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
         <v>126</v>
       </c>
@@ -17006,17 +17414,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
         <v>22</v>
       </c>
@@ -17033,7 +17441,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>88</v>
       </c>
@@ -17041,15 +17449,24 @@
         <v>469</v>
       </c>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
         <v>120</v>
       </c>
       <c r="F343" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K343" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L343" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M343" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="344" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
         <v>330</v>
       </c>
@@ -17060,7 +17477,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>88</v>
       </c>
@@ -17068,7 +17485,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
         <v>126</v>
       </c>
@@ -17079,22 +17496,22 @@
         <v>377</v>
       </c>
     </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>88</v>
       </c>
@@ -17102,7 +17519,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
         <v>120</v>
       </c>
@@ -17115,8 +17532,17 @@
       <c r="H351" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K351" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L351" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M351" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="352" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
         <v>330</v>
       </c>
@@ -17127,7 +17553,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>88</v>
       </c>
@@ -17135,7 +17561,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
         <v>126</v>
       </c>
@@ -17146,17 +17572,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
         <v>22</v>
       </c>
@@ -17173,7 +17599,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>88</v>
       </c>
@@ -17181,15 +17607,24 @@
         <v>476</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
         <v>120</v>
       </c>
       <c r="F359" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K359" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L359" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M359" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
         <v>330</v>
       </c>
@@ -17200,7 +17635,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>88</v>
       </c>
@@ -17208,7 +17643,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
         <v>126</v>
       </c>
@@ -17219,38 +17654,38 @@
         <v>377</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="41"/>
       <c r="B368" t="s">
         <v>88</v>
       </c>
       <c r="C368" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -17262,7 +17697,7 @@
         <v>835</v>
       </c>
       <c r="H369" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -17277,7 +17712,7 @@
         <v>88</v>
       </c>
       <c r="C371" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -17289,7 +17724,7 @@
         <v>834</v>
       </c>
       <c r="H372" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -17304,7 +17739,7 @@
         <v>88</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D374" s="50"/>
       <c r="E374" s="50"/>
@@ -17332,7 +17767,7 @@
         <v>88</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -17359,11 +17794,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927217AB-3221-4BCE-814E-DC154DD72CEF}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17380,9 +17815,12 @@
     <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -17420,16 +17858,22 @@
         <v>478</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="D3" s="6" t="s">
         <v>22</v>
@@ -17447,7 +17891,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>88</v>
@@ -17457,7 +17901,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="D5" t="s">
         <v>72</v>
@@ -17472,21 +17916,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>103</v>
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30" t="s">
         <v>88</v>
@@ -17496,7 +17940,7 @@
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" t="s">
         <v>46</v>
@@ -17504,7 +17948,7 @@
       <c r="H9" s="55"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="D10" t="s">
         <v>22</v>
@@ -17523,7 +17967,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="D11" t="s">
         <v>22</v>
@@ -17541,7 +17985,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="D12" t="s">
         <v>22</v>
@@ -17559,7 +18003,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="D13" t="s">
         <v>25</v>
@@ -17574,21 +18018,21 @@
         <v>929</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="55"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="D16" t="s">
         <v>22</v>
@@ -17606,7 +18050,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="D17" t="s">
         <v>25</v>
@@ -17621,7 +18065,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="D18" t="s">
         <v>22</v>
@@ -17639,7 +18083,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="D19" t="s">
         <v>22</v>
@@ -17657,7 +18101,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="D20" t="s">
         <v>25</v>
@@ -17672,14 +18116,14 @@
         <v>934</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30" t="s">
         <v>103</v>
@@ -17687,14 +18131,14 @@
       <c r="E22" s="5"/>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="55"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="D24" s="6" t="s">
         <v>72</v>
@@ -17709,7 +18153,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="D25" t="s">
         <v>120</v>
@@ -17723,22 +18167,31 @@
       <c r="H25" s="55" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="H26" s="55"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" t="s">
         <v>46</v>
       </c>
       <c r="H27" s="55"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="D28" s="6" t="s">
         <v>72</v>
@@ -17753,7 +18206,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="D29" t="s">
         <v>120</v>
@@ -17767,22 +18220,31 @@
       <c r="H29" s="55" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="D32" t="s">
         <v>22</v>
@@ -18524,7 +18986,7 @@
         <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F101" t="s">
         <v>566</v>
@@ -18542,7 +19004,7 @@
         <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H102" s="55"/>
     </row>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE6AC2-C4F8-45D7-BAED-521E9106C906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCAA5E-1BE2-4823-9920-91B00CEFBAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -5448,7 +5448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -9822,7 +9822,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14804,9 +14804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:L528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0C019-C2EF-4EB9-92D9-35600D120A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDFDAF0-FF20-4871-B529-79FE4B3F7ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1382">
   <si>
     <t>setting_name</t>
   </si>
@@ -2189,9 +2189,6 @@
     <t>Idade de início da alimentação suplementar em meses</t>
   </si>
   <si>
-    <t>A criança parou de tomar peito (amamentação)?</t>
-  </si>
-  <si>
     <t>Data de interrupção da amamentação</t>
   </si>
   <si>
@@ -3847,12 +3844,6 @@
     <t>Febre amarela</t>
   </si>
   <si>
-    <t>Febre amarela&lt;b&gt;{{calculates.displayFEBAMAREL}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;font color = "red"&gt;Febre amarela&lt;b&gt;{{calculates.displayFEBAMAREL}}&lt;/b&gt;&lt;/font&gt;</t>
-  </si>
-  <si>
     <t>A vacina febre amarela não pode estar no futuro</t>
   </si>
   <si>
@@ -4033,9 +4024,6 @@
     <t>adate.diffInDays(data('CONT'), data('BCG'))&lt;1 || data('BCG') == 'D:2,M:2,Y:1922' || data('BCG') == null || adate.hasUncertainty(data('BCG'))</t>
   </si>
   <si>
-    <t>(adate.diffInDays(data('OUTDATE'), data('BCG'))&lt;1 &amp;&amp; data('BCG') != null &amp;&amp; data('BCG') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsbcg') !=2) || not(adate.hasUncertainty(data('BCG')))</t>
-  </si>
-  <si>
     <t>adate.diffInDays(data('CONT'), data('PENTA1'))&lt;1 || data('PENTA1') == 'D:2,M:2,Y:1922' || data('PENTA1') == null || adate.hasUncertainty(data('PENTA1'))</t>
   </si>
   <si>
@@ -4081,87 +4069,6 @@
     <t>adate.diffInDays(data('CONT'), data('FEBAMAREL'))&lt;1 || data('FEBAMAREL') == 'D:2,M:2,Y:1922' || data('FEBAMAREL') == null || adate.hasUncertainty(data('FEBAMAREL'))</t>
   </si>
   <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('POLIONAS'))&lt;1 &amp;&amp; data('POLIONAS') != null &amp;&amp; data('POLIONAS') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolionas') != '2' || not(adate.hasUncertainty(data('POLIONAS')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('PENTA1'))&lt;1  &amp;&amp; data('PENTA1') != null &amp;&amp; data('PENTA1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta1') != '2' || not(adate.hasUncertainty(data('PENTA1')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('POLIO1'))&lt;1  &amp;&amp; data('POLIO1') != null &amp;&amp; data('POLIO1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio1') != '2' || not(adate.hasUncertainty(data('POLIO1')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('PCV1'))&lt;1 &amp;&amp; data('PCV1') != null &amp;&amp; data('PCV1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv1') != '2' || not(adate.hasUncertainty(data('PCV1')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('ROX1'))&lt;1  &amp;&amp; data('ROX1') != null &amp;&amp; data('ROX1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsrox1') != '2' || not(adate.hasUncertainty(data('ROX1')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('PENTA2'))&lt;1 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta2') != '2' || not(adate.hasUncertainty(data('PENTA2')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('POLIO2'))&lt;1 &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio2') != '2' || not(adate.hasUncertainty(data('POLIO2')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('PCV2'))&lt;1 &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv2') != '2' || not(adate.hasUncertainty(data('PCV2')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('ROX2'))&lt;1 &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsrox2') != '2' || not(adate.hasUncertainty(data('ROX2')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('PENTA1'), data('PENTA2'))&lt;1 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta2') != '2' || not(adate.hasUncertainty(data('PENTA2')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('POLIO1'), data('POLIO2'))&lt;1  &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio2') != '2' || not(adate.hasUncertainty(data('POLIO2')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('PCV1'), data('PCV2'))&lt;1  &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv2') != '2' || not(adate.hasUncertainty(data('PCV2')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('ROX1'), data('ROX2'))&lt;1  &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsrox2') != '2' || not(adate.hasUncertainty(data('ROX2')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('PENTA3'))&lt;1  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta3') != '2' || not(adate.hasUncertainty(data('PENTA3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('POLIO3'))&lt;1 &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio3') != '2' || not(adate.hasUncertainty(data('POLIO3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('PCV3'))&lt;1 &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv3') != '2' || not(adate.hasUncertainty(data('PCV3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('VPI'))&lt;1 &amp;&amp; data('VPI') != null &amp;&amp; data('VPI') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsvpi') != '2' || not(adate.hasUncertainty(data('VPI')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('PENTA2'), data('PENTA3'))&lt;1  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta3') != '2' || not(adate.hasUncertainty(data('PENTA3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('POLIO2'), data('POLIO3'))&lt;1  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio3') != '2' || not(adate.hasUncertainty(data('POLIO3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('PCV2'), data('PCV3'))&lt;1  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv3') != '2' || not(adate.hasUncertainty(data('PCV3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('PENTA1'), data('PENTA3'))&lt;1  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta3') != '2' || not(adate.hasUncertainty(data('PENTA3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('POLIO1'), data('POLIO3'))&lt;1  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio3') != '2' || not(adate.hasUncertainty(data('POLIO3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('PCV1'), data('PCV3'))&lt;1  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv3') != '2' || not(adate.hasUncertainty(data('PCV3')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('SARAMPO1'))&lt;1 &amp;&amp; data('SARAMPO1') != null &amp;&amp; data('SARAMPO1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obssarampo1') != '2' || not(adate.hasUncertainty(data('SARAMPO1')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('FEBAMAREL'))&lt;1 &amp;&amp; data('FEBAMAREL') != null &amp;&amp; data('FEBAMAREL') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsfebamarel') != '2' || not(adate.hasUncertainty(data('FEBAMAREL')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('SARAMPO1'))&lt;180 &amp;&amp; data('SARAMPO1') != null &amp;&amp; data('SARAMPO1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obssarampo1') != '2' || not(adate.hasUncertainty(data('SARAMPO1')))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('OUTDATE'), data('FEBAMAREL'))&lt;180 &amp;&amp; data('FEBAMAREL') != null &amp;&amp; data('FEBAMAREL') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsfebamarel') != '2' || not(adate.hasUncertainty(data('FEBAMAREL')))</t>
-  </si>
-  <si>
     <t>(adate.diffInDays(data('CONT'), data('EXITDATA'))&lt;1 &amp;&amp; adate.diffInDays(data('EXITDATA'), data('lastvisitdate'))&lt;1) || (data('PRES') != '2' &amp;&amp; data('PRES') != '3') || adate.hasUncertainty(data('EXITDATA'))</t>
   </si>
   <si>
@@ -4205,6 +4112,102 @@
   </si>
   <si>
     <t>display.hide_delete_button</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('BCG'))&lt;1 &amp;&amp; data('BCG') != null &amp;&amp; data('BCG') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsbcg') !=2 &amp;&amp; not(adate.hasUncertainty(data('BCG'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('POLIONAS'))&lt;1 &amp;&amp; data('POLIONAS') != null &amp;&amp; data('POLIONAS') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolionas') != '2' &amp;&amp; not(adate.hasUncertainty(data('POLIONAS'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('PENTA1'))&lt;1  &amp;&amp; data('PENTA1') != null &amp;&amp; data('PENTA1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta1') != '2' &amp;&amp; not(adate.hasUncertainty(data('PENTA1'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('POLIO1'))&lt;1  &amp;&amp; data('POLIO1') != null &amp;&amp; data('POLIO1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio1') != '2' &amp;&amp; not(adate.hasUncertainty(data('POLIO1'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('PCV1'))&lt;1 &amp;&amp; data('PCV1') != null &amp;&amp; data('PCV1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv1') != '2' &amp;&amp; not(adate.hasUncertainty(data('PCV1'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('ROX1'))&lt;1  &amp;&amp; data('ROX1') != null &amp;&amp; data('ROX1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsrox1') != '2' &amp;&amp; not(adate.hasUncertainty(data('ROX1'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('PENTA2'))&lt;1 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta2') != '2' &amp;&amp; not(adate.hasUncertainty(data('PENTA2'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('POLIO2'))&lt;1 &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio2') != '2' &amp;&amp; not(adate.hasUncertainty(data('POLIO2'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('PCV2'))&lt;1 &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv2') != '2' &amp;&amp; not(adate.hasUncertainty(data('PCV2'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('ROX2'))&lt;1 &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsrox2') != '2' &amp;&amp; not(adate.hasUncertainty(data('ROX2'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('PENTA3'))&lt;1  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta3') != '2' &amp;&amp; not(adate.hasUncertainty(data('PENTA3'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('POLIO3'))&lt;1 &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio3') != '2' &amp;&amp; not(adate.hasUncertainty(data('POLIO3'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('PCV3'))&lt;1 &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv3') != '2' &amp;&amp; not(adate.hasUncertainty(data('PCV3'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('VPI'))&lt;1 &amp;&amp; data('VPI') != null &amp;&amp; data('VPI') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsvpi') != '2' &amp;&amp; not(adate.hasUncertainty(data('VPI'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('SARAMPO1'))&lt;1 &amp;&amp; data('SARAMPO1') != null &amp;&amp; data('SARAMPO1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obssarampo1') != '2' &amp;&amp; not(adate.hasUncertainty(data('SARAMPO1'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('FEBAMAREL'))&lt;1 &amp;&amp; data('FEBAMAREL') != null &amp;&amp; data('FEBAMAREL') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsfebamarel') != '2' &amp;&amp; not(adate.hasUncertainty(data('FEBAMAREL'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('SARAMPO1'))&lt;180 &amp;&amp; data('SARAMPO1') != null &amp;&amp; data('SARAMPO1') != 'D:2,M:2,Y:1922' &amp;&amp; data('obssarampo1') != '2' &amp;&amp; not(adate.hasUncertainty(data('SARAMPO1'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('OUTDATE'), data('FEBAMAREL'))&lt;180 &amp;&amp; data('FEBAMAREL') != null &amp;&amp; data('FEBAMAREL') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsfebamarel') != '2' &amp;&amp; not(adate.hasUncertainty(data('FEBAMAREL'))) &amp;&amp; not(adate.hasUncertainty(data('OUTDATE')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('PENTA1'), data('PENTA2'))&lt;1 &amp;&amp; data('PENTA2') != null &amp;&amp; data('PENTA2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta2') != '2' &amp;&amp; not(adate.hasUncertainty(data('PENTA2'))) &amp;&amp; not(adate.hasUncertainty(data('PENTA1')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('POLIO1'), data('POLIO2'))&lt;1  &amp;&amp; data('POLIO2') != null &amp;&amp; data('POLIO2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio2') != '2' &amp;&amp; not(adate.hasUncertainty(data('POLIO2'))) &amp;&amp; not(adate.hasUncertainty(data('POLIO1')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('PCV1'), data('PCV2'))&lt;1  &amp;&amp; data('PCV2') != null &amp;&amp; data('PCV2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv2') != '2' &amp;&amp; not(adate.hasUncertainty(data('PCV2'))) &amp;&amp; not(adate.hasUncertainty(data('PCV1')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('ROX1'), data('ROX2'))&lt;1  &amp;&amp; data('ROX2') != null &amp;&amp; data('ROX2') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsrox2') != '2' &amp;&amp; not(adate.hasUncertainty(data('ROX2'))) &amp;&amp; not(adate.hasUncertainty(data('ROX1')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('PENTA2'), data('PENTA3'))&lt;1  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta3') != '2' &amp;&amp; not(adate.hasUncertainty(data('PENTA3'))) &amp;&amp; not(adate.hasUncertainty(data('PENTA2')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('POLIO2'), data('POLIO3'))&lt;1  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio3') != '2' &amp;&amp; not(adate.hasUncertainty(data('POLIO3'))) &amp;&amp; not(adate.hasUncertainty(data('POLIO2')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('PCV2'), data('PCV3'))&lt;1  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv3') != '2' &amp;&amp; not(adate.hasUncertainty(data('PCV3'))) &amp;&amp; not(adate.hasUncertainty(data('PCV2')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('PENTA1'), data('PENTA3'))&lt;1  &amp;&amp; data('PENTA3') != null &amp;&amp; data('PENTA3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspenta3') != '2' &amp;&amp; not(adate.hasUncertainty(data('PENTA3'))) &amp;&amp; not(adate.hasUncertainty(data('PENTA1')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('POLIO1'), data('POLIO3'))&lt;1  &amp;&amp; data('POLIO3') != null &amp;&amp; data('POLIO3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspolio3') != '2' &amp;&amp; not(adate.hasUncertainty(data('POLIO3'))) &amp;&amp; not(adate.hasUncertainty(data('POLIO1')))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('PCV1'), data('PCV3'))&lt;1  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv3') != '2' &amp;&amp; not(adate.hasUncertainty(data('PCV3'))) &amp;&amp; not(adate.hasUncertainty(data('PCV1')))</t>
+  </si>
+  <si>
+    <t>data('NASESTADO') == '1'</t>
+  </si>
+  <si>
+    <t>A criança parou de tomar leite (amamentação)?</t>
+  </si>
+  <si>
+    <t>Febre amarela &lt;b&gt;{{calculates.displayFEBAMAREL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;Febre amarela &lt;b&gt;{{calculates.displayFEBAMAREL}}&lt;/b&gt;&lt;/font&gt;</t>
   </si>
 </sst>
 </file>
@@ -5032,154 +5035,154 @@
     </row>
     <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>899</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>903</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>938</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>906</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>908</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>910</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5187,7 +5190,7 @@
         <v>678</v>
       </c>
       <c r="B21" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5195,7 +5198,7 @@
         <v>679</v>
       </c>
       <c r="B22" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5203,7 +5206,7 @@
         <v>680</v>
       </c>
       <c r="B23" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5211,7 +5214,7 @@
         <v>681</v>
       </c>
       <c r="B24" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5219,7 +5222,7 @@
         <v>682</v>
       </c>
       <c r="B25" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5227,7 +5230,7 @@
         <v>683</v>
       </c>
       <c r="B26" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5235,7 +5238,7 @@
         <v>684</v>
       </c>
       <c r="B27" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5243,7 +5246,7 @@
         <v>685</v>
       </c>
       <c r="B28" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5251,7 +5254,7 @@
         <v>686</v>
       </c>
       <c r="B29" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5259,7 +5262,7 @@
         <v>687</v>
       </c>
       <c r="B30" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5267,7 +5270,7 @@
         <v>688</v>
       </c>
       <c r="B31" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5275,7 +5278,7 @@
         <v>689</v>
       </c>
       <c r="B32" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5283,7 +5286,7 @@
         <v>690</v>
       </c>
       <c r="B33" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5291,7 +5294,7 @@
         <v>691</v>
       </c>
       <c r="B34" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5299,7 +5302,7 @@
         <v>692</v>
       </c>
       <c r="B35" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5307,7 +5310,7 @@
         <v>693</v>
       </c>
       <c r="B36" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -5315,7 +5318,7 @@
         <v>695</v>
       </c>
       <c r="B37" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5323,7 +5326,7 @@
         <v>696</v>
       </c>
       <c r="B38" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5331,7 +5334,7 @@
         <v>697</v>
       </c>
       <c r="B39" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5339,7 +5342,7 @@
         <v>698</v>
       </c>
       <c r="B40" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5347,7 +5350,7 @@
         <v>699</v>
       </c>
       <c r="B41" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5355,7 +5358,7 @@
         <v>700</v>
       </c>
       <c r="B42" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -5363,7 +5366,7 @@
         <v>701</v>
       </c>
       <c r="B43" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5371,7 +5374,7 @@
         <v>702</v>
       </c>
       <c r="B44" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -5379,7 +5382,7 @@
         <v>703</v>
       </c>
       <c r="B45" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5387,247 +5390,247 @@
         <v>704</v>
       </c>
       <c r="B46" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B47" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B48" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
   </sheetData>
@@ -5714,7 +5717,7 @@
         <v>591</v>
       </c>
       <c r="G2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>592</v>
@@ -5725,25 +5728,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B3" t="s">
         <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E3" t="s">
         <v>590</v>
       </c>
       <c r="F3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G3" t="s">
         <v>1088</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1089</v>
       </c>
       <c r="H3" s="69" t="s">
         <v>592</v>
@@ -5796,30 +5799,30 @@
     </row>
     <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="J7" t="s">
+        <v>866</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>867</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -5904,24 +5907,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1375</v>
+        <v>1344</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1376</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1377</v>
+        <v>1346</v>
       </c>
       <c r="B2" t="s">
-        <v>1378</v>
+        <v>1347</v>
       </c>
       <c r="C2" t="s">
-        <v>1379</v>
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6323,7 @@
         <v>243</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E24" s="48"/>
     </row>
@@ -6336,7 +6339,7 @@
         <v>241</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E25" s="48"/>
     </row>
@@ -6352,7 +6355,7 @@
         <v>242</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E26" s="48"/>
     </row>
@@ -6448,7 +6451,7 @@
         <v>564</v>
       </c>
       <c r="D32" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G32"/>
     </row>
@@ -6460,10 +6463,10 @@
         <v>219</v>
       </c>
       <c r="C33" s="43" t="s">
+        <v>883</v>
+      </c>
+      <c r="D33" s="48" t="s">
         <v>884</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>885</v>
       </c>
       <c r="E33" s="48"/>
     </row>
@@ -6475,10 +6478,10 @@
         <v>222</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E34" s="48"/>
     </row>
@@ -6490,10 +6493,10 @@
         <v>225</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E35" s="48"/>
     </row>
@@ -6652,7 +6655,7 @@
         <v>579</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E45" s="51"/>
     </row>
@@ -6700,7 +6703,7 @@
         <v>477</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E48" s="48"/>
     </row>
@@ -6732,7 +6735,7 @@
         <v>491</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E50" s="48"/>
     </row>
@@ -6748,7 +6751,7 @@
         <v>496</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E51" s="48"/>
     </row>
@@ -6764,7 +6767,7 @@
         <v>501</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E52" s="48"/>
     </row>
@@ -6860,7 +6863,7 @@
         <v>586</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E58" s="48"/>
     </row>
@@ -6876,7 +6879,7 @@
         <v>606</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E59" s="48"/>
     </row>
@@ -6892,7 +6895,7 @@
         <v>586</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E60" s="48"/>
     </row>
@@ -6908,7 +6911,7 @@
         <v>607</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E61" s="48"/>
     </row>
@@ -6924,7 +6927,7 @@
         <v>586</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E62" s="48"/>
     </row>
@@ -6940,7 +6943,7 @@
         <v>608</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E63" s="48"/>
     </row>
@@ -6956,13 +6959,13 @@
         <v>586</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E64" s="48"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>196</v>
@@ -6977,7 +6980,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>199</v>
@@ -6992,7 +6995,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>202</v>
@@ -7007,7 +7010,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>193</v>
@@ -7022,10 +7025,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C69" s="43" t="s">
         <v>80</v>
@@ -7145,7 +7148,7 @@
         <v>162</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>217</v>
@@ -7160,7 +7163,7 @@
         <v>162</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>80</v>
@@ -7250,7 +7253,7 @@
         <v>159</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>80</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B85" t="str">
         <f>"99"</f>
@@ -7277,7 +7280,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B86" s="43" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
@@ -7292,22 +7295,22 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B87" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C87" t="s">
+        <v>888</v>
+      </c>
+      <c r="D87" t="s">
         <v>889</v>
-      </c>
-      <c r="D87" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B88" t="str">
         <f>"9999"</f>
@@ -7396,12 +7399,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -7456,7 +7459,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -7503,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7541,7 +7544,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -7563,7 +7566,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -7621,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7659,7 +7662,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B27" t="s">
         <v>320</v>
@@ -7692,7 +7695,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B30" t="s">
         <v>320</v>
@@ -7780,7 +7783,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -7791,7 +7794,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -7802,7 +7805,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B40" t="s">
         <v>320</v>
@@ -7813,7 +7816,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B41" t="s">
         <v>72</v>
@@ -7824,7 +7827,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
@@ -7835,7 +7838,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -7868,7 +7871,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B46" t="s">
         <v>320</v>
@@ -7879,7 +7882,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -7924,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8006,7 +8009,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B59" s="46" t="s">
         <v>320</v>
@@ -8028,7 +8031,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>320</v>
@@ -8050,7 +8053,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B63" s="48" t="s">
         <v>320</v>
@@ -8160,7 +8163,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B73" s="48" t="s">
         <v>72</v>
@@ -8171,7 +8174,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B74" s="48" t="s">
         <v>25</v>
@@ -8237,7 +8240,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B80" s="46" t="s">
         <v>22</v>
@@ -8295,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -8545,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -8605,7 +8608,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B114" t="s">
         <v>123</v>
@@ -8616,7 +8619,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B115" t="s">
         <v>123</v>
@@ -8627,7 +8630,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B117" t="s">
         <v>123</v>
@@ -8649,7 +8652,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
@@ -8660,7 +8663,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
@@ -8671,7 +8674,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B120" t="s">
         <v>123</v>
@@ -8682,7 +8685,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
@@ -8693,7 +8696,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -8704,7 +8707,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -8715,7 +8718,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
@@ -8726,7 +8729,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B126" t="s">
         <v>123</v>
@@ -8748,7 +8751,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B127" t="s">
         <v>123</v>
@@ -8759,7 +8762,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B128" t="s">
         <v>123</v>
@@ -8770,7 +8773,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B129" t="s">
         <v>72</v>
@@ -8781,7 +8784,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B130" t="s">
         <v>123</v>
@@ -9330,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F174" s="43"/>
       <c r="G174" s="43"/>
@@ -9408,7 +9411,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="43" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B180" s="43" t="s">
         <v>22</v>
@@ -9714,7 +9717,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="43" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B201" s="43" t="s">
         <v>22</v>
@@ -9830,7 +9833,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="43" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B209" s="43" t="s">
         <v>72</v>
@@ -9970,7 +9973,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B219" s="43" t="s">
         <v>22</v>
@@ -9984,7 +9987,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="43" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B220" s="43" t="s">
         <v>22</v>
@@ -10068,7 +10071,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="43" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B226" s="43" t="s">
         <v>22</v>
@@ -10139,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I231" s="43"/>
     </row>
@@ -10180,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -10306,7 +10309,7 @@
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10403,10 +10406,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
+        <v>955</v>
+      </c>
+      <c r="H3" t="s">
         <v>956</v>
-      </c>
-      <c r="H3" t="s">
-        <v>957</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -10415,10 +10418,10 @@
         <v>144</v>
       </c>
       <c r="G4" t="s">
+        <v>957</v>
+      </c>
+      <c r="H4" t="s">
         <v>958</v>
-      </c>
-      <c r="H4" t="s">
-        <v>959</v>
       </c>
       <c r="I4" s="46"/>
     </row>
@@ -10436,10 +10439,10 @@
         <v>144</v>
       </c>
       <c r="G6" t="s">
+        <v>959</v>
+      </c>
+      <c r="H6" s="46" t="s">
         <v>960</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>961</v>
       </c>
       <c r="I6" s="46"/>
     </row>
@@ -10463,10 +10466,10 @@
         <v>144</v>
       </c>
       <c r="G9" t="s">
+        <v>961</v>
+      </c>
+      <c r="H9" s="46" t="s">
         <v>962</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>963</v>
       </c>
       <c r="I9" s="46"/>
     </row>
@@ -10490,7 +10493,7 @@
         <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H12" t="s">
         <v>632</v>
@@ -10508,10 +10511,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
+        <v>964</v>
+      </c>
+      <c r="H14" t="s">
         <v>965</v>
-      </c>
-      <c r="H14" t="s">
-        <v>966</v>
       </c>
       <c r="I14" s="46"/>
     </row>
@@ -10520,10 +10523,10 @@
         <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I15" s="46"/>
     </row>
@@ -10532,10 +10535,10 @@
         <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H16" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I16" s="46"/>
     </row>
@@ -10544,10 +10547,10 @@
         <v>144</v>
       </c>
       <c r="G17" t="s">
+        <v>968</v>
+      </c>
+      <c r="H17" t="s">
         <v>969</v>
-      </c>
-      <c r="H17" t="s">
-        <v>970</v>
       </c>
       <c r="I17" s="46"/>
     </row>
@@ -10559,13 +10562,13 @@
         <v>581</v>
       </c>
       <c r="F18" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G18" t="s">
         <v>654</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I18" s="46"/>
     </row>
@@ -10581,7 +10584,7 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I20" s="46"/>
     </row>
@@ -10704,13 +10707,13 @@
         <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H29" t="s">
         <v>1113</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1114</v>
       </c>
       <c r="I29" s="46"/>
     </row>
@@ -10731,10 +10734,10 @@
         <v>144</v>
       </c>
       <c r="G32" t="s">
+        <v>955</v>
+      </c>
+      <c r="H32" t="s">
         <v>956</v>
-      </c>
-      <c r="H32" t="s">
-        <v>957</v>
       </c>
       <c r="I32" s="46"/>
     </row>
@@ -10743,10 +10746,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
+        <v>957</v>
+      </c>
+      <c r="H33" t="s">
         <v>958</v>
-      </c>
-      <c r="H33" t="s">
-        <v>959</v>
       </c>
       <c r="I33" s="46"/>
     </row>
@@ -10764,10 +10767,10 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
+        <v>959</v>
+      </c>
+      <c r="H35" s="46" t="s">
         <v>960</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>961</v>
       </c>
       <c r="I35" s="46"/>
     </row>
@@ -10791,10 +10794,10 @@
         <v>144</v>
       </c>
       <c r="G38" t="s">
+        <v>961</v>
+      </c>
+      <c r="H38" s="46" t="s">
         <v>962</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>963</v>
       </c>
       <c r="I38" s="46"/>
     </row>
@@ -10818,7 +10821,7 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H41" t="s">
         <v>632</v>
@@ -10836,10 +10839,10 @@
         <v>144</v>
       </c>
       <c r="G43" t="s">
+        <v>964</v>
+      </c>
+      <c r="H43" t="s">
         <v>965</v>
-      </c>
-      <c r="H43" t="s">
-        <v>966</v>
       </c>
       <c r="I43" s="46"/>
     </row>
@@ -10848,10 +10851,10 @@
         <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H44" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I44" s="46"/>
     </row>
@@ -10860,10 +10863,10 @@
         <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H45" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I45" s="46"/>
     </row>
@@ -10872,10 +10875,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
+        <v>968</v>
+      </c>
+      <c r="H46" t="s">
         <v>969</v>
-      </c>
-      <c r="H46" t="s">
-        <v>970</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -10903,11 +10906,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10992,10 +10995,10 @@
         <v>144</v>
       </c>
       <c r="G4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H4" t="s">
         <v>1090</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1091</v>
       </c>
       <c r="I4" s="46"/>
     </row>
@@ -11014,7 +11017,7 @@
         <v>240</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J5" s="46"/>
     </row>
@@ -11024,7 +11027,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J6" s="46"/>
     </row>
@@ -11095,10 +11098,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H14" t="s">
         <v>1090</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1091</v>
       </c>
       <c r="I14" s="46"/>
     </row>
@@ -11172,7 +11175,7 @@
         <v>673</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -11207,10 +11210,10 @@
         <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H22" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I22" s="46"/>
     </row>
@@ -11311,10 +11314,10 @@
         <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -11326,7 +11329,7 @@
         <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G31" t="s">
         <v>294</v>
@@ -11342,7 +11345,7 @@
         <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
@@ -11439,10 +11442,10 @@
         <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H40" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I40" s="46"/>
     </row>
@@ -11515,10 +11518,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H46" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -11559,10 +11562,10 @@
         <v>144</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H50" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I50" s="46"/>
     </row>
@@ -11633,10 +11636,10 @@
         <v>144</v>
       </c>
       <c r="G57" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H57" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -11644,13 +11647,13 @@
         <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G58" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H58" t="s">
         <v>1116</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1117</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -11665,7 +11668,7 @@
         <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -11681,7 +11684,20 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -11768,10 +11784,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -11886,10 +11902,10 @@
         <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H15" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I15" s="46"/>
     </row>
@@ -11901,10 +11917,10 @@
         <v>166</v>
       </c>
       <c r="G16" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="H16" s="46" t="s">
         <v>892</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>893</v>
       </c>
       <c r="I16" s="46"/>
     </row>
@@ -11925,10 +11941,10 @@
         <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I19" s="46"/>
     </row>
@@ -11946,7 +11962,7 @@
         <v>137</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I20" s="46"/>
     </row>
@@ -11967,10 +11983,10 @@
         <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H23" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I23" s="46"/>
     </row>
@@ -12009,10 +12025,10 @@
         <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H27" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I27" s="46"/>
     </row>
@@ -12027,10 +12043,10 @@
         <v>141</v>
       </c>
       <c r="G28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H28" t="s">
         <v>1119</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1120</v>
       </c>
       <c r="I28" s="46"/>
     </row>
@@ -12051,10 +12067,10 @@
         <v>143</v>
       </c>
       <c r="G30" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H30" t="s">
         <v>1121</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1122</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -12081,10 +12097,10 @@
         <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H34" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I34" s="46"/>
     </row>
@@ -12093,7 +12109,7 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H35" t="s">
         <v>145</v>
@@ -12120,10 +12136,10 @@
         <v>320</v>
       </c>
       <c r="E37" t="s">
+        <v>825</v>
+      </c>
+      <c r="F37" t="s">
         <v>826</v>
-      </c>
-      <c r="F37" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -12131,7 +12147,7 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -12197,10 +12213,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H46" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -12209,7 +12225,7 @@
         <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H47" t="s">
         <v>152</v>
@@ -12236,10 +12252,10 @@
         <v>320</v>
       </c>
       <c r="E49" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F49" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -12247,7 +12263,7 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -12313,10 +12329,10 @@
         <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H58" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -12325,10 +12341,10 @@
         <v>144</v>
       </c>
       <c r="G59" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H59" t="s">
         <v>1125</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1126</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -12352,10 +12368,10 @@
         <v>320</v>
       </c>
       <c r="E61" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F61" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -12363,7 +12379,7 @@
         <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -12429,10 +12445,10 @@
         <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H70" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I70" s="46"/>
     </row>
@@ -12450,7 +12466,7 @@
         <v>158</v>
       </c>
       <c r="H71" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I71" s="46"/>
     </row>
@@ -12471,10 +12487,10 @@
         <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H74" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I74" s="46"/>
     </row>
@@ -12492,7 +12508,7 @@
         <v>161</v>
       </c>
       <c r="H75" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I75" s="46"/>
     </row>
@@ -12504,13 +12520,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I77" s="46"/>
     </row>
@@ -12526,10 +12542,10 @@
         <v>144</v>
       </c>
       <c r="G79" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H79" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I79" s="46"/>
     </row>
@@ -12539,10 +12555,10 @@
         <v>144</v>
       </c>
       <c r="G80" t="s">
+        <v>871</v>
+      </c>
+      <c r="H80" t="s">
         <v>872</v>
-      </c>
-      <c r="H80" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -12551,16 +12567,16 @@
         <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F81" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G81" t="s">
+        <v>970</v>
+      </c>
+      <c r="H81" t="s">
         <v>971</v>
-      </c>
-      <c r="H81" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -12569,19 +12585,19 @@
         <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F82" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G82" t="s">
+        <v>972</v>
+      </c>
+      <c r="H82" t="s">
         <v>973</v>
       </c>
-      <c r="H82" t="s">
-        <v>974</v>
-      </c>
       <c r="J82" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -12590,10 +12606,10 @@
         <v>320</v>
       </c>
       <c r="E83" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F83" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J83" s="11"/>
     </row>
@@ -12603,7 +12619,7 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G84" s="43"/>
       <c r="J84" s="11"/>
@@ -12614,11 +12630,11 @@
         <v>123</v>
       </c>
       <c r="F85" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G85" s="43"/>
       <c r="I85" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J85" s="11"/>
     </row>
@@ -12642,7 +12658,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -12657,10 +12673,10 @@
         <v>144</v>
       </c>
       <c r="G90" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H90" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I90" s="46"/>
     </row>
@@ -12670,13 +12686,13 @@
         <v>72</v>
       </c>
       <c r="F91" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G91" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H91" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -12703,10 +12719,10 @@
         <v>144</v>
       </c>
       <c r="G95" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H95" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I95" s="46"/>
     </row>
@@ -12719,13 +12735,13 @@
         <v>92</v>
       </c>
       <c r="F96" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G96" t="s">
+        <v>862</v>
+      </c>
+      <c r="H96" t="s">
         <v>863</v>
-      </c>
-      <c r="H96" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -12734,7 +12750,7 @@
         <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -12743,13 +12759,13 @@
         <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G98" t="s">
+        <v>864</v>
+      </c>
+      <c r="H98" t="s">
         <v>865</v>
-      </c>
-      <c r="H98" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -12781,10 +12797,10 @@
         <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H103" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I103" s="46"/>
     </row>
@@ -12802,7 +12818,7 @@
         <v>164</v>
       </c>
       <c r="H104" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I104" s="46"/>
     </row>
@@ -12821,10 +12837,10 @@
         <v>144</v>
       </c>
       <c r="G107" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H107" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -12832,13 +12848,13 @@
         <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G108" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H108" t="s">
         <v>1130</v>
-      </c>
-      <c r="H108" t="s">
-        <v>1131</v>
       </c>
       <c r="I108" s="46"/>
     </row>
@@ -12862,9 +12878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
   <dimension ref="A1:M214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M116" sqref="M116"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12923,7 +12939,7 @@
         <v>251</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1380</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -12937,10 +12953,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -12950,10 +12966,10 @@
         <v>144</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="5" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -12961,7 +12977,7 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -12969,10 +12985,10 @@
         <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -12998,7 +13014,7 @@
         <v>648</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -13025,7 +13041,7 @@
         <v>649</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -13052,7 +13068,7 @@
         <v>650</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -13079,7 +13095,7 @@
         <v>651</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -13106,7 +13122,7 @@
         <v>652</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -13133,7 +13149,7 @@
         <v>653</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -13184,13 +13200,13 @@
         <v>259</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>1366</v>
+        <v>1335</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -13202,7 +13218,7 @@
         <v>626</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -13249,7 +13265,7 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -13285,10 +13301,10 @@
         <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I39" s="46"/>
     </row>
@@ -13300,13 +13316,13 @@
         <v>252</v>
       </c>
       <c r="F40" s="46" t="s">
+        <v>893</v>
+      </c>
+      <c r="G40" s="46" t="s">
         <v>894</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="H40" s="46" t="s">
         <v>895</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -13326,10 +13342,10 @@
         <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H43" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I43" s="46"/>
     </row>
@@ -13348,7 +13364,7 @@
         <v>267</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -13405,10 +13421,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H52" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="46"/>
     </row>
@@ -13454,13 +13470,13 @@
         <v>710</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>1367</v>
+        <v>1336</v>
       </c>
       <c r="K55" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L55" s="46" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -13469,10 +13485,10 @@
         <v>320</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -13481,7 +13497,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -13508,7 +13524,7 @@
         <v>109</v>
       </c>
       <c r="I59" s="65" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -13553,10 +13569,10 @@
         <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H66" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="46"/>
     </row>
@@ -13575,7 +13591,7 @@
         <v>277</v>
       </c>
       <c r="H67" s="46" t="s">
-        <v>712</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -13599,16 +13615,16 @@
         <v>279</v>
       </c>
       <c r="H69" s="46" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J69" s="46" t="s">
-        <v>1368</v>
+        <v>1337</v>
       </c>
       <c r="K69" s="46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L69" s="46" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -13617,10 +13633,10 @@
         <v>320</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F70" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -13629,7 +13645,7 @@
         <v>87</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -13644,7 +13660,7 @@
         <v>280</v>
       </c>
       <c r="H72" s="46" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -13656,7 +13672,7 @@
         <v>122</v>
       </c>
       <c r="I73" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -13693,10 +13709,10 @@
         <v>144</v>
       </c>
       <c r="G79" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H79" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I79" s="46"/>
     </row>
@@ -13715,7 +13731,7 @@
         <v>282</v>
       </c>
       <c r="H80" s="46" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -13733,7 +13749,7 @@
         <v>285</v>
       </c>
       <c r="H81" s="46" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -13760,7 +13776,7 @@
         <v>289</v>
       </c>
       <c r="H83" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -13786,10 +13802,10 @@
         <v>144</v>
       </c>
       <c r="G87" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H87" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I87" s="46"/>
     </row>
@@ -13808,7 +13824,7 @@
         <v>292</v>
       </c>
       <c r="H88" s="46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -13823,10 +13839,10 @@
         <v>290</v>
       </c>
       <c r="G89" s="46" t="s">
+        <v>849</v>
+      </c>
+      <c r="H89" s="46" t="s">
         <v>850</v>
-      </c>
-      <c r="H89" s="46" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -13854,10 +13870,10 @@
         <v>144</v>
       </c>
       <c r="G93" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H93" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I93" s="46"/>
     </row>
@@ -13873,10 +13889,10 @@
         <v>111</v>
       </c>
       <c r="G94" s="46" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H94" s="46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -13900,7 +13916,7 @@
         <v>298</v>
       </c>
       <c r="H96" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -13915,16 +13931,16 @@
         <v>296</v>
       </c>
       <c r="H97" s="46" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J97" s="46" t="s">
-        <v>1369</v>
+        <v>1338</v>
       </c>
       <c r="K97" s="46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L97" s="46" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -13933,10 +13949,10 @@
         <v>320</v>
       </c>
       <c r="E98" s="46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F98" s="48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -13945,7 +13961,7 @@
         <v>87</v>
       </c>
       <c r="C99" s="46" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -13960,7 +13976,7 @@
         <v>297</v>
       </c>
       <c r="H100" s="46" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -13972,7 +13988,7 @@
         <v>112</v>
       </c>
       <c r="I101" s="46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -14014,10 +14030,10 @@
         <v>144</v>
       </c>
       <c r="G108" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H108" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I108" s="46"/>
     </row>
@@ -14026,10 +14042,10 @@
         <v>144</v>
       </c>
       <c r="G109" s="46" t="s">
+        <v>900</v>
+      </c>
+      <c r="H109" s="48" t="s">
         <v>901</v>
-      </c>
-      <c r="H109" s="48" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -14046,7 +14062,7 @@
         <v>300</v>
       </c>
       <c r="H110" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -14074,10 +14090,10 @@
         <v>144</v>
       </c>
       <c r="G114" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H114" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I114" s="46"/>
     </row>
@@ -14087,10 +14103,10 @@
         <v>144</v>
       </c>
       <c r="G115" s="46" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H115" s="46" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -14136,10 +14152,10 @@
         <v>144</v>
       </c>
       <c r="G121" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H121" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I121" s="46"/>
     </row>
@@ -14152,10 +14168,10 @@
         <v>304</v>
       </c>
       <c r="G122" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H122" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J122" s="46" t="s">
         <v>675</v>
@@ -14164,7 +14180,7 @@
         <v>674</v>
       </c>
       <c r="L122" s="48" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -14179,7 +14195,7 @@
         <v>87</v>
       </c>
       <c r="C124" s="46" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -14195,10 +14211,10 @@
         <v>144</v>
       </c>
       <c r="G126" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H126" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I126" s="46"/>
     </row>
@@ -14215,10 +14231,10 @@
         <v>306</v>
       </c>
       <c r="G127" s="46" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H127" s="46" t="s">
         <v>1146</v>
-      </c>
-      <c r="H127" s="46" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -14249,10 +14265,10 @@
         <v>144</v>
       </c>
       <c r="G131" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H131" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I131" s="46"/>
     </row>
@@ -14269,7 +14285,7 @@
         <v>309</v>
       </c>
       <c r="H132" s="46" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -14285,7 +14301,7 @@
         <v>311</v>
       </c>
       <c r="H133" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -14313,10 +14329,10 @@
         <v>144</v>
       </c>
       <c r="G137" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H137" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I137" s="46"/>
     </row>
@@ -14336,7 +14352,7 @@
         <v>313</v>
       </c>
       <c r="H138" s="46" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -14364,7 +14380,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="46" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -14463,10 +14479,10 @@
         <v>144</v>
       </c>
       <c r="G153" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H153" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I153" s="46"/>
     </row>
@@ -14485,7 +14501,7 @@
         <v>358</v>
       </c>
       <c r="H154" s="46" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -14503,10 +14519,10 @@
         <v>144</v>
       </c>
       <c r="G157" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H157" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14514,13 +14530,13 @@
         <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G158" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H158" t="s">
         <v>1093</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1094</v>
       </c>
       <c r="I158" s="46"/>
     </row>
@@ -14529,7 +14545,7 @@
         <v>87</v>
       </c>
       <c r="C159" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I159" s="46"/>
     </row>
@@ -14538,7 +14554,7 @@
         <v>123</v>
       </c>
       <c r="F160" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I160" s="46">
         <v>1</v>
@@ -14555,7 +14571,7 @@
         <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="163" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15109,10 +15125,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -15121,10 +15137,10 @@
         <v>144</v>
       </c>
       <c r="G4" s="46" t="s">
+        <v>900</v>
+      </c>
+      <c r="H4" s="48" t="s">
         <v>901</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -15138,10 +15154,10 @@
         <v>318</v>
       </c>
       <c r="G5" t="s">
+        <v>845</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>846</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -15173,10 +15189,10 @@
         <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I9" s="46"/>
     </row>
@@ -15191,10 +15207,10 @@
         <v>322</v>
       </c>
       <c r="G10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>1148</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -15216,10 +15232,10 @@
         <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I13" s="46"/>
     </row>
@@ -15234,10 +15250,10 @@
         <v>323</v>
       </c>
       <c r="G14" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H14" s="46" t="s">
         <v>1150</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -15260,16 +15276,16 @@
         <v>326</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K16" t="s">
-        <v>1370</v>
+        <v>1339</v>
       </c>
       <c r="L16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -15286,7 +15302,7 @@
         <v>328</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -15324,10 +15340,10 @@
         <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H22" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="46"/>
     </row>
@@ -15342,10 +15358,10 @@
         <v>329</v>
       </c>
       <c r="G23" t="s">
+        <v>847</v>
+      </c>
+      <c r="H23" s="46" t="s">
         <v>848</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -15365,10 +15381,10 @@
         <v>330</v>
       </c>
       <c r="G25" t="s">
+        <v>847</v>
+      </c>
+      <c r="H25" s="46" t="s">
         <v>848</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -15396,10 +15412,10 @@
         <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H29" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I29" s="46"/>
     </row>
@@ -15417,7 +15433,7 @@
         <v>332</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -15439,10 +15455,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I33" s="46"/>
     </row>
@@ -15460,7 +15476,7 @@
         <v>334</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -15483,7 +15499,7 @@
         <v>337</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15520,10 +15536,10 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H41" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I41" s="46"/>
     </row>
@@ -15541,7 +15557,7 @@
         <v>339</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -15564,7 +15580,7 @@
         <v>342</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -15598,10 +15614,10 @@
         <v>144</v>
       </c>
       <c r="G49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H49" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I49" s="46"/>
     </row>
@@ -15619,7 +15635,7 @@
         <v>344</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -15642,16 +15658,16 @@
         <v>326</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K52" t="s">
-        <v>1371</v>
+        <v>1340</v>
       </c>
       <c r="L52" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M52" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -15668,7 +15684,7 @@
         <v>328</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -15706,10 +15722,10 @@
         <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H58" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -15724,10 +15740,10 @@
         <v>348</v>
       </c>
       <c r="G59" t="s">
+        <v>847</v>
+      </c>
+      <c r="H59" s="46" t="s">
         <v>848</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -15747,10 +15763,10 @@
         <v>349</v>
       </c>
       <c r="G61" t="s">
+        <v>847</v>
+      </c>
+      <c r="H61" s="46" t="s">
         <v>848</v>
-      </c>
-      <c r="H61" s="46" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -15778,10 +15794,10 @@
         <v>144</v>
       </c>
       <c r="G65" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H65" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I65" s="46"/>
     </row>
@@ -15799,7 +15815,7 @@
         <v>332</v>
       </c>
       <c r="H66" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15821,10 +15837,10 @@
         <v>144</v>
       </c>
       <c r="G69" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H69" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I69" s="46"/>
     </row>
@@ -15842,7 +15858,7 @@
         <v>334</v>
       </c>
       <c r="H70" s="46" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -15865,7 +15881,7 @@
         <v>337</v>
       </c>
       <c r="H72" s="46" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -15902,10 +15918,10 @@
         <v>144</v>
       </c>
       <c r="G77" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H77" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I77" s="46"/>
     </row>
@@ -15923,7 +15939,7 @@
         <v>339</v>
       </c>
       <c r="H78" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -15946,7 +15962,7 @@
         <v>342</v>
       </c>
       <c r="H80" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -16013,9 +16029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:L526"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G488" sqref="G488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16073,7 +16089,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -16084,10 +16100,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -16107,19 +16123,19 @@
         <v>359</v>
       </c>
       <c r="G5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J5" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="K5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -16167,7 +16183,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -16175,10 +16191,10 @@
         <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -16191,10 +16207,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -16229,13 +16245,13 @@
         <v>359</v>
       </c>
       <c r="J18" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="K18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L18" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -16299,19 +16315,19 @@
         <v>368</v>
       </c>
       <c r="G26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H26" t="s">
         <v>1175</v>
       </c>
-      <c r="H26" t="s">
-        <v>1176</v>
-      </c>
       <c r="J26" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="K26" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L26" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -16359,7 +16375,7 @@
         <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -16367,10 +16383,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H33" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -16383,10 +16399,10 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H35" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -16421,13 +16437,13 @@
         <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="K39" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L39" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -16480,7 +16496,7 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -16488,7 +16504,7 @@
         <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -16499,7 +16515,7 @@
         <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -16522,7 +16538,7 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>1323</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -16530,10 +16546,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
+        <v>996</v>
+      </c>
+      <c r="H52" t="s">
         <v>997</v>
-      </c>
-      <c r="H52" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -16541,7 +16557,7 @@
         <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -16559,7 +16575,7 @@
         <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -16567,10 +16583,10 @@
         <v>144</v>
       </c>
       <c r="G56" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H56" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -16578,7 +16594,7 @@
         <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -16592,15 +16608,15 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>980</v>
+      </c>
+      <c r="C59" t="s">
         <v>981</v>
-      </c>
-      <c r="C59" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
@@ -16611,10 +16627,10 @@
         <v>144</v>
       </c>
       <c r="G61" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H61" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I61" s="46"/>
     </row>
@@ -16634,19 +16650,19 @@
         <v>374</v>
       </c>
       <c r="G63" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L63" t="s">
         <v>1186</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1186</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1324</v>
-      </c>
-      <c r="K63" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -16694,7 +16710,7 @@
         <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -16702,10 +16718,10 @@
         <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H70" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -16718,10 +16734,10 @@
         <v>144</v>
       </c>
       <c r="G72" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H72" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -16756,13 +16772,13 @@
         <v>374</v>
       </c>
       <c r="J76" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="K76" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L76" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -16826,19 +16842,19 @@
         <v>379</v>
       </c>
       <c r="G84" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H84" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J84" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="K84" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L84" t="s">
         <v>1196</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
@@ -16910,7 +16926,7 @@
         <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -16918,10 +16934,10 @@
         <v>144</v>
       </c>
       <c r="G94" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H94" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -16934,10 +16950,10 @@
         <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H96" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
@@ -16972,13 +16988,13 @@
         <v>379</v>
       </c>
       <c r="J100" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="K100" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L100" t="s">
         <v>1196</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -17042,19 +17058,19 @@
         <v>383</v>
       </c>
       <c r="G108" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H108" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="J108" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="K108" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L108" t="s">
         <v>1201</v>
-      </c>
-      <c r="L108" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
@@ -17126,7 +17142,7 @@
         <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
@@ -17134,10 +17150,10 @@
         <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H118" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
@@ -17150,10 +17166,10 @@
         <v>144</v>
       </c>
       <c r="G120" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H120" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
@@ -17188,13 +17204,13 @@
         <v>383</v>
       </c>
       <c r="J124" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="K124" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L124" t="s">
         <v>1201</v>
-      </c>
-      <c r="L124" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
@@ -17258,19 +17274,19 @@
         <v>387</v>
       </c>
       <c r="G132" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H132" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="J132" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="K132" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L132" t="s">
         <v>1206</v>
-      </c>
-      <c r="L132" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
@@ -17342,7 +17358,7 @@
         <v>87</v>
       </c>
       <c r="C141" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
@@ -17350,10 +17366,10 @@
         <v>144</v>
       </c>
       <c r="G142" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H142" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
@@ -17366,10 +17382,10 @@
         <v>144</v>
       </c>
       <c r="G144" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H144" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
@@ -17404,13 +17420,13 @@
         <v>387</v>
       </c>
       <c r="J148" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="K148" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L148" t="s">
         <v>1206</v>
-      </c>
-      <c r="L148" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
@@ -17463,7 +17479,7 @@
         <v>87</v>
       </c>
       <c r="C155" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
@@ -17471,7 +17487,7 @@
         <v>123</v>
       </c>
       <c r="F156" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -17482,7 +17498,7 @@
         <v>123</v>
       </c>
       <c r="F157" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -17493,7 +17509,7 @@
         <v>123</v>
       </c>
       <c r="F158" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -17504,7 +17520,7 @@
         <v>123</v>
       </c>
       <c r="F159" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -17527,7 +17543,7 @@
         <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -17535,10 +17551,10 @@
         <v>144</v>
       </c>
       <c r="G163" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H163" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -17546,7 +17562,7 @@
         <v>123</v>
       </c>
       <c r="F164" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -17564,7 +17580,7 @@
         <v>87</v>
       </c>
       <c r="C166" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -17572,10 +17588,10 @@
         <v>144</v>
       </c>
       <c r="G167" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H167" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -17583,7 +17599,7 @@
         <v>123</v>
       </c>
       <c r="F168" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -17601,7 +17617,7 @@
         <v>87</v>
       </c>
       <c r="C170" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -17609,10 +17625,10 @@
         <v>144</v>
       </c>
       <c r="G171" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H171" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -17620,7 +17636,7 @@
         <v>123</v>
       </c>
       <c r="F172" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -17638,7 +17654,7 @@
         <v>87</v>
       </c>
       <c r="C174" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -17646,10 +17662,10 @@
         <v>144</v>
       </c>
       <c r="G175" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H175" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -17657,7 +17673,7 @@
         <v>123</v>
       </c>
       <c r="F176" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -17671,15 +17687,15 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C178" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B179" t="s">
         <v>46</v>
@@ -17690,10 +17706,10 @@
         <v>144</v>
       </c>
       <c r="G180" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H180" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I180" s="46"/>
     </row>
@@ -17713,19 +17729,19 @@
         <v>391</v>
       </c>
       <c r="G182" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H182" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J182" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="K182" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L182" t="s">
         <v>1208</v>
-      </c>
-      <c r="L182" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -17773,7 +17789,7 @@
         <v>87</v>
       </c>
       <c r="C188" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -17781,10 +17797,10 @@
         <v>144</v>
       </c>
       <c r="G189" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H189" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -17797,10 +17813,10 @@
         <v>144</v>
       </c>
       <c r="G191" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H191" t="s">
         <v>1218</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -17835,13 +17851,13 @@
         <v>391</v>
       </c>
       <c r="J195" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="K195" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L195" t="s">
         <v>1208</v>
-      </c>
-      <c r="L195" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.25">
@@ -17905,19 +17921,19 @@
         <v>396</v>
       </c>
       <c r="G203" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H203" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J203" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="K203" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L203" t="s">
         <v>1210</v>
-      </c>
-      <c r="L203" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.25">
@@ -17989,7 +18005,7 @@
         <v>87</v>
       </c>
       <c r="C212" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.25">
@@ -17997,10 +18013,10 @@
         <v>144</v>
       </c>
       <c r="G213" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H213" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.25">
@@ -18013,10 +18029,10 @@
         <v>144</v>
       </c>
       <c r="G215" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H215" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.25">
@@ -18051,13 +18067,13 @@
         <v>396</v>
       </c>
       <c r="J219" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="K219" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L219" t="s">
         <v>1210</v>
-      </c>
-      <c r="L219" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.25">
@@ -18121,19 +18137,19 @@
         <v>400</v>
       </c>
       <c r="G227" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H227" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J227" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="K227" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L227" t="s">
         <v>1212</v>
-      </c>
-      <c r="L227" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.25">
@@ -18205,7 +18221,7 @@
         <v>87</v>
       </c>
       <c r="C236" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.25">
@@ -18213,10 +18229,10 @@
         <v>144</v>
       </c>
       <c r="G237" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H237" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.25">
@@ -18229,10 +18245,10 @@
         <v>144</v>
       </c>
       <c r="G239" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H239" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.25">
@@ -18267,13 +18283,13 @@
         <v>400</v>
       </c>
       <c r="J243" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="K243" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L243" t="s">
         <v>1212</v>
-      </c>
-      <c r="L243" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="244" spans="2:12" x14ac:dyDescent="0.25">
@@ -18337,19 +18353,19 @@
         <v>404</v>
       </c>
       <c r="G251" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H251" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J251" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="K251" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L251" t="s">
         <v>1214</v>
-      </c>
-      <c r="L251" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="252" spans="2:12" x14ac:dyDescent="0.25">
@@ -18421,7 +18437,7 @@
         <v>87</v>
       </c>
       <c r="C260" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="261" spans="2:12" x14ac:dyDescent="0.25">
@@ -18429,10 +18445,10 @@
         <v>144</v>
       </c>
       <c r="G261" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H261" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="262" spans="2:12" x14ac:dyDescent="0.25">
@@ -18445,10 +18461,10 @@
         <v>144</v>
       </c>
       <c r="G263" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H263" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="264" spans="2:12" x14ac:dyDescent="0.25">
@@ -18483,13 +18499,13 @@
         <v>404</v>
       </c>
       <c r="J267" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="K267" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L267" t="s">
         <v>1214</v>
-      </c>
-      <c r="L267" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="268" spans="2:12" x14ac:dyDescent="0.25">
@@ -18542,7 +18558,7 @@
         <v>87</v>
       </c>
       <c r="C274" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -18550,7 +18566,7 @@
         <v>123</v>
       </c>
       <c r="F275" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I275">
         <v>2</v>
@@ -18561,7 +18577,7 @@
         <v>123</v>
       </c>
       <c r="F276" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -18572,7 +18588,7 @@
         <v>123</v>
       </c>
       <c r="F277" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -18583,7 +18599,7 @@
         <v>123</v>
       </c>
       <c r="F278" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -18606,7 +18622,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -18614,10 +18630,10 @@
         <v>144</v>
       </c>
       <c r="G282" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H282" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -18625,7 +18641,7 @@
         <v>123</v>
       </c>
       <c r="F283" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -18643,7 +18659,7 @@
         <v>87</v>
       </c>
       <c r="C285" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -18651,10 +18667,10 @@
         <v>144</v>
       </c>
       <c r="G286" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H286" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -18662,7 +18678,7 @@
         <v>123</v>
       </c>
       <c r="F287" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -18680,7 +18696,7 @@
         <v>87</v>
       </c>
       <c r="C289" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -18688,10 +18704,10 @@
         <v>144</v>
       </c>
       <c r="G290" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H290" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -18699,7 +18715,7 @@
         <v>123</v>
       </c>
       <c r="F291" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -18717,7 +18733,7 @@
         <v>87</v>
       </c>
       <c r="C293" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -18725,10 +18741,10 @@
         <v>144</v>
       </c>
       <c r="G294" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H294" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -18736,7 +18752,7 @@
         <v>123</v>
       </c>
       <c r="F295" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -18754,7 +18770,7 @@
         <v>87</v>
       </c>
       <c r="C297" t="s">
-        <v>1348</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -18762,10 +18778,10 @@
         <v>144</v>
       </c>
       <c r="G298" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H298" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -18773,7 +18789,7 @@
         <v>123</v>
       </c>
       <c r="F299" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -18791,7 +18807,7 @@
         <v>87</v>
       </c>
       <c r="C301" t="s">
-        <v>1349</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -18799,10 +18815,10 @@
         <v>144</v>
       </c>
       <c r="G302" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H302" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -18810,7 +18826,7 @@
         <v>123</v>
       </c>
       <c r="F303" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -18828,7 +18844,7 @@
         <v>87</v>
       </c>
       <c r="C305" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -18836,10 +18852,10 @@
         <v>144</v>
       </c>
       <c r="G306" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H306" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -18847,7 +18863,7 @@
         <v>123</v>
       </c>
       <c r="F307" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -18865,7 +18881,7 @@
         <v>87</v>
       </c>
       <c r="C309" t="s">
-        <v>1351</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -18873,10 +18889,10 @@
         <v>144</v>
       </c>
       <c r="G310" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H310" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -18884,7 +18900,7 @@
         <v>123</v>
       </c>
       <c r="F311" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I311">
         <v>1</v>
@@ -18898,15 +18914,15 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C313" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B314" t="s">
         <v>46</v>
@@ -18917,10 +18933,10 @@
         <v>144</v>
       </c>
       <c r="G315" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H315" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I315" s="46"/>
     </row>
@@ -18940,19 +18956,19 @@
         <v>408</v>
       </c>
       <c r="G317" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H317" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J317" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="K317" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L317" t="s">
         <v>1239</v>
-      </c>
-      <c r="L317" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -19000,7 +19016,7 @@
         <v>87</v>
       </c>
       <c r="C323" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="324" spans="2:12" x14ac:dyDescent="0.25">
@@ -19008,10 +19024,10 @@
         <v>144</v>
       </c>
       <c r="G324" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H324" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="325" spans="2:12" x14ac:dyDescent="0.25">
@@ -19024,10 +19040,10 @@
         <v>144</v>
       </c>
       <c r="G326" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H326" t="s">
         <v>1231</v>
-      </c>
-      <c r="H326" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="327" spans="2:12" x14ac:dyDescent="0.25">
@@ -19062,13 +19078,13 @@
         <v>408</v>
       </c>
       <c r="J330" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="K330" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L330" t="s">
         <v>1239</v>
-      </c>
-      <c r="L330" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="331" spans="2:12" x14ac:dyDescent="0.25">
@@ -19132,19 +19148,19 @@
         <v>413</v>
       </c>
       <c r="G338" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H338" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="J338" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="K338" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L338" t="s">
         <v>1241</v>
-      </c>
-      <c r="L338" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="339" spans="2:12" x14ac:dyDescent="0.25">
@@ -19216,7 +19232,7 @@
         <v>87</v>
       </c>
       <c r="C347" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="348" spans="2:12" x14ac:dyDescent="0.25">
@@ -19224,10 +19240,10 @@
         <v>144</v>
       </c>
       <c r="G348" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H348" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="349" spans="2:12" x14ac:dyDescent="0.25">
@@ -19240,10 +19256,10 @@
         <v>144</v>
       </c>
       <c r="G350" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H350" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="351" spans="2:12" x14ac:dyDescent="0.25">
@@ -19278,13 +19294,13 @@
         <v>413</v>
       </c>
       <c r="J354" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="K354" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L354" t="s">
         <v>1241</v>
-      </c>
-      <c r="L354" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="355" spans="2:12" x14ac:dyDescent="0.25">
@@ -19348,19 +19364,19 @@
         <v>417</v>
       </c>
       <c r="G362" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H362" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J362" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="K362" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L362" t="s">
         <v>1243</v>
-      </c>
-      <c r="L362" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="363" spans="2:12" x14ac:dyDescent="0.25">
@@ -19432,7 +19448,7 @@
         <v>87</v>
       </c>
       <c r="C371" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="372" spans="2:12" x14ac:dyDescent="0.25">
@@ -19440,10 +19456,10 @@
         <v>144</v>
       </c>
       <c r="G372" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H372" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="373" spans="2:12" x14ac:dyDescent="0.25">
@@ -19456,10 +19472,10 @@
         <v>144</v>
       </c>
       <c r="G374" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H374" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="375" spans="2:12" x14ac:dyDescent="0.25">
@@ -19494,13 +19510,13 @@
         <v>417</v>
       </c>
       <c r="J378" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="K378" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L378" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="379" spans="2:12" x14ac:dyDescent="0.25">
@@ -19570,13 +19586,13 @@
         <v>421</v>
       </c>
       <c r="J386" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="K386" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L386" t="s">
         <v>1168</v>
-      </c>
-      <c r="L386" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="387" spans="2:12" x14ac:dyDescent="0.25">
@@ -19648,7 +19664,7 @@
         <v>87</v>
       </c>
       <c r="C395" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="396" spans="2:12" x14ac:dyDescent="0.25">
@@ -19656,10 +19672,10 @@
         <v>144</v>
       </c>
       <c r="G396" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H396" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="397" spans="2:12" x14ac:dyDescent="0.25">
@@ -19672,10 +19688,10 @@
         <v>144</v>
       </c>
       <c r="G398" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H398" t="s">
         <v>1246</v>
-      </c>
-      <c r="H398" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="399" spans="2:12" x14ac:dyDescent="0.25">
@@ -19710,13 +19726,13 @@
         <v>421</v>
       </c>
       <c r="J402" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="K402" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L402" t="s">
         <v>1168</v>
-      </c>
-      <c r="L402" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
@@ -19769,7 +19785,7 @@
         <v>87</v>
       </c>
       <c r="C409" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
@@ -19777,7 +19793,7 @@
         <v>123</v>
       </c>
       <c r="F410" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -19788,7 +19804,7 @@
         <v>123</v>
       </c>
       <c r="F411" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I411">
         <v>2</v>
@@ -19799,7 +19815,7 @@
         <v>123</v>
       </c>
       <c r="F412" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I412">
         <v>2</v>
@@ -19810,7 +19826,7 @@
         <v>123</v>
       </c>
       <c r="F413" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -19833,7 +19849,7 @@
         <v>87</v>
       </c>
       <c r="C416" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -19841,10 +19857,10 @@
         <v>144</v>
       </c>
       <c r="G417" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H417" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -19852,7 +19868,7 @@
         <v>123</v>
       </c>
       <c r="F418" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I418">
         <v>1</v>
@@ -19870,7 +19886,7 @@
         <v>87</v>
       </c>
       <c r="C420" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -19878,10 +19894,10 @@
         <v>144</v>
       </c>
       <c r="G421" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H421" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -19889,7 +19905,7 @@
         <v>123</v>
       </c>
       <c r="F422" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I422">
         <v>1</v>
@@ -19907,7 +19923,7 @@
         <v>87</v>
       </c>
       <c r="C424" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -19915,10 +19931,10 @@
         <v>144</v>
       </c>
       <c r="G425" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H425" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -19926,7 +19942,7 @@
         <v>123</v>
       </c>
       <c r="F426" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I426">
         <v>1</v>
@@ -19944,7 +19960,7 @@
         <v>87</v>
       </c>
       <c r="C428" t="s">
-        <v>1355</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -19952,10 +19968,10 @@
         <v>144</v>
       </c>
       <c r="G429" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H429" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -19963,7 +19979,7 @@
         <v>123</v>
       </c>
       <c r="F430" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I430">
         <v>1</v>
@@ -19981,7 +19997,7 @@
         <v>87</v>
       </c>
       <c r="C432" t="s">
-        <v>1356</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -19989,10 +20005,10 @@
         <v>144</v>
       </c>
       <c r="G433" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H433" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -20000,7 +20016,7 @@
         <v>123</v>
       </c>
       <c r="F434" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I434">
         <v>1</v>
@@ -20018,7 +20034,7 @@
         <v>87</v>
       </c>
       <c r="C436" t="s">
-        <v>1357</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -20026,10 +20042,10 @@
         <v>144</v>
       </c>
       <c r="G437" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H437" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -20037,7 +20053,7 @@
         <v>123</v>
       </c>
       <c r="F438" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I438">
         <v>1</v>
@@ -20055,7 +20071,7 @@
         <v>87</v>
       </c>
       <c r="C440" t="s">
-        <v>1358</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -20063,10 +20079,10 @@
         <v>144</v>
       </c>
       <c r="G441" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H441" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -20074,7 +20090,7 @@
         <v>123</v>
       </c>
       <c r="F442" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I442">
         <v>1</v>
@@ -20092,7 +20108,7 @@
         <v>87</v>
       </c>
       <c r="C444" t="s">
-        <v>1359</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -20100,10 +20116,10 @@
         <v>144</v>
       </c>
       <c r="G445" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H445" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -20111,7 +20127,7 @@
         <v>123</v>
       </c>
       <c r="F446" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I446">
         <v>1</v>
@@ -20129,7 +20145,7 @@
         <v>87</v>
       </c>
       <c r="C448" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
@@ -20137,10 +20153,10 @@
         <v>144</v>
       </c>
       <c r="G449" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H449" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
@@ -20148,7 +20164,7 @@
         <v>123</v>
       </c>
       <c r="F450" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I450">
         <v>1</v>
@@ -20166,7 +20182,7 @@
         <v>87</v>
       </c>
       <c r="C452" t="s">
-        <v>1361</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
@@ -20174,10 +20190,10 @@
         <v>144</v>
       </c>
       <c r="G453" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H453" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
@@ -20185,7 +20201,7 @@
         <v>123</v>
       </c>
       <c r="F454" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I454">
         <v>1</v>
@@ -20199,15 +20215,15 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C456" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B457" t="s">
         <v>46</v>
@@ -20218,10 +20234,10 @@
         <v>144</v>
       </c>
       <c r="G458" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H458" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I458" s="46"/>
     </row>
@@ -20241,19 +20257,19 @@
         <v>425</v>
       </c>
       <c r="G460" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H460" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J460" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="K460" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L460" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
@@ -20301,7 +20317,7 @@
         <v>87</v>
       </c>
       <c r="C466" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="467" spans="2:12" x14ac:dyDescent="0.25">
@@ -20309,10 +20325,10 @@
         <v>144</v>
       </c>
       <c r="G467" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H467" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="468" spans="2:12" x14ac:dyDescent="0.25">
@@ -20325,10 +20341,10 @@
         <v>144</v>
       </c>
       <c r="G469" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H469" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="470" spans="2:12" x14ac:dyDescent="0.25">
@@ -20363,13 +20379,13 @@
         <v>425</v>
       </c>
       <c r="J473" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="K473" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L473" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="474" spans="2:12" x14ac:dyDescent="0.25">
@@ -20433,19 +20449,19 @@
         <v>430</v>
       </c>
       <c r="G481" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H481" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J481" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K481" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L481" t="s">
         <v>1260</v>
-      </c>
-      <c r="J481" t="s">
-        <v>1338</v>
-      </c>
-      <c r="K481" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L481" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="482" spans="2:12" x14ac:dyDescent="0.25">
@@ -20493,7 +20509,7 @@
         <v>87</v>
       </c>
       <c r="C487" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="488" spans="2:12" x14ac:dyDescent="0.25">
@@ -20501,10 +20517,10 @@
         <v>144</v>
       </c>
       <c r="G488" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H488" t="s">
-        <v>1261</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="489" spans="2:12" x14ac:dyDescent="0.25">
@@ -20517,10 +20533,10 @@
         <v>144</v>
       </c>
       <c r="G490" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H490" t="s">
-        <v>1262</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="491" spans="2:12" x14ac:dyDescent="0.25">
@@ -20555,13 +20571,13 @@
         <v>430</v>
       </c>
       <c r="J494" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="K494" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L494" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="495" spans="2:12" x14ac:dyDescent="0.25">
@@ -20614,7 +20630,7 @@
         <v>87</v>
       </c>
       <c r="C501" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -20622,7 +20638,7 @@
         <v>123</v>
       </c>
       <c r="F502" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -20633,7 +20649,7 @@
         <v>123</v>
       </c>
       <c r="F503" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -20656,7 +20672,7 @@
         <v>87</v>
       </c>
       <c r="C506" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -20664,10 +20680,10 @@
         <v>144</v>
       </c>
       <c r="G507" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H507" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
@@ -20675,7 +20691,7 @@
         <v>123</v>
       </c>
       <c r="F508" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I508">
         <v>1</v>
@@ -20693,7 +20709,7 @@
         <v>87</v>
       </c>
       <c r="C510" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -20701,10 +20717,10 @@
         <v>144</v>
       </c>
       <c r="G511" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H511" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -20712,7 +20728,7 @@
         <v>123</v>
       </c>
       <c r="F512" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -20730,7 +20746,7 @@
         <v>87</v>
       </c>
       <c r="C514" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D514" s="43"/>
       <c r="E514" s="43"/>
@@ -20742,10 +20758,10 @@
         <v>144</v>
       </c>
       <c r="G515" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H515" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
@@ -20753,7 +20769,7 @@
         <v>123</v>
       </c>
       <c r="F516" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I516">
         <v>1</v>
@@ -20771,7 +20787,7 @@
         <v>87</v>
       </c>
       <c r="C518" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
@@ -20779,10 +20795,10 @@
         <v>144</v>
       </c>
       <c r="G519" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H519" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -20790,7 +20806,7 @@
         <v>123</v>
       </c>
       <c r="F520" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I520">
         <v>1</v>
@@ -20804,10 +20820,10 @@
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
+        <v>990</v>
+      </c>
+      <c r="C522" t="s">
         <v>991</v>
-      </c>
-      <c r="C522" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
@@ -20820,10 +20836,10 @@
         <v>144</v>
       </c>
       <c r="G524" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H524" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -20831,13 +20847,13 @@
         <v>72</v>
       </c>
       <c r="F525" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G525" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H525" t="s">
         <v>1152</v>
-      </c>
-      <c r="H525" t="s">
-        <v>1153</v>
       </c>
       <c r="I525" s="46"/>
     </row>
@@ -20926,10 +20942,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -20955,7 +20971,7 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H5" s="46"/>
     </row>
@@ -21008,10 +21024,10 @@
         <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I11" s="46"/>
     </row>
@@ -21023,13 +21039,13 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G12" t="s">
         <v>360</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -21057,13 +21073,13 @@
         <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G14" t="s">
         <v>369</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -21077,7 +21093,7 @@
         <v>443</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -21099,10 +21115,10 @@
         <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I18" s="46"/>
     </row>
@@ -21114,13 +21130,13 @@
         <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G19" t="s">
         <v>444</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -21134,7 +21150,7 @@
         <v>446</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -21145,13 +21161,13 @@
         <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G21" t="s">
         <v>447</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -21162,13 +21178,13 @@
         <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G22" t="s">
         <v>448</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -21182,7 +21198,7 @@
         <v>450</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -21212,10 +21228,10 @@
         <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H27" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I27" s="46"/>
     </row>
@@ -21230,7 +21246,7 @@
         <v>452</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -21244,16 +21260,16 @@
         <v>454</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J29" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="K29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L29" t="s">
         <v>1170</v>
-      </c>
-      <c r="L29" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -21275,10 +21291,10 @@
         <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I32" s="46"/>
     </row>
@@ -21293,7 +21309,7 @@
         <v>452</v>
       </c>
       <c r="H33" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -21307,16 +21323,16 @@
         <v>454</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J34" t="s">
-        <v>1373</v>
+        <v>1342</v>
       </c>
       <c r="K34" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L34" t="s">
         <v>1170</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -21338,10 +21354,10 @@
         <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H37" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I37" s="46"/>
     </row>
@@ -21359,7 +21375,7 @@
         <v>458</v>
       </c>
       <c r="H38" s="46" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -21381,10 +21397,10 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H41" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I41" s="46"/>
     </row>
@@ -21402,7 +21418,7 @@
         <v>460</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -21428,7 +21444,7 @@
         <v>463</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -21456,10 +21472,10 @@
         <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H48" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I48" s="46"/>
     </row>
@@ -21477,7 +21493,7 @@
         <v>465</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -21499,10 +21515,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H52" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I52" s="46"/>
     </row>
@@ -21520,7 +21536,7 @@
         <v>467</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -21543,7 +21559,7 @@
         <v>470</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -21571,10 +21587,10 @@
         <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H59" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -21592,7 +21608,7 @@
         <v>472</v>
       </c>
       <c r="H60" s="46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -21618,7 +21634,7 @@
         <v>475</v>
       </c>
       <c r="H63" s="46" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -21646,10 +21662,10 @@
         <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H67" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I67" s="46"/>
     </row>
@@ -21690,7 +21706,7 @@
         <v>481</v>
       </c>
       <c r="H70" s="46" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -21718,10 +21734,10 @@
         <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H74" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I74" s="46"/>
     </row>
@@ -21762,7 +21778,7 @@
         <v>487</v>
       </c>
       <c r="H77" s="46" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -21776,7 +21792,7 @@
         <v>489</v>
       </c>
       <c r="H78" s="46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -21804,10 +21820,10 @@
         <v>144</v>
       </c>
       <c r="G82" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H82" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I82" s="46"/>
     </row>
@@ -21825,7 +21841,7 @@
         <v>491</v>
       </c>
       <c r="H83" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -21848,7 +21864,7 @@
         <v>494</v>
       </c>
       <c r="H85" s="46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -21876,10 +21892,10 @@
         <v>144</v>
       </c>
       <c r="G89" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H89" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I89" s="46"/>
     </row>
@@ -21897,7 +21913,7 @@
         <v>496</v>
       </c>
       <c r="H90" s="46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -21920,7 +21936,7 @@
         <v>499</v>
       </c>
       <c r="H92" s="46" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -21948,10 +21964,10 @@
         <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H96" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I96" s="46"/>
     </row>
@@ -21969,7 +21985,7 @@
         <v>501</v>
       </c>
       <c r="H97" s="46" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -21992,7 +22008,7 @@
         <v>504</v>
       </c>
       <c r="H99" s="46" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -22020,10 +22036,10 @@
         <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H103" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I103" s="46"/>
     </row>
@@ -22041,7 +22057,7 @@
         <v>506</v>
       </c>
       <c r="H104" s="46" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -22064,7 +22080,7 @@
         <v>509</v>
       </c>
       <c r="H106" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -22092,10 +22108,10 @@
         <v>144</v>
       </c>
       <c r="G110" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H110" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I110" s="46"/>
     </row>
@@ -22136,7 +22152,7 @@
         <v>515</v>
       </c>
       <c r="H113" s="46" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -22173,10 +22189,10 @@
         <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H118" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I118" s="46"/>
     </row>
@@ -22185,7 +22201,7 @@
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F119" t="s">
         <v>516</v>
@@ -22194,7 +22210,7 @@
         <v>517</v>
       </c>
       <c r="H119" s="46" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -22202,7 +22218,7 @@
         <v>87</v>
       </c>
       <c r="C120" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H120" s="46"/>
     </row>
@@ -22217,7 +22233,7 @@
         <v>519</v>
       </c>
       <c r="H121" s="46" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -22251,10 +22267,10 @@
         <v>144</v>
       </c>
       <c r="G126" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H126" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I126" s="46"/>
     </row>
@@ -22269,7 +22285,7 @@
         <v>521</v>
       </c>
       <c r="H127" s="46" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -22283,7 +22299,7 @@
         <v>521</v>
       </c>
       <c r="H128" s="46" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -22305,10 +22321,10 @@
         <v>144</v>
       </c>
       <c r="G131" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H131" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I131" s="46"/>
     </row>
@@ -22326,7 +22342,7 @@
         <v>524</v>
       </c>
       <c r="H132" s="46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -22357,10 +22373,10 @@
         <v>144</v>
       </c>
       <c r="G136" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H136" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I136" s="46"/>
     </row>
@@ -22380,7 +22396,7 @@
         <v>527</v>
       </c>
       <c r="H137" s="46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -22419,10 +22435,10 @@
         <v>144</v>
       </c>
       <c r="G142" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H142" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I142" s="46"/>
     </row>
@@ -22437,7 +22453,7 @@
         <v>530</v>
       </c>
       <c r="H143" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -22463,7 +22479,7 @@
         <v>533</v>
       </c>
       <c r="H145" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -22491,10 +22507,10 @@
         <v>144</v>
       </c>
       <c r="G149" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H149" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I149" s="46"/>
     </row>
@@ -22509,7 +22525,7 @@
         <v>535</v>
       </c>
       <c r="H150" s="46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -22526,7 +22542,7 @@
         <v>537</v>
       </c>
       <c r="H151" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -22548,10 +22564,10 @@
         <v>144</v>
       </c>
       <c r="G154" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H154" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I154" s="46"/>
     </row>
@@ -22569,7 +22585,7 @@
         <v>539</v>
       </c>
       <c r="H155" s="46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -22586,7 +22602,7 @@
         <v>541</v>
       </c>
       <c r="H156" s="46" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -22614,10 +22630,10 @@
         <v>144</v>
       </c>
       <c r="G160" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H160" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I160" s="46"/>
     </row>
@@ -22635,7 +22651,7 @@
         <v>543</v>
       </c>
       <c r="H161" s="46" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -22658,7 +22674,7 @@
         <v>546</v>
       </c>
       <c r="H163" s="46" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -22686,10 +22702,10 @@
         <v>144</v>
       </c>
       <c r="G167" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H167" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I167" s="46"/>
     </row>
@@ -22707,7 +22723,7 @@
         <v>548</v>
       </c>
       <c r="H168" s="46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -22730,7 +22746,7 @@
         <v>551</v>
       </c>
       <c r="H170" s="46" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -22744,7 +22760,7 @@
         <v>553</v>
       </c>
       <c r="H171" s="46" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -22768,10 +22784,10 @@
         <v>144</v>
       </c>
       <c r="G175" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H175" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -22779,13 +22795,13 @@
         <v>72</v>
       </c>
       <c r="F176" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G176" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H176" t="s">
         <v>1155</v>
-      </c>
-      <c r="H176" t="s">
-        <v>1156</v>
       </c>
       <c r="I176" s="46"/>
     </row>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDFDAF0-FF20-4871-B529-79FE4B3F7ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215273DF-D53D-4C5D-8B76-A7D1325E3DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="1382">
   <si>
     <t>setting_name</t>
   </si>
@@ -1973,9 +1973,6 @@
     <t>data('CONS2') =='1'</t>
   </si>
   <si>
-    <t>Mothers name</t>
-  </si>
-  <si>
     <t>Nome da mulher</t>
   </si>
   <si>
@@ -4208,6 +4205,9 @@
   </si>
   <si>
     <t>&lt;font color = "red"&gt;Febre amarela &lt;b&gt;{{calculates.displayFEBAMAREL}}&lt;/b&gt;&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>Mother's name</t>
   </si>
 </sst>
 </file>
@@ -5027,7 +5027,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>23</v>
@@ -5035,602 +5035,602 @@
     </row>
     <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>898</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>902</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>937</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>905</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>907</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B21" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B22" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B23" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B24" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B25" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B26" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B27" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B28" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B29" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B30" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B31" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B32" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B33" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B34" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B36" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B37" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B38" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B39" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B40" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B41" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B42" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B43" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B44" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B45" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B46" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B47" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B48" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
   </sheetData>
@@ -5717,7 +5717,7 @@
         <v>591</v>
       </c>
       <c r="G2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>592</v>
@@ -5728,25 +5728,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B3" t="s">
         <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E3" t="s">
         <v>590</v>
       </c>
       <c r="F3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G3" t="s">
         <v>1087</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1088</v>
       </c>
       <c r="H3" s="69" t="s">
         <v>592</v>
@@ -5799,30 +5799,30 @@
     </row>
     <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="J7" t="s">
+        <v>865</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -5907,24 +5907,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B2" t="s">
         <v>1346</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1347</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -6323,7 +6323,7 @@
         <v>243</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E24" s="48"/>
     </row>
@@ -6339,7 +6339,7 @@
         <v>241</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E25" s="48"/>
     </row>
@@ -6355,7 +6355,7 @@
         <v>242</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E26" s="48"/>
     </row>
@@ -6451,7 +6451,7 @@
         <v>564</v>
       </c>
       <c r="D32" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G32"/>
     </row>
@@ -6463,10 +6463,10 @@
         <v>219</v>
       </c>
       <c r="C33" s="43" t="s">
+        <v>882</v>
+      </c>
+      <c r="D33" s="48" t="s">
         <v>883</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>884</v>
       </c>
       <c r="E33" s="48"/>
     </row>
@@ -6478,10 +6478,10 @@
         <v>222</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E34" s="48"/>
     </row>
@@ -6493,10 +6493,10 @@
         <v>225</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E35" s="48"/>
     </row>
@@ -6655,7 +6655,7 @@
         <v>579</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E45" s="51"/>
     </row>
@@ -6703,7 +6703,7 @@
         <v>477</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E48" s="48"/>
     </row>
@@ -6735,7 +6735,7 @@
         <v>491</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E50" s="48"/>
     </row>
@@ -6751,7 +6751,7 @@
         <v>496</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E51" s="48"/>
     </row>
@@ -6767,7 +6767,7 @@
         <v>501</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E52" s="48"/>
     </row>
@@ -6863,7 +6863,7 @@
         <v>586</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E58" s="48"/>
     </row>
@@ -6879,7 +6879,7 @@
         <v>606</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E59" s="48"/>
     </row>
@@ -6895,7 +6895,7 @@
         <v>586</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E60" s="48"/>
     </row>
@@ -6911,7 +6911,7 @@
         <v>607</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E61" s="48"/>
     </row>
@@ -6927,7 +6927,7 @@
         <v>586</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E62" s="48"/>
     </row>
@@ -6943,7 +6943,7 @@
         <v>608</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E63" s="48"/>
     </row>
@@ -6959,13 +6959,13 @@
         <v>586</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E64" s="48"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>196</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>199</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>202</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>193</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C69" s="43" t="s">
         <v>80</v>
@@ -7148,7 +7148,7 @@
         <v>162</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>217</v>
@@ -7163,7 +7163,7 @@
         <v>162</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>80</v>
@@ -7253,7 +7253,7 @@
         <v>159</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>80</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B85" t="str">
         <f>"99"</f>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B86" s="43" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
@@ -7295,22 +7295,22 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B87" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C87" t="s">
+        <v>887</v>
+      </c>
+      <c r="D87" t="s">
         <v>888</v>
-      </c>
-      <c r="D87" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B88" t="str">
         <f>"9999"</f>
@@ -7362,8 +7362,8 @@
   <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7399,12 +7399,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7544,7 +7544,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7662,7 +7662,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B27" t="s">
         <v>320</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B30" t="s">
         <v>320</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B40" t="s">
         <v>320</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B41" t="s">
         <v>72</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B46" t="s">
         <v>320</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8009,7 +8009,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B59" s="46" t="s">
         <v>320</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>320</v>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B63" s="48" t="s">
         <v>320</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B73" s="48" t="s">
         <v>72</v>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B74" s="48" t="s">
         <v>25</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B80" s="46" t="s">
         <v>22</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B114" t="s">
         <v>123</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B115" t="s">
         <v>123</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B117" t="s">
         <v>123</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B120" t="s">
         <v>123</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B126" t="s">
         <v>123</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B127" t="s">
         <v>123</v>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B128" t="s">
         <v>123</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B129" t="s">
         <v>72</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B130" t="s">
         <v>123</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F174" s="43"/>
       <c r="G174" s="43"/>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="43" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B180" s="43" t="s">
         <v>22</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="43" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B201" s="43" t="s">
         <v>22</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="43" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B209" s="43" t="s">
         <v>72</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B219" s="43" t="s">
         <v>22</v>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="43" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B220" s="43" t="s">
         <v>22</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="43" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B226" s="43" t="s">
         <v>22</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I231" s="43"/>
     </row>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B235" s="43" t="s">
         <v>72</v>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -10199,7 +10199,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B237" s="43" t="s">
         <v>117</v>
@@ -10309,7 +10309,7 @@
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10341,9 +10341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10353,7 +10353,7 @@
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -10406,10 +10406,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
+        <v>954</v>
+      </c>
+      <c r="H3" t="s">
         <v>955</v>
-      </c>
-      <c r="H3" t="s">
-        <v>956</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -10418,10 +10418,10 @@
         <v>144</v>
       </c>
       <c r="G4" t="s">
+        <v>956</v>
+      </c>
+      <c r="H4" t="s">
         <v>957</v>
-      </c>
-      <c r="H4" t="s">
-        <v>958</v>
       </c>
       <c r="I4" s="46"/>
     </row>
@@ -10439,10 +10439,10 @@
         <v>144</v>
       </c>
       <c r="G6" t="s">
+        <v>958</v>
+      </c>
+      <c r="H6" s="46" t="s">
         <v>959</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>960</v>
       </c>
       <c r="I6" s="46"/>
     </row>
@@ -10466,10 +10466,10 @@
         <v>144</v>
       </c>
       <c r="G9" t="s">
+        <v>960</v>
+      </c>
+      <c r="H9" s="46" t="s">
         <v>961</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>962</v>
       </c>
       <c r="I9" s="46"/>
     </row>
@@ -10493,7 +10493,7 @@
         <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H12" t="s">
         <v>632</v>
@@ -10511,10 +10511,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
+        <v>963</v>
+      </c>
+      <c r="H14" t="s">
         <v>964</v>
-      </c>
-      <c r="H14" t="s">
-        <v>965</v>
       </c>
       <c r="I14" s="46"/>
     </row>
@@ -10523,10 +10523,10 @@
         <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I15" s="46"/>
     </row>
@@ -10535,10 +10535,10 @@
         <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I16" s="46"/>
     </row>
@@ -10547,10 +10547,10 @@
         <v>144</v>
       </c>
       <c r="G17" t="s">
+        <v>967</v>
+      </c>
+      <c r="H17" t="s">
         <v>968</v>
-      </c>
-      <c r="H17" t="s">
-        <v>969</v>
       </c>
       <c r="I17" s="46"/>
     </row>
@@ -10562,13 +10562,13 @@
         <v>581</v>
       </c>
       <c r="F18" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I18" s="46"/>
     </row>
@@ -10584,7 +10584,7 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I20" s="46"/>
     </row>
@@ -10650,10 +10650,10 @@
         <v>116</v>
       </c>
       <c r="G25" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H25" t="s">
         <v>640</v>
-      </c>
-      <c r="H25" t="s">
-        <v>641</v>
       </c>
       <c r="I25" s="46"/>
     </row>
@@ -10707,13 +10707,13 @@
         <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G29" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H29" t="s">
         <v>1112</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1113</v>
       </c>
       <c r="I29" s="46"/>
     </row>
@@ -10734,10 +10734,10 @@
         <v>144</v>
       </c>
       <c r="G32" t="s">
+        <v>954</v>
+      </c>
+      <c r="H32" t="s">
         <v>955</v>
-      </c>
-      <c r="H32" t="s">
-        <v>956</v>
       </c>
       <c r="I32" s="46"/>
     </row>
@@ -10746,10 +10746,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
+        <v>956</v>
+      </c>
+      <c r="H33" t="s">
         <v>957</v>
-      </c>
-      <c r="H33" t="s">
-        <v>958</v>
       </c>
       <c r="I33" s="46"/>
     </row>
@@ -10767,10 +10767,10 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
+        <v>958</v>
+      </c>
+      <c r="H35" s="46" t="s">
         <v>959</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>960</v>
       </c>
       <c r="I35" s="46"/>
     </row>
@@ -10794,10 +10794,10 @@
         <v>144</v>
       </c>
       <c r="G38" t="s">
+        <v>960</v>
+      </c>
+      <c r="H38" s="46" t="s">
         <v>961</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>962</v>
       </c>
       <c r="I38" s="46"/>
     </row>
@@ -10821,7 +10821,7 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H41" t="s">
         <v>632</v>
@@ -10839,10 +10839,10 @@
         <v>144</v>
       </c>
       <c r="G43" t="s">
+        <v>963</v>
+      </c>
+      <c r="H43" t="s">
         <v>964</v>
-      </c>
-      <c r="H43" t="s">
-        <v>965</v>
       </c>
       <c r="I43" s="46"/>
     </row>
@@ -10851,10 +10851,10 @@
         <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H44" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I44" s="46"/>
     </row>
@@ -10863,10 +10863,10 @@
         <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H45" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I45" s="46"/>
     </row>
@@ -10875,10 +10875,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
+        <v>967</v>
+      </c>
+      <c r="H46" t="s">
         <v>968</v>
-      </c>
-      <c r="H46" t="s">
-        <v>969</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -10906,11 +10906,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10995,10 +10995,10 @@
         <v>144</v>
       </c>
       <c r="G4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H4" t="s">
         <v>1089</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1090</v>
       </c>
       <c r="I4" s="46"/>
     </row>
@@ -11017,7 +11017,7 @@
         <v>240</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J5" s="46"/>
     </row>
@@ -11027,7 +11027,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J6" s="46"/>
     </row>
@@ -11098,10 +11098,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H14" t="s">
         <v>1089</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1090</v>
       </c>
       <c r="I14" s="46"/>
     </row>
@@ -11169,13 +11169,13 @@
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="L18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -11210,10 +11210,10 @@
         <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H22" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I22" s="46"/>
     </row>
@@ -11314,10 +11314,10 @@
         <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -11329,13 +11329,13 @@
         <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G31" t="s">
         <v>294</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
@@ -11345,7 +11345,7 @@
         <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
@@ -11398,7 +11398,7 @@
         <v>71</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I35" s="46" t="s">
         <v>625</v>
@@ -11442,10 +11442,10 @@
         <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H40" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I40" s="46"/>
     </row>
@@ -11492,7 +11492,7 @@
         <v>71</v>
       </c>
       <c r="H43" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I43" s="46"/>
       <c r="J43" s="46"/>
@@ -11518,10 +11518,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -11530,173 +11530,188 @@
         <v>72</v>
       </c>
       <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H47" t="s">
+        <v>640</v>
+      </c>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
         <v>88</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>89</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H48" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="46"/>
       <c r="I48" s="46"/>
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" s="46"/>
       <c r="I49" s="46"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1105</v>
-      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="46"/>
       <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I51" s="46"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>22</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>92</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G52" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="46" t="s">
-        <v>707</v>
-      </c>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="46"/>
+      <c r="H52" s="46" t="s">
+        <v>706</v>
+      </c>
       <c r="I52" s="46"/>
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>708</v>
-      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="43"/>
+      <c r="H53" s="46"/>
       <c r="I53" s="46"/>
       <c r="J53" s="46"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>707</v>
+      </c>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>72</v>
       </c>
-      <c r="F58" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F59" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H59" t="s">
         <v>1115</v>
       </c>
-      <c r="H58" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I58" s="46"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="I59" s="46"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" t="s">
         <v>87</v>
       </c>
-      <c r="C60" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>628</v>
+        <v>87</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>102</v>
       </c>
     </row>
@@ -11784,10 +11799,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -11902,10 +11917,10 @@
         <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I15" s="46"/>
     </row>
@@ -11917,10 +11932,10 @@
         <v>166</v>
       </c>
       <c r="G16" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="H16" s="46" t="s">
         <v>891</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>892</v>
       </c>
       <c r="I16" s="46"/>
     </row>
@@ -11941,10 +11956,10 @@
         <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I19" s="46"/>
     </row>
@@ -11962,7 +11977,7 @@
         <v>137</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I20" s="46"/>
     </row>
@@ -11983,10 +11998,10 @@
         <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H23" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I23" s="46"/>
     </row>
@@ -12025,10 +12040,10 @@
         <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I27" s="46"/>
     </row>
@@ -12043,10 +12058,10 @@
         <v>141</v>
       </c>
       <c r="G28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H28" t="s">
         <v>1118</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1119</v>
       </c>
       <c r="I28" s="46"/>
     </row>
@@ -12067,10 +12082,10 @@
         <v>143</v>
       </c>
       <c r="G30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H30" t="s">
         <v>1120</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1121</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -12097,10 +12112,10 @@
         <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H34" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I34" s="46"/>
     </row>
@@ -12109,7 +12124,7 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H35" t="s">
         <v>145</v>
@@ -12136,10 +12151,10 @@
         <v>320</v>
       </c>
       <c r="E37" t="s">
+        <v>824</v>
+      </c>
+      <c r="F37" t="s">
         <v>825</v>
-      </c>
-      <c r="F37" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -12147,7 +12162,7 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -12213,10 +12228,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H46" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -12225,7 +12240,7 @@
         <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H47" t="s">
         <v>152</v>
@@ -12252,10 +12267,10 @@
         <v>320</v>
       </c>
       <c r="E49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F49" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -12263,7 +12278,7 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -12329,10 +12344,10 @@
         <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H58" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -12341,10 +12356,10 @@
         <v>144</v>
       </c>
       <c r="G59" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H59" t="s">
         <v>1124</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1125</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -12368,10 +12383,10 @@
         <v>320</v>
       </c>
       <c r="E61" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F61" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -12379,7 +12394,7 @@
         <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -12445,10 +12460,10 @@
         <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H70" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I70" s="46"/>
     </row>
@@ -12466,7 +12481,7 @@
         <v>158</v>
       </c>
       <c r="H71" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I71" s="46"/>
     </row>
@@ -12487,10 +12502,10 @@
         <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H74" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I74" s="46"/>
     </row>
@@ -12508,7 +12523,7 @@
         <v>161</v>
       </c>
       <c r="H75" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I75" s="46"/>
     </row>
@@ -12520,13 +12535,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I77" s="46"/>
     </row>
@@ -12542,10 +12557,10 @@
         <v>144</v>
       </c>
       <c r="G79" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H79" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I79" s="46"/>
     </row>
@@ -12555,10 +12570,10 @@
         <v>144</v>
       </c>
       <c r="G80" t="s">
+        <v>870</v>
+      </c>
+      <c r="H80" t="s">
         <v>871</v>
-      </c>
-      <c r="H80" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -12567,16 +12582,16 @@
         <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F81" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G81" t="s">
+        <v>969</v>
+      </c>
+      <c r="H81" t="s">
         <v>970</v>
-      </c>
-      <c r="H81" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -12585,19 +12600,19 @@
         <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F82" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G82" t="s">
+        <v>971</v>
+      </c>
+      <c r="H82" t="s">
         <v>972</v>
       </c>
-      <c r="H82" t="s">
-        <v>973</v>
-      </c>
       <c r="J82" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -12606,10 +12621,10 @@
         <v>320</v>
       </c>
       <c r="E83" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F83" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J83" s="11"/>
     </row>
@@ -12619,7 +12634,7 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G84" s="43"/>
       <c r="J84" s="11"/>
@@ -12630,11 +12645,11 @@
         <v>123</v>
       </c>
       <c r="F85" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G85" s="43"/>
       <c r="I85" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J85" s="11"/>
     </row>
@@ -12658,7 +12673,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -12673,10 +12688,10 @@
         <v>144</v>
       </c>
       <c r="G90" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H90" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I90" s="46"/>
     </row>
@@ -12686,13 +12701,13 @@
         <v>72</v>
       </c>
       <c r="F91" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G91" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H91" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -12719,10 +12734,10 @@
         <v>144</v>
       </c>
       <c r="G95" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H95" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I95" s="46"/>
     </row>
@@ -12735,13 +12750,13 @@
         <v>92</v>
       </c>
       <c r="F96" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G96" t="s">
+        <v>861</v>
+      </c>
+      <c r="H96" t="s">
         <v>862</v>
-      </c>
-      <c r="H96" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -12750,7 +12765,7 @@
         <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -12759,13 +12774,13 @@
         <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G98" t="s">
+        <v>863</v>
+      </c>
+      <c r="H98" t="s">
         <v>864</v>
-      </c>
-      <c r="H98" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -12797,10 +12812,10 @@
         <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H103" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I103" s="46"/>
     </row>
@@ -12818,7 +12833,7 @@
         <v>164</v>
       </c>
       <c r="H104" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I104" s="46"/>
     </row>
@@ -12837,10 +12852,10 @@
         <v>144</v>
       </c>
       <c r="G107" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H107" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -12848,13 +12863,13 @@
         <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G108" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H108" t="s">
         <v>1129</v>
-      </c>
-      <c r="H108" t="s">
-        <v>1130</v>
       </c>
       <c r="I108" s="46"/>
     </row>
@@ -12879,8 +12894,8 @@
   <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12939,7 +12954,7 @@
         <v>251</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -12953,10 +12968,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -12966,10 +12981,10 @@
         <v>144</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -12977,7 +12992,7 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -12985,10 +13000,10 @@
         <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -13002,7 +13017,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -13011,10 +13026,10 @@
         <v>144</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -13029,7 +13044,7 @@
         <v>87</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -13038,10 +13053,10 @@
         <v>144</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -13056,7 +13071,7 @@
         <v>87</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -13065,10 +13080,10 @@
         <v>144</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -13083,7 +13098,7 @@
         <v>87</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -13092,10 +13107,10 @@
         <v>144</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -13110,7 +13125,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -13119,10 +13134,10 @@
         <v>144</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -13137,7 +13152,7 @@
         <v>87</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -13146,10 +13161,10 @@
         <v>144</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -13200,13 +13215,13 @@
         <v>259</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -13218,7 +13233,7 @@
         <v>626</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -13265,7 +13280,7 @@
         <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -13301,10 +13316,10 @@
         <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I39" s="46"/>
     </row>
@@ -13316,13 +13331,13 @@
         <v>252</v>
       </c>
       <c r="F40" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="G40" s="46" t="s">
         <v>893</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="H40" s="46" t="s">
         <v>894</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -13342,10 +13357,10 @@
         <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H43" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I43" s="46"/>
     </row>
@@ -13364,7 +13379,7 @@
         <v>267</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -13421,10 +13436,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H52" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I52" s="46"/>
     </row>
@@ -13443,7 +13458,7 @@
         <v>272</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -13467,16 +13482,16 @@
         <v>274</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K55" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L55" s="46" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -13485,10 +13500,10 @@
         <v>320</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -13497,7 +13512,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -13512,7 +13527,7 @@
         <v>275</v>
       </c>
       <c r="H58" s="46" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -13524,7 +13539,7 @@
         <v>109</v>
       </c>
       <c r="I59" s="65" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -13569,10 +13584,10 @@
         <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H66" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I66" s="46"/>
     </row>
@@ -13591,7 +13606,7 @@
         <v>277</v>
       </c>
       <c r="H67" s="46" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -13615,16 +13630,16 @@
         <v>279</v>
       </c>
       <c r="H69" s="46" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J69" s="46" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="K69" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L69" s="46" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -13633,10 +13648,10 @@
         <v>320</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F70" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -13645,7 +13660,7 @@
         <v>87</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -13660,7 +13675,7 @@
         <v>280</v>
       </c>
       <c r="H72" s="46" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -13672,7 +13687,7 @@
         <v>122</v>
       </c>
       <c r="I73" s="46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -13709,10 +13724,10 @@
         <v>144</v>
       </c>
       <c r="G79" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H79" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I79" s="46"/>
     </row>
@@ -13731,7 +13746,7 @@
         <v>282</v>
       </c>
       <c r="H80" s="46" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -13749,7 +13764,7 @@
         <v>285</v>
       </c>
       <c r="H81" s="46" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -13776,7 +13791,7 @@
         <v>289</v>
       </c>
       <c r="H83" s="46" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -13802,10 +13817,10 @@
         <v>144</v>
       </c>
       <c r="G87" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H87" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I87" s="46"/>
     </row>
@@ -13824,7 +13839,7 @@
         <v>292</v>
       </c>
       <c r="H88" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -13839,10 +13854,10 @@
         <v>290</v>
       </c>
       <c r="G89" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="H89" s="46" t="s">
         <v>849</v>
-      </c>
-      <c r="H89" s="46" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -13870,10 +13885,10 @@
         <v>144</v>
       </c>
       <c r="G93" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H93" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I93" s="46"/>
     </row>
@@ -13889,10 +13904,10 @@
         <v>111</v>
       </c>
       <c r="G94" s="46" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H94" s="46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -13916,7 +13931,7 @@
         <v>298</v>
       </c>
       <c r="H96" s="46" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -13931,16 +13946,16 @@
         <v>296</v>
       </c>
       <c r="H97" s="46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J97" s="46" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="K97" s="46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L97" s="46" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -13949,10 +13964,10 @@
         <v>320</v>
       </c>
       <c r="E98" s="46" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F98" s="48" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -13961,7 +13976,7 @@
         <v>87</v>
       </c>
       <c r="C99" s="46" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -13976,7 +13991,7 @@
         <v>297</v>
       </c>
       <c r="H100" s="46" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -13988,7 +14003,7 @@
         <v>112</v>
       </c>
       <c r="I101" s="46" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -14030,10 +14045,10 @@
         <v>144</v>
       </c>
       <c r="G108" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H108" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I108" s="46"/>
     </row>
@@ -14042,10 +14057,10 @@
         <v>144</v>
       </c>
       <c r="G109" s="46" t="s">
+        <v>899</v>
+      </c>
+      <c r="H109" s="48" t="s">
         <v>900</v>
-      </c>
-      <c r="H109" s="48" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -14062,7 +14077,7 @@
         <v>300</v>
       </c>
       <c r="H110" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -14090,10 +14105,10 @@
         <v>144</v>
       </c>
       <c r="G114" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H114" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I114" s="46"/>
     </row>
@@ -14103,10 +14118,10 @@
         <v>144</v>
       </c>
       <c r="G115" s="46" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H115" s="46" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -14152,10 +14167,10 @@
         <v>144</v>
       </c>
       <c r="G121" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H121" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I121" s="46"/>
     </row>
@@ -14168,19 +14183,19 @@
         <v>304</v>
       </c>
       <c r="G122" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H122" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J122" s="46" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K122" s="46" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L122" s="48" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -14195,7 +14210,7 @@
         <v>87</v>
       </c>
       <c r="C124" s="46" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -14211,10 +14226,10 @@
         <v>144</v>
       </c>
       <c r="G126" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H126" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I126" s="46"/>
     </row>
@@ -14231,10 +14246,10 @@
         <v>306</v>
       </c>
       <c r="G127" s="46" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H127" s="46" t="s">
         <v>1145</v>
-      </c>
-      <c r="H127" s="46" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -14265,10 +14280,10 @@
         <v>144</v>
       </c>
       <c r="G131" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H131" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I131" s="46"/>
     </row>
@@ -14285,7 +14300,7 @@
         <v>309</v>
       </c>
       <c r="H132" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -14301,7 +14316,7 @@
         <v>311</v>
       </c>
       <c r="H133" s="46" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -14329,10 +14344,10 @@
         <v>144</v>
       </c>
       <c r="G137" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H137" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I137" s="46"/>
     </row>
@@ -14352,7 +14367,7 @@
         <v>313</v>
       </c>
       <c r="H138" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -14380,7 +14395,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="46" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -14479,10 +14494,10 @@
         <v>144</v>
       </c>
       <c r="G153" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H153" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I153" s="46"/>
     </row>
@@ -14501,7 +14516,7 @@
         <v>358</v>
       </c>
       <c r="H154" s="46" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -14519,10 +14534,10 @@
         <v>144</v>
       </c>
       <c r="G157" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H157" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14530,13 +14545,13 @@
         <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G158" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H158" t="s">
         <v>1092</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1093</v>
       </c>
       <c r="I158" s="46"/>
     </row>
@@ -14545,7 +14560,7 @@
         <v>87</v>
       </c>
       <c r="C159" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I159" s="46"/>
     </row>
@@ -14554,7 +14569,7 @@
         <v>123</v>
       </c>
       <c r="F160" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I160" s="46">
         <v>1</v>
@@ -14571,7 +14586,7 @@
         <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="163" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15050,7 +15065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F13B89C-DCBD-44C1-B99A-3C3827EBF681}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
@@ -15125,10 +15140,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -15137,10 +15152,10 @@
         <v>144</v>
       </c>
       <c r="G4" s="46" t="s">
+        <v>899</v>
+      </c>
+      <c r="H4" s="48" t="s">
         <v>900</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -15154,10 +15169,10 @@
         <v>318</v>
       </c>
       <c r="G5" t="s">
+        <v>844</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>845</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -15189,10 +15204,10 @@
         <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I9" s="46"/>
     </row>
@@ -15207,10 +15222,10 @@
         <v>322</v>
       </c>
       <c r="G10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>1147</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -15232,10 +15247,10 @@
         <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I13" s="46"/>
     </row>
@@ -15250,10 +15265,10 @@
         <v>323</v>
       </c>
       <c r="G14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H14" s="46" t="s">
         <v>1149</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -15276,16 +15291,16 @@
         <v>326</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K16" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="L16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -15302,7 +15317,7 @@
         <v>328</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -15340,10 +15355,10 @@
         <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H22" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I22" s="46"/>
     </row>
@@ -15358,10 +15373,10 @@
         <v>329</v>
       </c>
       <c r="G23" t="s">
+        <v>846</v>
+      </c>
+      <c r="H23" s="46" t="s">
         <v>847</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -15381,10 +15396,10 @@
         <v>330</v>
       </c>
       <c r="G25" t="s">
+        <v>846</v>
+      </c>
+      <c r="H25" s="46" t="s">
         <v>847</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -15412,10 +15427,10 @@
         <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H29" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I29" s="46"/>
     </row>
@@ -15433,7 +15448,7 @@
         <v>332</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -15455,10 +15470,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H33" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I33" s="46"/>
     </row>
@@ -15476,7 +15491,7 @@
         <v>334</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -15499,7 +15514,7 @@
         <v>337</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15536,10 +15551,10 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H41" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I41" s="46"/>
     </row>
@@ -15557,7 +15572,7 @@
         <v>339</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -15580,7 +15595,7 @@
         <v>342</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -15614,10 +15629,10 @@
         <v>144</v>
       </c>
       <c r="G49" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H49" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I49" s="46"/>
     </row>
@@ -15635,7 +15650,7 @@
         <v>344</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -15658,16 +15673,16 @@
         <v>326</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K52" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="L52" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M52" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -15684,7 +15699,7 @@
         <v>328</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -15722,10 +15737,10 @@
         <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H58" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -15740,10 +15755,10 @@
         <v>348</v>
       </c>
       <c r="G59" t="s">
+        <v>846</v>
+      </c>
+      <c r="H59" s="46" t="s">
         <v>847</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -15763,10 +15778,10 @@
         <v>349</v>
       </c>
       <c r="G61" t="s">
+        <v>846</v>
+      </c>
+      <c r="H61" s="46" t="s">
         <v>847</v>
-      </c>
-      <c r="H61" s="46" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -15794,10 +15809,10 @@
         <v>144</v>
       </c>
       <c r="G65" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H65" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I65" s="46"/>
     </row>
@@ -15815,7 +15830,7 @@
         <v>332</v>
       </c>
       <c r="H66" s="46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15837,10 +15852,10 @@
         <v>144</v>
       </c>
       <c r="G69" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H69" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I69" s="46"/>
     </row>
@@ -15858,7 +15873,7 @@
         <v>334</v>
       </c>
       <c r="H70" s="46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -15881,7 +15896,7 @@
         <v>337</v>
       </c>
       <c r="H72" s="46" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -15918,10 +15933,10 @@
         <v>144</v>
       </c>
       <c r="G77" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H77" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I77" s="46"/>
     </row>
@@ -15939,7 +15954,7 @@
         <v>339</v>
       </c>
       <c r="H78" s="46" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -15962,7 +15977,7 @@
         <v>342</v>
       </c>
       <c r="H80" s="46" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -16029,7 +16044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:L526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G488" sqref="G488"/>
     </sheetView>
@@ -16089,7 +16104,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -16100,10 +16115,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -16112,7 +16127,7 @@
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -16123,19 +16138,19 @@
         <v>359</v>
       </c>
       <c r="G5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="K5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -16183,7 +16198,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -16191,10 +16206,10 @@
         <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -16207,10 +16222,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -16245,13 +16260,13 @@
         <v>359</v>
       </c>
       <c r="J18" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="K18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L18" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -16304,7 +16319,7 @@
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -16315,19 +16330,19 @@
         <v>368</v>
       </c>
       <c r="G26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H26" t="s">
         <v>1174</v>
       </c>
-      <c r="H26" t="s">
-        <v>1175</v>
-      </c>
       <c r="J26" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="K26" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L26" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -16375,7 +16390,7 @@
         <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -16383,10 +16398,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H33" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -16399,10 +16414,10 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H35" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -16437,13 +16452,13 @@
         <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="K39" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L39" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -16496,7 +16511,7 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -16504,7 +16519,7 @@
         <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -16515,7 +16530,7 @@
         <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -16538,7 +16553,7 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -16546,10 +16561,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
+        <v>995</v>
+      </c>
+      <c r="H52" t="s">
         <v>996</v>
-      </c>
-      <c r="H52" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -16557,7 +16572,7 @@
         <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -16575,7 +16590,7 @@
         <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -16583,10 +16598,10 @@
         <v>144</v>
       </c>
       <c r="G56" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H56" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -16594,7 +16609,7 @@
         <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -16608,15 +16623,15 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>979</v>
+      </c>
+      <c r="C59" t="s">
         <v>980</v>
-      </c>
-      <c r="C59" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
@@ -16627,19 +16642,19 @@
         <v>144</v>
       </c>
       <c r="G61" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H61" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I61" s="46"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -16650,19 +16665,19 @@
         <v>374</v>
       </c>
       <c r="G63" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L63" t="s">
         <v>1185</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1320</v>
-      </c>
-      <c r="K63" t="s">
-        <v>1187</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -16710,7 +16725,7 @@
         <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -16718,10 +16733,10 @@
         <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H70" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -16734,10 +16749,10 @@
         <v>144</v>
       </c>
       <c r="G72" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H72" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -16772,13 +16787,13 @@
         <v>374</v>
       </c>
       <c r="J76" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K76" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L76" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -16831,7 +16846,7 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -16842,19 +16857,19 @@
         <v>379</v>
       </c>
       <c r="G84" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H84" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J84" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K84" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L84" t="s">
         <v>1195</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
@@ -16926,7 +16941,7 @@
         <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -16934,10 +16949,10 @@
         <v>144</v>
       </c>
       <c r="G94" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H94" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -16950,10 +16965,10 @@
         <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H96" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
@@ -16988,13 +17003,13 @@
         <v>379</v>
       </c>
       <c r="J100" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K100" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L100" t="s">
         <v>1195</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -17047,7 +17062,7 @@
         <v>87</v>
       </c>
       <c r="C107" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
@@ -17058,19 +17073,19 @@
         <v>383</v>
       </c>
       <c r="G108" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H108" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J108" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K108" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L108" t="s">
         <v>1200</v>
-      </c>
-      <c r="L108" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
@@ -17142,7 +17157,7 @@
         <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
@@ -17150,10 +17165,10 @@
         <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H118" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
@@ -17166,10 +17181,10 @@
         <v>144</v>
       </c>
       <c r="G120" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H120" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
@@ -17204,13 +17219,13 @@
         <v>383</v>
       </c>
       <c r="J124" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K124" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L124" t="s">
         <v>1200</v>
-      </c>
-      <c r="L124" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
@@ -17263,7 +17278,7 @@
         <v>87</v>
       </c>
       <c r="C131" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
@@ -17274,19 +17289,19 @@
         <v>387</v>
       </c>
       <c r="G132" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H132" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J132" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K132" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L132" t="s">
         <v>1205</v>
-      </c>
-      <c r="L132" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
@@ -17358,7 +17373,7 @@
         <v>87</v>
       </c>
       <c r="C141" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
@@ -17366,10 +17381,10 @@
         <v>144</v>
       </c>
       <c r="G142" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H142" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
@@ -17382,10 +17397,10 @@
         <v>144</v>
       </c>
       <c r="G144" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H144" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
@@ -17420,13 +17435,13 @@
         <v>387</v>
       </c>
       <c r="J148" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K148" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L148" t="s">
         <v>1205</v>
-      </c>
-      <c r="L148" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
@@ -17479,7 +17494,7 @@
         <v>87</v>
       </c>
       <c r="C155" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
@@ -17487,7 +17502,7 @@
         <v>123</v>
       </c>
       <c r="F156" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -17498,7 +17513,7 @@
         <v>123</v>
       </c>
       <c r="F157" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -17509,7 +17524,7 @@
         <v>123</v>
       </c>
       <c r="F158" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -17520,7 +17535,7 @@
         <v>123</v>
       </c>
       <c r="F159" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -17543,7 +17558,7 @@
         <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -17551,10 +17566,10 @@
         <v>144</v>
       </c>
       <c r="G163" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H163" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -17562,7 +17577,7 @@
         <v>123</v>
       </c>
       <c r="F164" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -17580,7 +17595,7 @@
         <v>87</v>
       </c>
       <c r="C166" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -17588,10 +17603,10 @@
         <v>144</v>
       </c>
       <c r="G167" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H167" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -17599,7 +17614,7 @@
         <v>123</v>
       </c>
       <c r="F168" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -17617,7 +17632,7 @@
         <v>87</v>
       </c>
       <c r="C170" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -17625,10 +17640,10 @@
         <v>144</v>
       </c>
       <c r="G171" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H171" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -17636,7 +17651,7 @@
         <v>123</v>
       </c>
       <c r="F172" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -17654,7 +17669,7 @@
         <v>87</v>
       </c>
       <c r="C174" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -17662,10 +17677,10 @@
         <v>144</v>
       </c>
       <c r="G175" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H175" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -17673,7 +17688,7 @@
         <v>123</v>
       </c>
       <c r="F176" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -17687,15 +17702,15 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C178" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B179" t="s">
         <v>46</v>
@@ -17706,10 +17721,10 @@
         <v>144</v>
       </c>
       <c r="G180" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H180" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I180" s="46"/>
     </row>
@@ -17718,7 +17733,7 @@
         <v>87</v>
       </c>
       <c r="C181" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -17729,19 +17744,19 @@
         <v>391</v>
       </c>
       <c r="G182" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H182" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J182" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K182" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L182" t="s">
         <v>1207</v>
-      </c>
-      <c r="L182" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -17789,7 +17804,7 @@
         <v>87</v>
       </c>
       <c r="C188" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -17797,10 +17812,10 @@
         <v>144</v>
       </c>
       <c r="G189" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H189" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -17813,10 +17828,10 @@
         <v>144</v>
       </c>
       <c r="G191" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H191" t="s">
         <v>1217</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -17851,13 +17866,13 @@
         <v>391</v>
       </c>
       <c r="J195" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K195" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L195" t="s">
         <v>1207</v>
-      </c>
-      <c r="L195" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.25">
@@ -17910,7 +17925,7 @@
         <v>87</v>
       </c>
       <c r="C202" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.25">
@@ -17921,19 +17936,19 @@
         <v>396</v>
       </c>
       <c r="G203" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H203" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J203" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K203" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L203" t="s">
         <v>1209</v>
-      </c>
-      <c r="L203" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.25">
@@ -18005,7 +18020,7 @@
         <v>87</v>
       </c>
       <c r="C212" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.25">
@@ -18013,10 +18028,10 @@
         <v>144</v>
       </c>
       <c r="G213" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H213" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.25">
@@ -18029,10 +18044,10 @@
         <v>144</v>
       </c>
       <c r="G215" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H215" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.25">
@@ -18067,13 +18082,13 @@
         <v>396</v>
       </c>
       <c r="J219" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K219" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L219" t="s">
         <v>1209</v>
-      </c>
-      <c r="L219" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.25">
@@ -18126,7 +18141,7 @@
         <v>87</v>
       </c>
       <c r="C226" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="227" spans="2:12" x14ac:dyDescent="0.25">
@@ -18137,19 +18152,19 @@
         <v>400</v>
       </c>
       <c r="G227" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H227" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J227" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K227" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L227" t="s">
         <v>1211</v>
-      </c>
-      <c r="L227" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.25">
@@ -18221,7 +18236,7 @@
         <v>87</v>
       </c>
       <c r="C236" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.25">
@@ -18229,10 +18244,10 @@
         <v>144</v>
       </c>
       <c r="G237" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H237" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.25">
@@ -18245,10 +18260,10 @@
         <v>144</v>
       </c>
       <c r="G239" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H239" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.25">
@@ -18283,13 +18298,13 @@
         <v>400</v>
       </c>
       <c r="J243" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K243" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L243" t="s">
         <v>1211</v>
-      </c>
-      <c r="L243" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="244" spans="2:12" x14ac:dyDescent="0.25">
@@ -18342,7 +18357,7 @@
         <v>87</v>
       </c>
       <c r="C250" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="251" spans="2:12" x14ac:dyDescent="0.25">
@@ -18353,19 +18368,19 @@
         <v>404</v>
       </c>
       <c r="G251" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H251" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J251" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K251" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L251" t="s">
         <v>1213</v>
-      </c>
-      <c r="L251" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="252" spans="2:12" x14ac:dyDescent="0.25">
@@ -18437,7 +18452,7 @@
         <v>87</v>
       </c>
       <c r="C260" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="261" spans="2:12" x14ac:dyDescent="0.25">
@@ -18445,10 +18460,10 @@
         <v>144</v>
       </c>
       <c r="G261" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H261" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="262" spans="2:12" x14ac:dyDescent="0.25">
@@ -18461,10 +18476,10 @@
         <v>144</v>
       </c>
       <c r="G263" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H263" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="264" spans="2:12" x14ac:dyDescent="0.25">
@@ -18499,13 +18514,13 @@
         <v>404</v>
       </c>
       <c r="J267" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K267" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L267" t="s">
         <v>1213</v>
-      </c>
-      <c r="L267" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="268" spans="2:12" x14ac:dyDescent="0.25">
@@ -18558,7 +18573,7 @@
         <v>87</v>
       </c>
       <c r="C274" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -18566,7 +18581,7 @@
         <v>123</v>
       </c>
       <c r="F275" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I275">
         <v>2</v>
@@ -18577,7 +18592,7 @@
         <v>123</v>
       </c>
       <c r="F276" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -18588,7 +18603,7 @@
         <v>123</v>
       </c>
       <c r="F277" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -18599,7 +18614,7 @@
         <v>123</v>
       </c>
       <c r="F278" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -18622,7 +18637,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -18630,10 +18645,10 @@
         <v>144</v>
       </c>
       <c r="G282" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H282" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -18641,7 +18656,7 @@
         <v>123</v>
       </c>
       <c r="F283" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -18659,7 +18674,7 @@
         <v>87</v>
       </c>
       <c r="C285" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -18667,10 +18682,10 @@
         <v>144</v>
       </c>
       <c r="G286" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H286" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -18678,7 +18693,7 @@
         <v>123</v>
       </c>
       <c r="F287" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -18696,7 +18711,7 @@
         <v>87</v>
       </c>
       <c r="C289" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -18704,10 +18719,10 @@
         <v>144</v>
       </c>
       <c r="G290" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H290" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -18715,7 +18730,7 @@
         <v>123</v>
       </c>
       <c r="F291" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -18733,7 +18748,7 @@
         <v>87</v>
       </c>
       <c r="C293" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -18741,10 +18756,10 @@
         <v>144</v>
       </c>
       <c r="G294" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H294" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -18752,7 +18767,7 @@
         <v>123</v>
       </c>
       <c r="F295" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -18770,7 +18785,7 @@
         <v>87</v>
       </c>
       <c r="C297" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -18778,10 +18793,10 @@
         <v>144</v>
       </c>
       <c r="G298" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H298" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -18789,7 +18804,7 @@
         <v>123</v>
       </c>
       <c r="F299" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -18807,7 +18822,7 @@
         <v>87</v>
       </c>
       <c r="C301" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -18815,10 +18830,10 @@
         <v>144</v>
       </c>
       <c r="G302" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H302" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -18826,7 +18841,7 @@
         <v>123</v>
       </c>
       <c r="F303" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -18844,7 +18859,7 @@
         <v>87</v>
       </c>
       <c r="C305" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -18852,10 +18867,10 @@
         <v>144</v>
       </c>
       <c r="G306" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H306" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -18863,7 +18878,7 @@
         <v>123</v>
       </c>
       <c r="F307" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -18881,7 +18896,7 @@
         <v>87</v>
       </c>
       <c r="C309" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -18889,10 +18904,10 @@
         <v>144</v>
       </c>
       <c r="G310" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H310" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -18900,7 +18915,7 @@
         <v>123</v>
       </c>
       <c r="F311" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I311">
         <v>1</v>
@@ -18914,15 +18929,15 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C313" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B314" t="s">
         <v>46</v>
@@ -18933,10 +18948,10 @@
         <v>144</v>
       </c>
       <c r="G315" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H315" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I315" s="46"/>
     </row>
@@ -18945,7 +18960,7 @@
         <v>87</v>
       </c>
       <c r="C316" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -18956,19 +18971,19 @@
         <v>408</v>
       </c>
       <c r="G317" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H317" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J317" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K317" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L317" t="s">
         <v>1238</v>
-      </c>
-      <c r="L317" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -19016,7 +19031,7 @@
         <v>87</v>
       </c>
       <c r="C323" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="324" spans="2:12" x14ac:dyDescent="0.25">
@@ -19024,10 +19039,10 @@
         <v>144</v>
       </c>
       <c r="G324" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H324" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="325" spans="2:12" x14ac:dyDescent="0.25">
@@ -19040,10 +19055,10 @@
         <v>144</v>
       </c>
       <c r="G326" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H326" t="s">
         <v>1230</v>
-      </c>
-      <c r="H326" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="327" spans="2:12" x14ac:dyDescent="0.25">
@@ -19078,13 +19093,13 @@
         <v>408</v>
       </c>
       <c r="J330" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K330" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L330" t="s">
         <v>1238</v>
-      </c>
-      <c r="L330" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="331" spans="2:12" x14ac:dyDescent="0.25">
@@ -19137,7 +19152,7 @@
         <v>87</v>
       </c>
       <c r="C337" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="338" spans="2:12" x14ac:dyDescent="0.25">
@@ -19148,19 +19163,19 @@
         <v>413</v>
       </c>
       <c r="G338" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H338" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J338" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="K338" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L338" t="s">
         <v>1240</v>
-      </c>
-      <c r="L338" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="339" spans="2:12" x14ac:dyDescent="0.25">
@@ -19232,7 +19247,7 @@
         <v>87</v>
       </c>
       <c r="C347" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="348" spans="2:12" x14ac:dyDescent="0.25">
@@ -19240,10 +19255,10 @@
         <v>144</v>
       </c>
       <c r="G348" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H348" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="349" spans="2:12" x14ac:dyDescent="0.25">
@@ -19256,10 +19271,10 @@
         <v>144</v>
       </c>
       <c r="G350" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H350" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="351" spans="2:12" x14ac:dyDescent="0.25">
@@ -19294,13 +19309,13 @@
         <v>413</v>
       </c>
       <c r="J354" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="K354" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L354" t="s">
         <v>1240</v>
-      </c>
-      <c r="L354" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="355" spans="2:12" x14ac:dyDescent="0.25">
@@ -19353,7 +19368,7 @@
         <v>87</v>
       </c>
       <c r="C361" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="362" spans="2:12" x14ac:dyDescent="0.25">
@@ -19364,19 +19379,19 @@
         <v>417</v>
       </c>
       <c r="G362" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H362" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J362" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K362" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L362" t="s">
         <v>1242</v>
-      </c>
-      <c r="L362" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="363" spans="2:12" x14ac:dyDescent="0.25">
@@ -19448,7 +19463,7 @@
         <v>87</v>
       </c>
       <c r="C371" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="372" spans="2:12" x14ac:dyDescent="0.25">
@@ -19456,10 +19471,10 @@
         <v>144</v>
       </c>
       <c r="G372" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H372" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="373" spans="2:12" x14ac:dyDescent="0.25">
@@ -19472,10 +19487,10 @@
         <v>144</v>
       </c>
       <c r="G374" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H374" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="375" spans="2:12" x14ac:dyDescent="0.25">
@@ -19510,13 +19525,13 @@
         <v>417</v>
       </c>
       <c r="J378" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K378" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="L378" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="379" spans="2:12" x14ac:dyDescent="0.25">
@@ -19569,7 +19584,7 @@
         <v>87</v>
       </c>
       <c r="C385" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="386" spans="2:12" x14ac:dyDescent="0.25">
@@ -19586,13 +19601,13 @@
         <v>421</v>
       </c>
       <c r="J386" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K386" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L386" t="s">
         <v>1167</v>
-      </c>
-      <c r="L386" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="387" spans="2:12" x14ac:dyDescent="0.25">
@@ -19664,7 +19679,7 @@
         <v>87</v>
       </c>
       <c r="C395" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="396" spans="2:12" x14ac:dyDescent="0.25">
@@ -19672,10 +19687,10 @@
         <v>144</v>
       </c>
       <c r="G396" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H396" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="397" spans="2:12" x14ac:dyDescent="0.25">
@@ -19688,10 +19703,10 @@
         <v>144</v>
       </c>
       <c r="G398" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H398" t="s">
         <v>1245</v>
-      </c>
-      <c r="H398" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="399" spans="2:12" x14ac:dyDescent="0.25">
@@ -19726,13 +19741,13 @@
         <v>421</v>
       </c>
       <c r="J402" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K402" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L402" t="s">
         <v>1167</v>
-      </c>
-      <c r="L402" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
@@ -19785,7 +19800,7 @@
         <v>87</v>
       </c>
       <c r="C409" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
@@ -19793,7 +19808,7 @@
         <v>123</v>
       </c>
       <c r="F410" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -19804,7 +19819,7 @@
         <v>123</v>
       </c>
       <c r="F411" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I411">
         <v>2</v>
@@ -19815,7 +19830,7 @@
         <v>123</v>
       </c>
       <c r="F412" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I412">
         <v>2</v>
@@ -19826,7 +19841,7 @@
         <v>123</v>
       </c>
       <c r="F413" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -19849,7 +19864,7 @@
         <v>87</v>
       </c>
       <c r="C416" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -19857,10 +19872,10 @@
         <v>144</v>
       </c>
       <c r="G417" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H417" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -19868,7 +19883,7 @@
         <v>123</v>
       </c>
       <c r="F418" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I418">
         <v>1</v>
@@ -19886,7 +19901,7 @@
         <v>87</v>
       </c>
       <c r="C420" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -19894,10 +19909,10 @@
         <v>144</v>
       </c>
       <c r="G421" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H421" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -19905,7 +19920,7 @@
         <v>123</v>
       </c>
       <c r="F422" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I422">
         <v>1</v>
@@ -19923,7 +19938,7 @@
         <v>87</v>
       </c>
       <c r="C424" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -19931,10 +19946,10 @@
         <v>144</v>
       </c>
       <c r="G425" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H425" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -19942,7 +19957,7 @@
         <v>123</v>
       </c>
       <c r="F426" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I426">
         <v>1</v>
@@ -19960,7 +19975,7 @@
         <v>87</v>
       </c>
       <c r="C428" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -19968,10 +19983,10 @@
         <v>144</v>
       </c>
       <c r="G429" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H429" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -19979,7 +19994,7 @@
         <v>123</v>
       </c>
       <c r="F430" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I430">
         <v>1</v>
@@ -19997,7 +20012,7 @@
         <v>87</v>
       </c>
       <c r="C432" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -20005,10 +20020,10 @@
         <v>144</v>
       </c>
       <c r="G433" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H433" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -20016,7 +20031,7 @@
         <v>123</v>
       </c>
       <c r="F434" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I434">
         <v>1</v>
@@ -20034,7 +20049,7 @@
         <v>87</v>
       </c>
       <c r="C436" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -20042,10 +20057,10 @@
         <v>144</v>
       </c>
       <c r="G437" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H437" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -20053,7 +20068,7 @@
         <v>123</v>
       </c>
       <c r="F438" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I438">
         <v>1</v>
@@ -20071,7 +20086,7 @@
         <v>87</v>
       </c>
       <c r="C440" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -20079,10 +20094,10 @@
         <v>144</v>
       </c>
       <c r="G441" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H441" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -20090,7 +20105,7 @@
         <v>123</v>
       </c>
       <c r="F442" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I442">
         <v>1</v>
@@ -20108,7 +20123,7 @@
         <v>87</v>
       </c>
       <c r="C444" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -20116,10 +20131,10 @@
         <v>144</v>
       </c>
       <c r="G445" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H445" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -20127,7 +20142,7 @@
         <v>123</v>
       </c>
       <c r="F446" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I446">
         <v>1</v>
@@ -20145,7 +20160,7 @@
         <v>87</v>
       </c>
       <c r="C448" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
@@ -20153,10 +20168,10 @@
         <v>144</v>
       </c>
       <c r="G449" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H449" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
@@ -20164,7 +20179,7 @@
         <v>123</v>
       </c>
       <c r="F450" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I450">
         <v>1</v>
@@ -20182,7 +20197,7 @@
         <v>87</v>
       </c>
       <c r="C452" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
@@ -20190,10 +20205,10 @@
         <v>144</v>
       </c>
       <c r="G453" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H453" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
@@ -20201,7 +20216,7 @@
         <v>123</v>
       </c>
       <c r="F454" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I454">
         <v>1</v>
@@ -20215,15 +20230,15 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C456" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B457" t="s">
         <v>46</v>
@@ -20234,10 +20249,10 @@
         <v>144</v>
       </c>
       <c r="G458" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H458" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I458" s="46"/>
     </row>
@@ -20246,7 +20261,7 @@
         <v>87</v>
       </c>
       <c r="C459" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
@@ -20257,19 +20272,19 @@
         <v>425</v>
       </c>
       <c r="G460" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H460" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J460" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="K460" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L460" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
@@ -20317,7 +20332,7 @@
         <v>87</v>
       </c>
       <c r="C466" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="467" spans="2:12" x14ac:dyDescent="0.25">
@@ -20325,10 +20340,10 @@
         <v>144</v>
       </c>
       <c r="G467" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H467" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="468" spans="2:12" x14ac:dyDescent="0.25">
@@ -20341,10 +20356,10 @@
         <v>144</v>
       </c>
       <c r="G469" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H469" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="470" spans="2:12" x14ac:dyDescent="0.25">
@@ -20379,13 +20394,13 @@
         <v>425</v>
       </c>
       <c r="J473" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="K473" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L473" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="474" spans="2:12" x14ac:dyDescent="0.25">
@@ -20438,7 +20453,7 @@
         <v>87</v>
       </c>
       <c r="C480" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="481" spans="2:12" x14ac:dyDescent="0.25">
@@ -20449,19 +20464,19 @@
         <v>430</v>
       </c>
       <c r="G481" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H481" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J481" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K481" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L481" t="s">
         <v>1259</v>
-      </c>
-      <c r="J481" t="s">
-        <v>1334</v>
-      </c>
-      <c r="K481" t="s">
-        <v>1258</v>
-      </c>
-      <c r="L481" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="482" spans="2:12" x14ac:dyDescent="0.25">
@@ -20509,7 +20524,7 @@
         <v>87</v>
       </c>
       <c r="C487" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="488" spans="2:12" x14ac:dyDescent="0.25">
@@ -20517,10 +20532,10 @@
         <v>144</v>
       </c>
       <c r="G488" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H488" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="489" spans="2:12" x14ac:dyDescent="0.25">
@@ -20533,10 +20548,10 @@
         <v>144</v>
       </c>
       <c r="G490" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H490" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="491" spans="2:12" x14ac:dyDescent="0.25">
@@ -20571,13 +20586,13 @@
         <v>430</v>
       </c>
       <c r="J494" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="K494" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L494" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="495" spans="2:12" x14ac:dyDescent="0.25">
@@ -20630,7 +20645,7 @@
         <v>87</v>
       </c>
       <c r="C501" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -20638,7 +20653,7 @@
         <v>123</v>
       </c>
       <c r="F502" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -20649,7 +20664,7 @@
         <v>123</v>
       </c>
       <c r="F503" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -20672,7 +20687,7 @@
         <v>87</v>
       </c>
       <c r="C506" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -20680,10 +20695,10 @@
         <v>144</v>
       </c>
       <c r="G507" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H507" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
@@ -20691,7 +20706,7 @@
         <v>123</v>
       </c>
       <c r="F508" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I508">
         <v>1</v>
@@ -20709,7 +20724,7 @@
         <v>87</v>
       </c>
       <c r="C510" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -20717,10 +20732,10 @@
         <v>144</v>
       </c>
       <c r="G511" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H511" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -20728,7 +20743,7 @@
         <v>123</v>
       </c>
       <c r="F512" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -20746,7 +20761,7 @@
         <v>87</v>
       </c>
       <c r="C514" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D514" s="43"/>
       <c r="E514" s="43"/>
@@ -20758,10 +20773,10 @@
         <v>144</v>
       </c>
       <c r="G515" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H515" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
@@ -20769,7 +20784,7 @@
         <v>123</v>
       </c>
       <c r="F516" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I516">
         <v>1</v>
@@ -20787,7 +20802,7 @@
         <v>87</v>
       </c>
       <c r="C518" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
@@ -20795,10 +20810,10 @@
         <v>144</v>
       </c>
       <c r="G519" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H519" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -20806,7 +20821,7 @@
         <v>123</v>
       </c>
       <c r="F520" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I520">
         <v>1</v>
@@ -20820,10 +20835,10 @@
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
+        <v>989</v>
+      </c>
+      <c r="C522" t="s">
         <v>990</v>
-      </c>
-      <c r="C522" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
@@ -20836,10 +20851,10 @@
         <v>144</v>
       </c>
       <c r="G524" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H524" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -20847,13 +20862,13 @@
         <v>72</v>
       </c>
       <c r="F525" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G525" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H525" t="s">
         <v>1151</v>
-      </c>
-      <c r="H525" t="s">
-        <v>1152</v>
       </c>
       <c r="I525" s="46"/>
     </row>
@@ -20872,9 +20887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927217AB-3221-4BCE-814E-DC154DD72CEF}">
   <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20942,10 +20957,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -20971,7 +20986,7 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H5" s="46"/>
     </row>
@@ -21024,10 +21039,10 @@
         <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I11" s="46"/>
     </row>
@@ -21039,13 +21054,13 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G12" t="s">
         <v>360</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -21073,13 +21088,13 @@
         <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G14" t="s">
         <v>369</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -21093,7 +21108,7 @@
         <v>443</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -21115,10 +21130,10 @@
         <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I18" s="46"/>
     </row>
@@ -21130,13 +21145,13 @@
         <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G19" t="s">
         <v>444</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -21150,7 +21165,7 @@
         <v>446</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -21161,13 +21176,13 @@
         <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G21" t="s">
         <v>447</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -21178,13 +21193,13 @@
         <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G22" t="s">
         <v>448</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -21198,7 +21213,7 @@
         <v>450</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -21228,10 +21243,10 @@
         <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H27" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I27" s="46"/>
     </row>
@@ -21246,7 +21261,7 @@
         <v>452</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -21260,16 +21275,16 @@
         <v>454</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J29" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L29" t="s">
         <v>1169</v>
-      </c>
-      <c r="L29" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -21291,10 +21306,10 @@
         <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H32" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I32" s="46"/>
     </row>
@@ -21309,7 +21324,7 @@
         <v>452</v>
       </c>
       <c r="H33" s="46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -21323,16 +21338,16 @@
         <v>454</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J34" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K34" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L34" t="s">
         <v>1169</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -21354,10 +21369,10 @@
         <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H37" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I37" s="46"/>
     </row>
@@ -21375,7 +21390,7 @@
         <v>458</v>
       </c>
       <c r="H38" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -21397,10 +21412,10 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H41" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I41" s="46"/>
     </row>
@@ -21418,7 +21433,7 @@
         <v>460</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -21444,7 +21459,7 @@
         <v>463</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -21472,10 +21487,10 @@
         <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H48" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I48" s="46"/>
     </row>
@@ -21493,7 +21508,7 @@
         <v>465</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -21515,10 +21530,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H52" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I52" s="46"/>
     </row>
@@ -21536,7 +21551,7 @@
         <v>467</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -21559,7 +21574,7 @@
         <v>470</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -21587,10 +21602,10 @@
         <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H59" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -21608,7 +21623,7 @@
         <v>472</v>
       </c>
       <c r="H60" s="46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -21634,7 +21649,7 @@
         <v>475</v>
       </c>
       <c r="H63" s="46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -21662,10 +21677,10 @@
         <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H67" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I67" s="46"/>
     </row>
@@ -21706,7 +21721,7 @@
         <v>481</v>
       </c>
       <c r="H70" s="46" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -21734,10 +21749,10 @@
         <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H74" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I74" s="46"/>
     </row>
@@ -21778,7 +21793,7 @@
         <v>487</v>
       </c>
       <c r="H77" s="46" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -21792,7 +21807,7 @@
         <v>489</v>
       </c>
       <c r="H78" s="46" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -21820,10 +21835,10 @@
         <v>144</v>
       </c>
       <c r="G82" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H82" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I82" s="46"/>
     </row>
@@ -21841,7 +21856,7 @@
         <v>491</v>
       </c>
       <c r="H83" s="46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -21864,7 +21879,7 @@
         <v>494</v>
       </c>
       <c r="H85" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -21892,10 +21907,10 @@
         <v>144</v>
       </c>
       <c r="G89" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H89" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I89" s="46"/>
     </row>
@@ -21913,7 +21928,7 @@
         <v>496</v>
       </c>
       <c r="H90" s="46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -21936,7 +21951,7 @@
         <v>499</v>
       </c>
       <c r="H92" s="46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -21964,10 +21979,10 @@
         <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H96" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I96" s="46"/>
     </row>
@@ -21985,7 +22000,7 @@
         <v>501</v>
       </c>
       <c r="H97" s="46" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -22008,7 +22023,7 @@
         <v>504</v>
       </c>
       <c r="H99" s="46" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -22036,10 +22051,10 @@
         <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H103" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I103" s="46"/>
     </row>
@@ -22057,7 +22072,7 @@
         <v>506</v>
       </c>
       <c r="H104" s="46" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -22080,7 +22095,7 @@
         <v>509</v>
       </c>
       <c r="H106" s="46" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -22108,10 +22123,10 @@
         <v>144</v>
       </c>
       <c r="G110" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H110" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I110" s="46"/>
     </row>
@@ -22152,7 +22167,7 @@
         <v>515</v>
       </c>
       <c r="H113" s="46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -22189,10 +22204,10 @@
         <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H118" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I118" s="46"/>
     </row>
@@ -22201,7 +22216,7 @@
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F119" t="s">
         <v>516</v>
@@ -22210,7 +22225,7 @@
         <v>517</v>
       </c>
       <c r="H119" s="46" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -22218,7 +22233,7 @@
         <v>87</v>
       </c>
       <c r="C120" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H120" s="46"/>
     </row>
@@ -22233,7 +22248,7 @@
         <v>519</v>
       </c>
       <c r="H121" s="46" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -22267,10 +22282,10 @@
         <v>144</v>
       </c>
       <c r="G126" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H126" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I126" s="46"/>
     </row>
@@ -22285,7 +22300,7 @@
         <v>521</v>
       </c>
       <c r="H127" s="46" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -22299,7 +22314,7 @@
         <v>521</v>
       </c>
       <c r="H128" s="46" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -22321,10 +22336,10 @@
         <v>144</v>
       </c>
       <c r="G131" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H131" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I131" s="46"/>
     </row>
@@ -22342,7 +22357,7 @@
         <v>524</v>
       </c>
       <c r="H132" s="46" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -22373,10 +22388,10 @@
         <v>144</v>
       </c>
       <c r="G136" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H136" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I136" s="46"/>
     </row>
@@ -22396,7 +22411,7 @@
         <v>527</v>
       </c>
       <c r="H137" s="46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -22435,10 +22450,10 @@
         <v>144</v>
       </c>
       <c r="G142" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H142" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I142" s="46"/>
     </row>
@@ -22453,7 +22468,7 @@
         <v>530</v>
       </c>
       <c r="H143" s="46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -22479,7 +22494,7 @@
         <v>533</v>
       </c>
       <c r="H145" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -22507,10 +22522,10 @@
         <v>144</v>
       </c>
       <c r="G149" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H149" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I149" s="46"/>
     </row>
@@ -22525,7 +22540,7 @@
         <v>535</v>
       </c>
       <c r="H150" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -22542,7 +22557,7 @@
         <v>537</v>
       </c>
       <c r="H151" s="46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -22564,10 +22579,10 @@
         <v>144</v>
       </c>
       <c r="G154" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H154" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I154" s="46"/>
     </row>
@@ -22585,7 +22600,7 @@
         <v>539</v>
       </c>
       <c r="H155" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -22602,7 +22617,7 @@
         <v>541</v>
       </c>
       <c r="H156" s="46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -22630,10 +22645,10 @@
         <v>144</v>
       </c>
       <c r="G160" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H160" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I160" s="46"/>
     </row>
@@ -22651,7 +22666,7 @@
         <v>543</v>
       </c>
       <c r="H161" s="46" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -22674,7 +22689,7 @@
         <v>546</v>
       </c>
       <c r="H163" s="46" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -22702,10 +22717,10 @@
         <v>144</v>
       </c>
       <c r="G167" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H167" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I167" s="46"/>
     </row>
@@ -22723,7 +22738,7 @@
         <v>548</v>
       </c>
       <c r="H168" s="46" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -22746,7 +22761,7 @@
         <v>551</v>
       </c>
       <c r="H170" s="46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -22760,7 +22775,7 @@
         <v>553</v>
       </c>
       <c r="H171" s="46" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -22784,10 +22799,10 @@
         <v>144</v>
       </c>
       <c r="G175" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H175" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -22795,13 +22810,13 @@
         <v>72</v>
       </c>
       <c r="F176" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G176" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H176" t="s">
         <v>1154</v>
-      </c>
-      <c r="H176" t="s">
-        <v>1155</v>
       </c>
       <c r="I176" s="46"/>
     </row>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215273DF-D53D-4C5D-8B76-A7D1325E3DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C67887-2DA5-4FBC-B47F-425B671530A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2588,9 +2588,6 @@
     <t>Ill since last visit?</t>
   </si>
   <si>
-    <t>Ill desde a última visita?</t>
-  </si>
-  <si>
     <t>Where was consultation sought?</t>
   </si>
   <si>
@@ -4208,6 +4205,9 @@
   </si>
   <si>
     <t>Mother's name</t>
+  </si>
+  <si>
+    <t>Doente desde a última visita?</t>
   </si>
 </sst>
 </file>
@@ -5035,154 +5035,154 @@
     </row>
     <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>897</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>901</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>936</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>904</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>906</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>908</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5190,7 +5190,7 @@
         <v>677</v>
       </c>
       <c r="B21" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
         <v>678</v>
       </c>
       <c r="B22" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
         <v>679</v>
       </c>
       <c r="B23" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,7 +5214,7 @@
         <v>680</v>
       </c>
       <c r="B24" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5222,7 +5222,7 @@
         <v>681</v>
       </c>
       <c r="B25" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5230,7 +5230,7 @@
         <v>682</v>
       </c>
       <c r="B26" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
         <v>683</v>
       </c>
       <c r="B27" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
         <v>684</v>
       </c>
       <c r="B28" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
         <v>685</v>
       </c>
       <c r="B29" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5262,7 +5262,7 @@
         <v>686</v>
       </c>
       <c r="B30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5270,7 +5270,7 @@
         <v>687</v>
       </c>
       <c r="B31" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
         <v>688</v>
       </c>
       <c r="B32" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
         <v>689</v>
       </c>
       <c r="B33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5294,7 +5294,7 @@
         <v>690</v>
       </c>
       <c r="B34" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5302,7 +5302,7 @@
         <v>691</v>
       </c>
       <c r="B35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5310,7 +5310,7 @@
         <v>692</v>
       </c>
       <c r="B36" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
         <v>694</v>
       </c>
       <c r="B37" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
         <v>695</v>
       </c>
       <c r="B38" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5334,7 +5334,7 @@
         <v>696</v>
       </c>
       <c r="B39" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>697</v>
       </c>
       <c r="B40" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>698</v>
       </c>
       <c r="B41" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
         <v>699</v>
       </c>
       <c r="B42" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -5366,7 +5366,7 @@
         <v>700</v>
       </c>
       <c r="B43" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5374,7 +5374,7 @@
         <v>701</v>
       </c>
       <c r="B44" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -5382,7 +5382,7 @@
         <v>702</v>
       </c>
       <c r="B45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5390,15 +5390,15 @@
         <v>703</v>
       </c>
       <c r="B46" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B47" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5406,7 +5406,7 @@
         <v>794</v>
       </c>
       <c r="B48" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5414,7 +5414,7 @@
         <v>795</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
         <v>796</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -5430,7 +5430,7 @@
         <v>797</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
         <v>798</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -5446,7 +5446,7 @@
         <v>799</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -5454,7 +5454,7 @@
         <v>800</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
         <v>801</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5470,7 +5470,7 @@
         <v>802</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5478,7 +5478,7 @@
         <v>803</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -5486,7 +5486,7 @@
         <v>804</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5494,7 +5494,7 @@
         <v>805</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -5502,7 +5502,7 @@
         <v>806</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5510,7 +5510,7 @@
         <v>807</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5518,7 +5518,7 @@
         <v>808</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -5526,7 +5526,7 @@
         <v>809</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -5534,7 +5534,7 @@
         <v>810</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
         <v>811</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -5550,7 +5550,7 @@
         <v>812</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -5558,7 +5558,7 @@
         <v>813</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -5566,7 +5566,7 @@
         <v>814</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5574,7 +5574,7 @@
         <v>815</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5582,7 +5582,7 @@
         <v>816</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5590,7 +5590,7 @@
         <v>817</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5598,7 +5598,7 @@
         <v>818</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
         <v>819</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5614,15 +5614,15 @@
         <v>820</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5630,7 +5630,7 @@
         <v>821</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -5717,7 +5717,7 @@
         <v>591</v>
       </c>
       <c r="G2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>592</v>
@@ -5728,25 +5728,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B3" t="s">
         <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E3" t="s">
         <v>590</v>
       </c>
       <c r="F3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G3" t="s">
         <v>1086</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1087</v>
       </c>
       <c r="H3" s="69" t="s">
         <v>592</v>
@@ -5799,30 +5799,30 @@
     </row>
     <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="J7" t="s">
+        <v>864</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>865</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -5907,24 +5907,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1343</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B2" t="s">
         <v>1345</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1346</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -6451,7 +6451,7 @@
         <v>564</v>
       </c>
       <c r="D32" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G32"/>
     </row>
@@ -6463,10 +6463,10 @@
         <v>219</v>
       </c>
       <c r="C33" s="43" t="s">
+        <v>881</v>
+      </c>
+      <c r="D33" s="48" t="s">
         <v>882</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>883</v>
       </c>
       <c r="E33" s="48"/>
     </row>
@@ -6478,10 +6478,10 @@
         <v>222</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E34" s="48"/>
     </row>
@@ -6493,10 +6493,10 @@
         <v>225</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E35" s="48"/>
     </row>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>196</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>199</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>202</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>193</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C69" s="43" t="s">
         <v>80</v>
@@ -7148,7 +7148,7 @@
         <v>162</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>217</v>
@@ -7163,7 +7163,7 @@
         <v>162</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>80</v>
@@ -7253,7 +7253,7 @@
         <v>159</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>80</v>
@@ -7295,22 +7295,22 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B87" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C87" t="s">
+        <v>886</v>
+      </c>
+      <c r="D87" t="s">
         <v>887</v>
-      </c>
-      <c r="D87" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B88" t="str">
         <f>"9999"</f>
@@ -7399,12 +7399,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7544,7 +7544,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7783,7 +7783,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B40" t="s">
         <v>320</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B41" t="s">
         <v>72</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8163,7 +8163,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B73" s="48" t="s">
         <v>72</v>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B74" s="48" t="s">
         <v>25</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B80" s="46" t="s">
         <v>22</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B114" t="s">
         <v>123</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B115" t="s">
         <v>123</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B117" t="s">
         <v>123</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B120" t="s">
         <v>123</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B126" t="s">
         <v>123</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B127" t="s">
         <v>123</v>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B128" t="s">
         <v>123</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B129" t="s">
         <v>72</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B130" t="s">
         <v>123</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F174" s="43"/>
       <c r="G174" s="43"/>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="43" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B180" s="43" t="s">
         <v>22</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="43" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B201" s="43" t="s">
         <v>22</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="43" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B209" s="43" t="s">
         <v>72</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B219" s="43" t="s">
         <v>22</v>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="43" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B220" s="43" t="s">
         <v>22</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="43" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B226" s="43" t="s">
         <v>22</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I231" s="43"/>
     </row>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -10341,7 +10341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2D9B7-AFA3-430F-905F-12902E548477}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
@@ -10406,10 +10406,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
+        <v>953</v>
+      </c>
+      <c r="H3" t="s">
         <v>954</v>
-      </c>
-      <c r="H3" t="s">
-        <v>955</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -10418,10 +10418,10 @@
         <v>144</v>
       </c>
       <c r="G4" t="s">
+        <v>955</v>
+      </c>
+      <c r="H4" t="s">
         <v>956</v>
-      </c>
-      <c r="H4" t="s">
-        <v>957</v>
       </c>
       <c r="I4" s="46"/>
     </row>
@@ -10439,10 +10439,10 @@
         <v>144</v>
       </c>
       <c r="G6" t="s">
+        <v>957</v>
+      </c>
+      <c r="H6" s="46" t="s">
         <v>958</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>959</v>
       </c>
       <c r="I6" s="46"/>
     </row>
@@ -10466,10 +10466,10 @@
         <v>144</v>
       </c>
       <c r="G9" t="s">
+        <v>959</v>
+      </c>
+      <c r="H9" s="46" t="s">
         <v>960</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>961</v>
       </c>
       <c r="I9" s="46"/>
     </row>
@@ -10493,7 +10493,7 @@
         <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H12" t="s">
         <v>632</v>
@@ -10511,10 +10511,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
+        <v>962</v>
+      </c>
+      <c r="H14" t="s">
         <v>963</v>
-      </c>
-      <c r="H14" t="s">
-        <v>964</v>
       </c>
       <c r="I14" s="46"/>
     </row>
@@ -10523,10 +10523,10 @@
         <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I15" s="46"/>
     </row>
@@ -10535,10 +10535,10 @@
         <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H16" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I16" s="46"/>
     </row>
@@ -10547,10 +10547,10 @@
         <v>144</v>
       </c>
       <c r="G17" t="s">
+        <v>966</v>
+      </c>
+      <c r="H17" t="s">
         <v>967</v>
-      </c>
-      <c r="H17" t="s">
-        <v>968</v>
       </c>
       <c r="I17" s="46"/>
     </row>
@@ -10562,7 +10562,7 @@
         <v>581</v>
       </c>
       <c r="F18" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G18" t="s">
         <v>653</v>
@@ -10584,7 +10584,7 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I20" s="46"/>
     </row>
@@ -10650,7 +10650,7 @@
         <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H25" t="s">
         <v>640</v>
@@ -10707,13 +10707,13 @@
         <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H29" t="s">
         <v>1111</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1112</v>
       </c>
       <c r="I29" s="46"/>
     </row>
@@ -10734,10 +10734,10 @@
         <v>144</v>
       </c>
       <c r="G32" t="s">
+        <v>953</v>
+      </c>
+      <c r="H32" t="s">
         <v>954</v>
-      </c>
-      <c r="H32" t="s">
-        <v>955</v>
       </c>
       <c r="I32" s="46"/>
     </row>
@@ -10746,10 +10746,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
+        <v>955</v>
+      </c>
+      <c r="H33" t="s">
         <v>956</v>
-      </c>
-      <c r="H33" t="s">
-        <v>957</v>
       </c>
       <c r="I33" s="46"/>
     </row>
@@ -10767,10 +10767,10 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
+        <v>957</v>
+      </c>
+      <c r="H35" s="46" t="s">
         <v>958</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>959</v>
       </c>
       <c r="I35" s="46"/>
     </row>
@@ -10794,10 +10794,10 @@
         <v>144</v>
       </c>
       <c r="G38" t="s">
+        <v>959</v>
+      </c>
+      <c r="H38" s="46" t="s">
         <v>960</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>961</v>
       </c>
       <c r="I38" s="46"/>
     </row>
@@ -10821,7 +10821,7 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H41" t="s">
         <v>632</v>
@@ -10839,10 +10839,10 @@
         <v>144</v>
       </c>
       <c r="G43" t="s">
+        <v>962</v>
+      </c>
+      <c r="H43" t="s">
         <v>963</v>
-      </c>
-      <c r="H43" t="s">
-        <v>964</v>
       </c>
       <c r="I43" s="46"/>
     </row>
@@ -10851,10 +10851,10 @@
         <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H44" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I44" s="46"/>
     </row>
@@ -10863,10 +10863,10 @@
         <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H45" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I45" s="46"/>
     </row>
@@ -10875,10 +10875,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
+        <v>966</v>
+      </c>
+      <c r="H46" t="s">
         <v>967</v>
-      </c>
-      <c r="H46" t="s">
-        <v>968</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -10995,10 +10995,10 @@
         <v>144</v>
       </c>
       <c r="G4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H4" t="s">
         <v>1088</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1089</v>
       </c>
       <c r="I4" s="46"/>
     </row>
@@ -11017,7 +11017,7 @@
         <v>240</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J5" s="46"/>
     </row>
@@ -11098,10 +11098,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H14" t="s">
         <v>1088</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1089</v>
       </c>
       <c r="I14" s="46"/>
     </row>
@@ -11175,7 +11175,7 @@
         <v>672</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -11210,10 +11210,10 @@
         <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H22" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I22" s="46"/>
     </row>
@@ -11314,10 +11314,10 @@
         <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H30" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -11329,7 +11329,7 @@
         <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G31" t="s">
         <v>294</v>
@@ -11345,7 +11345,7 @@
         <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
@@ -11442,10 +11442,10 @@
         <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H40" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I40" s="46"/>
     </row>
@@ -11518,10 +11518,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H46" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -11533,7 +11533,7 @@
         <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H47" t="s">
         <v>640</v>
@@ -11577,10 +11577,10 @@
         <v>144</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H51" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I51" s="46"/>
     </row>
@@ -11651,10 +11651,10 @@
         <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H58" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -11662,13 +11662,13 @@
         <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G59" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H59" t="s">
         <v>1114</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1115</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -11683,7 +11683,7 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -11702,7 +11702,7 @@
         <v>87</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
@@ -11799,10 +11799,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -11917,10 +11917,10 @@
         <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H15" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I15" s="46"/>
     </row>
@@ -11932,10 +11932,10 @@
         <v>166</v>
       </c>
       <c r="G16" s="43" t="s">
+        <v>889</v>
+      </c>
+      <c r="H16" s="46" t="s">
         <v>890</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>891</v>
       </c>
       <c r="I16" s="46"/>
     </row>
@@ -11956,10 +11956,10 @@
         <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I19" s="46"/>
     </row>
@@ -11977,7 +11977,7 @@
         <v>137</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I20" s="46"/>
     </row>
@@ -11998,10 +11998,10 @@
         <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H23" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I23" s="46"/>
     </row>
@@ -12040,10 +12040,10 @@
         <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H27" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I27" s="46"/>
     </row>
@@ -12058,10 +12058,10 @@
         <v>141</v>
       </c>
       <c r="G28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H28" t="s">
         <v>1117</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1118</v>
       </c>
       <c r="I28" s="46"/>
     </row>
@@ -12082,10 +12082,10 @@
         <v>143</v>
       </c>
       <c r="G30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H30" t="s">
         <v>1119</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1120</v>
       </c>
       <c r="I30" s="46"/>
     </row>
@@ -12112,10 +12112,10 @@
         <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H34" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I34" s="46"/>
     </row>
@@ -12124,7 +12124,7 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H35" t="s">
         <v>145</v>
@@ -12228,10 +12228,10 @@
         <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H46" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I46" s="46"/>
     </row>
@@ -12240,7 +12240,7 @@
         <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H47" t="s">
         <v>152</v>
@@ -12344,10 +12344,10 @@
         <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H58" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -12356,10 +12356,10 @@
         <v>144</v>
       </c>
       <c r="G59" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H59" t="s">
         <v>1123</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1124</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -12460,10 +12460,10 @@
         <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H70" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I70" s="46"/>
     </row>
@@ -12481,7 +12481,7 @@
         <v>158</v>
       </c>
       <c r="H71" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I71" s="46"/>
     </row>
@@ -12502,10 +12502,10 @@
         <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H74" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I74" s="46"/>
     </row>
@@ -12523,7 +12523,7 @@
         <v>161</v>
       </c>
       <c r="H75" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I75" s="46"/>
     </row>
@@ -12535,13 +12535,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I77" s="46"/>
     </row>
@@ -12557,10 +12557,10 @@
         <v>144</v>
       </c>
       <c r="G79" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H79" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I79" s="46"/>
     </row>
@@ -12570,10 +12570,10 @@
         <v>144</v>
       </c>
       <c r="G80" t="s">
+        <v>869</v>
+      </c>
+      <c r="H80" t="s">
         <v>870</v>
-      </c>
-      <c r="H80" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -12582,16 +12582,16 @@
         <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F81" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G81" t="s">
+        <v>968</v>
+      </c>
+      <c r="H81" t="s">
         <v>969</v>
-      </c>
-      <c r="H81" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -12600,19 +12600,19 @@
         <v>50</v>
       </c>
       <c r="E82" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F82" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G82" t="s">
+        <v>970</v>
+      </c>
+      <c r="H82" t="s">
         <v>971</v>
       </c>
-      <c r="H82" t="s">
-        <v>972</v>
-      </c>
       <c r="J82" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -12621,10 +12621,10 @@
         <v>320</v>
       </c>
       <c r="E83" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F83" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J83" s="11"/>
     </row>
@@ -12634,7 +12634,7 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G84" s="43"/>
       <c r="J84" s="11"/>
@@ -12645,11 +12645,11 @@
         <v>123</v>
       </c>
       <c r="F85" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G85" s="43"/>
       <c r="I85" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J85" s="11"/>
     </row>
@@ -12673,7 +12673,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -12688,10 +12688,10 @@
         <v>144</v>
       </c>
       <c r="G90" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H90" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I90" s="46"/>
     </row>
@@ -12701,13 +12701,13 @@
         <v>72</v>
       </c>
       <c r="F91" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G91" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H91" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -12734,10 +12734,10 @@
         <v>144</v>
       </c>
       <c r="G95" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H95" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I95" s="46"/>
     </row>
@@ -12750,13 +12750,13 @@
         <v>92</v>
       </c>
       <c r="F96" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G96" t="s">
+        <v>860</v>
+      </c>
+      <c r="H96" t="s">
         <v>861</v>
-      </c>
-      <c r="H96" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -12765,7 +12765,7 @@
         <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -12774,13 +12774,13 @@
         <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G98" t="s">
+        <v>862</v>
+      </c>
+      <c r="H98" t="s">
         <v>863</v>
-      </c>
-      <c r="H98" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -12812,10 +12812,10 @@
         <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H103" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I103" s="46"/>
     </row>
@@ -12833,7 +12833,7 @@
         <v>164</v>
       </c>
       <c r="H104" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I104" s="46"/>
     </row>
@@ -12852,10 +12852,10 @@
         <v>144</v>
       </c>
       <c r="G107" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H107" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -12863,13 +12863,13 @@
         <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G108" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H108" t="s">
         <v>1128</v>
-      </c>
-      <c r="H108" t="s">
-        <v>1129</v>
       </c>
       <c r="I108" s="46"/>
     </row>
@@ -12893,9 +12893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
   <dimension ref="A1:M214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12954,7 +12954,7 @@
         <v>251</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -12968,10 +12968,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -12981,10 +12981,10 @@
         <v>144</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -12992,7 +12992,7 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -13000,10 +13000,10 @@
         <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
@@ -13029,7 +13029,7 @@
         <v>647</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -13056,7 +13056,7 @@
         <v>648</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -13083,7 +13083,7 @@
         <v>649</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -13110,7 +13110,7 @@
         <v>650</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -13137,7 +13137,7 @@
         <v>651</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -13164,7 +13164,7 @@
         <v>652</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -13215,13 +13215,13 @@
         <v>259</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -13316,10 +13316,10 @@
         <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H39" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I39" s="46"/>
     </row>
@@ -13331,13 +13331,13 @@
         <v>252</v>
       </c>
       <c r="F40" s="46" t="s">
+        <v>891</v>
+      </c>
+      <c r="G40" s="46" t="s">
         <v>892</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="H40" s="46" t="s">
         <v>893</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -13357,10 +13357,10 @@
         <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H43" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I43" s="46"/>
     </row>
@@ -13379,7 +13379,7 @@
         <v>267</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -13436,10 +13436,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H52" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I52" s="46"/>
     </row>
@@ -13485,13 +13485,13 @@
         <v>709</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="K55" s="46" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L55" s="46" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -13584,10 +13584,10 @@
         <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H66" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I66" s="46"/>
     </row>
@@ -13606,7 +13606,7 @@
         <v>277</v>
       </c>
       <c r="H67" s="46" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -13633,13 +13633,13 @@
         <v>711</v>
       </c>
       <c r="J69" s="46" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K69" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L69" s="46" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -13724,10 +13724,10 @@
         <v>144</v>
       </c>
       <c r="G79" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H79" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I79" s="46"/>
     </row>
@@ -13817,10 +13817,10 @@
         <v>144</v>
       </c>
       <c r="G87" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H87" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I87" s="46"/>
     </row>
@@ -13854,10 +13854,10 @@
         <v>290</v>
       </c>
       <c r="G89" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="H89" s="46" t="s">
         <v>848</v>
-      </c>
-      <c r="H89" s="46" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -13885,10 +13885,10 @@
         <v>144</v>
       </c>
       <c r="G93" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H93" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I93" s="46"/>
     </row>
@@ -13904,7 +13904,7 @@
         <v>111</v>
       </c>
       <c r="G94" s="46" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H94" s="46" t="s">
         <v>717</v>
@@ -13949,13 +13949,13 @@
         <v>718</v>
       </c>
       <c r="J97" s="46" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="K97" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L97" s="46" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -14045,10 +14045,10 @@
         <v>144</v>
       </c>
       <c r="G108" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H108" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I108" s="46"/>
     </row>
@@ -14057,10 +14057,10 @@
         <v>144</v>
       </c>
       <c r="G109" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="H109" s="48" t="s">
         <v>899</v>
-      </c>
-      <c r="H109" s="48" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -14105,10 +14105,10 @@
         <v>144</v>
       </c>
       <c r="G114" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H114" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I114" s="46"/>
     </row>
@@ -14118,10 +14118,10 @@
         <v>144</v>
       </c>
       <c r="G115" s="46" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H115" s="46" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -14148,175 +14148,161 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
-      <c r="B119" s="61" t="s">
+      <c r="A119" s="60"/>
+      <c r="B119" s="46" t="s">
         <v>87</v>
       </c>
       <c r="C119" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="46" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="60"/>
+      <c r="B121" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="48"/>
+      <c r="B123" s="48" t="s">
+        <v>636</v>
+      </c>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="48"/>
+      <c r="B124" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="61"/>
+      <c r="B125" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="46" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="62"/>
-      <c r="B120" s="46" t="s">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="62"/>
+      <c r="B126" s="46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+    <row r="127" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
         <v>144</v>
       </c>
-      <c r="G121" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H121" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I121" s="46"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
-      <c r="D122" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="G122" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H122" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J122" s="46" t="s">
-        <v>674</v>
-      </c>
-      <c r="K122" s="46" t="s">
-        <v>673</v>
-      </c>
-      <c r="L122" s="48" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="62"/>
-      <c r="B123" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
-      <c r="B124" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C124" s="46" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
-      <c r="B125" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="43"/>
-      <c r="B126" s="43"/>
-      <c r="D126" t="s">
-        <v>144</v>
-      </c>
-      <c r="G126" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H126" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I126" s="46"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
-      <c r="B127" s="48"/>
-      <c r="D127" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="F127" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="G127" s="46" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H127" s="46" t="s">
-        <v>1145</v>
-      </c>
+      <c r="G127" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I127" s="46"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="48"/>
-      <c r="B128" s="48" t="s">
+      <c r="D128" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J128" s="46" t="s">
+        <v>674</v>
+      </c>
+      <c r="K128" s="46" t="s">
+        <v>673</v>
+      </c>
+      <c r="L128" s="48" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="62"/>
+      <c r="B129" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
-      <c r="B129" s="48" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="53"/>
+      <c r="B130" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C129" s="46" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
-      <c r="B130" s="48" t="s">
+      <c r="C130" s="46" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="48"/>
+      <c r="B131" s="48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="43"/>
-      <c r="D131" t="s">
+    <row r="132" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="43"/>
+      <c r="B132" s="43"/>
+      <c r="D132" t="s">
         <v>144</v>
       </c>
-      <c r="G131" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I131" s="46"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
-      <c r="B132" s="48"/>
-      <c r="D132" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="G132" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="H132" s="46" t="s">
-        <v>722</v>
-      </c>
+      <c r="G132" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I132" s="46"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="48"/>
       <c r="B133" s="48"/>
       <c r="D133" s="46" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="E133" s="46" t="s">
+        <v>305</v>
       </c>
       <c r="F133" s="46" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G133" s="46" t="s">
-        <v>311</v>
+        <v>1143</v>
       </c>
       <c r="H133" s="46" t="s">
-        <v>723</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -14328,7 +14314,10 @@
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="48"/>
       <c r="B135" s="48" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="C135" s="46" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -14344,10 +14333,10 @@
         <v>144</v>
       </c>
       <c r="G137" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H137" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I137" s="46"/>
     </row>
@@ -14355,47 +14344,38 @@
       <c r="A138" s="48"/>
       <c r="B138" s="48"/>
       <c r="D138" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="46" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="F138" s="46" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G138" s="46" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H138" s="46" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="48"/>
-      <c r="B139" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C139" s="46" t="s">
-        <v>314</v>
+      <c r="B139" s="48"/>
+      <c r="D139" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="G139" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="H139" s="46" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="48"/>
-      <c r="B140" s="48"/>
-      <c r="D140" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F140" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="G140" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="H140" s="46" t="s">
-        <v>725</v>
+      <c r="B140" s="48" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -14407,73 +14387,93 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="48"/>
       <c r="B142" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="43"/>
+      <c r="B143" s="43"/>
+      <c r="D143" t="s">
+        <v>144</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I143" s="46"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="48"/>
+      <c r="B144" s="48"/>
+      <c r="D144" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F144" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="G144" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="H144" s="46" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="48"/>
+      <c r="B145" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C145" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="48"/>
+      <c r="B146" s="48"/>
+      <c r="D146" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F146" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="G146" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="H146" s="46" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="48"/>
+      <c r="B147" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="48"/>
+      <c r="B148" s="48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="B143" s="48" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="53"/>
+      <c r="B149" s="48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
-      <c r="B144" s="61" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="61"/>
+      <c r="B150" s="61" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="60"/>
-      <c r="B145" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C145" s="46" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="46" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="60"/>
-      <c r="B147" s="46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="64"/>
-      <c r="B148" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="C148" s="64" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
-      <c r="B149" s="48" t="s">
-        <v>636</v>
-      </c>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48"/>
-      <c r="G149" s="48"/>
-      <c r="H149" s="48"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
-      <c r="B150" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C150" s="48"/>
-      <c r="D150" s="48"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="48"/>
-      <c r="G150" s="48"/>
-      <c r="H150" s="48"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="63"/>
@@ -14494,10 +14494,10 @@
         <v>144</v>
       </c>
       <c r="G153" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H153" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I153" s="46"/>
     </row>
@@ -14534,10 +14534,10 @@
         <v>144</v>
       </c>
       <c r="G157" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H157" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14545,13 +14545,13 @@
         <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G158" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H158" t="s">
         <v>1091</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1092</v>
       </c>
       <c r="I158" s="46"/>
     </row>
@@ -14560,7 +14560,7 @@
         <v>87</v>
       </c>
       <c r="C159" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I159" s="46"/>
     </row>
@@ -14569,7 +14569,7 @@
         <v>123</v>
       </c>
       <c r="F160" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I160" s="46">
         <v>1</v>
@@ -14586,7 +14586,7 @@
         <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="163" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15068,7 +15068,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15140,10 +15140,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -15152,10 +15152,10 @@
         <v>144</v>
       </c>
       <c r="G4" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="H4" s="48" t="s">
         <v>899</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -15172,7 +15172,7 @@
         <v>844</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>845</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -15204,10 +15204,10 @@
         <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I9" s="46"/>
     </row>
@@ -15222,10 +15222,10 @@
         <v>322</v>
       </c>
       <c r="G10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>1146</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -15247,10 +15247,10 @@
         <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I13" s="46"/>
     </row>
@@ -15265,10 +15265,10 @@
         <v>323</v>
       </c>
       <c r="G14" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H14" s="46" t="s">
         <v>1148</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -15294,13 +15294,13 @@
         <v>726</v>
       </c>
       <c r="K16" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="L16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="M16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -15355,10 +15355,10 @@
         <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H22" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I22" s="46"/>
     </row>
@@ -15373,10 +15373,10 @@
         <v>329</v>
       </c>
       <c r="G23" t="s">
+        <v>845</v>
+      </c>
+      <c r="H23" s="46" t="s">
         <v>846</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -15396,10 +15396,10 @@
         <v>330</v>
       </c>
       <c r="G25" t="s">
+        <v>845</v>
+      </c>
+      <c r="H25" s="46" t="s">
         <v>846</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -15427,10 +15427,10 @@
         <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H29" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I29" s="46"/>
     </row>
@@ -15470,10 +15470,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H33" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I33" s="46"/>
     </row>
@@ -15551,10 +15551,10 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H41" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I41" s="46"/>
     </row>
@@ -15629,10 +15629,10 @@
         <v>144</v>
       </c>
       <c r="G49" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H49" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I49" s="46"/>
     </row>
@@ -15676,13 +15676,13 @@
         <v>734</v>
       </c>
       <c r="K52" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="L52" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="M52" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -15737,10 +15737,10 @@
         <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H58" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I58" s="46"/>
     </row>
@@ -15755,10 +15755,10 @@
         <v>348</v>
       </c>
       <c r="G59" t="s">
+        <v>845</v>
+      </c>
+      <c r="H59" s="46" t="s">
         <v>846</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -15778,10 +15778,10 @@
         <v>349</v>
       </c>
       <c r="G61" t="s">
+        <v>845</v>
+      </c>
+      <c r="H61" s="46" t="s">
         <v>846</v>
-      </c>
-      <c r="H61" s="46" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -15809,10 +15809,10 @@
         <v>144</v>
       </c>
       <c r="G65" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H65" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I65" s="46"/>
     </row>
@@ -15852,10 +15852,10 @@
         <v>144</v>
       </c>
       <c r="G69" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H69" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I69" s="46"/>
     </row>
@@ -15933,10 +15933,10 @@
         <v>144</v>
       </c>
       <c r="G77" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H77" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I77" s="46"/>
     </row>
@@ -16104,7 +16104,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -16115,10 +16115,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -16138,19 +16138,19 @@
         <v>359</v>
       </c>
       <c r="G5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="K5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -16198,7 +16198,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -16206,10 +16206,10 @@
         <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -16222,10 +16222,10 @@
         <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -16260,13 +16260,13 @@
         <v>359</v>
       </c>
       <c r="J18" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="K18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L18" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -16330,19 +16330,19 @@
         <v>368</v>
       </c>
       <c r="G26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H26" t="s">
         <v>1173</v>
       </c>
-      <c r="H26" t="s">
-        <v>1174</v>
-      </c>
       <c r="J26" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K26" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="L26" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -16390,7 +16390,7 @@
         <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -16398,10 +16398,10 @@
         <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H33" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -16414,10 +16414,10 @@
         <v>144</v>
       </c>
       <c r="G35" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -16452,13 +16452,13 @@
         <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K39" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="L39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -16511,7 +16511,7 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -16519,7 +16519,7 @@
         <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -16530,7 +16530,7 @@
         <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -16553,7 +16553,7 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -16561,10 +16561,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
+        <v>994</v>
+      </c>
+      <c r="H52" t="s">
         <v>995</v>
-      </c>
-      <c r="H52" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -16572,7 +16572,7 @@
         <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -16590,7 +16590,7 @@
         <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -16598,10 +16598,10 @@
         <v>144</v>
       </c>
       <c r="G56" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H56" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -16609,7 +16609,7 @@
         <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -16623,15 +16623,15 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>978</v>
+      </c>
+      <c r="C59" t="s">
         <v>979</v>
-      </c>
-      <c r="C59" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
@@ -16642,10 +16642,10 @@
         <v>144</v>
       </c>
       <c r="G61" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H61" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I61" s="46"/>
     </row>
@@ -16665,19 +16665,19 @@
         <v>374</v>
       </c>
       <c r="G63" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L63" t="s">
         <v>1184</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1184</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1319</v>
-      </c>
-      <c r="K63" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -16725,7 +16725,7 @@
         <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -16733,10 +16733,10 @@
         <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H70" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -16749,10 +16749,10 @@
         <v>144</v>
       </c>
       <c r="G72" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H72" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -16787,13 +16787,13 @@
         <v>374</v>
       </c>
       <c r="J76" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="K76" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L76" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -16857,19 +16857,19 @@
         <v>379</v>
       </c>
       <c r="G84" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H84" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J84" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="K84" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L84" t="s">
         <v>1194</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
@@ -16941,7 +16941,7 @@
         <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -16949,10 +16949,10 @@
         <v>144</v>
       </c>
       <c r="G94" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H94" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -16965,10 +16965,10 @@
         <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H96" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
@@ -17003,13 +17003,13 @@
         <v>379</v>
       </c>
       <c r="J100" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="K100" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L100" t="s">
         <v>1194</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -17073,19 +17073,19 @@
         <v>383</v>
       </c>
       <c r="G108" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H108" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J108" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K108" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L108" t="s">
         <v>1199</v>
-      </c>
-      <c r="L108" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
@@ -17157,7 +17157,7 @@
         <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
@@ -17165,10 +17165,10 @@
         <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H118" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
@@ -17181,10 +17181,10 @@
         <v>144</v>
       </c>
       <c r="G120" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H120" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
@@ -17219,13 +17219,13 @@
         <v>383</v>
       </c>
       <c r="J124" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="K124" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L124" t="s">
         <v>1199</v>
-      </c>
-      <c r="L124" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
@@ -17289,19 +17289,19 @@
         <v>387</v>
       </c>
       <c r="G132" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H132" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J132" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K132" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L132" t="s">
         <v>1204</v>
-      </c>
-      <c r="L132" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
@@ -17373,7 +17373,7 @@
         <v>87</v>
       </c>
       <c r="C141" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
@@ -17381,10 +17381,10 @@
         <v>144</v>
       </c>
       <c r="G142" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H142" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
@@ -17397,10 +17397,10 @@
         <v>144</v>
       </c>
       <c r="G144" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H144" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
@@ -17435,13 +17435,13 @@
         <v>387</v>
       </c>
       <c r="J148" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K148" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L148" t="s">
         <v>1204</v>
-      </c>
-      <c r="L148" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
@@ -17494,7 +17494,7 @@
         <v>87</v>
       </c>
       <c r="C155" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
@@ -17502,7 +17502,7 @@
         <v>123</v>
       </c>
       <c r="F156" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -17513,7 +17513,7 @@
         <v>123</v>
       </c>
       <c r="F157" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -17524,7 +17524,7 @@
         <v>123</v>
       </c>
       <c r="F158" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -17535,7 +17535,7 @@
         <v>123</v>
       </c>
       <c r="F159" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -17558,7 +17558,7 @@
         <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -17566,10 +17566,10 @@
         <v>144</v>
       </c>
       <c r="G163" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H163" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -17577,7 +17577,7 @@
         <v>123</v>
       </c>
       <c r="F164" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -17595,7 +17595,7 @@
         <v>87</v>
       </c>
       <c r="C166" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -17603,10 +17603,10 @@
         <v>144</v>
       </c>
       <c r="G167" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H167" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -17614,7 +17614,7 @@
         <v>123</v>
       </c>
       <c r="F168" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -17632,7 +17632,7 @@
         <v>87</v>
       </c>
       <c r="C170" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -17640,10 +17640,10 @@
         <v>144</v>
       </c>
       <c r="G171" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H171" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -17651,7 +17651,7 @@
         <v>123</v>
       </c>
       <c r="F172" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -17669,7 +17669,7 @@
         <v>87</v>
       </c>
       <c r="C174" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -17677,10 +17677,10 @@
         <v>144</v>
       </c>
       <c r="G175" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H175" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -17688,7 +17688,7 @@
         <v>123</v>
       </c>
       <c r="F176" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -17702,15 +17702,15 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C178" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B179" t="s">
         <v>46</v>
@@ -17721,10 +17721,10 @@
         <v>144</v>
       </c>
       <c r="G180" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H180" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I180" s="46"/>
     </row>
@@ -17744,19 +17744,19 @@
         <v>391</v>
       </c>
       <c r="G182" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H182" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J182" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K182" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L182" t="s">
         <v>1206</v>
-      </c>
-      <c r="L182" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -17804,7 +17804,7 @@
         <v>87</v>
       </c>
       <c r="C188" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -17812,10 +17812,10 @@
         <v>144</v>
       </c>
       <c r="G189" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H189" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -17828,10 +17828,10 @@
         <v>144</v>
       </c>
       <c r="G191" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H191" t="s">
         <v>1216</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -17866,13 +17866,13 @@
         <v>391</v>
       </c>
       <c r="J195" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K195" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L195" t="s">
         <v>1206</v>
-      </c>
-      <c r="L195" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.25">
@@ -17936,19 +17936,19 @@
         <v>396</v>
       </c>
       <c r="G203" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H203" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J203" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K203" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L203" t="s">
         <v>1208</v>
-      </c>
-      <c r="L203" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.25">
@@ -18020,7 +18020,7 @@
         <v>87</v>
       </c>
       <c r="C212" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.25">
@@ -18028,10 +18028,10 @@
         <v>144</v>
       </c>
       <c r="G213" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H213" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.25">
@@ -18044,10 +18044,10 @@
         <v>144</v>
       </c>
       <c r="G215" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H215" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.25">
@@ -18082,13 +18082,13 @@
         <v>396</v>
       </c>
       <c r="J219" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K219" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L219" t="s">
         <v>1208</v>
-      </c>
-      <c r="L219" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.25">
@@ -18152,19 +18152,19 @@
         <v>400</v>
       </c>
       <c r="G227" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H227" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J227" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K227" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L227" t="s">
         <v>1210</v>
-      </c>
-      <c r="L227" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.25">
@@ -18236,7 +18236,7 @@
         <v>87</v>
       </c>
       <c r="C236" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.25">
@@ -18244,10 +18244,10 @@
         <v>144</v>
       </c>
       <c r="G237" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H237" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.25">
@@ -18260,10 +18260,10 @@
         <v>144</v>
       </c>
       <c r="G239" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H239" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.25">
@@ -18298,13 +18298,13 @@
         <v>400</v>
       </c>
       <c r="J243" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K243" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L243" t="s">
         <v>1210</v>
-      </c>
-      <c r="L243" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="244" spans="2:12" x14ac:dyDescent="0.25">
@@ -18368,19 +18368,19 @@
         <v>404</v>
       </c>
       <c r="G251" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H251" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J251" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K251" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L251" t="s">
         <v>1212</v>
-      </c>
-      <c r="L251" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="252" spans="2:12" x14ac:dyDescent="0.25">
@@ -18452,7 +18452,7 @@
         <v>87</v>
       </c>
       <c r="C260" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="261" spans="2:12" x14ac:dyDescent="0.25">
@@ -18460,10 +18460,10 @@
         <v>144</v>
       </c>
       <c r="G261" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H261" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="262" spans="2:12" x14ac:dyDescent="0.25">
@@ -18476,10 +18476,10 @@
         <v>144</v>
       </c>
       <c r="G263" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H263" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="264" spans="2:12" x14ac:dyDescent="0.25">
@@ -18514,13 +18514,13 @@
         <v>404</v>
       </c>
       <c r="J267" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K267" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L267" t="s">
         <v>1212</v>
-      </c>
-      <c r="L267" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="268" spans="2:12" x14ac:dyDescent="0.25">
@@ -18573,7 +18573,7 @@
         <v>87</v>
       </c>
       <c r="C274" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -18581,7 +18581,7 @@
         <v>123</v>
       </c>
       <c r="F275" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I275">
         <v>2</v>
@@ -18592,7 +18592,7 @@
         <v>123</v>
       </c>
       <c r="F276" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -18603,7 +18603,7 @@
         <v>123</v>
       </c>
       <c r="F277" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -18614,7 +18614,7 @@
         <v>123</v>
       </c>
       <c r="F278" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -18637,7 +18637,7 @@
         <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -18645,10 +18645,10 @@
         <v>144</v>
       </c>
       <c r="G282" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H282" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -18656,7 +18656,7 @@
         <v>123</v>
       </c>
       <c r="F283" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -18674,7 +18674,7 @@
         <v>87</v>
       </c>
       <c r="C285" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -18682,10 +18682,10 @@
         <v>144</v>
       </c>
       <c r="G286" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H286" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -18693,7 +18693,7 @@
         <v>123</v>
       </c>
       <c r="F287" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -18711,7 +18711,7 @@
         <v>87</v>
       </c>
       <c r="C289" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -18719,10 +18719,10 @@
         <v>144</v>
       </c>
       <c r="G290" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H290" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -18730,7 +18730,7 @@
         <v>123</v>
       </c>
       <c r="F291" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -18748,7 +18748,7 @@
         <v>87</v>
       </c>
       <c r="C293" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -18756,10 +18756,10 @@
         <v>144</v>
       </c>
       <c r="G294" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H294" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -18767,7 +18767,7 @@
         <v>123</v>
       </c>
       <c r="F295" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -18785,7 +18785,7 @@
         <v>87</v>
       </c>
       <c r="C297" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -18793,10 +18793,10 @@
         <v>144</v>
       </c>
       <c r="G298" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H298" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -18804,7 +18804,7 @@
         <v>123</v>
       </c>
       <c r="F299" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -18822,7 +18822,7 @@
         <v>87</v>
       </c>
       <c r="C301" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -18830,10 +18830,10 @@
         <v>144</v>
       </c>
       <c r="G302" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H302" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -18841,7 +18841,7 @@
         <v>123</v>
       </c>
       <c r="F303" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -18859,7 +18859,7 @@
         <v>87</v>
       </c>
       <c r="C305" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -18867,10 +18867,10 @@
         <v>144</v>
       </c>
       <c r="G306" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H306" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -18878,7 +18878,7 @@
         <v>123</v>
       </c>
       <c r="F307" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -18896,7 +18896,7 @@
         <v>87</v>
       </c>
       <c r="C309" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -18904,10 +18904,10 @@
         <v>144</v>
       </c>
       <c r="G310" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H310" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -18915,7 +18915,7 @@
         <v>123</v>
       </c>
       <c r="F311" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I311">
         <v>1</v>
@@ -18929,15 +18929,15 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C313" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B314" t="s">
         <v>46</v>
@@ -18948,10 +18948,10 @@
         <v>144</v>
       </c>
       <c r="G315" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H315" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I315" s="46"/>
     </row>
@@ -18971,19 +18971,19 @@
         <v>408</v>
       </c>
       <c r="G317" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H317" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J317" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K317" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L317" t="s">
         <v>1237</v>
-      </c>
-      <c r="L317" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -19031,7 +19031,7 @@
         <v>87</v>
       </c>
       <c r="C323" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="324" spans="2:12" x14ac:dyDescent="0.25">
@@ -19039,10 +19039,10 @@
         <v>144</v>
       </c>
       <c r="G324" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H324" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="325" spans="2:12" x14ac:dyDescent="0.25">
@@ -19055,10 +19055,10 @@
         <v>144</v>
       </c>
       <c r="G326" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H326" t="s">
         <v>1229</v>
-      </c>
-      <c r="H326" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="327" spans="2:12" x14ac:dyDescent="0.25">
@@ -19093,13 +19093,13 @@
         <v>408</v>
       </c>
       <c r="J330" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K330" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L330" t="s">
         <v>1237</v>
-      </c>
-      <c r="L330" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="331" spans="2:12" x14ac:dyDescent="0.25">
@@ -19163,19 +19163,19 @@
         <v>413</v>
       </c>
       <c r="G338" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H338" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="J338" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K338" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L338" t="s">
         <v>1239</v>
-      </c>
-      <c r="L338" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="339" spans="2:12" x14ac:dyDescent="0.25">
@@ -19247,7 +19247,7 @@
         <v>87</v>
       </c>
       <c r="C347" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="348" spans="2:12" x14ac:dyDescent="0.25">
@@ -19255,10 +19255,10 @@
         <v>144</v>
       </c>
       <c r="G348" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H348" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="349" spans="2:12" x14ac:dyDescent="0.25">
@@ -19271,10 +19271,10 @@
         <v>144</v>
       </c>
       <c r="G350" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H350" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="351" spans="2:12" x14ac:dyDescent="0.25">
@@ -19309,13 +19309,13 @@
         <v>413</v>
       </c>
       <c r="J354" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K354" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L354" t="s">
         <v>1239</v>
-      </c>
-      <c r="L354" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="355" spans="2:12" x14ac:dyDescent="0.25">
@@ -19379,19 +19379,19 @@
         <v>417</v>
       </c>
       <c r="G362" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H362" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J362" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="K362" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L362" t="s">
         <v>1241</v>
-      </c>
-      <c r="L362" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="363" spans="2:12" x14ac:dyDescent="0.25">
@@ -19463,7 +19463,7 @@
         <v>87</v>
       </c>
       <c r="C371" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="372" spans="2:12" x14ac:dyDescent="0.25">
@@ -19471,10 +19471,10 @@
         <v>144</v>
       </c>
       <c r="G372" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H372" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="373" spans="2:12" x14ac:dyDescent="0.25">
@@ -19487,10 +19487,10 @@
         <v>144</v>
       </c>
       <c r="G374" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H374" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="375" spans="2:12" x14ac:dyDescent="0.25">
@@ -19525,13 +19525,13 @@
         <v>417</v>
       </c>
       <c r="J378" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="K378" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="L378" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="379" spans="2:12" x14ac:dyDescent="0.25">
@@ -19601,13 +19601,13 @@
         <v>421</v>
       </c>
       <c r="J386" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K386" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L386" t="s">
         <v>1166</v>
-      </c>
-      <c r="L386" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="387" spans="2:12" x14ac:dyDescent="0.25">
@@ -19679,7 +19679,7 @@
         <v>87</v>
       </c>
       <c r="C395" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="396" spans="2:12" x14ac:dyDescent="0.25">
@@ -19687,10 +19687,10 @@
         <v>144</v>
       </c>
       <c r="G396" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H396" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="397" spans="2:12" x14ac:dyDescent="0.25">
@@ -19703,10 +19703,10 @@
         <v>144</v>
       </c>
       <c r="G398" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H398" t="s">
         <v>1244</v>
-      </c>
-      <c r="H398" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="399" spans="2:12" x14ac:dyDescent="0.25">
@@ -19741,13 +19741,13 @@
         <v>421</v>
       </c>
       <c r="J402" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K402" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L402" t="s">
         <v>1166</v>
-      </c>
-      <c r="L402" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
@@ -19800,7 +19800,7 @@
         <v>87</v>
       </c>
       <c r="C409" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
@@ -19808,7 +19808,7 @@
         <v>123</v>
       </c>
       <c r="F410" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -19819,7 +19819,7 @@
         <v>123</v>
       </c>
       <c r="F411" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I411">
         <v>2</v>
@@ -19830,7 +19830,7 @@
         <v>123</v>
       </c>
       <c r="F412" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I412">
         <v>2</v>
@@ -19841,7 +19841,7 @@
         <v>123</v>
       </c>
       <c r="F413" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -19864,7 +19864,7 @@
         <v>87</v>
       </c>
       <c r="C416" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -19872,10 +19872,10 @@
         <v>144</v>
       </c>
       <c r="G417" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H417" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -19883,7 +19883,7 @@
         <v>123</v>
       </c>
       <c r="F418" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I418">
         <v>1</v>
@@ -19901,7 +19901,7 @@
         <v>87</v>
       </c>
       <c r="C420" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -19909,10 +19909,10 @@
         <v>144</v>
       </c>
       <c r="G421" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H421" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -19920,7 +19920,7 @@
         <v>123</v>
       </c>
       <c r="F422" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I422">
         <v>1</v>
@@ -19938,7 +19938,7 @@
         <v>87</v>
       </c>
       <c r="C424" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -19946,10 +19946,10 @@
         <v>144</v>
       </c>
       <c r="G425" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H425" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -19957,7 +19957,7 @@
         <v>123</v>
       </c>
       <c r="F426" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I426">
         <v>1</v>
@@ -19975,7 +19975,7 @@
         <v>87</v>
       </c>
       <c r="C428" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -19983,10 +19983,10 @@
         <v>144</v>
       </c>
       <c r="G429" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H429" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -19994,7 +19994,7 @@
         <v>123</v>
       </c>
       <c r="F430" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I430">
         <v>1</v>
@@ -20012,7 +20012,7 @@
         <v>87</v>
       </c>
       <c r="C432" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -20020,10 +20020,10 @@
         <v>144</v>
       </c>
       <c r="G433" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H433" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -20031,7 +20031,7 @@
         <v>123</v>
       </c>
       <c r="F434" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I434">
         <v>1</v>
@@ -20049,7 +20049,7 @@
         <v>87</v>
       </c>
       <c r="C436" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -20057,10 +20057,10 @@
         <v>144</v>
       </c>
       <c r="G437" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H437" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -20068,7 +20068,7 @@
         <v>123</v>
       </c>
       <c r="F438" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I438">
         <v>1</v>
@@ -20086,7 +20086,7 @@
         <v>87</v>
       </c>
       <c r="C440" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
@@ -20094,10 +20094,10 @@
         <v>144</v>
       </c>
       <c r="G441" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H441" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
@@ -20105,7 +20105,7 @@
         <v>123</v>
       </c>
       <c r="F442" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I442">
         <v>1</v>
@@ -20123,7 +20123,7 @@
         <v>87</v>
       </c>
       <c r="C444" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -20131,10 +20131,10 @@
         <v>144</v>
       </c>
       <c r="G445" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H445" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -20142,7 +20142,7 @@
         <v>123</v>
       </c>
       <c r="F446" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I446">
         <v>1</v>
@@ -20160,7 +20160,7 @@
         <v>87</v>
       </c>
       <c r="C448" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
@@ -20168,10 +20168,10 @@
         <v>144</v>
       </c>
       <c r="G449" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H449" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
@@ -20179,7 +20179,7 @@
         <v>123</v>
       </c>
       <c r="F450" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I450">
         <v>1</v>
@@ -20197,7 +20197,7 @@
         <v>87</v>
       </c>
       <c r="C452" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
@@ -20205,10 +20205,10 @@
         <v>144</v>
       </c>
       <c r="G453" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H453" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
@@ -20216,7 +20216,7 @@
         <v>123</v>
       </c>
       <c r="F454" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I454">
         <v>1</v>
@@ -20230,15 +20230,15 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C456" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B457" t="s">
         <v>46</v>
@@ -20249,10 +20249,10 @@
         <v>144</v>
       </c>
       <c r="G458" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H458" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I458" s="46"/>
     </row>
@@ -20272,19 +20272,19 @@
         <v>425</v>
       </c>
       <c r="G460" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H460" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J460" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K460" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L460" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
@@ -20332,7 +20332,7 @@
         <v>87</v>
       </c>
       <c r="C466" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="467" spans="2:12" x14ac:dyDescent="0.25">
@@ -20340,10 +20340,10 @@
         <v>144</v>
       </c>
       <c r="G467" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H467" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="468" spans="2:12" x14ac:dyDescent="0.25">
@@ -20356,10 +20356,10 @@
         <v>144</v>
       </c>
       <c r="G469" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H469" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="470" spans="2:12" x14ac:dyDescent="0.25">
@@ -20394,13 +20394,13 @@
         <v>425</v>
       </c>
       <c r="J473" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K473" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L473" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="474" spans="2:12" x14ac:dyDescent="0.25">
@@ -20464,19 +20464,19 @@
         <v>430</v>
       </c>
       <c r="G481" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H481" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J481" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K481" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L481" t="s">
         <v>1258</v>
-      </c>
-      <c r="J481" t="s">
-        <v>1333</v>
-      </c>
-      <c r="K481" t="s">
-        <v>1257</v>
-      </c>
-      <c r="L481" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="482" spans="2:12" x14ac:dyDescent="0.25">
@@ -20524,7 +20524,7 @@
         <v>87</v>
       </c>
       <c r="C487" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="488" spans="2:12" x14ac:dyDescent="0.25">
@@ -20532,10 +20532,10 @@
         <v>144</v>
       </c>
       <c r="G488" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H488" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="489" spans="2:12" x14ac:dyDescent="0.25">
@@ -20548,10 +20548,10 @@
         <v>144</v>
       </c>
       <c r="G490" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H490" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="491" spans="2:12" x14ac:dyDescent="0.25">
@@ -20586,13 +20586,13 @@
         <v>430</v>
       </c>
       <c r="J494" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="K494" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L494" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="495" spans="2:12" x14ac:dyDescent="0.25">
@@ -20645,7 +20645,7 @@
         <v>87</v>
       </c>
       <c r="C501" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -20653,7 +20653,7 @@
         <v>123</v>
       </c>
       <c r="F502" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -20664,7 +20664,7 @@
         <v>123</v>
       </c>
       <c r="F503" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -20687,7 +20687,7 @@
         <v>87</v>
       </c>
       <c r="C506" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -20695,10 +20695,10 @@
         <v>144</v>
       </c>
       <c r="G507" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H507" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
@@ -20706,7 +20706,7 @@
         <v>123</v>
       </c>
       <c r="F508" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I508">
         <v>1</v>
@@ -20724,7 +20724,7 @@
         <v>87</v>
       </c>
       <c r="C510" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -20732,10 +20732,10 @@
         <v>144</v>
       </c>
       <c r="G511" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H511" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -20743,7 +20743,7 @@
         <v>123</v>
       </c>
       <c r="F512" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -20761,7 +20761,7 @@
         <v>87</v>
       </c>
       <c r="C514" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D514" s="43"/>
       <c r="E514" s="43"/>
@@ -20773,10 +20773,10 @@
         <v>144</v>
       </c>
       <c r="G515" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H515" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
@@ -20784,7 +20784,7 @@
         <v>123</v>
       </c>
       <c r="F516" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I516">
         <v>1</v>
@@ -20802,7 +20802,7 @@
         <v>87</v>
       </c>
       <c r="C518" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
@@ -20810,10 +20810,10 @@
         <v>144</v>
       </c>
       <c r="G519" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H519" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -20821,7 +20821,7 @@
         <v>123</v>
       </c>
       <c r="F520" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I520">
         <v>1</v>
@@ -20835,10 +20835,10 @@
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
+        <v>988</v>
+      </c>
+      <c r="C522" t="s">
         <v>989</v>
-      </c>
-      <c r="C522" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
@@ -20851,10 +20851,10 @@
         <v>144</v>
       </c>
       <c r="G524" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H524" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
@@ -20862,13 +20862,13 @@
         <v>72</v>
       </c>
       <c r="F525" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G525" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H525" t="s">
         <v>1150</v>
-      </c>
-      <c r="H525" t="s">
-        <v>1151</v>
       </c>
       <c r="I525" s="46"/>
     </row>
@@ -20957,10 +20957,10 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I3" s="46"/>
     </row>
@@ -20986,7 +20986,7 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H5" s="46"/>
     </row>
@@ -21039,10 +21039,10 @@
         <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I11" s="46"/>
     </row>
@@ -21054,7 +21054,7 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G12" t="s">
         <v>360</v>
@@ -21088,7 +21088,7 @@
         <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G14" t="s">
         <v>369</v>
@@ -21130,10 +21130,10 @@
         <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I18" s="46"/>
     </row>
@@ -21145,7 +21145,7 @@
         <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G19" t="s">
         <v>444</v>
@@ -21176,7 +21176,7 @@
         <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G21" t="s">
         <v>447</v>
@@ -21193,7 +21193,7 @@
         <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G22" t="s">
         <v>448</v>
@@ -21243,10 +21243,10 @@
         <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H27" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I27" s="46"/>
     </row>
@@ -21278,13 +21278,13 @@
         <v>747</v>
       </c>
       <c r="J29" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K29" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L29" t="s">
         <v>1168</v>
-      </c>
-      <c r="L29" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -21306,10 +21306,10 @@
         <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H32" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I32" s="46"/>
     </row>
@@ -21341,13 +21341,13 @@
         <v>747</v>
       </c>
       <c r="J34" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K34" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L34" t="s">
         <v>1168</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -21369,10 +21369,10 @@
         <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H37" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I37" s="46"/>
     </row>
@@ -21412,10 +21412,10 @@
         <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H41" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I41" s="46"/>
     </row>
@@ -21487,10 +21487,10 @@
         <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H48" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I48" s="46"/>
     </row>
@@ -21530,10 +21530,10 @@
         <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H52" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I52" s="46"/>
     </row>
@@ -21602,10 +21602,10 @@
         <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H59" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I59" s="46"/>
     </row>
@@ -21677,10 +21677,10 @@
         <v>144</v>
       </c>
       <c r="G67" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H67" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I67" s="46"/>
     </row>
@@ -21749,10 +21749,10 @@
         <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H74" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I74" s="46"/>
     </row>
@@ -21835,10 +21835,10 @@
         <v>144</v>
       </c>
       <c r="G82" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H82" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I82" s="46"/>
     </row>
@@ -21907,10 +21907,10 @@
         <v>144</v>
       </c>
       <c r="G89" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H89" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I89" s="46"/>
     </row>
@@ -21979,10 +21979,10 @@
         <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H96" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I96" s="46"/>
     </row>
@@ -22051,10 +22051,10 @@
         <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H103" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I103" s="46"/>
     </row>
@@ -22123,10 +22123,10 @@
         <v>144</v>
       </c>
       <c r="G110" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H110" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I110" s="46"/>
     </row>
@@ -22204,10 +22204,10 @@
         <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H118" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I118" s="46"/>
     </row>
@@ -22216,7 +22216,7 @@
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F119" t="s">
         <v>516</v>
@@ -22233,7 +22233,7 @@
         <v>87</v>
       </c>
       <c r="C120" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H120" s="46"/>
     </row>
@@ -22282,10 +22282,10 @@
         <v>144</v>
       </c>
       <c r="G126" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H126" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I126" s="46"/>
     </row>
@@ -22336,10 +22336,10 @@
         <v>144</v>
       </c>
       <c r="G131" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H131" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I131" s="46"/>
     </row>
@@ -22388,10 +22388,10 @@
         <v>144</v>
       </c>
       <c r="G136" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H136" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I136" s="46"/>
     </row>
@@ -22450,10 +22450,10 @@
         <v>144</v>
       </c>
       <c r="G142" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H142" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I142" s="46"/>
     </row>
@@ -22522,10 +22522,10 @@
         <v>144</v>
       </c>
       <c r="G149" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H149" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I149" s="46"/>
     </row>
@@ -22579,10 +22579,10 @@
         <v>144</v>
       </c>
       <c r="G154" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H154" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I154" s="46"/>
     </row>
@@ -22645,10 +22645,10 @@
         <v>144</v>
       </c>
       <c r="G160" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H160" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I160" s="46"/>
     </row>
@@ -22717,10 +22717,10 @@
         <v>144</v>
       </c>
       <c r="G167" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H167" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I167" s="46"/>
     </row>
@@ -22799,10 +22799,10 @@
         <v>144</v>
       </c>
       <c r="G175" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H175" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -22810,13 +22810,13 @@
         <v>72</v>
       </c>
       <c r="F176" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G176" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H176" t="s">
         <v>1153</v>
-      </c>
-      <c r="H176" t="s">
-        <v>1154</v>
       </c>
       <c r="I176" s="46"/>
     </row>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BABC30E-6051-43EF-9C4C-47056D2F8AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202FFBF-6915-4521-B0C9-0598B47CE888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1496">
   <si>
     <t>setting_name</t>
   </si>
@@ -4160,9 +4160,6 @@
     <t>adate.diffInDays(data('PCV1'), data('PCV3'))&lt;1  &amp;&amp; data('PCV3') != null &amp;&amp; data('PCV3') != 'D:2,M:2,Y:1922' &amp;&amp; data('obspcv3') != '2' &amp;&amp; not(adate.hasUncertainty(data('PCV3'))) &amp;&amp; not(adate.hasUncertainty(data('PCV1')))</t>
   </si>
   <si>
-    <t>data('NASESTADO') == '1'</t>
-  </si>
-  <si>
     <t>A criança parou de tomar leite (amamentação)?</t>
   </si>
   <si>
@@ -4446,6 +4443,114 @@
   </si>
   <si>
     <t>data('vactt4ng') != null</t>
+  </si>
+  <si>
+    <t>addvac1</t>
+  </si>
+  <si>
+    <t>Add other vaccine?</t>
+  </si>
+  <si>
+    <t>Adicione outra vacina?</t>
+  </si>
+  <si>
+    <t>data('addvac1') == '1'</t>
+  </si>
+  <si>
+    <t>Other vaccine 1</t>
+  </si>
+  <si>
+    <t>Outra vacina 1</t>
+  </si>
+  <si>
+    <t>VACOU1</t>
+  </si>
+  <si>
+    <t>VACOU1TIPO</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>addvac2</t>
+  </si>
+  <si>
+    <t>data('addvac2') == '1'</t>
+  </si>
+  <si>
+    <t>VACOU2TIPO</t>
+  </si>
+  <si>
+    <t>VACOU2</t>
+  </si>
+  <si>
+    <t>Other vaccine 2</t>
+  </si>
+  <si>
+    <t>Outra vacina 2</t>
+  </si>
+  <si>
+    <t>goto comment</t>
+  </si>
+  <si>
+    <t>addvac3</t>
+  </si>
+  <si>
+    <t>VACOU3TIPO</t>
+  </si>
+  <si>
+    <t>VACOU3</t>
+  </si>
+  <si>
+    <t>Other vaccine 3</t>
+  </si>
+  <si>
+    <t>Outra vacina 3</t>
+  </si>
+  <si>
+    <t>data('addvac3') == '1'</t>
+  </si>
+  <si>
+    <t>addvac4</t>
+  </si>
+  <si>
+    <t>data('addvac4') == '1'</t>
+  </si>
+  <si>
+    <t>Other vaccine 4</t>
+  </si>
+  <si>
+    <t>Outra vacina 4</t>
+  </si>
+  <si>
+    <t>VACOU4TIPO</t>
+  </si>
+  <si>
+    <t>VACOU4</t>
+  </si>
+  <si>
+    <t>addvac5</t>
+  </si>
+  <si>
+    <t>data('addvac5') == '1'</t>
+  </si>
+  <si>
+    <t>Other vaccine 5</t>
+  </si>
+  <si>
+    <t>Outra vacina 5</t>
+  </si>
+  <si>
+    <t>VACOU5TIPO</t>
+  </si>
+  <si>
+    <t>VACOU5</t>
+  </si>
+  <si>
+    <t>data('ESTADO') == '11'</t>
   </si>
 </sst>
 </file>
@@ -7961,7 +8066,7 @@
         <v>166</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -8539,10 +8644,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E45" s="51"/>
     </row>
@@ -9212,23 +9317,23 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B89" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C89" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D89" t="s">
         <v>1378</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1379</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B90" t="str">
         <f>"99"</f>
@@ -9244,71 +9349,71 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B91" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D91" t="s">
         <v>1420</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1421</v>
       </c>
       <c r="E91" s="48"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B92" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C92" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D92" t="s">
         <v>1422</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1423</v>
       </c>
       <c r="E92" s="48"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B93" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C93" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D93" t="s">
         <v>1424</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1425</v>
       </c>
       <c r="E93" s="48"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B94" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C94" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D94" t="s">
         <v>1426</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1427</v>
       </c>
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B95" t="str">
         <f>"9"</f>
@@ -9324,52 +9429,52 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B96" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C96" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D96" t="s">
         <v>1428</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B97" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D97" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B98" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C98" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D98" t="s">
         <v>1431</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B99" t="str">
         <f>"9"</f>
@@ -9683,11 +9788,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9963,7 +10068,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -10238,7 +10343,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
@@ -10249,7 +10354,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B51" t="s">
         <v>318</v>
@@ -10260,7 +10365,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B52" t="s">
         <v>117</v>
@@ -10271,7 +10376,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B53" t="s">
         <v>318</v>
@@ -10282,7 +10387,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B54" t="s">
         <v>117</v>
@@ -10293,7 +10398,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B55" t="s">
         <v>318</v>
@@ -10304,7 +10409,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
@@ -10315,7 +10420,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B57" t="s">
         <v>318</v>
@@ -10340,7 +10445,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -10354,7 +10459,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -10365,7 +10470,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -10376,7 +10481,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -10387,7 +10492,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B64" t="s">
         <v>117</v>
@@ -10398,7 +10503,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -10409,7 +10514,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -10420,7 +10525,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -11052,13 +11157,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>357</v>
+        <v>1460</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" s="43" t="b">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
       </c>
       <c r="D126" t="s">
         <v>1062</v>
@@ -11066,76 +11171,76 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>364</v>
+        <v>1470</v>
       </c>
       <c r="B127" t="s">
         <v>22</v>
       </c>
-      <c r="C127" s="43" t="b">
-        <v>0</v>
+      <c r="C127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>360</v>
+        <v>1477</v>
       </c>
       <c r="B128" t="s">
-        <v>318</v>
-      </c>
-      <c r="C128" s="43" t="b">
+        <v>22</v>
+      </c>
+      <c r="C128" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>428</v>
+        <v>1483</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129" s="43" t="b">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>431</v>
+        <v>1489</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
-      <c r="C130" s="43" t="b">
-        <v>0</v>
+      <c r="C130" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C131" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>928</v>
+        <v>364</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="C132" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>942</v>
+        <v>360</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="C133" s="43" t="b">
         <v>1</v>
@@ -11143,32 +11248,32 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>932</v>
+        <v>428</v>
       </c>
       <c r="B134" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C134" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>936</v>
+        <v>431</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="C135" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>940</v>
+        <v>429</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="C136" s="43" t="b">
         <v>1</v>
@@ -11176,7 +11281,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B137" t="s">
         <v>123</v>
@@ -11187,7 +11292,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B138" t="s">
         <v>123</v>
@@ -11198,7 +11303,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B139" t="s">
         <v>123</v>
@@ -11209,7 +11314,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="B140" t="s">
         <v>123</v>
@@ -11220,7 +11325,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B141" t="s">
         <v>123</v>
@@ -11231,7 +11336,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="B142" t="s">
         <v>123</v>
@@ -11242,7 +11347,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="B143" t="s">
         <v>123</v>
@@ -11253,7 +11358,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="B144" t="s">
         <v>123</v>
@@ -11264,7 +11369,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B145" t="s">
         <v>123</v>
@@ -11275,7 +11380,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B146" t="s">
         <v>123</v>
@@ -11286,18 +11391,18 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1085</v>
+        <v>939</v>
       </c>
       <c r="B147" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C147" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="B148" t="s">
         <v>123</v>
@@ -11308,32 +11413,32 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>381</v>
+        <v>933</v>
       </c>
       <c r="B149" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C149" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>383</v>
+        <v>937</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C150" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>382</v>
+        <v>943</v>
       </c>
       <c r="B151" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="C151" s="43" t="b">
         <v>1</v>
@@ -11341,10 +11446,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>398</v>
+        <v>1085</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C152" s="43" t="b">
         <v>0</v>
@@ -11352,32 +11457,32 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>400</v>
+        <v>941</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C153" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B154" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C154" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="B155" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C155" s="43" t="b">
         <v>0</v>
@@ -11385,32 +11490,32 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="B156" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C156" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B157" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C157" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C158" s="43" t="b">
         <v>0</v>
@@ -11418,32 +11523,32 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C159" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C160" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B161" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C161" s="43" t="b">
         <v>0</v>
@@ -11453,36 +11558,36 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C162" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" s="43"/>
       <c r="H162" s="43"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B163" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C163" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" s="43"/>
       <c r="H163" s="43"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="B164" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C164" s="43" t="b">
         <v>0</v>
@@ -11492,36 +11597,36 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C165" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" s="43"/>
       <c r="H165" s="43"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B166" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C166" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" s="43"/>
       <c r="H166" s="43"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B167" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C167" s="43" t="b">
         <v>0</v>
@@ -11531,36 +11636,36 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C168" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="43"/>
       <c r="H168" s="43"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B169" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C169" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" s="43"/>
       <c r="H169" s="43"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B170" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C170" s="43" t="b">
         <v>0</v>
@@ -11570,36 +11675,36 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C171" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="43"/>
       <c r="H171" s="43"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B172" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C172" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" s="43"/>
       <c r="H172" s="43"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="B173" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C173" s="43" t="b">
         <v>0</v>
@@ -11609,36 +11714,36 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C174" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="43"/>
       <c r="H174" s="43"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B175" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C175" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" s="43"/>
       <c r="H175" s="43"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="B176" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C176" s="43" t="b">
         <v>0</v>
@@ -11648,36 +11753,36 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C177" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="43"/>
       <c r="H177" s="43"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B178" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C178" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" s="43"/>
       <c r="H178" s="43"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="B179" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C179" s="43" t="b">
         <v>0</v>
@@ -11687,36 +11792,36 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B180" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C180" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" s="43"/>
       <c r="H180" s="43"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B181" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C181" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" s="43"/>
       <c r="H181" s="43"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="B182" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C182" s="43" t="b">
         <v>0</v>
@@ -11726,36 +11831,36 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C183" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="43"/>
       <c r="H183" s="43"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B184" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C184" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" s="43"/>
       <c r="H184" s="43"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="B185" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C185" s="43" t="b">
         <v>0</v>
@@ -11765,333 +11870,283 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C186" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G186" s="43"/>
-      <c r="H186" s="43"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B187" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="C187" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G187" s="43"/>
-      <c r="H187" s="43"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B188" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C188" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G188" s="43"/>
-      <c r="H188" s="43"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C189" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G189" s="43"/>
-      <c r="H189" s="43"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B190" t="s">
+        <v>117</v>
+      </c>
+      <c r="C190" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>426</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>424</v>
+      </c>
+      <c r="B192" t="s">
         <v>318</v>
       </c>
-      <c r="C190" s="43" t="b">
+      <c r="C192" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G190" s="43"/>
-      <c r="H190" s="43"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="43"/>
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
-      <c r="G191" s="43"/>
-      <c r="H191" s="43"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="B192" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C192" s="43" t="b">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B193" t="s">
+        <v>117</v>
+      </c>
+      <c r="C193" t="b">
         <v>0</v>
       </c>
-      <c r="D192" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F192" s="43"/>
-      <c r="H192" s="43"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="B193" s="43" t="s">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B194" t="s">
         <v>72</v>
       </c>
-      <c r="C193" s="43" t="b">
+      <c r="C194" t="b">
         <v>0</v>
       </c>
-      <c r="F193" s="43"/>
-      <c r="H193" s="43"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="43" t="s">
-        <v>545</v>
-      </c>
-      <c r="B194" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C194" s="43" t="b">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B195" t="s">
+        <v>117</v>
+      </c>
+      <c r="C195" t="b">
         <v>0</v>
       </c>
-      <c r="F194" s="43"/>
-      <c r="H194" s="43"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="43" t="s">
-        <v>550</v>
-      </c>
-      <c r="B195" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C195" s="43" t="b">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B196" t="s">
+        <v>72</v>
+      </c>
+      <c r="C196" t="b">
         <v>0</v>
       </c>
-      <c r="F195" s="43"/>
-      <c r="H195" s="43"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="43" t="s">
-        <v>548</v>
-      </c>
-      <c r="B196" s="43" t="s">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B197" t="s">
+        <v>117</v>
+      </c>
+      <c r="C197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B198" t="s">
         <v>72</v>
       </c>
-      <c r="C196" s="43" t="b">
+      <c r="C198" t="b">
         <v>0</v>
       </c>
-      <c r="F196" s="43"/>
-      <c r="H196" s="43"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="43" t="s">
-        <v>455</v>
-      </c>
-      <c r="B197" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C197" s="43" t="b">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B199" t="s">
+        <v>117</v>
+      </c>
+      <c r="C199" t="b">
         <v>0</v>
       </c>
-      <c r="F197" s="43"/>
-      <c r="H197" s="43"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="43" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B198" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C198" s="43" t="b">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B200" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" t="b">
         <v>0</v>
       </c>
-      <c r="F198" s="43"/>
-      <c r="H198" s="43"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="43" t="s">
-        <v>534</v>
-      </c>
-      <c r="B199" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" s="43" t="b">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B201" t="s">
+        <v>117</v>
+      </c>
+      <c r="C201" t="b">
         <v>0</v>
       </c>
-      <c r="F199" s="43"/>
-      <c r="H199" s="43"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="B200" s="43" t="s">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B202" t="s">
         <v>72</v>
       </c>
-      <c r="C200" s="43" t="b">
+      <c r="C202" t="b">
         <v>0</v>
       </c>
-      <c r="F200" s="43"/>
-      <c r="H200" s="43"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="43" t="s">
-        <v>536</v>
-      </c>
-      <c r="B201" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C201" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F201" s="43"/>
-      <c r="H201" s="43"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="B202" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C202" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F202" s="43"/>
-      <c r="H202" s="43"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="B203" s="43" t="s">
-        <v>22</v>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>419</v>
+      </c>
+      <c r="B203" t="s">
+        <v>117</v>
       </c>
       <c r="C203" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F203" s="43"/>
-      <c r="H203" s="43"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="43" t="s">
-        <v>501</v>
-      </c>
-      <c r="B204" s="43" t="s">
-        <v>72</v>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>421</v>
+      </c>
+      <c r="B204" t="s">
+        <v>22</v>
       </c>
       <c r="C204" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F204" s="43"/>
-      <c r="H204" s="43"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="B205" s="43" t="s">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>420</v>
+      </c>
+      <c r="B205" t="s">
+        <v>318</v>
+      </c>
+      <c r="C205" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="43"/>
+      <c r="B206" s="43"/>
+      <c r="C206" s="43"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="B207" s="43" t="s">
         <v>22</v>
-      </c>
-      <c r="C205" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F205" s="43"/>
-      <c r="H205" s="43"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="43" t="s">
-        <v>469</v>
-      </c>
-      <c r="B206" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C206" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F206" s="43"/>
-      <c r="H206" s="43"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="B207" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="C207" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E207" s="14"/>
+      <c r="D207" t="s">
+        <v>1063</v>
+      </c>
       <c r="F207" s="43"/>
-      <c r="H207" s="43"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="43" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
       <c r="B208" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C208" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E208" s="14"/>
       <c r="F208" s="43"/>
-      <c r="H208" s="43"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="43" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B209" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C209" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E209" s="14"/>
       <c r="F209" s="43"/>
-      <c r="H209" s="43"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="43" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="B210" s="43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C210" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E210" s="14"/>
       <c r="F210" s="43"/>
-      <c r="H210" s="43"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="43" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="B211" s="43" t="s">
         <v>72</v>
@@ -12099,13 +12154,11 @@
       <c r="C211" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E211" s="14"/>
       <c r="F211" s="43"/>
-      <c r="H211" s="43"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="43" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="B212" s="43" t="s">
         <v>22</v>
@@ -12113,13 +12166,11 @@
       <c r="C212" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E212" s="14"/>
       <c r="F212" s="43"/>
-      <c r="H212" s="43"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="43" t="s">
-        <v>480</v>
+        <v>1068</v>
       </c>
       <c r="B213" s="43" t="s">
         <v>22</v>
@@ -12127,27 +12178,23 @@
       <c r="C213" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E213" s="14"/>
       <c r="F213" s="43"/>
-      <c r="H213" s="43"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="43" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
       <c r="B214" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C214" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E214" s="14"/>
       <c r="F214" s="43"/>
-      <c r="H214" s="43"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="43" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="B215" s="43" t="s">
         <v>72</v>
@@ -12155,27 +12202,23 @@
       <c r="C215" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E215" s="14"/>
       <c r="F215" s="43"/>
-      <c r="H215" s="43"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="43" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B216" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C216" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E216" s="14"/>
       <c r="F216" s="43"/>
-      <c r="H216" s="43"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="43" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="B217" s="43" t="s">
         <v>22</v>
@@ -12183,13 +12226,11 @@
       <c r="C217" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E217" s="14"/>
       <c r="F217" s="43"/>
-      <c r="H217" s="43"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="43" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="B218" s="43" t="s">
         <v>22</v>
@@ -12197,26 +12238,23 @@
       <c r="C218" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E218" s="14"/>
       <c r="F218" s="43"/>
-      <c r="H218" s="43"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
-        <v>1071</v>
+        <v>501</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C219" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E219" s="14"/>
-      <c r="H219" s="43"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F219" s="43"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="43" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="B220" s="43" t="s">
         <v>22</v>
@@ -12224,27 +12262,23 @@
       <c r="C220" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E220" s="14"/>
       <c r="F220" s="43"/>
-      <c r="H220" s="43"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="43" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B221" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C221" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E221" s="14"/>
       <c r="F221" s="43"/>
-      <c r="H221" s="43"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="43" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="B222" s="43" t="s">
         <v>72</v>
@@ -12254,39 +12288,36 @@
       </c>
       <c r="E222" s="14"/>
       <c r="F222" s="43"/>
-      <c r="H222" s="43"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="43" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="B223" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C223" s="43" t="b">
         <v>0</v>
       </c>
       <c r="E223" s="14"/>
       <c r="F223" s="43"/>
-      <c r="H223" s="43"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="43" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="B224" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C224" s="43" t="b">
         <v>0</v>
       </c>
       <c r="E224" s="14"/>
       <c r="F224" s="43"/>
-      <c r="H224" s="43"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="43" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B225" s="43" t="s">
         <v>22</v>
@@ -12294,38 +12325,38 @@
       <c r="C225" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E225" s="14"/>
       <c r="F225" s="43"/>
-      <c r="H225" s="43"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="43" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C226" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E226" s="14"/>
       <c r="F226" s="43"/>
-      <c r="H226" s="43"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="43" t="s">
-        <v>1086</v>
+        <v>514</v>
       </c>
       <c r="B227" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C227" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E227" s="14"/>
       <c r="F227" s="43"/>
-      <c r="H227" s="43"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="43" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="B228" s="43" t="s">
         <v>22</v>
@@ -12333,12 +12364,12 @@
       <c r="C228" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E228" s="14"/>
       <c r="F228" s="43"/>
-      <c r="H228" s="43"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="43" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="B229" s="43" t="s">
         <v>72</v>
@@ -12346,64 +12377,64 @@
       <c r="C229" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E229" s="14"/>
       <c r="F229" s="43"/>
-      <c r="H229" s="43"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="43" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="B230" s="43" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C230" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E230" s="14"/>
       <c r="F230" s="43"/>
-      <c r="H230" s="43"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="43" t="s">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C231" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E231" s="14"/>
       <c r="F231" s="43"/>
-      <c r="H231" s="43"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="43" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B232" s="43" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C232" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E232" s="14"/>
       <c r="F232" s="43"/>
-      <c r="H232" s="43"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="43" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B233" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C233" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E233" s="14"/>
       <c r="F233" s="43"/>
-      <c r="H233" s="43"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="43" t="s">
-        <v>488</v>
+        <v>1071</v>
       </c>
       <c r="B234" s="43" t="s">
         <v>22</v>
@@ -12411,64 +12442,63 @@
       <c r="C234" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F234" s="43"/>
-      <c r="H234" s="43"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E234" s="14"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="43" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="B235" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C235" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E235" s="14"/>
       <c r="F235" s="43"/>
-      <c r="H235" s="43"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="43" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="B236" s="43" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C236" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E236" s="14"/>
       <c r="F236" s="43"/>
-      <c r="H236" s="43"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="43" t="s">
-        <v>1070</v>
+        <v>518</v>
       </c>
       <c r="B237" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C237" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E237" s="14"/>
       <c r="F237" s="43"/>
-      <c r="H237" s="43"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="43" t="s">
-        <v>1069</v>
+        <v>520</v>
       </c>
       <c r="B238" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C238" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E238" s="14"/>
       <c r="F238" s="43"/>
-      <c r="H238" s="43"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="43" t="s">
-        <v>591</v>
+        <v>462</v>
       </c>
       <c r="B239" s="43" t="s">
         <v>22</v>
@@ -12476,137 +12506,132 @@
       <c r="C239" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E239" s="14"/>
       <c r="F239" s="43"/>
-      <c r="H239" s="43"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="43" t="s">
-        <v>440</v>
+        <v>524</v>
       </c>
       <c r="B240" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C240" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F240" s="43"/>
-      <c r="H240" s="43"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="43" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B241" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C241" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F241" s="43"/>
-      <c r="H241" s="43"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="43" t="s">
-        <v>493</v>
+        <v>1086</v>
       </c>
       <c r="B242" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C242" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F242" s="43"/>
-      <c r="H242" s="43"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="43" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="B243" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C243" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F243" s="43"/>
-      <c r="H243" s="43"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="43" t="s">
-        <v>1072</v>
+        <v>436</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C244" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F244" s="43"/>
-      <c r="H244" s="43"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="43" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="C245" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F245" s="43"/>
-      <c r="H245" s="43"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="43" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="B246" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C246" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F246" s="43"/>
-      <c r="H246" s="43"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="43" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C247" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F247" s="43"/>
-      <c r="H247" s="43"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="43"/>
-      <c r="B248" s="43"/>
-      <c r="C248" s="43"/>
-      <c r="H248" s="43"/>
+      <c r="A248" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="B248" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C248" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F248" s="43"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="43" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="B249" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C249" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D249" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H249" s="43"/>
+      <c r="F249" s="43"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="43" t="s">
-        <v>115</v>
+        <v>491</v>
       </c>
       <c r="B250" s="43" t="s">
         <v>72</v>
@@ -12614,93 +12639,277 @@
       <c r="C250" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="F250" s="43"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="43" t="s">
-        <v>48</v>
+        <v>443</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="C251" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="F251" s="43"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B252" s="43"/>
-      <c r="C252" s="43"/>
+      <c r="A252" s="43" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B252" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F252" s="43"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="43" t="s">
-        <v>650</v>
+        <v>1069</v>
       </c>
       <c r="B253" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C253" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D253" t="s">
-        <v>1065</v>
-      </c>
+      <c r="F253" s="43"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="43" t="s">
-        <v>262</v>
+        <v>591</v>
       </c>
       <c r="B254" s="43" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C254" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="F254" s="43"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="43" t="s">
-        <v>667</v>
+        <v>440</v>
       </c>
       <c r="B255" s="43" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="C255" s="43" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F255" s="43"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="43" t="s">
-        <v>631</v>
+        <v>512</v>
       </c>
       <c r="B256" s="43" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C256" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F256" s="43"/>
+      <c r="H256" s="43"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="43" t="s">
-        <v>630</v>
+        <v>493</v>
       </c>
       <c r="B257" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C257" s="43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="43"/>
-      <c r="B258" s="43"/>
-      <c r="C258" s="43"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="43"/>
-      <c r="B259" s="43"/>
-      <c r="C259" s="43"/>
+      <c r="F257" s="43"/>
+      <c r="H257" s="43"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="B258" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C258" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F258" s="43"/>
+      <c r="H258" s="43"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B259" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F259" s="43"/>
+      <c r="H259" s="43"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="43" t="s">
+        <v>447</v>
+      </c>
+      <c r="B260" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F260" s="43"/>
+      <c r="H260" s="43"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="B261" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F261" s="43"/>
+      <c r="H261" s="43"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="B262" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C262" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F262" s="43"/>
+      <c r="H262" s="43"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="43"/>
+      <c r="B263" s="43"/>
+      <c r="C263" s="43"/>
+      <c r="H263" s="43"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B264" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C264" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H264" s="43"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B265" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C265" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B266" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C266" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B267" s="43"/>
+      <c r="C267" s="43"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="B268" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C268" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B269" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C269" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="43" t="s">
+        <v>667</v>
+      </c>
+      <c r="B270" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C270" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="B271" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="B272" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C272" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="43"/>
+      <c r="B273" s="43"/>
+      <c r="C273" s="43"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="43"/>
+      <c r="B274" s="43"/>
+      <c r="C274" s="43"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:C58">
-    <sortCondition ref="A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A126:C205">
+    <sortCondition ref="A126"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12984,7 +13193,7 @@
         <v>953</v>
       </c>
       <c r="H15" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I15" s="46"/>
     </row>
@@ -13120,10 +13329,10 @@
         <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H26" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I26" s="46"/>
     </row>
@@ -13312,7 +13521,7 @@
         <v>953</v>
       </c>
       <c r="H44" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I44" s="46"/>
     </row>
@@ -13379,8 +13588,8 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14003,10 +14212,10 @@
         <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H47" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I47" s="46"/>
     </row>
@@ -14173,12 +14382,12 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -14192,7 +14401,7 @@
         <v>87</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1365</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -14214,17 +14423,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22453C-0017-476B-BA31-56D5A3D2A587}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19:H19"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149:XFD151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -14459,13 +14668,13 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G20" t="s">
         <v>1435</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>1436</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -14550,7 +14759,7 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -14574,10 +14783,10 @@
         <v>143</v>
       </c>
       <c r="G32" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H32" t="s">
         <v>1439</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -14585,13 +14794,13 @@
         <v>117</v>
       </c>
       <c r="F33" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G33" t="s">
         <v>1441</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>1442</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -14602,7 +14811,7 @@
         <v>359</v>
       </c>
       <c r="F34" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -14610,7 +14819,7 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -14618,7 +14827,7 @@
         <v>123</v>
       </c>
       <c r="F36" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I36" t="s">
         <v>362</v>
@@ -14634,13 +14843,13 @@
         <v>117</v>
       </c>
       <c r="F38" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G38" t="s">
         <v>1446</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>1447</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -14651,7 +14860,7 @@
         <v>359</v>
       </c>
       <c r="F39" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -14659,7 +14868,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -14667,7 +14876,7 @@
         <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I41" t="s">
         <v>362</v>
@@ -14683,13 +14892,13 @@
         <v>117</v>
       </c>
       <c r="F43" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G43" t="s">
         <v>1451</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>1452</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -14700,7 +14909,7 @@
         <v>359</v>
       </c>
       <c r="F44" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -14708,7 +14917,7 @@
         <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -14716,7 +14925,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I46" t="s">
         <v>362</v>
@@ -14732,13 +14941,13 @@
         <v>117</v>
       </c>
       <c r="F48" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G48" t="s">
         <v>1456</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>1457</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -14749,7 +14958,7 @@
         <v>359</v>
       </c>
       <c r="F49" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -14757,7 +14966,7 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -14765,7 +14974,7 @@
         <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I51" t="s">
         <v>362</v>
@@ -14857,10 +15066,10 @@
         <v>136</v>
       </c>
       <c r="G61" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H61" s="50" t="s">
         <v>1433</v>
-      </c>
-      <c r="H61" s="50" t="s">
-        <v>1434</v>
       </c>
       <c r="I61" s="46"/>
     </row>
@@ -14920,7 +15129,7 @@
         <v>318</v>
       </c>
       <c r="E67" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F67" t="s">
         <v>819</v>
@@ -14931,7 +15140,7 @@
         <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -14942,7 +15151,7 @@
         <v>145</v>
       </c>
       <c r="I69" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -14955,7 +15164,7 @@
         <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -14966,7 +15175,7 @@
         <v>145</v>
       </c>
       <c r="I72" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -15060,7 +15269,7 @@
         <v>318</v>
       </c>
       <c r="E82" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F82" t="s">
         <v>820</v>
@@ -15071,7 +15280,7 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -15082,7 +15291,7 @@
         <v>152</v>
       </c>
       <c r="I84" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -15095,7 +15304,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -15106,7 +15315,7 @@
         <v>152</v>
       </c>
       <c r="I87" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -15200,7 +15409,7 @@
         <v>318</v>
       </c>
       <c r="E97" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F97" t="s">
         <v>821</v>
@@ -15211,7 +15420,7 @@
         <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -15222,7 +15431,7 @@
         <v>154</v>
       </c>
       <c r="I99" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -15235,7 +15444,7 @@
         <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -15246,7 +15455,7 @@
         <v>154</v>
       </c>
       <c r="I102" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -15683,12 +15892,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>143</v>
       </c>
@@ -15699,7 +15908,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
         <v>72</v>
       </c>
@@ -15714,14 +15923,34 @@
       </c>
       <c r="I147" s="46"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>47</v>
       </c>
       <c r="I148" s="46"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="71"/>
       <c r="B149" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="71"/>
+      <c r="B151" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>625</v>
       </c>
     </row>
@@ -15732,17 +15961,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6112A026-8803-4D92-B136-AAFB7C0CE855}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -15782,7 +16011,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -15795,10 +16024,10 @@
         <v>143</v>
       </c>
       <c r="G3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H3" t="s">
         <v>1398</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -15806,16 +16035,16 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G4" t="s">
         <v>1400</v>
       </c>
-      <c r="F4" t="s">
-        <v>1394</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>1401</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -15823,16 +16052,16 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G5" t="s">
         <v>1403</v>
       </c>
-      <c r="F5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>1404</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -15850,10 +16079,10 @@
         <v>143</v>
       </c>
       <c r="G8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H8" t="s">
         <v>1398</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -15864,13 +16093,13 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H9" t="s">
         <v>1406</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -15881,13 +16110,13 @@
         <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H10" t="s">
         <v>1408</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -15905,10 +16134,10 @@
         <v>143</v>
       </c>
       <c r="G13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H13" t="s">
         <v>1398</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -15919,13 +16148,13 @@
         <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G14" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H14" t="s">
         <v>1410</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -15933,16 +16162,16 @@
         <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G15" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H15" t="s">
         <v>1412</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>1413</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -15960,10 +16189,10 @@
         <v>143</v>
       </c>
       <c r="G18" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H18" t="s">
         <v>1398</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -15971,13 +16200,13 @@
         <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G19" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H19" t="s">
         <v>1415</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -15985,15 +16214,20 @@
         <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I20" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -16718,7 +16952,7 @@
         <v>275</v>
       </c>
       <c r="H67" s="46" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -16858,7 +17092,7 @@
         <v>280</v>
       </c>
       <c r="H80" s="46" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -18284,7 +18518,7 @@
         <v>835</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -19154,18 +19388,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
-  <dimension ref="A1:L526"/>
+  <dimension ref="A1:L591"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A530" sqref="A530:XFD530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -23647,7 +23881,7 @@
         <v>1243</v>
       </c>
       <c r="H488" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="489" spans="2:12" x14ac:dyDescent="0.25">
@@ -23663,7 +23897,7 @@
         <v>1244</v>
       </c>
       <c r="H490" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="491" spans="2:12" x14ac:dyDescent="0.25">
@@ -23954,6 +24188,7 @@
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A523" s="45"/>
       <c r="B523" t="s">
         <v>46</v>
       </c>
@@ -23971,24 +24206,578 @@
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D525" t="s">
-        <v>72</v>
+        <v>22</v>
+      </c>
+      <c r="E525" t="s">
+        <v>578</v>
       </c>
       <c r="F525" t="s">
-        <v>1085</v>
+        <v>1460</v>
       </c>
       <c r="G525" t="s">
-        <v>1138</v>
+        <v>1461</v>
       </c>
       <c r="H525" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I525" s="46"/>
+        <v>1462</v>
+      </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
         <v>47</v>
       </c>
-      <c r="I526" s="46"/>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>87</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="529" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D529" t="s">
+        <v>143</v>
+      </c>
+      <c r="G529" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H529" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="530" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D530" t="s">
+        <v>117</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G530" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H530" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="531" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D531" t="s">
+        <v>72</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G531" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H531" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="532" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="533" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="534" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="535" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="536" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="537" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D537" t="s">
+        <v>143</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H537" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="538" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D538" t="s">
+        <v>22</v>
+      </c>
+      <c r="E538" t="s">
+        <v>578</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G538" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H538" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="539" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B539" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="540" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B540" t="s">
+        <v>87</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="541" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B541" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="542" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D542" t="s">
+        <v>143</v>
+      </c>
+      <c r="G542" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H542" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="543" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D543" t="s">
+        <v>117</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G543" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H543" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="544" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D544" t="s">
+        <v>72</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G544" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H544" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="545" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B545" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="546" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B546" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="547" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B547" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="548" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B548" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="549" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B549" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="550" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D550" t="s">
+        <v>143</v>
+      </c>
+      <c r="G550" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H550" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="551" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D551" t="s">
+        <v>22</v>
+      </c>
+      <c r="E551" t="s">
+        <v>578</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H551" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="552" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B552" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="553" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B553" t="s">
+        <v>87</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="554" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B554" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="555" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D555" t="s">
+        <v>143</v>
+      </c>
+      <c r="G555" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H555" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="556" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D556" t="s">
+        <v>117</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="557" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D557" t="s">
+        <v>72</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G557" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H557" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="558" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B558" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="559" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B559" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="560" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B560" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="561" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B561" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="562" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B562" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D563" t="s">
+        <v>143</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H563" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="564" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D564" t="s">
+        <v>22</v>
+      </c>
+      <c r="E564" t="s">
+        <v>578</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H564" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B565" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="566" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B566" t="s">
+        <v>87</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="567" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B567" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="568" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D568" t="s">
+        <v>143</v>
+      </c>
+      <c r="G568" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H568" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D569" t="s">
+        <v>117</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G569" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H569" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D570" t="s">
+        <v>72</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H570" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="571" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B571" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="572" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B572" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="573" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="574" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B574" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="575" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B575" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D576" t="s">
+        <v>143</v>
+      </c>
+      <c r="G576" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H576" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D577" t="s">
+        <v>22</v>
+      </c>
+      <c r="E577" t="s">
+        <v>578</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G577" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H577" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B578" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>87</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B580" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D581" t="s">
+        <v>143</v>
+      </c>
+      <c r="G581" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H581" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D582" t="s">
+        <v>117</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G582" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D583" t="s">
+        <v>72</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G583" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H583" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B584" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B585" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B586" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A587" s="45"/>
+      <c r="B587" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>31</v>
+      </c>
+      <c r="B588" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D589" t="s">
+        <v>143</v>
+      </c>
+      <c r="G589" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H589" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D590" t="s">
+        <v>72</v>
+      </c>
+      <c r="F590" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G590" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H590" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I590" s="46"/>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B591" t="s">
+        <v>47</v>
+      </c>
+      <c r="I591" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E202FFBF-6915-4521-B0C9-0598B47CE888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB271F5-DE4E-4504-9ADC-7049485DBC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="1533">
   <si>
     <t>setting_name</t>
   </si>
@@ -4551,6 +4551,117 @@
   </si>
   <si>
     <t>data('ESTADO') == '11'</t>
+  </si>
+  <si>
+    <t>data('lastvisitdate') == null &amp;&amp; data('PREGID') == null</t>
+  </si>
+  <si>
+    <t>DATAINTREG</t>
+  </si>
+  <si>
+    <t>dataintregns</t>
+  </si>
+  <si>
+    <t>data('dataintregns') != null</t>
+  </si>
+  <si>
+    <t>DATAINTREGM</t>
+  </si>
+  <si>
+    <t>DATAINTREGA</t>
+  </si>
+  <si>
+    <t>Age in years</t>
+  </si>
+  <si>
+    <t>Age in months</t>
+  </si>
+  <si>
+    <t>Idade em anos</t>
+  </si>
+  <si>
+    <t>Idade em meses</t>
+  </si>
+  <si>
+    <t>dataintregamns</t>
+  </si>
+  <si>
+    <t>data('dataintregns')</t>
+  </si>
+  <si>
+    <t>data('dataintregamns') != null</t>
+  </si>
+  <si>
+    <t>dontknowage</t>
+  </si>
+  <si>
+    <t>Don't know the age</t>
+  </si>
+  <si>
+    <t>Não sabe a idade</t>
+  </si>
+  <si>
+    <t>Date of latest hospitalization</t>
+  </si>
+  <si>
+    <t>Data de último internamento</t>
+  </si>
+  <si>
+    <t>Don't know the date</t>
+  </si>
+  <si>
+    <t>Não sabe a data</t>
+  </si>
+  <si>
+    <t>(data('lastvisitdate') == null &amp;&amp; data('PREGID') != null) || data('lastvisitdate') != null</t>
+  </si>
+  <si>
+    <t>CAMPNOVO</t>
+  </si>
+  <si>
+    <t>data('CAMPNOVO') == '1'</t>
+  </si>
+  <si>
+    <t>CAMPCODE</t>
+  </si>
+  <si>
+    <t>Choose which campaign</t>
+  </si>
+  <si>
+    <t>Escolha qual campanha</t>
+  </si>
+  <si>
+    <t>CAMPEST</t>
+  </si>
+  <si>
+    <t>A criança participou?</t>
+  </si>
+  <si>
+    <t>Did the child participate?</t>
+  </si>
+  <si>
+    <t>campinf</t>
+  </si>
+  <si>
+    <t>CAMPINF</t>
+  </si>
+  <si>
+    <t>Infrmador</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Outra</t>
+  </si>
+  <si>
+    <t>Any campaign since last visit?</t>
+  </si>
+  <si>
+    <t>Alguma campanha desde a última visita?</t>
   </si>
 </sst>
 </file>
@@ -7926,11 +8037,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:D58"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9279,10 +9390,10 @@
         <v>D:NS,M:NS,Y:NS</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>1514</v>
       </c>
       <c r="D86" t="s">
-        <v>82</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -9349,17 +9460,17 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1399</v>
+        <v>1509</v>
       </c>
       <c r="B91" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"99"</f>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>1419</v>
+        <v>1510</v>
       </c>
       <c r="D91" t="s">
-        <v>1420</v>
+        <v>1511</v>
       </c>
       <c r="E91" s="48"/>
     </row>
@@ -9368,14 +9479,14 @@
         <v>1399</v>
       </c>
       <c r="B92" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D92" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E92" s="48"/>
     </row>
@@ -9384,14 +9495,14 @@
         <v>1399</v>
       </c>
       <c r="B93" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D93" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E93" s="48"/>
     </row>
@@ -9400,14 +9511,14 @@
         <v>1399</v>
       </c>
       <c r="B94" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D94" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E94" s="48"/>
     </row>
@@ -9416,45 +9527,46 @@
         <v>1399</v>
       </c>
       <c r="B95" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E95" s="48"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B96" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>99</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>82</v>
       </c>
-      <c r="E95" s="48"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B96" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1428</v>
-      </c>
+      <c r="E96" s="48"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1402</v>
       </c>
       <c r="B97" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D97" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -9462,14 +9574,14 @@
         <v>1402</v>
       </c>
       <c r="B98" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D98" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -9477,14 +9589,74 @@
         <v>1402</v>
       </c>
       <c r="B99" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B100" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>99</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B101" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B102" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B103" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
@@ -9788,11 +9960,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10501,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1393</v>
       </c>
@@ -10512,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1394</v>
       </c>
@@ -10523,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1395</v>
       </c>
@@ -10534,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
         <v>302</v>
       </c>
@@ -10548,42 +10720,42 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>22</v>
+        <v>1519</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="C70" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>72</v>
+        <v>1522</v>
+      </c>
+      <c r="B71" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="C71" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>25</v>
+        <v>1526</v>
+      </c>
+      <c r="B72" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="C72" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="46" t="s">
-        <v>304</v>
+        <v>1517</v>
       </c>
       <c r="B73" s="46" t="s">
         <v>22</v>
@@ -10592,75 +10764,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C74" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="46" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C75" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="46" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="C76" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="46" t="s">
-        <v>825</v>
+        <v>304</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="C77" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="46" t="s">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="C78" s="43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="46" t="s">
-        <v>830</v>
+        <v>108</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="C79" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B80" s="46" t="s">
         <v>117</v>
@@ -10668,12 +10844,14 @@
       <c r="C80" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="F80" s="48"/>
+      <c r="G80" s="46"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
-        <v>832</v>
-      </c>
-      <c r="B81" s="48" t="s">
+      <c r="A81" s="46" t="s">
+        <v>825</v>
+      </c>
+      <c r="B81" s="46" t="s">
         <v>318</v>
       </c>
       <c r="C81" s="43" t="b">
@@ -10682,7 +10860,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="46" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="B82" s="46" t="s">
         <v>117</v>
@@ -10693,43 +10871,43 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="46" t="s">
-        <v>259</v>
+        <v>830</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>72</v>
+        <v>318</v>
       </c>
       <c r="C83" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="46" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C84" s="43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" s="46" t="s">
-        <v>25</v>
+      <c r="A85" s="48" t="s">
+        <v>832</v>
+      </c>
+      <c r="B85" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="C85" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="46" t="s">
-        <v>121</v>
+      <c r="A86" t="s">
+        <v>1497</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="C86" s="43" t="b">
         <v>0</v>
@@ -10737,9 +10915,9 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="46" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B87" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="43" t="b">
@@ -10747,22 +10925,22 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>22</v>
+      <c r="A88" s="48" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B88" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="C88" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="B89" s="46" t="s">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C89" s="43" t="b">
         <v>0</v>
@@ -10770,32 +10948,32 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="46" t="s">
-        <v>111</v>
+        <v>1498</v>
       </c>
       <c r="B90" s="46" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="C90" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="48" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B91" s="48" t="s">
-        <v>72</v>
+      <c r="A91" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>117</v>
       </c>
       <c r="C91" s="43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B92" s="48" t="s">
-        <v>25</v>
+      <c r="A92" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C92" s="43" t="b">
         <v>0</v>
@@ -10803,7 +10981,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="46" t="s">
-        <v>120</v>
+        <v>297</v>
       </c>
       <c r="B93" s="46" t="s">
         <v>22</v>
@@ -10814,10 +10992,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="46" t="s">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C94" s="43" t="b">
         <v>0</v>
@@ -10825,10 +11003,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C95" s="43" t="b">
         <v>0</v>
@@ -10836,18 +11014,18 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C96" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="B97" s="46" t="s">
         <v>22</v>
@@ -10856,9 +11034,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="46" t="s">
-        <v>882</v>
+        <v>313</v>
       </c>
       <c r="B98" s="46" t="s">
         <v>22</v>
@@ -10867,9 +11045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="46" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="B99" s="46" t="s">
         <v>22</v>
@@ -10878,160 +11056,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="B100" s="46" t="s">
-        <v>22</v>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="48" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="C100" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="B101" s="46" t="s">
-        <v>22</v>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="48" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C101" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>323</v>
-      </c>
-      <c r="B103" t="s">
-        <v>117</v>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="C103" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D103" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>343</v>
-      </c>
-      <c r="B104" t="s">
-        <v>117</v>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="C104" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>328</v>
-      </c>
-      <c r="B105" t="s">
-        <v>72</v>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="C105" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>347</v>
-      </c>
-      <c r="B106" t="s">
-        <v>72</v>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="C106" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>327</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="46" t="s">
+        <v>882</v>
+      </c>
+      <c r="B107" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>346</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B108" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>321</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>341</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="B110" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C110" s="43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>331</v>
-      </c>
-      <c r="B111" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C112" s="43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C113" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B114" t="s">
         <v>72</v>
@@ -11040,20 +11222,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C115" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B116" t="s">
         <v>22</v>
@@ -11062,9 +11244,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
@@ -11073,20 +11255,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="C118" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
@@ -11095,9 +11277,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
@@ -11106,20 +11288,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B121" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C121" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B122" t="s">
         <v>72</v>
@@ -11128,20 +11310,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C123" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
@@ -11150,83 +11332,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>329</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1460</v>
+        <v>348</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
       </c>
-      <c r="C126" t="b">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1470</v>
+        <v>320</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="C127" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1477</v>
+        <v>336</v>
       </c>
       <c r="B128" t="s">
         <v>22</v>
       </c>
-      <c r="C128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1483</v>
+        <v>352</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
       </c>
-      <c r="C129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1489</v>
+        <v>339</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C130" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B131" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C131" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
@@ -11235,144 +11420,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B133" t="s">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="C133" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>428</v>
-      </c>
-      <c r="B134" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>431</v>
+        <v>1460</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
       </c>
-      <c r="C135" s="43" t="b">
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>357</v>
+      </c>
+      <c r="B140" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>429</v>
-      </c>
-      <c r="B136" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>364</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>360</v>
+      </c>
+      <c r="B142" t="s">
         <v>318</v>
-      </c>
-      <c r="C136" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>928</v>
-      </c>
-      <c r="B137" t="s">
-        <v>123</v>
-      </c>
-      <c r="C137" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>942</v>
-      </c>
-      <c r="B138" t="s">
-        <v>123</v>
-      </c>
-      <c r="C138" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>932</v>
-      </c>
-      <c r="B139" t="s">
-        <v>123</v>
-      </c>
-      <c r="C139" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>936</v>
-      </c>
-      <c r="B140" t="s">
-        <v>123</v>
-      </c>
-      <c r="C140" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>940</v>
-      </c>
-      <c r="B141" t="s">
-        <v>123</v>
-      </c>
-      <c r="C141" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>930</v>
-      </c>
-      <c r="B142" t="s">
-        <v>123</v>
       </c>
       <c r="C142" s="43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>934</v>
+        <v>428</v>
       </c>
       <c r="B143" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C143" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>938</v>
+        <v>431</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="C144" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>931</v>
+        <v>429</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="C145" s="43" t="b">
         <v>1</v>
@@ -11380,7 +11562,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B146" t="s">
         <v>123</v>
@@ -11391,7 +11573,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B147" t="s">
         <v>123</v>
@@ -11402,7 +11584,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B148" t="s">
         <v>123</v>
@@ -11413,7 +11595,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B149" t="s">
         <v>123</v>
@@ -11424,7 +11606,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B150" t="s">
         <v>123</v>
@@ -11435,7 +11617,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="B151" t="s">
         <v>123</v>
@@ -11446,18 +11628,18 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="B152" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C152" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B153" t="s">
         <v>123</v>
@@ -11468,32 +11650,32 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>381</v>
+        <v>931</v>
       </c>
       <c r="B154" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C154" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>383</v>
+        <v>935</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C155" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>382</v>
+        <v>939</v>
       </c>
       <c r="B156" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="C156" s="43" t="b">
         <v>1</v>
@@ -11501,32 +11683,32 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>398</v>
+        <v>929</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C157" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>400</v>
+        <v>933</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C158" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>399</v>
+        <v>937</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="C159" s="43" t="b">
         <v>1</v>
@@ -11534,44 +11716,40 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>415</v>
+        <v>943</v>
       </c>
       <c r="B160" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C160" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>417</v>
+        <v>1085</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C161" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G161" s="43"/>
-      <c r="H161" s="43"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>416</v>
+        <v>941</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="C162" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B163" t="s">
         <v>117</v>
@@ -11579,12 +11757,10 @@
       <c r="C163" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G163" s="43"/>
-      <c r="H163" s="43"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B164" t="s">
         <v>22</v>
@@ -11592,12 +11768,10 @@
       <c r="C164" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G164" s="43"/>
-      <c r="H164" s="43"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B165" t="s">
         <v>318</v>
@@ -11605,12 +11779,10 @@
       <c r="C165" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G165" s="43"/>
-      <c r="H165" s="43"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B166" t="s">
         <v>117</v>
@@ -11618,12 +11790,10 @@
       <c r="C166" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G166" s="43"/>
-      <c r="H166" s="43"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B167" t="s">
         <v>22</v>
@@ -11631,12 +11801,10 @@
       <c r="C167" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G167" s="43"/>
-      <c r="H167" s="43"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B168" t="s">
         <v>318</v>
@@ -11644,12 +11812,10 @@
       <c r="C168" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G168" s="43"/>
-      <c r="H168" s="43"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B169" t="s">
         <v>117</v>
@@ -11657,12 +11823,10 @@
       <c r="C169" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
@@ -11675,7 +11839,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B171" t="s">
         <v>318</v>
@@ -11688,7 +11852,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B172" t="s">
         <v>117</v>
@@ -11701,7 +11865,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B173" t="s">
         <v>22</v>
@@ -11714,7 +11878,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B174" t="s">
         <v>318</v>
@@ -11727,7 +11891,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B175" t="s">
         <v>117</v>
@@ -11740,7 +11904,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B176" t="s">
         <v>22</v>
@@ -11753,7 +11917,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B177" t="s">
         <v>318</v>
@@ -11766,7 +11930,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B178" t="s">
         <v>117</v>
@@ -11779,7 +11943,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B179" t="s">
         <v>22</v>
@@ -11792,7 +11956,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B180" t="s">
         <v>318</v>
@@ -11805,7 +11969,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B181" t="s">
         <v>117</v>
@@ -11818,7 +11982,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B182" t="s">
         <v>22</v>
@@ -11831,7 +11995,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B183" t="s">
         <v>318</v>
@@ -11844,7 +12008,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B184" t="s">
         <v>117</v>
@@ -11857,7 +12021,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B185" t="s">
         <v>22</v>
@@ -11870,7 +12034,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B186" t="s">
         <v>318</v>
@@ -11878,10 +12042,12 @@
       <c r="C186" s="43" t="b">
         <v>1</v>
       </c>
+      <c r="G186" s="43"/>
+      <c r="H186" s="43"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B187" t="s">
         <v>117</v>
@@ -11889,10 +12055,12 @@
       <c r="C187" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="G187" s="43"/>
+      <c r="H187" s="43"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B188" t="s">
         <v>22</v>
@@ -11900,10 +12068,12 @@
       <c r="C188" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="G188" s="43"/>
+      <c r="H188" s="43"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B189" t="s">
         <v>318</v>
@@ -11911,10 +12081,12 @@
       <c r="C189" s="43" t="b">
         <v>1</v>
       </c>
+      <c r="G189" s="43"/>
+      <c r="H189" s="43"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="B190" t="s">
         <v>117</v>
@@ -11922,10 +12094,12 @@
       <c r="C190" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="B191" t="s">
         <v>22</v>
@@ -11933,10 +12107,12 @@
       <c r="C191" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="G191" s="43"/>
+      <c r="H191" s="43"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="B192" t="s">
         <v>318</v>
@@ -11944,269 +12120,263 @@
       <c r="C192" s="43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1466</v>
+        <v>385</v>
       </c>
       <c r="B193" t="s">
         <v>117</v>
       </c>
-      <c r="C193" t="b">
+      <c r="C193" s="43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="43"/>
+      <c r="H193" s="43"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1467</v>
+        <v>387</v>
       </c>
       <c r="B194" t="s">
-        <v>72</v>
-      </c>
-      <c r="C194" t="b">
+        <v>22</v>
+      </c>
+      <c r="C194" s="43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1473</v>
+        <v>386</v>
       </c>
       <c r="B195" t="s">
+        <v>318</v>
+      </c>
+      <c r="C195" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196" t="s">
         <v>117</v>
       </c>
-      <c r="C195" t="b">
+      <c r="C196" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B196" t="s">
-        <v>72</v>
-      </c>
-      <c r="C196" t="b">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>404</v>
+      </c>
+      <c r="B197" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B197" t="s">
-        <v>117</v>
-      </c>
-      <c r="C197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1478</v>
+        <v>403</v>
       </c>
       <c r="B198" t="s">
-        <v>72</v>
-      </c>
-      <c r="C198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="C198" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1488</v>
+        <v>423</v>
       </c>
       <c r="B199" t="s">
         <v>117</v>
       </c>
-      <c r="C199" t="b">
+      <c r="C199" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1487</v>
+        <v>426</v>
       </c>
       <c r="B200" t="s">
-        <v>72</v>
-      </c>
-      <c r="C200" t="b">
+        <v>22</v>
+      </c>
+      <c r="C200" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1494</v>
+        <v>424</v>
       </c>
       <c r="B201" t="s">
+        <v>318</v>
+      </c>
+      <c r="C201" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B202" t="s">
         <v>117</v>
-      </c>
-      <c r="C201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B202" t="s">
-        <v>72</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B203" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B204" t="s">
+        <v>117</v>
+      </c>
+      <c r="C204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B205" t="s">
+        <v>72</v>
+      </c>
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B206" t="s">
+        <v>117</v>
+      </c>
+      <c r="C206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B207" t="s">
+        <v>72</v>
+      </c>
+      <c r="C207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B208" t="s">
+        <v>117</v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B209" t="s">
+        <v>72</v>
+      </c>
+      <c r="C209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B210" t="s">
+        <v>117</v>
+      </c>
+      <c r="C210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B211" t="s">
+        <v>72</v>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>419</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B212" t="s">
         <v>117</v>
-      </c>
-      <c r="C203" s="43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>421</v>
-      </c>
-      <c r="B204" t="s">
-        <v>22</v>
-      </c>
-      <c r="C204" s="43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>420</v>
-      </c>
-      <c r="B205" t="s">
-        <v>318</v>
-      </c>
-      <c r="C205" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="43"/>
-      <c r="B206" s="43"/>
-      <c r="C206" s="43"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="B207" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C207" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F207" s="43"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="B208" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C208" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F208" s="43"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="43" t="s">
-        <v>545</v>
-      </c>
-      <c r="B209" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C209" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F209" s="43"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="43" t="s">
-        <v>550</v>
-      </c>
-      <c r="B210" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C210" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F210" s="43"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="43" t="s">
-        <v>548</v>
-      </c>
-      <c r="B211" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C211" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F211" s="43"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="43" t="s">
-        <v>455</v>
-      </c>
-      <c r="B212" s="43" t="s">
-        <v>22</v>
       </c>
       <c r="C212" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F212" s="43"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="43" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B213" s="43" t="s">
+      <c r="A213" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" t="s">
         <v>22</v>
       </c>
       <c r="C213" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F213" s="43"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="43" t="s">
-        <v>534</v>
-      </c>
-      <c r="B214" s="43" t="s">
-        <v>22</v>
+      <c r="A214" t="s">
+        <v>420</v>
+      </c>
+      <c r="B214" t="s">
+        <v>318</v>
       </c>
       <c r="C214" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F214" s="43"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="B215" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C215" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F215" s="43"/>
+      <c r="A215" s="43"/>
+      <c r="B215" s="43"/>
+      <c r="C215" s="43"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="43" t="s">
-        <v>536</v>
+        <v>464</v>
       </c>
       <c r="B216" s="43" t="s">
         <v>22</v>
@@ -12214,14 +12384,17 @@
       <c r="C216" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="D216" t="s">
+        <v>1063</v>
+      </c>
       <c r="F216" s="43"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="43" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="B217" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C217" s="43" t="b">
         <v>0</v>
@@ -12230,7 +12403,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="43" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="B218" s="43" t="s">
         <v>22</v>
@@ -12242,10 +12415,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C219" s="43" t="b">
         <v>0</v>
@@ -12254,10 +12427,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="43" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B220" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C220" s="43" t="b">
         <v>0</v>
@@ -12266,7 +12439,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="43" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B221" s="43" t="s">
         <v>22</v>
@@ -12278,20 +12451,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="43" t="s">
-        <v>472</v>
+        <v>1068</v>
       </c>
       <c r="B222" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C222" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E222" s="14"/>
       <c r="F222" s="43"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="43" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B223" s="43" t="s">
         <v>22</v>
@@ -12299,12 +12471,11 @@
       <c r="C223" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E223" s="14"/>
       <c r="F223" s="43"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="43" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B224" s="43" t="s">
         <v>72</v>
@@ -12312,12 +12483,11 @@
       <c r="C224" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E224" s="14"/>
       <c r="F224" s="43"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="43" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="B225" s="43" t="s">
         <v>22</v>
@@ -12325,25 +12495,23 @@
       <c r="C225" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E225" s="14"/>
       <c r="F225" s="43"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="43" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C226" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E226" s="14"/>
       <c r="F226" s="43"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="43" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B227" s="43" t="s">
         <v>22</v>
@@ -12351,54 +12519,50 @@
       <c r="C227" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E227" s="14"/>
       <c r="F227" s="43"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="43" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="B228" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C228" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E228" s="14"/>
       <c r="F228" s="43"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="43" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="B229" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C229" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E229" s="14"/>
       <c r="F229" s="43"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="43" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B230" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C230" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E230" s="14"/>
       <c r="F230" s="43"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="43" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C231" s="43" t="b">
         <v>0</v>
@@ -12408,7 +12572,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="43" t="s">
-        <v>457</v>
+        <v>540</v>
       </c>
       <c r="B232" s="43" t="s">
         <v>22</v>
@@ -12421,10 +12585,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="43" t="s">
-        <v>460</v>
+        <v>543</v>
       </c>
       <c r="B233" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C233" s="43" t="b">
         <v>0</v>
@@ -12434,7 +12598,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="43" t="s">
-        <v>1071</v>
+        <v>508</v>
       </c>
       <c r="B234" s="43" t="s">
         <v>22</v>
@@ -12443,13 +12607,14 @@
         <v>0</v>
       </c>
       <c r="E234" s="14"/>
+      <c r="F234" s="43"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="43" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="B235" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C235" s="43" t="b">
         <v>0</v>
@@ -12459,10 +12624,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="43" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="B236" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C236" s="43" t="b">
         <v>0</v>
@@ -12472,10 +12637,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="43" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="B237" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C237" s="43" t="b">
         <v>0</v>
@@ -12485,7 +12650,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="43" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="B238" s="43" t="s">
         <v>72</v>
@@ -12498,10 +12663,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="43" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="B239" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C239" s="43" t="b">
         <v>0</v>
@@ -12511,19 +12676,20 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="43" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B240" s="43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C240" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E240" s="14"/>
       <c r="F240" s="43"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="43" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="B241" s="43" t="s">
         <v>22</v>
@@ -12531,23 +12697,25 @@
       <c r="C241" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E241" s="14"/>
       <c r="F241" s="43"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="43" t="s">
-        <v>1086</v>
+        <v>460</v>
       </c>
       <c r="B242" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C242" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E242" s="14"/>
       <c r="F242" s="43"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="43" t="s">
-        <v>433</v>
+        <v>1071</v>
       </c>
       <c r="B243" s="43" t="s">
         <v>22</v>
@@ -12555,35 +12723,37 @@
       <c r="C243" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F243" s="43"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E243" s="14"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="43" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C244" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E244" s="14"/>
       <c r="F244" s="43"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="43" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C245" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E245" s="14"/>
       <c r="F245" s="43"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="43" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="B246" s="43" t="s">
         <v>72</v>
@@ -12591,35 +12761,38 @@
       <c r="C246" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E246" s="14"/>
       <c r="F246" s="43"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="43" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C247" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E247" s="14"/>
       <c r="F247" s="43"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="43" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C248" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="E248" s="14"/>
       <c r="F248" s="43"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="43" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="B249" s="43" t="s">
         <v>22</v>
@@ -12629,33 +12802,33 @@
       </c>
       <c r="F249" s="43"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="43" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="B250" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C250" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F250" s="43"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="43" t="s">
-        <v>443</v>
+        <v>1086</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C251" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F251" s="43"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="43" t="s">
-        <v>1070</v>
+        <v>433</v>
       </c>
       <c r="B252" s="43" t="s">
         <v>22</v>
@@ -12665,97 +12838,93 @@
       </c>
       <c r="F252" s="43"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="43" t="s">
-        <v>1069</v>
+        <v>436</v>
       </c>
       <c r="B253" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C253" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F253" s="43"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="43" t="s">
-        <v>591</v>
+        <v>451</v>
       </c>
       <c r="B254" s="43" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C254" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F254" s="43"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="43" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B255" s="43" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C255" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F255" s="43"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="43" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="B256" s="43" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C256" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F256" s="43"/>
-      <c r="H256" s="43"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="43" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="B257" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C257" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F257" s="43"/>
-      <c r="H257" s="43"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="43" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B258" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C258" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F258" s="43"/>
-      <c r="H258" s="43"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="43" t="s">
-        <v>1072</v>
+        <v>491</v>
       </c>
       <c r="B259" s="43" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C259" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F259" s="43"/>
-      <c r="H259" s="43"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="43" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B260" s="43" t="s">
         <v>25</v>
@@ -12764,11 +12933,10 @@
         <v>0</v>
       </c>
       <c r="F260" s="43"/>
-      <c r="H260" s="43"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="43" t="s">
-        <v>503</v>
+        <v>1070</v>
       </c>
       <c r="B261" s="43" t="s">
         <v>22</v>
@@ -12777,45 +12945,46 @@
         <v>0</v>
       </c>
       <c r="F261" s="43"/>
-      <c r="H261" s="43"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="43" t="s">
-        <v>506</v>
+        <v>1069</v>
       </c>
       <c r="B262" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C262" s="43" t="b">
         <v>0</v>
       </c>
       <c r="F262" s="43"/>
-      <c r="H262" s="43"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="43"/>
-      <c r="B263" s="43"/>
-      <c r="C263" s="43"/>
-      <c r="H263" s="43"/>
+      <c r="A263" s="43" t="s">
+        <v>591</v>
+      </c>
+      <c r="B263" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" s="43"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="43" t="s">
-        <v>49</v>
+        <v>440</v>
       </c>
       <c r="B264" s="43" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C264" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D264" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H264" s="43"/>
+      <c r="F264" s="43"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="43" t="s">
-        <v>115</v>
+        <v>512</v>
       </c>
       <c r="B265" s="43" t="s">
         <v>72</v>
@@ -12823,93 +12992,205 @@
       <c r="C265" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="F265" s="43"/>
+      <c r="H265" s="43"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="43" t="s">
-        <v>48</v>
+        <v>493</v>
       </c>
       <c r="B266" s="43" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C266" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="F266" s="43"/>
+      <c r="H266" s="43"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B267" s="43"/>
-      <c r="C267" s="43"/>
+      <c r="A267" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="B267" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C267" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F267" s="43"/>
+      <c r="H267" s="43"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="43" t="s">
-        <v>650</v>
+        <v>1072</v>
       </c>
       <c r="B268" s="43" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C268" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="D268" t="s">
-        <v>1065</v>
-      </c>
+      <c r="F268" s="43"/>
+      <c r="H268" s="43"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="43" t="s">
-        <v>262</v>
+        <v>447</v>
       </c>
       <c r="B269" s="43" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="C269" s="43" t="b">
         <v>0</v>
       </c>
+      <c r="F269" s="43"/>
+      <c r="H269" s="43"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="43" t="s">
-        <v>667</v>
+        <v>503</v>
       </c>
       <c r="B270" s="43" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C270" s="43" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F270" s="43"/>
+      <c r="H270" s="43"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="B271" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C271" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F271" s="43"/>
+      <c r="H271" s="43"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="43"/>
+      <c r="B272" s="43"/>
+      <c r="C272" s="43"/>
+      <c r="H272" s="43"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B273" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C273" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H273" s="43"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B274" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C274" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B275" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C275" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B276" s="43"/>
+      <c r="C276" s="43"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="B277" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C277" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B278" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C278" s="43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="43" t="s">
+        <v>667</v>
+      </c>
+      <c r="B279" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C279" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="B271" s="43" t="s">
+      <c r="B280" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C271" s="43" t="b">
+      <c r="C280" s="43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="43" t="s">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="43" t="s">
         <v>630</v>
       </c>
-      <c r="B272" s="43" t="s">
+      <c r="B281" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C272" s="43" t="b">
+      <c r="C281" s="43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="43"/>
-      <c r="B273" s="43"/>
-      <c r="C273" s="43"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="43"/>
-      <c r="B274" s="43"/>
-      <c r="C274" s="43"/>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="43"/>
+      <c r="B282" s="43"/>
+      <c r="C282" s="43"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="43"/>
+      <c r="B283" s="43"/>
+      <c r="C283" s="43"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A126:C205">
-    <sortCondition ref="A126"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:C110">
+    <sortCondition ref="A69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13588,8 +13869,8 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16237,11 +16518,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35657444-F5E1-4936-AB00-D82A0F63E5F4}">
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:M247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17441,810 +17722,837 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="46" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D116" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D117" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="E117" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="F117" s="46" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="46" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D119" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" s="46" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I119" s="46" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D120" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="46" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G120" s="46" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H120" s="46" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D121" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="46" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G121" s="46" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H121" s="46" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D122" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="E122" s="46" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F122" s="48" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="46" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D123" s="48"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D124" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" s="46" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I124" s="46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D125" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F125" s="46" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I125" s="46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" s="48"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
         <v>143</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G131" t="s">
         <v>1096</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H131" t="s">
         <v>1088</v>
       </c>
-      <c r="I114" s="46"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
-      <c r="D115" s="46" t="s">
+      <c r="I131" s="46"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="48"/>
+      <c r="D132" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G115" s="46" t="s">
+      <c r="G132" s="46" t="s">
         <v>1129</v>
       </c>
-      <c r="H115" s="46" t="s">
+      <c r="H132" s="46" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
-      <c r="D116" s="46" t="s">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="48"/>
+      <c r="D133" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="E116" s="46" t="s">
+      <c r="E133" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="M116" s="46" t="b">
+      <c r="M133" s="46" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="46" t="s">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="77"/>
-      <c r="B118" s="46" t="s">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="60"/>
-      <c r="B119" s="46" t="s">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="77"/>
+      <c r="B136" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="60"/>
+      <c r="B137" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C119" s="46" t="s">
+      <c r="C137" s="46" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="46" t="s">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="46" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="60"/>
-      <c r="B121" s="46" t="s">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="60"/>
+      <c r="B139" s="46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64" t="s">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="64"/>
+      <c r="B140" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C122" s="64" t="s">
+      <c r="C140" s="64" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
-      <c r="B123" s="48" t="s">
-        <v>633</v>
-      </c>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="48"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="64"/>
-      <c r="B124" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" s="64"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
-      <c r="B125" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C125" s="46" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="62"/>
-      <c r="B126" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
-        <v>143</v>
-      </c>
-      <c r="G127" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H127" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I127" s="46"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
-      <c r="D128" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="G128" t="s">
-        <v>1131</v>
-      </c>
-      <c r="H128" t="s">
-        <v>1130</v>
-      </c>
-      <c r="J128" s="46" t="s">
-        <v>670</v>
-      </c>
-      <c r="K128" s="46" t="s">
-        <v>669</v>
-      </c>
-      <c r="L128" s="48" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="62"/>
-      <c r="B129" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
-      <c r="B130" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="46" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
-      <c r="B131" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
-      <c r="B132" s="43"/>
-      <c r="D132" t="s">
-        <v>143</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H132" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I132" s="46"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
-      <c r="B133" s="48"/>
-      <c r="D133" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="F133" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="G133" s="46" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H133" s="46" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
-      <c r="B134" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
-      <c r="B135" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C135" s="46" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
-      <c r="B136" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
-      <c r="D137" t="s">
-        <v>143</v>
-      </c>
-      <c r="G137" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H137" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I137" s="46"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
-      <c r="B138" s="48"/>
-      <c r="D138" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="G138" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="H138" s="46" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="48"/>
-      <c r="D139" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="G139" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="H139" s="46" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
-      <c r="B140" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="48"/>
       <c r="B141" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="C141" s="48"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="64"/>
+      <c r="B142" s="64" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
-      <c r="B142" s="48" t="s">
+      <c r="C142" s="64"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="61"/>
+      <c r="B143" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="62"/>
+      <c r="B144" s="46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="43"/>
-      <c r="B143" s="43"/>
-      <c r="D143" t="s">
+    <row r="145" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
         <v>143</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G145" t="s">
         <v>1096</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H145" t="s">
         <v>1088</v>
       </c>
-      <c r="I143" s="46"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
-      <c r="B144" s="48"/>
-      <c r="D144" s="46" t="s">
+      <c r="I145" s="46"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="48"/>
+      <c r="D146" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J146" s="46" t="s">
+        <v>670</v>
+      </c>
+      <c r="K146" s="46" t="s">
+        <v>669</v>
+      </c>
+      <c r="L146" s="48" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="62"/>
+      <c r="B147" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="53"/>
+      <c r="B148" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="46" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="48"/>
+      <c r="B149" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="D150" t="s">
+        <v>143</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I150" s="46"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="48"/>
+      <c r="B151" s="48"/>
+      <c r="D151" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E144" s="46" t="s">
+      <c r="E151" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="F151" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="G151" s="46" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H151" s="46" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="48"/>
+      <c r="B152" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="48"/>
+      <c r="B153" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C153" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="48"/>
+      <c r="B154" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="43"/>
+      <c r="B155" s="43"/>
+      <c r="D155" t="s">
+        <v>143</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I155" s="46"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="48"/>
+      <c r="B156" s="48"/>
+      <c r="D156" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G156" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="H156" s="46" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="48"/>
+      <c r="B157" s="48"/>
+      <c r="D157" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G157" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="H157" s="46" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="48"/>
+      <c r="B158" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="48"/>
+      <c r="B159" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="48"/>
+      <c r="B160" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="D161" t="s">
+        <v>143</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I161" s="46"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="48"/>
+      <c r="B162" s="48"/>
+      <c r="D162" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F144" s="46" t="s">
+      <c r="F162" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="G144" s="46" t="s">
+      <c r="G162" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="H144" s="46" t="s">
+      <c r="H162" s="46" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
-      <c r="B145" s="48" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="48"/>
+      <c r="B163" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C145" s="46" t="s">
+      <c r="C163" s="46" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
-      <c r="B146" s="48"/>
-      <c r="D146" s="46" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="48"/>
+      <c r="B164" s="48"/>
+      <c r="D164" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="46" t="s">
+      <c r="E164" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F146" s="46" t="s">
+      <c r="F164" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="G146" s="46" t="s">
+      <c r="G164" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="H146" s="46" t="s">
+      <c r="H164" s="46" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
-      <c r="B147" s="48" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="48"/>
+      <c r="B165" s="48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
-      <c r="B148" s="48" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="48"/>
+      <c r="B166" s="48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
-      <c r="B149" s="48" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="53"/>
+      <c r="B167" s="48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="61"/>
-      <c r="B150" s="61" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="61"/>
+      <c r="B168" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
-      <c r="B151" s="46" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="63"/>
+      <c r="B169" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C151" s="46" t="s">
+      <c r="C169" s="46" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="46" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
+    <row r="171" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
         <v>143</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G171" t="s">
         <v>1096</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H171" t="s">
         <v>1088</v>
       </c>
-      <c r="I153" s="46"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
-      <c r="D154" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E154" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F154" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="G154" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="H154" s="46" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
-        <v>143</v>
-      </c>
-      <c r="G157" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H157" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D158" t="s">
-        <v>72</v>
-      </c>
-      <c r="F158" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G158" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I158" s="46"/>
-    </row>
-    <row r="159" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1303</v>
-      </c>
-      <c r="I159" s="46"/>
-    </row>
-    <row r="160" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
-        <v>123</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1302</v>
-      </c>
-      <c r="I160" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>102</v>
-      </c>
-      <c r="I161" s="46"/>
-    </row>
-    <row r="162" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>87</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D163" t="s">
-        <v>123</v>
-      </c>
-      <c r="F163" t="s">
-        <v>623</v>
-      </c>
-      <c r="I163">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>47</v>
-      </c>
-      <c r="I165" s="46"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
-      <c r="B166" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="48"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F167"/>
+      <c r="I171" s="46"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="48"/>
-      <c r="B172" s="48"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48"/>
-      <c r="E172" s="48"/>
-      <c r="F172" s="48"/>
-      <c r="G172" s="48"/>
-      <c r="H172" s="48"/>
+      <c r="D172" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F172" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="G172" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="H172" s="46" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
-      <c r="B173" s="48"/>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48"/>
-      <c r="E173" s="48"/>
-      <c r="F173" s="48"/>
-      <c r="G173" s="48"/>
-      <c r="H173" s="48"/>
+      <c r="B173" s="46" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
-      <c r="B174" s="48"/>
-      <c r="C174" s="48"/>
-      <c r="D174" s="48"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="48"/>
-      <c r="G174" s="48"/>
-      <c r="H174" s="48"/>
+      <c r="B174" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" s="46" t="s">
+        <v>1516</v>
+      </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
-      <c r="B175" s="48"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48"/>
-      <c r="E175" s="48"/>
-      <c r="F175" s="48"/>
-      <c r="G175" s="48"/>
-      <c r="H175" s="48"/>
+      <c r="B175" s="48" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
-      <c r="B176" s="48"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48"/>
-      <c r="G176" s="48"/>
-      <c r="H176" s="48"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
-      <c r="B177" s="48"/>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="48"/>
-      <c r="F177" s="48"/>
-      <c r="G177" s="48"/>
-      <c r="H177" s="48"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="48"/>
-      <c r="B178" s="48"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
-      <c r="G178" s="48"/>
-      <c r="H178" s="48"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
-      <c r="B179" s="48"/>
-      <c r="C179" s="48"/>
-      <c r="D179" s="48"/>
-      <c r="E179" s="48"/>
-      <c r="F179" s="48"/>
-      <c r="G179" s="48"/>
-      <c r="H179" s="48"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="48"/>
-      <c r="B180" s="48"/>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="48"/>
-      <c r="G180" s="48"/>
-      <c r="H180" s="48"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
-      <c r="B181" s="48"/>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="48"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="48"/>
-      <c r="B182" s="48"/>
-      <c r="C182" s="48"/>
-      <c r="D182" s="48"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="48"/>
-      <c r="G182" s="48"/>
-      <c r="H182" s="48"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="48"/>
-      <c r="B183" s="48"/>
-      <c r="C183" s="48"/>
-      <c r="D183" s="48"/>
-      <c r="E183" s="48"/>
-      <c r="F183" s="48"/>
-      <c r="G183" s="48"/>
-      <c r="H183" s="48"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
-      <c r="B184" s="48"/>
-      <c r="C184" s="48"/>
-      <c r="D184" s="48"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="48"/>
-      <c r="G184" s="48"/>
-      <c r="H184" s="48"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
-      <c r="B185" s="48"/>
-      <c r="C185" s="48"/>
-      <c r="D185" s="48"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="48"/>
-      <c r="G185" s="48"/>
-      <c r="H185" s="48"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="48"/>
-      <c r="B186" s="48"/>
-      <c r="C186" s="48"/>
-      <c r="D186" s="48"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
-      <c r="G186" s="48"/>
-      <c r="H186" s="48"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="48"/>
-      <c r="B187" s="48"/>
-      <c r="C187" s="48"/>
-      <c r="D187" s="48"/>
-      <c r="E187" s="48"/>
-      <c r="F187" s="48"/>
-      <c r="G187" s="48"/>
-      <c r="H187" s="48"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
-      <c r="B188" s="48"/>
-      <c r="C188" s="48"/>
-      <c r="D188" s="48"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="48"/>
-      <c r="G188" s="48"/>
-      <c r="H188" s="48"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
-      <c r="B189" s="48"/>
-      <c r="C189" s="48"/>
-      <c r="D189" s="48"/>
-      <c r="E189" s="48"/>
-      <c r="F189" s="48"/>
-      <c r="G189" s="48"/>
-      <c r="H189" s="48"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
-      <c r="B190" s="48"/>
-      <c r="C190" s="48"/>
-      <c r="D190" s="48"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="48"/>
-      <c r="G190" s="48"/>
-      <c r="H190" s="48"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="48"/>
-      <c r="B191" s="48"/>
-      <c r="C191" s="48"/>
-      <c r="D191" s="48"/>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48"/>
-      <c r="G191" s="48"/>
-      <c r="H191" s="48"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="48"/>
-      <c r="B192" s="48"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="48"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="48"/>
-      <c r="H192" s="48"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="48"/>
-      <c r="B193" s="48"/>
-      <c r="C193" s="48"/>
-      <c r="D193" s="48"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="48"/>
-      <c r="H193" s="48"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
-      <c r="D194" s="48"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
-      <c r="G194" s="48"/>
-      <c r="H194" s="48"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
-      <c r="B195" s="48"/>
-      <c r="C195" s="48"/>
-      <c r="D195" s="48"/>
-      <c r="E195" s="48"/>
-      <c r="F195" s="48"/>
-      <c r="G195" s="48"/>
-      <c r="H195" s="48"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="48"/>
-      <c r="B196" s="48"/>
-      <c r="C196" s="48"/>
-      <c r="D196" s="48"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="48"/>
-      <c r="G196" s="48"/>
-      <c r="H196" s="48"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="48"/>
-      <c r="B197" s="48"/>
-      <c r="C197" s="48"/>
-      <c r="D197" s="48"/>
-      <c r="E197" s="48"/>
-      <c r="F197" s="48"/>
-      <c r="G197" s="48"/>
-      <c r="H197" s="48"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="48"/>
-      <c r="B198" s="48"/>
-      <c r="C198" s="48"/>
-      <c r="D198" s="48"/>
-      <c r="E198" s="48"/>
-      <c r="F198" s="48"/>
-      <c r="G198" s="48"/>
-      <c r="H198" s="48"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="48"/>
-      <c r="B199" s="48"/>
+      <c r="D176" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D177" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G177" t="s">
+        <v>966</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D178" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="F178" s="46" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G178" s="48" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H178" s="46" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C180" s="46" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D182" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D183" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E183" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F183" s="46" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G183" s="48" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H183" s="46" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D184" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E184" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F184" s="46" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G184" s="48" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H184" s="46" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D185" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E185" s="46" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F185" s="46" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G185" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H185" s="48" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="45"/>
+      <c r="B189" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>143</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>72</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I191" s="46"/>
+    </row>
+    <row r="192" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>87</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I192" s="46"/>
+    </row>
+    <row r="193" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>123</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I193" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>102</v>
+      </c>
+      <c r="I194" s="46"/>
+    </row>
+    <row r="195" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>123</v>
+      </c>
+      <c r="F196" t="s">
+        <v>623</v>
+      </c>
+      <c r="I196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="45"/>
+      <c r="B198" t="s">
+        <v>47</v>
+      </c>
+      <c r="I198" s="46"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="63"/>
+      <c r="B199" s="48" t="s">
+        <v>102</v>
+      </c>
       <c r="C199" s="48"/>
       <c r="D199" s="48"/>
       <c r="E199" s="48"/>
@@ -18252,57 +18560,10 @@
       <c r="G199" s="48"/>
       <c r="H199" s="48"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="48"/>
-      <c r="B200" s="48"/>
-      <c r="C200" s="48"/>
-      <c r="D200" s="48"/>
-      <c r="E200" s="48"/>
-      <c r="F200" s="48"/>
-      <c r="G200" s="48"/>
-      <c r="H200" s="48"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="48"/>
-      <c r="B201" s="48"/>
-      <c r="C201" s="48"/>
-      <c r="D201" s="48"/>
-      <c r="E201" s="48"/>
-      <c r="F201" s="48"/>
-      <c r="G201" s="48"/>
-      <c r="H201" s="48"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
-      <c r="B202" s="48"/>
-      <c r="C202" s="48"/>
-      <c r="D202" s="48"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="48"/>
-      <c r="G202" s="48"/>
-      <c r="H202" s="48"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="48"/>
-      <c r="B203" s="48"/>
-      <c r="C203" s="48"/>
-      <c r="D203" s="48"/>
-      <c r="E203" s="48"/>
-      <c r="F203" s="48"/>
-      <c r="G203" s="48"/>
-      <c r="H203" s="48"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="48"/>
-      <c r="B204" s="48"/>
-      <c r="C204" s="48"/>
-      <c r="D204" s="48"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="48"/>
-      <c r="G204" s="48"/>
-      <c r="H204" s="48"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F200"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="48"/>
       <c r="B205" s="48"/>
       <c r="C205" s="48"/>
@@ -18312,7 +18573,7 @@
       <c r="G205" s="48"/>
       <c r="H205" s="48"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="48"/>
       <c r="B206" s="48"/>
       <c r="C206" s="48"/>
@@ -18322,7 +18583,7 @@
       <c r="G206" s="48"/>
       <c r="H206" s="48"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="48"/>
       <c r="B207" s="48"/>
       <c r="C207" s="48"/>
@@ -18332,7 +18593,7 @@
       <c r="G207" s="48"/>
       <c r="H207" s="48"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="48"/>
       <c r="B208" s="48"/>
       <c r="C208" s="48"/>
@@ -18401,6 +18662,336 @@
       <c r="F214" s="48"/>
       <c r="G214" s="48"/>
       <c r="H214" s="48"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="48"/>
+      <c r="B215" s="48"/>
+      <c r="C215" s="48"/>
+      <c r="D215" s="48"/>
+      <c r="E215" s="48"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="48"/>
+      <c r="H215" s="48"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="48"/>
+      <c r="B216" s="48"/>
+      <c r="C216" s="48"/>
+      <c r="D216" s="48"/>
+      <c r="E216" s="48"/>
+      <c r="F216" s="48"/>
+      <c r="G216" s="48"/>
+      <c r="H216" s="48"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="48"/>
+      <c r="B217" s="48"/>
+      <c r="C217" s="48"/>
+      <c r="D217" s="48"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="48"/>
+      <c r="G217" s="48"/>
+      <c r="H217" s="48"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="48"/>
+      <c r="B218" s="48"/>
+      <c r="C218" s="48"/>
+      <c r="D218" s="48"/>
+      <c r="E218" s="48"/>
+      <c r="F218" s="48"/>
+      <c r="G218" s="48"/>
+      <c r="H218" s="48"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="48"/>
+      <c r="B219" s="48"/>
+      <c r="C219" s="48"/>
+      <c r="D219" s="48"/>
+      <c r="E219" s="48"/>
+      <c r="F219" s="48"/>
+      <c r="G219" s="48"/>
+      <c r="H219" s="48"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="48"/>
+      <c r="B220" s="48"/>
+      <c r="C220" s="48"/>
+      <c r="D220" s="48"/>
+      <c r="E220" s="48"/>
+      <c r="F220" s="48"/>
+      <c r="G220" s="48"/>
+      <c r="H220" s="48"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="48"/>
+      <c r="B221" s="48"/>
+      <c r="C221" s="48"/>
+      <c r="D221" s="48"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="48"/>
+      <c r="H221" s="48"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="48"/>
+      <c r="B222" s="48"/>
+      <c r="C222" s="48"/>
+      <c r="D222" s="48"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="48"/>
+      <c r="G222" s="48"/>
+      <c r="H222" s="48"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="48"/>
+      <c r="B223" s="48"/>
+      <c r="C223" s="48"/>
+      <c r="D223" s="48"/>
+      <c r="E223" s="48"/>
+      <c r="F223" s="48"/>
+      <c r="G223" s="48"/>
+      <c r="H223" s="48"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="48"/>
+      <c r="B224" s="48"/>
+      <c r="C224" s="48"/>
+      <c r="D224" s="48"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="48"/>
+      <c r="G224" s="48"/>
+      <c r="H224" s="48"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="48"/>
+      <c r="B225" s="48"/>
+      <c r="C225" s="48"/>
+      <c r="D225" s="48"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="48"/>
+      <c r="H225" s="48"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="48"/>
+      <c r="B226" s="48"/>
+      <c r="C226" s="48"/>
+      <c r="D226" s="48"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="48"/>
+      <c r="H226" s="48"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="48"/>
+      <c r="B227" s="48"/>
+      <c r="C227" s="48"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="48"/>
+      <c r="H227" s="48"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="48"/>
+      <c r="B228" s="48"/>
+      <c r="C228" s="48"/>
+      <c r="D228" s="48"/>
+      <c r="E228" s="48"/>
+      <c r="F228" s="48"/>
+      <c r="G228" s="48"/>
+      <c r="H228" s="48"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="48"/>
+      <c r="B229" s="48"/>
+      <c r="C229" s="48"/>
+      <c r="D229" s="48"/>
+      <c r="E229" s="48"/>
+      <c r="F229" s="48"/>
+      <c r="G229" s="48"/>
+      <c r="H229" s="48"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="48"/>
+      <c r="B230" s="48"/>
+      <c r="C230" s="48"/>
+      <c r="D230" s="48"/>
+      <c r="E230" s="48"/>
+      <c r="F230" s="48"/>
+      <c r="G230" s="48"/>
+      <c r="H230" s="48"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="48"/>
+      <c r="B231" s="48"/>
+      <c r="C231" s="48"/>
+      <c r="D231" s="48"/>
+      <c r="E231" s="48"/>
+      <c r="F231" s="48"/>
+      <c r="G231" s="48"/>
+      <c r="H231" s="48"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="48"/>
+      <c r="B232" s="48"/>
+      <c r="C232" s="48"/>
+      <c r="D232" s="48"/>
+      <c r="E232" s="48"/>
+      <c r="F232" s="48"/>
+      <c r="G232" s="48"/>
+      <c r="H232" s="48"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="48"/>
+      <c r="B233" s="48"/>
+      <c r="C233" s="48"/>
+      <c r="D233" s="48"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="48"/>
+      <c r="G233" s="48"/>
+      <c r="H233" s="48"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="48"/>
+      <c r="B234" s="48"/>
+      <c r="C234" s="48"/>
+      <c r="D234" s="48"/>
+      <c r="E234" s="48"/>
+      <c r="F234" s="48"/>
+      <c r="G234" s="48"/>
+      <c r="H234" s="48"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="48"/>
+      <c r="B235" s="48"/>
+      <c r="C235" s="48"/>
+      <c r="D235" s="48"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="48"/>
+      <c r="G235" s="48"/>
+      <c r="H235" s="48"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="48"/>
+      <c r="B236" s="48"/>
+      <c r="C236" s="48"/>
+      <c r="D236" s="48"/>
+      <c r="E236" s="48"/>
+      <c r="F236" s="48"/>
+      <c r="G236" s="48"/>
+      <c r="H236" s="48"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="48"/>
+      <c r="B237" s="48"/>
+      <c r="C237" s="48"/>
+      <c r="D237" s="48"/>
+      <c r="E237" s="48"/>
+      <c r="F237" s="48"/>
+      <c r="G237" s="48"/>
+      <c r="H237" s="48"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="48"/>
+      <c r="B238" s="48"/>
+      <c r="C238" s="48"/>
+      <c r="D238" s="48"/>
+      <c r="E238" s="48"/>
+      <c r="F238" s="48"/>
+      <c r="G238" s="48"/>
+      <c r="H238" s="48"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="48"/>
+      <c r="B239" s="48"/>
+      <c r="C239" s="48"/>
+      <c r="D239" s="48"/>
+      <c r="E239" s="48"/>
+      <c r="F239" s="48"/>
+      <c r="G239" s="48"/>
+      <c r="H239" s="48"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="48"/>
+      <c r="B240" s="48"/>
+      <c r="C240" s="48"/>
+      <c r="D240" s="48"/>
+      <c r="E240" s="48"/>
+      <c r="F240" s="48"/>
+      <c r="G240" s="48"/>
+      <c r="H240" s="48"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="48"/>
+      <c r="B241" s="48"/>
+      <c r="C241" s="48"/>
+      <c r="D241" s="48"/>
+      <c r="E241" s="48"/>
+      <c r="F241" s="48"/>
+      <c r="G241" s="48"/>
+      <c r="H241" s="48"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="48"/>
+      <c r="B242" s="48"/>
+      <c r="C242" s="48"/>
+      <c r="D242" s="48"/>
+      <c r="E242" s="48"/>
+      <c r="F242" s="48"/>
+      <c r="G242" s="48"/>
+      <c r="H242" s="48"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="48"/>
+      <c r="B243" s="48"/>
+      <c r="C243" s="48"/>
+      <c r="D243" s="48"/>
+      <c r="E243" s="48"/>
+      <c r="F243" s="48"/>
+      <c r="G243" s="48"/>
+      <c r="H243" s="48"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="48"/>
+      <c r="B244" s="48"/>
+      <c r="C244" s="48"/>
+      <c r="D244" s="48"/>
+      <c r="E244" s="48"/>
+      <c r="F244" s="48"/>
+      <c r="G244" s="48"/>
+      <c r="H244" s="48"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="48"/>
+      <c r="B245" s="48"/>
+      <c r="C245" s="48"/>
+      <c r="D245" s="48"/>
+      <c r="E245" s="48"/>
+      <c r="F245" s="48"/>
+      <c r="G245" s="48"/>
+      <c r="H245" s="48"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="48"/>
+      <c r="B246" s="48"/>
+      <c r="C246" s="48"/>
+      <c r="D246" s="48"/>
+      <c r="E246" s="48"/>
+      <c r="F246" s="48"/>
+      <c r="G246" s="48"/>
+      <c r="H246" s="48"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="48"/>
+      <c r="B247" s="48"/>
+      <c r="C247" s="48"/>
+      <c r="D247" s="48"/>
+      <c r="E247" s="48"/>
+      <c r="F247" s="48"/>
+      <c r="G247" s="48"/>
+      <c r="H247" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18412,7 +19003,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
@@ -19390,8 +19981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:L591"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A530" sqref="A530:XFD530"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
+++ b/app/config/tables/CRIANCA/forms/CRIANCA/CRIANCA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8339B7-6EED-4D91-8150-AB9AF6258DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B68FCD-68BA-4519-980A-71DDC35EFCBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -3717,9 +3717,6 @@
     <t>&lt;font color = "red"&gt;Sarampo 1 &lt;b&gt;{{calculates.displaySARAMPO1}}&lt;/b&gt;&lt;/font&gt;</t>
   </si>
   <si>
-    <t>A vacina sarampo 1não pode estar no futuro</t>
-  </si>
-  <si>
     <t>Yellow fever</t>
   </si>
   <si>
@@ -4747,6 +4744,9 @@
   </si>
   <si>
     <t>data('VISITTYPE') == 'move'</t>
+  </si>
+  <si>
+    <t>A vacina sarampo 1 não pode estar no futuro</t>
   </si>
 </sst>
 </file>
@@ -5554,9 +5554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F4833-88F1-44B1-8A75-76AFCBB7BC62}">
   <dimension ref="A1:L892"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A720" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L732" sqref="L732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5654,7 +5654,7 @@
         <v>1150</v>
       </c>
       <c r="J5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="K5" t="s">
         <v>886</v>
@@ -5741,7 +5741,7 @@
         <v>357</v>
       </c>
       <c r="J14" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="K14" t="s">
         <v>886</v>
@@ -5817,7 +5817,7 @@
         <v>1142</v>
       </c>
       <c r="J22" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K22" t="s">
         <v>1151</v>
@@ -5904,7 +5904,7 @@
         <v>366</v>
       </c>
       <c r="J31" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K31" t="s">
         <v>1151</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B39" t="s">
         <v>87</v>
@@ -5987,7 +5987,7 @@
         <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -6024,7 +6024,7 @@
         <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -6089,7 +6089,7 @@
         <v>1150</v>
       </c>
       <c r="J51" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="K51" t="s">
         <v>886</v>
@@ -6143,7 +6143,7 @@
         <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
         <v>357</v>
       </c>
       <c r="J64" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="K64" t="s">
         <v>886</v>
@@ -6281,7 +6281,7 @@
         <v>1142</v>
       </c>
       <c r="J72" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K72" t="s">
         <v>1151</v>
@@ -6335,7 +6335,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -6397,7 +6397,7 @@
         <v>366</v>
       </c>
       <c r="J85" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K85" t="s">
         <v>1151</v>
@@ -6504,7 +6504,7 @@
         <v>1152</v>
       </c>
       <c r="J97" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K97" t="s">
         <v>1154</v>
@@ -6591,7 +6591,7 @@
         <v>372</v>
       </c>
       <c r="J106" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K106" t="s">
         <v>1154</v>
@@ -6667,7 +6667,7 @@
         <v>1159</v>
       </c>
       <c r="J114" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K114" t="s">
         <v>1162</v>
@@ -6778,7 +6778,7 @@
         <v>377</v>
       </c>
       <c r="J126" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K126" t="s">
         <v>1162</v>
@@ -6854,7 +6854,7 @@
         <v>1164</v>
       </c>
       <c r="J134" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K134" t="s">
         <v>1167</v>
@@ -6965,7 +6965,7 @@
         <v>381</v>
       </c>
       <c r="J146" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K146" t="s">
         <v>1167</v>
@@ -7041,7 +7041,7 @@
         <v>1169</v>
       </c>
       <c r="J154" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K154" t="s">
         <v>1172</v>
@@ -7152,7 +7152,7 @@
         <v>385</v>
       </c>
       <c r="J166" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K166" t="s">
         <v>1172</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="78" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B174" t="s">
         <v>87</v>
@@ -7235,7 +7235,7 @@
         <v>87</v>
       </c>
       <c r="C176" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7272,7 +7272,7 @@
         <v>87</v>
       </c>
       <c r="C180" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7309,7 +7309,7 @@
         <v>87</v>
       </c>
       <c r="C184" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7346,7 +7346,7 @@
         <v>87</v>
       </c>
       <c r="C188" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -7411,7 +7411,7 @@
         <v>1152</v>
       </c>
       <c r="J194" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K194" t="s">
         <v>1154</v>
@@ -7527,7 +7527,7 @@
         <v>372</v>
       </c>
       <c r="J207" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K207" t="s">
         <v>1154</v>
@@ -7603,7 +7603,7 @@
         <v>1159</v>
       </c>
       <c r="J215" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K215" t="s">
         <v>1162</v>
@@ -7743,7 +7743,7 @@
         <v>377</v>
       </c>
       <c r="J231" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K231" t="s">
         <v>1162</v>
@@ -7819,7 +7819,7 @@
         <v>1164</v>
       </c>
       <c r="J239" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K239" t="s">
         <v>1167</v>
@@ -7959,7 +7959,7 @@
         <v>381</v>
       </c>
       <c r="J255" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K255" t="s">
         <v>1167</v>
@@ -8035,7 +8035,7 @@
         <v>1169</v>
       </c>
       <c r="J263" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K263" t="s">
         <v>1172</v>
@@ -8175,7 +8175,7 @@
         <v>385</v>
       </c>
       <c r="J279" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K279" t="s">
         <v>1172</v>
@@ -8282,7 +8282,7 @@
         <v>1182</v>
       </c>
       <c r="J291" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K291" t="s">
         <v>1174</v>
@@ -8369,7 +8369,7 @@
         <v>389</v>
       </c>
       <c r="J300" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K300" t="s">
         <v>1174</v>
@@ -8445,7 +8445,7 @@
         <v>1186</v>
       </c>
       <c r="J308" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K308" t="s">
         <v>1176</v>
@@ -8556,7 +8556,7 @@
         <v>394</v>
       </c>
       <c r="J320" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K320" t="s">
         <v>1176</v>
@@ -8632,7 +8632,7 @@
         <v>1189</v>
       </c>
       <c r="J328" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K328" t="s">
         <v>1178</v>
@@ -8743,7 +8743,7 @@
         <v>398</v>
       </c>
       <c r="J340" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K340" t="s">
         <v>1178</v>
@@ -8819,7 +8819,7 @@
         <v>1192</v>
       </c>
       <c r="J348" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K348" t="s">
         <v>1180</v>
@@ -8930,7 +8930,7 @@
         <v>402</v>
       </c>
       <c r="J360" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K360" t="s">
         <v>1180</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="24" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B368" t="s">
         <v>87</v>
@@ -9013,7 +9013,7 @@
         <v>87</v>
       </c>
       <c r="C370" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -9050,7 +9050,7 @@
         <v>87</v>
       </c>
       <c r="C374" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -9087,7 +9087,7 @@
         <v>87</v>
       </c>
       <c r="C378" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -9124,7 +9124,7 @@
         <v>87</v>
       </c>
       <c r="C382" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -9161,7 +9161,7 @@
         <v>87</v>
       </c>
       <c r="C386" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -9198,7 +9198,7 @@
         <v>87</v>
       </c>
       <c r="C390" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -9235,7 +9235,7 @@
         <v>87</v>
       </c>
       <c r="C394" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -9272,7 +9272,7 @@
         <v>87</v>
       </c>
       <c r="C398" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -9337,7 +9337,7 @@
         <v>1182</v>
       </c>
       <c r="J404" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K404" t="s">
         <v>1174</v>
@@ -9391,7 +9391,7 @@
         <v>87</v>
       </c>
       <c r="C410" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
@@ -9453,7 +9453,7 @@
         <v>389</v>
       </c>
       <c r="J417" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K417" t="s">
         <v>1174</v>
@@ -9529,7 +9529,7 @@
         <v>1186</v>
       </c>
       <c r="J425" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K425" t="s">
         <v>1176</v>
@@ -9607,7 +9607,7 @@
         <v>87</v>
       </c>
       <c r="C434" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="435" spans="2:12" x14ac:dyDescent="0.25">
@@ -9669,7 +9669,7 @@
         <v>394</v>
       </c>
       <c r="J441" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K441" t="s">
         <v>1176</v>
@@ -9745,7 +9745,7 @@
         <v>1189</v>
       </c>
       <c r="J449" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K449" t="s">
         <v>1178</v>
@@ -9823,7 +9823,7 @@
         <v>87</v>
       </c>
       <c r="C458" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="459" spans="2:12" x14ac:dyDescent="0.25">
@@ -9885,7 +9885,7 @@
         <v>398</v>
       </c>
       <c r="J465" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K465" t="s">
         <v>1178</v>
@@ -9961,7 +9961,7 @@
         <v>1192</v>
       </c>
       <c r="J473" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K473" t="s">
         <v>1180</v>
@@ -10039,7 +10039,7 @@
         <v>87</v>
       </c>
       <c r="C482" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="483" spans="2:12" x14ac:dyDescent="0.25">
@@ -10101,7 +10101,7 @@
         <v>402</v>
       </c>
       <c r="J489" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K489" t="s">
         <v>1180</v>
@@ -10208,7 +10208,7 @@
         <v>1195</v>
       </c>
       <c r="J501" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K501" t="s">
         <v>1205</v>
@@ -10295,7 +10295,7 @@
         <v>406</v>
       </c>
       <c r="J510" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K510" t="s">
         <v>1205</v>
@@ -10371,7 +10371,7 @@
         <v>1199</v>
       </c>
       <c r="J518" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="K518" t="s">
         <v>1207</v>
@@ -10482,7 +10482,7 @@
         <v>411</v>
       </c>
       <c r="J530" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="K530" t="s">
         <v>1207</v>
@@ -10558,7 +10558,7 @@
         <v>1202</v>
       </c>
       <c r="J538" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K538" t="s">
         <v>1209</v>
@@ -10669,7 +10669,7 @@
         <v>415</v>
       </c>
       <c r="J550" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K550" t="s">
         <v>1133</v>
@@ -10745,7 +10745,7 @@
         <v>419</v>
       </c>
       <c r="J558" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K558" t="s">
         <v>1134</v>
@@ -10856,7 +10856,7 @@
         <v>419</v>
       </c>
       <c r="J570" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K570" t="s">
         <v>1134</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="78" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B578" t="s">
         <v>87</v>
@@ -10939,7 +10939,7 @@
         <v>87</v>
       </c>
       <c r="C580" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -10976,7 +10976,7 @@
         <v>87</v>
       </c>
       <c r="C584" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
@@ -11013,7 +11013,7 @@
         <v>87</v>
       </c>
       <c r="C588" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
         <v>87</v>
       </c>
       <c r="C592" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
@@ -11087,7 +11087,7 @@
         <v>87</v>
       </c>
       <c r="C596" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
@@ -11124,7 +11124,7 @@
         <v>87</v>
       </c>
       <c r="C600" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
@@ -11161,7 +11161,7 @@
         <v>87</v>
       </c>
       <c r="C604" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
@@ -11198,7 +11198,7 @@
         <v>87</v>
       </c>
       <c r="C608" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
@@ -11235,7 +11235,7 @@
         <v>87</v>
       </c>
       <c r="C612" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
@@ -11272,7 +11272,7 @@
         <v>87</v>
       </c>
       <c r="C616" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
@@ -11337,7 +11337,7 @@
         <v>1195</v>
       </c>
       <c r="J622" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K622" t="s">
         <v>1205</v>
@@ -11391,7 +11391,7 @@
         <v>87</v>
       </c>
       <c r="C628" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="629" spans="2:12" x14ac:dyDescent="0.25">
@@ -11453,7 +11453,7 @@
         <v>406</v>
       </c>
       <c r="J635" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K635" t="s">
         <v>1205</v>
@@ -11529,7 +11529,7 @@
         <v>1199</v>
       </c>
       <c r="J643" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="K643" t="s">
         <v>1207</v>
@@ -11607,7 +11607,7 @@
         <v>87</v>
       </c>
       <c r="C652" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="653" spans="2:12" x14ac:dyDescent="0.25">
@@ -11669,7 +11669,7 @@
         <v>411</v>
       </c>
       <c r="J659" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="K659" t="s">
         <v>1207</v>
@@ -11745,7 +11745,7 @@
         <v>1202</v>
       </c>
       <c r="J667" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K667" t="s">
         <v>1209</v>
@@ -11823,7 +11823,7 @@
         <v>87</v>
       </c>
       <c r="C676" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="677" spans="2:12" x14ac:dyDescent="0.25">
@@ -11885,7 +11885,7 @@
         <v>415</v>
       </c>
       <c r="J683" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K683" t="s">
         <v>1133</v>
@@ -11961,7 +11961,7 @@
         <v>419</v>
       </c>
       <c r="J691" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K691" t="s">
         <v>1134</v>
@@ -12039,7 +12039,7 @@
         <v>87</v>
       </c>
       <c r="C700" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="701" spans="2:12" x14ac:dyDescent="0.25">
@@ -12101,7 +12101,7 @@
         <v>419</v>
       </c>
       <c r="J707" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K707" t="s">
         <v>1134</v>
@@ -12202,19 +12202,19 @@
         <v>423</v>
       </c>
       <c r="G719" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H719" t="s">
         <v>1214</v>
       </c>
       <c r="J719" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K719" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L719" t="s">
-        <v>1217</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.25">
@@ -12270,7 +12270,7 @@
         <v>143</v>
       </c>
       <c r="G726" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H726" t="s">
         <v>1215</v>
@@ -12286,7 +12286,7 @@
         <v>143</v>
       </c>
       <c r="G728" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H728" t="s">
         <v>1216</v>
@@ -12324,13 +12324,13 @@
         <v>423</v>
       </c>
       <c r="J732" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K732" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L732" t="s">
-        <v>1217</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="733" spans="2:12" x14ac:dyDescent="0.25">
@@ -12394,19 +12394,19 @@
         <v>428</v>
       </c>
       <c r="G740" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H740" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J740" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K740" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L740" t="s">
         <v>1226</v>
-      </c>
-      <c r="J740" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K740" t="s">
-        <v>1225</v>
-      </c>
-      <c r="L740" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="741" spans="2:12" x14ac:dyDescent="0.25">
@@ -12462,10 +12462,10 @@
         <v>143</v>
       </c>
       <c r="G747" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H747" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="748" spans="2:12" x14ac:dyDescent="0.25">
@@ -12478,10 +12478,10 @@
         <v>143</v>
       </c>
       <c r="G749" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H749" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="750" spans="2:12" x14ac:dyDescent="0.25">
@@ -12516,13 +12516,13 @@
         <v>428</v>
       </c>
       <c r="J753" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K753" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L753" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.25">
@@ -12578,7 +12578,7 @@
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A761" s="24" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B761" t="s">
         <v>87</v>
@@ -12599,7 +12599,7 @@
         <v>87</v>
       </c>
       <c r="C763" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.25">
@@ -12636,7 +12636,7 @@
         <v>87</v>
       </c>
       <c r="C767" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.25">
@@ -12673,7 +12673,7 @@
         <v>87</v>
       </c>
       <c r="C771" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D771" s="43"/>
       <c r="E771" s="43"/>
@@ -12714,7 +12714,7 @@
         <v>87</v>
       </c>
       <c r="C775" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.25">
@@ -12773,19 +12773,19 @@
         <v>423</v>
       </c>
       <c r="G781" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H781" t="s">
         <v>1214</v>
       </c>
       <c r="J781" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K781" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L781" t="s">
-        <v>1217</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.25">
@@ -12833,7 +12833,7 @@
         <v>87</v>
       </c>
       <c r="C787" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="788" spans="2:12" x14ac:dyDescent="0.25">
@@ -12841,7 +12841,7 @@
         <v>143</v>
       </c>
       <c r="G788" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H788" t="s">
         <v>1215</v>
@@ -12857,7 +12857,7 @@
         <v>143</v>
       </c>
       <c r="G790" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H790" t="s">
         <v>1216</v>
@@ -12895,13 +12895,13 @@
         <v>423</v>
       </c>
       <c r="J794" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K794" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L794" t="s">
-        <v>1217</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="795" spans="2:12" x14ac:dyDescent="0.25">
@@ -12965,19 +12965,19 @@
         <v>428</v>
       </c>
       <c r="G802" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H802" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J802" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K802" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L802" t="s">
         <v>1226</v>
-      </c>
-      <c r="J802" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K802" t="s">
-        <v>1225</v>
-      </c>
-      <c r="L802" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="803" spans="2:12" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
         <v>87</v>
       </c>
       <c r="C808" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="809" spans="2:12" x14ac:dyDescent="0.25">
@@ -13033,10 +13033,10 @@
         <v>143</v>
       </c>
       <c r="G809" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H809" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="810" spans="2:12" x14ac:dyDescent="0.25">
@@ -13049,10 +13049,10 @@
         <v>143</v>
       </c>
       <c r="G811" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H811" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="812" spans="2:12" x14ac:dyDescent="0.25">
@@ -13087,13 +13087,13 @@
         <v>428</v>
       </c>
       <c r="J815" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K815" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L815" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="816" spans="2:12" x14ac:dyDescent="0.25">
@@ -13177,13 +13177,13 @@
         <v>578</v>
       </c>
       <c r="F826" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G826" t="s">
         <v>1412</v>
       </c>
-      <c r="G826" t="s">
+      <c r="H826" t="s">
         <v>1413</v>
-      </c>
-      <c r="H826" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="827" spans="1:9" x14ac:dyDescent="0.25">
@@ -13196,7 +13196,7 @@
         <v>87</v>
       </c>
       <c r="C828" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.25">
@@ -13220,13 +13220,13 @@
         <v>117</v>
       </c>
       <c r="F831" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G831" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H831" t="s">
         <v>1416</v>
-      </c>
-      <c r="H831" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.25">
@@ -13234,13 +13234,13 @@
         <v>72</v>
       </c>
       <c r="F832" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G832" t="s">
         <v>1419</v>
       </c>
-      <c r="G832" t="s">
+      <c r="H832" t="s">
         <v>1420</v>
-      </c>
-      <c r="H832" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="833" spans="2:8" x14ac:dyDescent="0.25">
@@ -13255,7 +13255,7 @@
     </row>
     <row r="835" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B835" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="836" spans="2:8" x14ac:dyDescent="0.25">
@@ -13287,13 +13287,13 @@
         <v>578</v>
       </c>
       <c r="F839" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G839" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H839" t="s">
         <v>1413</v>
-      </c>
-      <c r="H839" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="840" spans="2:8" x14ac:dyDescent="0.25">
@@ -13306,7 +13306,7 @@
         <v>87</v>
       </c>
       <c r="C841" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="842" spans="2:8" x14ac:dyDescent="0.25">
@@ -13330,13 +13330,13 @@
         <v>117</v>
       </c>
       <c r="F844" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G844" t="s">
         <v>1425</v>
       </c>
-      <c r="G844" t="s">
+      <c r="H844" t="s">
         <v>1426</v>
-      </c>
-      <c r="H844" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="845" spans="2:8" x14ac:dyDescent="0.25">
@@ -13344,13 +13344,13 @@
         <v>72</v>
       </c>
       <c r="F845" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G845" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H845" t="s">
         <v>1420</v>
-      </c>
-      <c r="H845" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="846" spans="2:8" x14ac:dyDescent="0.25">
@@ -13365,7 +13365,7 @@
     </row>
     <row r="848" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B848" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="849" spans="2:8" x14ac:dyDescent="0.25">
@@ -13397,13 +13397,13 @@
         <v>578</v>
       </c>
       <c r="F852" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G852" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H852" t="s">
         <v>1413</v>
-      </c>
-      <c r="H852" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="853" spans="2:8" x14ac:dyDescent="0.25">
@@ -13416,7 +13416,7 @@
         <v>87</v>
       </c>
       <c r="C854" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="855" spans="2:8" x14ac:dyDescent="0.25">
@@ -13440,13 +13440,13 @@
         <v>117</v>
       </c>
       <c r="F857" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G857" t="s">
         <v>1431</v>
       </c>
-      <c r="G857" t="s">
+      <c r="H857" t="s">
         <v>1432</v>
-      </c>
-      <c r="H857" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="858" spans="2:8" x14ac:dyDescent="0.25">
@@ -13454,13 +13454,13 @@
         <v>72</v>
       </c>
       <c r="F858" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G858" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H858" t="s">
         <v>1420</v>
-      </c>
-      <c r="H858" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="859" spans="2:8" x14ac:dyDescent="0.25">
@@ -13475,7 +13475,7 @@
     </row>
     <row r="861" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B861" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="862" spans="2:8" x14ac:dyDescent="0.25">
@@ -13507,13 +13507,13 @@
         <v>578</v>
       </c>
       <c r="F865" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G865" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H865" t="s">
         <v>1413</v>
-      </c>
-      <c r="H865" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="866" spans="2:8" x14ac:dyDescent="0.25">
@@ -13526,7 +13526,7 @@
         <v>87</v>
       </c>
       <c r="C867" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="868" spans="2:8" x14ac:dyDescent="0.25">
@@ -13550,13 +13550,13 @@
         <v>117</v>
       </c>
       <c r="F870" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G870" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H870" t="s">
         <v>1437</v>
-      </c>
-      <c r="H870" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="871" spans="2:8" x14ac:dyDescent="0.25">
@@ -13564,13 +13564,13 @@
         <v>72</v>
       </c>
       <c r="F871" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G871" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H871" t="s">
         <v>1420</v>
-      </c>
-      <c r="H871" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="872" spans="2:8" x14ac:dyDescent="0.25">
@@ -13585,7 +13585,7 @@
     </row>
     <row r="874" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B874" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="875" spans="2:8" x14ac:dyDescent="0.25">
@@ -13617,13 +13617,13 @@
         <v>578</v>
       </c>
       <c r="F878" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G878" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H878" t="s">
         <v>1413</v>
-      </c>
-      <c r="H878" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="879" spans="2:8" x14ac:dyDescent="0.25">
@@ -13636,7 +13636,7 @@
         <v>87</v>
       </c>
       <c r="C880" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.25">
@@ -13660,13 +13660,13 @@
         <v>117</v>
       </c>
       <c r="F883" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G883" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H883" t="s">
         <v>1443</v>
-      </c>
-      <c r="H883" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.25">
@@ -13674,13 +13674,13 @@
         <v>72</v>
       </c>
       <c r="F884" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G884" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H884" t="s">
         <v>1420</v>
-      </c>
-      <c r="H884" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.25">
@@ -13695,7 +13695,7 @@
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B887" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.25">
@@ -14144,7 +14144,7 @@
         <v>742</v>
       </c>
       <c r="J29" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K29" t="s">
         <v>1136</v>
@@ -14207,7 +14207,7 @@
         <v>742</v>
       </c>
       <c r="J34" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="K34" t="s">
         <v>1136</v>
@@ -15885,7 +15885,7 @@
         <v>674</v>
       </c>
       <c r="B22" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -15893,7 +15893,7 @@
         <v>675</v>
       </c>
       <c r="B23" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -15901,7 +15901,7 @@
         <v>676</v>
       </c>
       <c r="B24" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -15909,7 +15909,7 @@
         <v>677</v>
       </c>
       <c r="B25" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -15917,7 +15917,7 @@
         <v>678</v>
       </c>
       <c r="B26" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -15925,7 +15925,7 @@
         <v>679</v>
       </c>
       <c r="B27" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -15933,7 +15933,7 @@
         <v>680</v>
       </c>
       <c r="B28" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -15941,7 +15941,7 @@
         <v>681</v>
       </c>
       <c r="B29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -15949,7 +15949,7 @@
         <v>682</v>
       </c>
       <c r="B30" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -15957,7 +15957,7 @@
         <v>683</v>
       </c>
       <c r="B31" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -15965,7 +15965,7 @@
         <v>684</v>
       </c>
       <c r="B32" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -15973,7 +15973,7 @@
         <v>685</v>
       </c>
       <c r="B33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -15981,7 +15981,7 @@
         <v>686</v>
       </c>
       <c r="B34" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -15989,7 +15989,7 @@
         <v>687</v>
       </c>
       <c r="B35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -15997,7 +15997,7 @@
         <v>688</v>
       </c>
       <c r="B36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -16005,7 +16005,7 @@
         <v>690</v>
       </c>
       <c r="B37" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -16013,7 +16013,7 @@
         <v>691</v>
       </c>
       <c r="B38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -16021,7 +16021,7 @@
         <v>692</v>
       </c>
       <c r="B39" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -16029,7 +16029,7 @@
         <v>693</v>
       </c>
       <c r="B40" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -16037,7 +16037,7 @@
         <v>694</v>
       </c>
       <c r="B41" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -16045,7 +16045,7 @@
         <v>695</v>
       </c>
       <c r="B42" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -16053,7 +16053,7 @@
         <v>696</v>
       </c>
       <c r="B43" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -16061,7 +16061,7 @@
         <v>697</v>
       </c>
       <c r="B44" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -16069,7 +16069,7 @@
         <v>698</v>
       </c>
       <c r="B45" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -16077,7 +16077,7 @@
         <v>699</v>
       </c>
       <c r="B46" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -16085,7 +16085,7 @@
         <v>973</v>
       </c>
       <c r="B47" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -16093,7 +16093,7 @@
         <v>788</v>
       </c>
       <c r="B48" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -16109,7 +16109,7 @@
         <v>790</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -16117,7 +16117,7 @@
         <v>791</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -16125,7 +16125,7 @@
         <v>792</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -16133,7 +16133,7 @@
         <v>793</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -16141,7 +16141,7 @@
         <v>794</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -16149,7 +16149,7 @@
         <v>795</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -16157,7 +16157,7 @@
         <v>796</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -16165,7 +16165,7 @@
         <v>797</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -16173,7 +16173,7 @@
         <v>798</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -16181,7 +16181,7 @@
         <v>799</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -16189,7 +16189,7 @@
         <v>800</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -16197,7 +16197,7 @@
         <v>801</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -16205,7 +16205,7 @@
         <v>802</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -16213,7 +16213,7 @@
         <v>803</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -16221,7 +16221,7 @@
         <v>804</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -16229,7 +16229,7 @@
         <v>805</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -16237,7 +16237,7 @@
         <v>806</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -16245,7 +16245,7 @@
         <v>807</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -16253,7 +16253,7 @@
         <v>808</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -16261,7 +16261,7 @@
         <v>809</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -16269,7 +16269,7 @@
         <v>810</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -16277,7 +16277,7 @@
         <v>811</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -16285,7 +16285,7 @@
         <v>812</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -16293,7 +16293,7 @@
         <v>813</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -16301,7 +16301,7 @@
         <v>814</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -16309,7 +16309,7 @@
         <v>972</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -16317,7 +16317,7 @@
         <v>815</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
   </sheetData>
@@ -16468,7 +16468,7 @@
         <v>166</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -17046,10 +17046,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E45" s="51"/>
     </row>
@@ -17681,10 +17681,10 @@
         <v>D:NS,M:NS,Y:NS</v>
       </c>
       <c r="C86" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D86" t="s">
         <v>1466</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -17719,23 +17719,23 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B89" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C89" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D89" t="s">
         <v>1329</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1330</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B90" t="str">
         <f>"99"</f>
@@ -17751,87 +17751,87 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B91" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C91" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D91" t="s">
         <v>1462</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1463</v>
       </c>
       <c r="E91" s="48"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B92" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D92" t="s">
         <v>1371</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1372</v>
       </c>
       <c r="E92" s="48"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B93" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C93" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D93" t="s">
         <v>1373</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1374</v>
       </c>
       <c r="E93" s="48"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B94" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C94" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D94" t="s">
         <v>1375</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1376</v>
       </c>
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B95" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C95" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D95" t="s">
         <v>1377</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1378</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B96" t="str">
         <f>"9"</f>
@@ -17847,52 +17847,52 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B97" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D97" t="s">
         <v>1379</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B98" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D98" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B99" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C99" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D99" t="s">
         <v>1382</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B100" t="str">
         <f>"9"</f>
@@ -17907,22 +17907,22 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="46" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B101" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C101" s="43" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D101" s="43" t="s">
         <v>1480</v>
-      </c>
-      <c r="D101" s="43" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B102" t="str">
         <f>"2"</f>
@@ -17937,7 +17937,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B103" t="str">
         <f>"3"</f>
@@ -17947,7 +17947,7 @@
         <v>167</v>
       </c>
       <c r="D103" s="43" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
   </sheetData>
@@ -18224,24 +18224,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1311</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B2" t="s">
         <v>1313</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1314</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1315</v>
       </c>
     </row>
   </sheetData>
@@ -18531,7 +18531,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
@@ -18817,7 +18817,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B51" t="s">
         <v>318</v>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B52" t="s">
         <v>117</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B53" t="s">
         <v>318</v>
@@ -18850,7 +18850,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B54" t="s">
         <v>117</v>
@@ -18861,7 +18861,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B55" t="s">
         <v>318</v>
@@ -18872,7 +18872,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
@@ -18883,7 +18883,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B57" t="s">
         <v>318</v>
@@ -18908,7 +18908,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -18922,7 +18922,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -18933,7 +18933,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -18944,7 +18944,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -18955,7 +18955,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B64" t="s">
         <v>117</v>
@@ -18966,7 +18966,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -18988,7 +18988,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -19008,12 +19008,12 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -19024,7 +19024,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -19035,7 +19035,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
@@ -19057,7 +19057,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -19068,7 +19068,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B76" t="s">
         <v>123</v>
@@ -19104,7 +19104,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="46" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B79" s="48" t="s">
         <v>50</v>
@@ -19115,7 +19115,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B80" s="48" t="s">
         <v>50</v>
@@ -19126,7 +19126,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="46" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B81" s="48" t="s">
         <v>50</v>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="46" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B82" s="46" t="s">
         <v>22</v>
@@ -19286,7 +19286,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B95" s="46" t="s">
         <v>117</v>
@@ -19297,7 +19297,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B96" s="48" t="s">
         <v>25</v>
@@ -19308,7 +19308,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B97" s="48" t="s">
         <v>318</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="46" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B98" s="48" t="s">
         <v>25</v>
@@ -19330,7 +19330,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="46" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B99" s="46" t="s">
         <v>318</v>
@@ -19451,7 +19451,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B110" s="48" t="s">
         <v>25</v>
@@ -19820,7 +19820,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B144" t="s">
         <v>22</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B145" t="s">
         <v>22</v>
@@ -19845,7 +19845,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
@@ -19856,7 +19856,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B147" t="s">
         <v>22</v>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B148" t="s">
         <v>22</v>
@@ -20610,7 +20610,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B211" t="s">
         <v>117</v>
@@ -20621,7 +20621,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B212" t="s">
         <v>72</v>
@@ -20632,7 +20632,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B213" t="s">
         <v>117</v>
@@ -20643,7 +20643,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B214" t="s">
         <v>72</v>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B215" t="s">
         <v>117</v>
@@ -20665,7 +20665,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B216" t="s">
         <v>72</v>
@@ -20676,7 +20676,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B217" t="s">
         <v>117</v>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B218" t="s">
         <v>72</v>
@@ -20698,7 +20698,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B219" t="s">
         <v>117</v>
@@ -20709,7 +20709,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B220" t="s">
         <v>72</v>
@@ -21657,12 +21657,12 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -21879,7 +21879,7 @@
         <v>953</v>
       </c>
       <c r="H15" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I15" s="46"/>
     </row>
@@ -22015,10 +22015,10 @@
         <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H26" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I26" s="46"/>
     </row>
@@ -22207,7 +22207,7 @@
         <v>953</v>
       </c>
       <c r="H44" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I44" s="46"/>
     </row>
@@ -22898,10 +22898,10 @@
         <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H47" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I47" s="46"/>
     </row>
@@ -23068,12 +23068,12 @@
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -23087,7 +23087,7 @@
         <v>87</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -23354,13 +23354,13 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G20" t="s">
         <v>1386</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>1387</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -23445,7 +23445,7 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -23469,10 +23469,10 @@
         <v>143</v>
       </c>
       <c r="G32" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H32" t="s">
         <v>1390</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -23480,13 +23480,13 @@
         <v>117</v>
       </c>
       <c r="F33" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G33" t="s">
         <v>1392</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>1393</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -23497,7 +23497,7 @@
         <v>359</v>
       </c>
       <c r="F34" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -23505,7 +23505,7 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -23513,7 +23513,7 @@
         <v>123</v>
       </c>
       <c r="F36" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I36" t="s">
         <v>362</v>
@@ -23529,13 +23529,13 @@
         <v>117</v>
       </c>
       <c r="F38" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G38" t="s">
         <v>1397</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>1398</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -23546,7 +23546,7 @@
         <v>359</v>
       </c>
       <c r="F39" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -23554,7 +23554,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -23562,7 +23562,7 @@
         <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I41" t="s">
         <v>362</v>
@@ -23578,13 +23578,13 @@
         <v>117</v>
       </c>
       <c r="F43" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G43" t="s">
         <v>1402</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>1403</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -23595,7 +23595,7 @@
         <v>359</v>
       </c>
       <c r="F44" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -23603,7 +23603,7 @@
         <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -23611,7 +23611,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I46" t="s">
         <v>362</v>
@@ -23627,13 +23627,13 @@
         <v>117</v>
       </c>
       <c r="F48" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G48" t="s">
         <v>1407</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>1408</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -23644,7 +23644,7 @@
         <v>359</v>
       </c>
       <c r="F49" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -23652,7 +23652,7 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -23660,7 +23660,7 @@
         <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I51" t="s">
         <v>362</v>
@@ -23752,10 +23752,10 @@
         <v>136</v>
       </c>
       <c r="G61" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H61" s="50" t="s">
         <v>1384</v>
-      </c>
-      <c r="H61" s="50" t="s">
-        <v>1385</v>
       </c>
       <c r="I61" s="46"/>
     </row>
@@ -23815,7 +23815,7 @@
         <v>318</v>
       </c>
       <c r="E67" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F67" t="s">
         <v>819</v>
@@ -23826,7 +23826,7 @@
         <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -23837,7 +23837,7 @@
         <v>145</v>
       </c>
       <c r="I69" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -23850,7 +23850,7 @@
         <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -23861,7 +23861,7 @@
         <v>145</v>
       </c>
       <c r="I72" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -23955,7 +23955,7 @@
         <v>318</v>
       </c>
       <c r="E82" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F82" t="s">
         <v>820</v>
@@ -23966,7 +23966,7 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -23977,7 +23977,7 @@
         <v>152</v>
       </c>
       <c r="I84" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -23990,7 +23990,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -24001,7 +24001,7 @@
         <v>152</v>
       </c>
       <c r="I87" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -24095,7 +24095,7 @@
         <v>318</v>
       </c>
       <c r="E97" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F97" t="s">
         <v>821</v>
@@ -24106,7 +24106,7 @@
         <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -24117,7 +24117,7 @@
         <v>154</v>
       </c>
       <c r="I99" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -24130,7 +24130,7 @@
         <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -24141,7 +24141,7 @@
         <v>154</v>
       </c>
       <c r="I102" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -24621,12 +24621,12 @@
         <v>87</v>
       </c>
       <c r="C149" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -24697,7 +24697,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -24710,10 +24710,10 @@
         <v>143</v>
       </c>
       <c r="G3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H3" t="s">
         <v>1349</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -24721,16 +24721,16 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G4" t="s">
         <v>1351</v>
       </c>
-      <c r="F4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>1352</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -24738,16 +24738,16 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G5" t="s">
         <v>1354</v>
       </c>
-      <c r="F5" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>1355</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -24765,10 +24765,10 @@
         <v>143</v>
       </c>
       <c r="G8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H8" t="s">
         <v>1349</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -24779,13 +24779,13 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H9" t="s">
         <v>1357</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -24796,13 +24796,13 @@
         <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H10" t="s">
         <v>1359</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -24820,10 +24820,10 @@
         <v>143</v>
       </c>
       <c r="G13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H13" t="s">
         <v>1349</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -24834,13 +24834,13 @@
         <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G14" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H14" t="s">
         <v>1361</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -24848,16 +24848,16 @@
         <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G15" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H15" t="s">
         <v>1363</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>1364</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -24875,10 +24875,10 @@
         <v>143</v>
       </c>
       <c r="G18" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H18" t="s">
         <v>1349</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -24886,13 +24886,13 @@
         <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G19" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H19" t="s">
         <v>1366</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -24900,10 +24900,10 @@
         <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I20" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -24925,7 +24925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC340D6-1B78-4739-B457-F02D66D016E5}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
@@ -24990,7 +24990,7 @@
         <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -24998,7 +24998,7 @@
         <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -25006,7 +25006,7 @@
         <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -25014,7 +25014,7 @@
         <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -25022,7 +25022,7 @@
         <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -25030,7 +25030,7 @@
         <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -25041,10 +25041,10 @@
         <v>578</v>
       </c>
       <c r="F9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G9" t="s">
         <v>1533</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -25057,7 +25057,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -25070,7 +25070,7 @@
         <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -25078,7 +25078,7 @@
         <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -25086,7 +25086,7 @@
         <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -25094,7 +25094,7 @@
         <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -25102,7 +25102,7 @@
         <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -25113,13 +25113,13 @@
         <v>578</v>
       </c>
       <c r="F18" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G18" t="s">
         <v>1539</v>
       </c>
-      <c r="G18" t="s">
-        <v>1540</v>
-      </c>
       <c r="I18" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -25128,10 +25128,10 @@
       </c>
       <c r="E19" s="43"/>
       <c r="F19" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G19" t="s">
         <v>1558</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -25144,7 +25144,7 @@
         <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -25157,7 +25157,7 @@
         <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -25165,10 +25165,10 @@
         <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G24" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -25176,10 +25176,10 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G25" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -25187,10 +25187,10 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G26" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -25198,10 +25198,10 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G27" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -25227,7 +25227,7 @@
         <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -25238,7 +25238,7 @@
         <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -25249,7 +25249,7 @@
         <v>68</v>
       </c>
       <c r="I33" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -25260,7 +25260,7 @@
         <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -25271,7 +25271,7 @@
         <v>115</v>
       </c>
       <c r="I35" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -25279,7 +25279,7 @@
         <v>143</v>
       </c>
       <c r="G36" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -25287,7 +25287,7 @@
         <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -25395,7 +25395,7 @@
         <v>249</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -25656,7 +25656,7 @@
         <v>257</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K28" s="46" t="s">
         <v>1139</v>
@@ -25926,7 +25926,7 @@
         <v>705</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K55" s="46" t="s">
         <v>962</v>
@@ -26047,7 +26047,7 @@
         <v>275</v>
       </c>
       <c r="H67" s="46" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -26074,7 +26074,7 @@
         <v>707</v>
       </c>
       <c r="J69" s="46" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K69" s="46" t="s">
         <v>963</v>
@@ -26187,7 +26187,7 @@
         <v>280</v>
       </c>
       <c r="H80" s="46" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -26390,7 +26390,7 @@
         <v>713</v>
       </c>
       <c r="J97" s="46" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K97" s="46" t="s">
         <v>964</v>
@@ -26541,7 +26541,7 @@
         <v>87</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -26562,13 +26562,13 @@
         <v>117</v>
       </c>
       <c r="F116" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G116" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H116" t="s">
         <v>1464</v>
-      </c>
-      <c r="H116" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@